--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,7 +529,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQ4T6V_AAuu/#advertiser</t>
+          <t>https://www.instagram.com/p/DQ4T6V_AAuu/</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -553,7 +553,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DQ4T6V_AAuu/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DQ4T6V_AAuu/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247221154110296/?dco_ad_token=AaqJ8z2f3GnDAp4tQmYKKFNmaiee4fKcT8uqDb-0XbzzioMYq8iFEQsm6fwZee1LJXfLApto8Mq-E1mH&amp;dco_ad_id=120237892963330295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1247221154110296/</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -613,30 +613,16 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247221204110291/?dco_ad_token=Aapi5LUYJ66YPQtu8wCCqkj_NloXf31eqWUiqiNv-aQgbUB6ZV_PI2U2iAxb-IJOiGLoqwPH-Vd58J4Z&amp;dco_ad_id=120237893494860295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1247221204110291/</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Simplemente delicioso 😋</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>45978.77568287037</v>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>45978</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>18:36:59</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -647,17 +633,17 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/', 'commentUrl': 'https://www.facebook.com/reel/1160900212791255/?comment_id=3581619395311537', 'id': 'Y29tbWVudDoxMjQ3MjIxOTY0MTEwMjE1XzM1ODE2MTkzOTUzMTE1Mzc=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NzIyMTk2NDExMDIxNV8zNTgxNjE5Mzk1MzExNTM3', 'date': '2025-11-17T18:36:59.000Z', 'text': 'Simplemente delicioso 😋', 'profileUrl': 'https://www.facebook.com/alison.aguilera.399', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/464476328_1769113793628665_9067140632797917181_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=nt05uwe5fHkQ7kNvwG1X7KC&amp;_nc_oc=AdkIt4B4c7fzHlIQ9__vsNnfjzgENTBkGWTWL90Dl7l5DqLhJ6Ms0eyuGTcTDJFlAfk&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=04byaCqXSEvB-MLanPwzaw&amp;oh=00_Afhz-n50UJAxxveAyRuYMpRX4Ud8OJHrEpSFuGRJr19qGw&amp;oe=69224812', 'profileId': 'pfbid0dKTVJnQ98CmeojKgWJCnEibbkF3BVtR91DjoS6MDecMF7pKSYFpTyyMt5geKTjV8l', 'profileName': 'トミニク トミニク', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1247221964110215', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -667,32 +653,16 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247221204110291/?dco_ad_token=Aapi5LUYJ66YPQtu8wCCqkj_NloXf31eqWUiqiNv-aQgbUB6ZV_PI2U2iAxb-IJOiGLoqwPH-Vd58J4Z&amp;dco_ad_id=120237893494860295</t>
+          <t>https://www.instagram.com/p/DQ4T7oagGqD/</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Ay muchos recuerdos.Me acuerdo en mi infancia cuando por compra de Bon yurt
-Me daban un tajalapiz y era un bonyurt en el tajalapiz.
-Y lo rico que es.su sabor nunca cambia.</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>45973.97553240741</v>
-      </c>
-      <c r="H5" s="3" t="n">
-        <v>45973</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>23:24:46</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -700,20 +670,24 @@
       <c r="L5" t="b">
         <v>0</v>
       </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/', 'commentUrl': 'https://www.facebook.com/reel/1160900212791255/?comment_id=25206694858990734', 'id': 'Y29tbWVudDoxMjQ3MjIxOTY0MTEwMjE1XzI1MjA2Njk0ODU4OTkwNzM0', 'feedbackId': 'ZmVlZGJhY2s6MTI0NzIyMTk2NDExMDIxNV8yNTIwNjY5NDg1ODk5MDczNA==', 'date': '2025-11-12T23:24:46.000Z', 'text': 'Ay muchos recuerdos.Me acuerdo en mi infancia cuando por compra de Bon yurt\nMe daban un tajalapiz y era un bonyurt en el tajalapiz.\nY lo rico que es.su sabor nunca cambia.', 'profileUrl': 'https://www.facebook.com/brianda.perez.12', 'profilePicture': 'https://scontent-lax7-1.xx.fbcdn.net/v/t39.30808-1/490325622_9973314799346260_5155280450416836741_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=4falRy5VuD0Q7kNvwEW2ZIv&amp;_nc_oc=Adlk1StEy3BKij0YhvzLTS3eg9DHj1HaK01o8odds0alu4VJ_YhwDgMHtlIOrkvVk3s&amp;_nc_zt=24&amp;_nc_ht=scontent-lax7-1.xx&amp;_nc_gid=04byaCqXSEvB-MLanPwzaw&amp;oh=00_AfgHC45d4VUAgPcpJ_3vre58edldxdiR5xJMkS44Y5KQ-Q&amp;oe=692254DB', 'profileId': 'pfbid0K7qDgZVVfXPeAWkqJdgzrVdhaDd6Dbw7fBmt55i9zQYNWyXmJRqYtmQZwowEVAKVl', 'profileName': 'Mafalda Brenda', 'likesCount': '8', 'threadingDepth': 0, 'facebookId': '1247221964110215', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DQ4T7oagGqD/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -723,30 +697,16 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247221204110291/?dco_ad_token=Aapi5LUYJ66YPQtu8wCCqkj_NloXf31eqWUiqiNv-aQgbUB6ZV_PI2U2iAxb-IJOiGLoqwPH-Vd58J4Z&amp;dco_ad_id=120237893494860295</t>
+          <t>https://www.instagram.com/p/DQ4TbcNAFUD/</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Vine a probar bonyurt ya de grande. De niño eso era un lujo pa mi 😔</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>45975.7250462963</v>
-      </c>
-      <c r="H6" s="3" t="n">
-        <v>45975</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>17:24:04</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -754,16 +714,20 @@
       <c r="L6" t="b">
         <v>0</v>
       </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/', 'commentUrl': 'https://www.facebook.com/reel/1160900212791255/?comment_id=1516563856131433', 'id': 'Y29tbWVudDoxMjQ3MjIxOTY0MTEwMjE1XzE1MTY1NjM4NTYxMzE0MzM=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NzIyMTk2NDExMDIxNV8xNTE2NTYzODU2MTMxNDMz', 'date': '2025-11-14T17:24:04.000Z', 'text': 'Vine a probar bonyurt ya de grande. De niño eso era un lujo pa mi 😔', 'profileUrl': 'https://www.facebook.com/milton.videsortiz', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/559531956_24832715743057565_5031411028876621096_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=RcrI33MHaXQQ7kNvwHKNP0W&amp;_nc_oc=AdkCKXvplDp7OsvYTYBFSdMwXA5ndigtZoTg4nnUxh_bohrrHoZARpOgTZ_hffCJwbA&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=04byaCqXSEvB-MLanPwzaw&amp;oh=00_AfiejtA0w1oh2nyv8N9RBAeMlOrygiSaOzWUqM2Ykmsy_g&amp;oe=692245DF', 'profileId': '100002374481251', 'profileName': 'Milton Vides', 'likesCount': '14', 'threadingDepth': 0, 'facebookId': '1247221964110215', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DQ4TbcNAFUD/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -777,30 +741,16 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247221204110291/?dco_ad_token=Aapi5LUYJ66YPQtu8wCCqkj_NloXf31eqWUiqiNv-aQgbUB6ZV_PI2U2iAxb-IJOiGLoqwPH-Vd58J4Z&amp;dco_ad_id=120237893494860295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1247217804110631/</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>LA LECHE PÉSIMO PRODUCTO SABOR A REMEDIO</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>45978.75650462963</v>
-      </c>
-      <c r="H7" s="3" t="n">
-        <v>45978</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>18:09:22</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -811,17 +761,17 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/', 'commentUrl': 'https://www.facebook.com/reel/1160900212791255/?comment_id=1811555212810690', 'id': 'Y29tbWVudDoxMjQ3MjIxOTY0MTEwMjE1XzE4MTE1NTUyMTI4MTA2OTA=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NzIyMTk2NDExMDIxNV8xODExNTU1MjEyODEwNjkw', 'date': '2025-11-17T18:09:22.000Z', 'text': 'LA LECHE PÉSIMO PRODUCTO SABOR A REMEDIO', 'profileUrl': 'https://www.facebook.com/people/Marco-Sanchez/pfbid057CYEWWVfYCbcWb1VhMJ1GtUTZLzgcbRTjuEmjgqRgLLimN1LbvAatGu6ccrfLZKl/', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=acGRQYQ8TUgQ7kNvwES-f4h&amp;_nc_oc=Adnu5uUTimAKe-3NEZ4LFMicc4RLseuKvfVzN8nEf5-UoF9n3hid-CQoToQw37AxBxw&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;oh=00_Afgd9DtbD3y9VPpbLoo7dz1uecaY472do-eoE6odn2H4mw&amp;oe=6943F97A', 'profileId': 'pfbid057CYEWWVfYCbcWb1VhMJ1GtUTZLzgcbRTjuEmjgqRgLLimN1LbvAatGu6ccrfLZKl', 'profileName': 'Marco Sanchez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1247221964110215', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064672685926/posts/1247217804110631/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -831,30 +781,16 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247221204110291/?dco_ad_token=Aapi5LUYJ66YPQtu8wCCqkj_NloXf31eqWUiqiNv-aQgbUB6ZV_PI2U2iAxb-IJOiGLoqwPH-Vd58J4Z&amp;dco_ad_id=120237893494860295</t>
+          <t>https://www.instagram.com/p/DQ4T7rtgIL6/</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Tengo 33 años y recuerdo ese diseño de niña de Bob Yurt, Alpina  marcando la niñez de muchos de acá ❤️</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>45974.39247685186</v>
-      </c>
-      <c r="H8" s="3" t="n">
-        <v>45974</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>09:25:10</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -862,16 +798,20 @@
       <c r="L8" t="b">
         <v>0</v>
       </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/', 'commentUrl': 'https://www.facebook.com/reel/1160900212791255/?comment_id=759671687130320', 'id': 'Y29tbWVudDoxMjQ3MjIxOTY0MTEwMjE1Xzc1OTY3MTY4NzEzMDMyMA==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NzIyMTk2NDExMDIxNV83NTk2NzE2ODcxMzAzMjA=', 'date': '2025-11-13T09:25:10.000Z', 'text': 'Tengo 33 años y recuerdo ese diseño de niña de Bob Yurt, Alpina  marcando la niñez de muchos de acá ❤️', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/518399836_10233003875073339_4014250261811936091_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=irWVhenHQuEQ7kNvwGqcMRj&amp;_nc_oc=Adk4vg9yNDTVYpCsJ6ZdNBgoD9EFgCZAC3td4D2IhroiUBP1sztkMZoVH7MYJ1o4gEk&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=04byaCqXSEvB-MLanPwzaw&amp;oh=00_Afi7uFmJ53VRPP9IrYJVgM3tkgJ6dcKVGj6Uqm0i5TsSog&amp;oe=6922363D', 'profileId': 'pfbid02yybm9o4Jzj4nujR5dWKWHuSH6JGzRCjCvbzsb1AtXQEtLvg4VzGmhi2VzyuFWjSyl', 'profileName': 'Sonia Martinez Cardenas', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1247221964110215', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DQ4T7rtgIL6/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -885,30 +825,16 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247221204110291/?dco_ad_token=Aapi5LUYJ66YPQtu8wCCqkj_NloXf31eqWUiqiNv-aQgbUB6ZV_PI2U2iAxb-IJOiGLoqwPH-Vd58J4Z&amp;dco_ad_id=120237893494860295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1247221017443643/</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Cuando bon yurt sabia a bon yurt y era espesito.</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>45978.88197916667</v>
-      </c>
-      <c r="H9" s="3" t="n">
-        <v>45978</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>21:10:03</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -919,13 +845,13 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/', 'commentUrl': 'https://www.facebook.com/reel/1160900212791255/?comment_id=1197159925666888', 'id': 'Y29tbWVudDoxMjQ3MjIxOTY0MTEwMjE1XzExOTcxNTk5MjU2NjY4ODg=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NzIyMTk2NDExMDIxNV8xMTk3MTU5OTI1NjY2ODg4', 'date': '2025-11-17T21:10:03.000Z', 'text': 'Cuando bon yurt sabia a bon yurt y era espesito.', 'profileUrl': 'https://www.facebook.com/raul.uran.37', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/435976404_917249710183841_8866511209521398702_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=IE7sAKjl7_AQ7kNvwEPx0xF&amp;_nc_oc=AdnrYRyK0s9xR5s5I9b6pUKF0Z0vWHR84Zq5MN9b-9VAoPaM9XbY3OrR9ZoFasxaeMY&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=04byaCqXSEvB-MLanPwzaw&amp;oh=00_AfhDXrtQBLxW7FPi7QBmOMaRgPLONBucB46JA0Uy_4HjgA&amp;oe=6922667F', 'profileId': 'pfbid02TtrpuD3yCgyPCQDJivSdJjUcpKTLPh6BxAnrmbsvf3fJpTQi8V6qDqGmGVpbFaxfl', 'profileName': 'Raul Fer Urán', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1247221964110215', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064672685926/posts/1247221017443643/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -939,30 +865,16 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247221204110291/?dco_ad_token=Aapi5LUYJ66YPQtu8wCCqkj_NloXf31eqWUiqiNv-aQgbUB6ZV_PI2U2iAxb-IJOiGLoqwPH-Vd58J4Z&amp;dco_ad_id=120237893494860295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258767226289022/</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Cuando hacían bien las cosas, de calidad, cantidad y no tan caras.</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>45978.57188657407</v>
-      </c>
-      <c r="H10" s="3" t="n">
-        <v>45978</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>13:43:31</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -973,13 +885,13 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/', 'commentUrl': 'https://www.facebook.com/reel/1160900212791255/?comment_id=1872067206733106', 'id': 'Y29tbWVudDoxMjQ3MjIxOTY0MTEwMjE1XzE4NzIwNjcyMDY3MzMxMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NzIyMTk2NDExMDIxNV8xODcyMDY3MjA2NzMzMTA2', 'date': '2025-11-17T13:43:31.000Z', 'text': 'Cuando hacían bien las cosas, de calidad, cantidad y no tan caras.', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/270424553_10158115283472167_6789354839345598393_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=yiAtmneyu1MQ7kNvwEEgnT_&amp;_nc_oc=AdmuehS1701lovCbWZ5a7lP4ixhQLufPXq6Qz41sA3dUBk7WnjaaxfND9paWBBWsVYE&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=04byaCqXSEvB-MLanPwzaw&amp;oh=00_Afi6iA__cgdcwAOjA88gJzOeAsbVCxh_XYT6jTvkAyD3lw&amp;oe=69224944', 'profileId': '595212166', 'profileName': 'Lisandro Ulloa Chacón', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1247221964110215', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767226289022/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -993,24 +905,24 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247221204110291/?dco_ad_token=Aapi5LUYJ66YPQtu8wCCqkj_NloXf31eqWUiqiNv-aQgbUB6ZV_PI2U2iAxb-IJOiGLoqwPH-Vd58J4Z&amp;dco_ad_id=120237893494860295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258767229622355/</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Deberían hacer alguna promoción buena</t>
+          <t>Cuando eran ricos y traían más que aire</t>
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>45977.74994212963</v>
+        <v>45986.19047453703</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>45977</v>
+        <v>45986</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>17:59:55</t>
+          <t>04:34:17</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1027,13 +939,13 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/', 'commentUrl': 'https://www.facebook.com/reel/1160900212791255/?comment_id=2025667151618097', 'id': 'Y29tbWVudDoxMjQ3MjIxOTY0MTEwMjE1XzIwMjU2NjcxNTE2MTgwOTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NzIyMTk2NDExMDIxNV8yMDI1NjY3MTUxNjE4MDk3', 'date': '2025-11-16T17:59:55.000Z', 'text': 'Deberían hacer alguna promoción buena', 'profileUrl': 'https://www.facebook.com/sebastiian.parrahernandez', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/474588955_2821163441399717_5390035762414745774_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=0vh3gEkWILwQ7kNvwH9anEk&amp;_nc_oc=Adloq9xzs3PvIq_RtUdVb3l_TD7dwdH9p-_aYFTIQ_Kg9zxasAC8d-ta28QEN9QLRlc&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=04byaCqXSEvB-MLanPwzaw&amp;oh=00_Afg4eEotYcR4jWOdzKwLEYfIabuY42333vNbc4a99HigTw&amp;oe=69225692', 'profileId': 'pfbid032F69V3Q4bPLJVCj6ma8XjYDXRiRsPPspQceama99naMgx2Shqw7oRR8D8nD6xtDrl', 'profileName': 'Sebastiian Parra Hernandez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1247221964110215', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02vDjJopkwJ1E4ttEJPs8Q5WtCbkyYAnJ22tMuNREZgXTVE7PAeoMpaduR3LMCgVnAl?comment_id=1820814188796053', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzE4MjA4MTQxODg3OTYwNTM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV8xODIwODE0MTg4Nzk2MDUz', 'date': '2025-11-25T04:34:17.000Z', 'text': 'Cuando eran ricos y traían más que aire', 'profileUrl': 'https://www.facebook.com/jeiko8511', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/468060314_10162361510499273_507374193545330854_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=BBu-LxX6rM4Q7kNvwEdAep6&amp;_nc_oc=AdkElkZcmTI-FlsMQyQb_2inmOyGseiAYrW56eEfgdbqKKfd7UKzf5J4nFaRCFvF-tU&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=LtfV_kRwEDSrlqIQLJxMSg&amp;oh=00_AfgJ4kpgAJUWNlkceGKbisIO3XkvPNeHgaYrsnzL5BomZg&amp;oe=692B8EDE', 'profileId': 'pfbid0wDio7RnKrLfEQSY5mYsGJZfaPnAqkmAJr3WdCBHgjK2nvvxoBoMkg1UdpiyTHmsul', 'profileName': 'Jeiko Hernandez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1047,24 +959,24 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247221204110291/?dco_ad_token=Aapi5LUYJ66YPQtu8wCCqkj_NloXf31eqWUiqiNv-aQgbUB6ZV_PI2U2iAxb-IJOiGLoqwPH-Vd58J4Z&amp;dco_ad_id=120237893494860295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258767229622355/</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Recuerdo cuando era barato y los yogures eran más espeso ahora es solo agua</t>
+          <t>Pos si como tres me da un coma diabético....</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>45975.57612268518</v>
+        <v>45986.14106481482</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>45975</v>
+        <v>45986</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>13:49:37</t>
+          <t>03:23:08</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1081,13 +993,13 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/', 'commentUrl': 'https://www.facebook.com/reel/1160900212791255/?comment_id=881405534831470', 'id': 'Y29tbWVudDoxMjQ3MjIxOTY0MTEwMjE1Xzg4MTQwNTUzNDgzMTQ3MA==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NzIyMTk2NDExMDIxNV84ODE0MDU1MzQ4MzE0NzA=', 'date': '2025-11-14T13:49:37.000Z', 'text': 'Recuerdo cuando era barato y los yogures eran más espeso ahora es solo agua', 'profileUrl': 'https://www.facebook.com/gabo.padillatorres', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/484915331_9331660313585370_4541706266410316543_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=vh-rPbyvYOwQ7kNvwF7D6c7&amp;_nc_oc=Adksysu8ygWJtMnk7mIwZlrCPLCZp4ITmGezjmZWljLw2sGyundss-898b4QpW6lWak&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=04byaCqXSEvB-MLanPwzaw&amp;oh=00_AfjPGwVbB-HVvoZEa-lwhTufYhnW_i5j9O8NK5Pf6xR6Hw&amp;oe=692230E4', 'profileId': '100002244817006', 'profileName': 'Gabo P Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1247221964110215', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02vDjJopkwJ1E4ttEJPs8Q5WtCbkyYAnJ22tMuNREZgXTVE7PAeoMpaduR3LMCgVnAl?comment_id=843566781589283', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzg0MzU2Njc4MTU4OTI4Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV84NDM1NjY3ODE1ODkyODM=', 'date': '2025-11-25T03:23:08.000Z', 'text': 'Pos si como tres me da un coma diabético....', 'profileUrl': 'https://www.facebook.com/andres.torres.90834', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/496882250_10161702226334830_5679666335987461894_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=UmMYxG2WzFAQ7kNvwGOkt11&amp;_nc_oc=AdlFX7jddeZpAxOXG849ud5qJLLFE9mPi-iKUHbmIxfQ2BGUSjBdG85eRKtnEyOs59E&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=LtfV_kRwEDSrlqIQLJxMSg&amp;oh=00_Afh53tafeYtoXyGlg_u4I1PUrzemewi3cURQfQ91PWYyKg&amp;oe=692B8EC4', 'profileId': '607764829', 'profileName': 'Andres Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1101,24 +1013,24 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247221204110291/?dco_ad_token=Aapi5LUYJ66YPQtu8wCCqkj_NloXf31eqWUiqiNv-aQgbUB6ZV_PI2U2iAxb-IJOiGLoqwPH-Vd58J4Z&amp;dco_ad_id=120237893494860295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258767229622355/</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Cuando el bon yurt si traía yogurt</t>
+          <t>Esq eso era muy caro un riñón prácticamente ps pero vale la pena</t>
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>45976.25716435185</v>
+        <v>45986.21601851852</v>
       </c>
       <c r="H13" s="3" t="n">
-        <v>45976</v>
+        <v>45986</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>06:10:19</t>
+          <t>05:11:04</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1135,13 +1047,13 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/', 'commentUrl': 'https://www.facebook.com/reel/1160900212791255/?comment_id=25168417532789435', 'id': 'Y29tbWVudDoxMjQ3MjIxOTY0MTEwMjE1XzI1MTY4NDE3NTMyNzg5NDM1', 'feedbackId': 'ZmVlZGJhY2s6MTI0NzIyMTk2NDExMDIxNV8yNTE2ODQxNzUzMjc4OTQzNQ==', 'date': '2025-11-15T06:10:19.000Z', 'text': 'Cuando el bon yurt si traía yogurt', 'profilePicture': 'https://scontent-lax7-1.xx.fbcdn.net/v/t39.30808-1/324021927_2137479293104514_4509116374002139834_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=OuOC-mRBUicQ7kNvwHQUJEi&amp;_nc_oc=Adkszov3lprStO-Ye6CxW1W_uamJe16e3voLq6_Mev_zZopPDOkjkj7jk6dlqAVyv6g&amp;_nc_zt=24&amp;_nc_ht=scontent-lax7-1.xx&amp;_nc_gid=04byaCqXSEvB-MLanPwzaw&amp;oh=00_AfinKHpFKlHRuxOmmcpQ80d5c6A7iOypFq3Jfa0kHtRKBw&amp;oe=692243B5', 'profileId': 'pfbid02EQ3NxV7See6fEXFhhztczsyjNs5BkrEKCrK7wvJX3rwiUe7JH5TKKvcdmfRb55jLl', 'profileName': 'Roger Tobon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1247221964110215', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02vDjJopkwJ1E4ttEJPs8Q5WtCbkyYAnJ22tMuNREZgXTVE7PAeoMpaduR3LMCgVnAl?comment_id=861351922903088', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzg2MTM1MTkyMjkwMzA4OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV84NjEzNTE5MjI5MDMwODg=', 'date': '2025-11-25T05:11:04.000Z', 'text': 'Esq eso era muy caro un riñón prácticamente ps pero vale la pena', 'profileUrl': 'https://www.facebook.com/david.santiago.500055', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=zc_bz3Z8qrgQ7kNvwGuK0mR&amp;_nc_oc=AdlB8JDoxsoT_wDNNjsoN2T0YAVvj7Rvt6lnx4xbQkHat8-dJoMYtMI4wtOMGW0HvKU&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;oh=00_AfiUhJT7Y55tSTY2eiQX2LJQB01q9K9CEZqKShKsL31sBw&amp;oe=694D33FA', 'profileId': 'pfbid0yKAQno3iCMuhgZYjgCRWFVXdnmBRZx9kWJyPWMix58Z7YZUz6fNbGGkWtK6LWBxxl', 'profileName': 'Santiago Yarce', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1155,30 +1067,16 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247221204110291/?dco_ad_token=Aapi5LUYJ66YPQtu8wCCqkj_NloXf31eqWUiqiNv-aQgbUB6ZV_PI2U2iAxb-IJOiGLoqwPH-Vd58J4Z&amp;dco_ad_id=120237893494860295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258767296289015/</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Mucho mas</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>45979.24444444444</v>
-      </c>
-      <c r="H14" s="3" t="n">
-        <v>45979</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>05:52:00</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1189,13 +1087,13 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/', 'commentUrl': 'https://www.facebook.com/reel/1160900212791255/?comment_id=1011049094545552', 'id': 'Y29tbWVudDoxMjQ3MjIxOTY0MTEwMjE1XzEwMTEwNDkwOTQ1NDU1NTI=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NzIyMTk2NDExMDIxNV8xMDExMDQ5MDk0NTQ1NTUy', 'date': '2025-11-18T05:52:00.000Z', 'text': 'Mucho mas', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/536268946_10161581539912997_975447611817586565_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=R2LvEN3FpOQQ7kNvwGOU68m&amp;_nc_oc=AdnQKFcy_8Rjn9ZGFPk48pufULEK93aW521AcBuAhHPGBd3FP5WU3FgSbW23X8gqme4&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=qdkOrRW-DEg0IEzsqNtROg&amp;oh=00_AfjerZEveHFEp4-z0gwVTN27pS3h5SHv4zYSWVLszEEMdA&amp;oe=6922476B', 'profileId': '697037996', 'profileName': 'Naitsabes Ogelag', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1247221964110215', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767296289015/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1209,24 +1107,24 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247221204110291/?dco_ad_token=Aapi5LUYJ66YPQtu8wCCqkj_NloXf31eqWUiqiNv-aQgbUB6ZV_PI2U2iAxb-IJOiGLoqwPH-Vd58J4Z&amp;dco_ad_id=120237893494860295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Hace 35 años valía menos y traía mas,ahora vale mas,trae menos y el yogurt parece agua 😒</t>
+          <t>Perfecto!!!!❤️</t>
         </is>
       </c>
       <c r="G15" s="2" t="n">
-        <v>45974.66321759259</v>
+        <v>45986.14260416666</v>
       </c>
       <c r="H15" s="3" t="n">
-        <v>45974</v>
+        <v>45986</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>15:55:02</t>
+          <t>03:25:21</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1243,13 +1141,13 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/', 'commentUrl': 'https://www.facebook.com/reel/1160900212791255/?comment_id=1162636748734337', 'id': 'Y29tbWVudDoxMjQ3MjIxOTY0MTEwMjE1XzExNjI2MzY3NDg3MzQzMzc=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NzIyMTk2NDExMDIxNV8xMTYyNjM2NzQ4NzM0MzM3', 'date': '2025-11-13T15:55:02.000Z', 'text': 'Hace 35 años valía menos y traía mas,ahora vale mas,trae menos y el yogurt parece agua 😒', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/565131833_686752844469157_8525835763156239948_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=UD4dVlmhlHAQ7kNvwH_8ck1&amp;_nc_oc=AdkXjADNVa5grt40V10V6KVobsKhIdfvSe6nkjWKpYi7XqExSXOnILic8eDpXZJBGQc&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=qdkOrRW-DEg0IEzsqNtROg&amp;oh=00_AfiNKi44Z7SW-61xJJb0ez-P_dv2zd_17bRc2JYEpVPq6g&amp;oe=69225747', 'profileId': 'pfbid0Z2TYWhbzSd8vPm4rH4hUFc8dVk6gz4NTNELvjfeuMKHH12J4JmPzh4xEJMfiedXGl', 'profileName': 'Andrés Saavedra', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1247221964110215', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=1952455178667084', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzE5NTI0NTUxNzg2NjcwODQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xOTUyNDU1MTc4NjY3MDg0', 'date': '2025-11-25T03:25:21.000Z', 'text': 'Perfecto!!!!❤️', 'profileUrl': 'https://www.facebook.com/rosa.lopez.92754397', 'profilePicture': 'https://scontent.flas1-2.fna.fbcdn.net/v/t39.30808-1/417102719_10225249911019485_6080224190762171653_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=etmY7Sh1OTMQ7kNvwGa8rZC&amp;_nc_oc=AdlnslvlWeo570yb7BxAy0mu4C-Bkp64Xdr9TdfEBeQw3ET9QomUvdvwDJPji8EDXl0&amp;_nc_zt=24&amp;_nc_ht=scontent.flas1-2.fna&amp;_nc_gid=7U3CERbjSBknWI7S2ziLCw&amp;oh=00_AfjPlf-RYfrvxIngrx0ThgpzVrQXb4I8OIsIWJlIVDE6yA&amp;oe=692B7FF2', 'profileId': 'pfbid02PQwfJjuAQ5PX9SQA6mGF5jnwLrRLXh7RHvcSxG9dYh4GrxGXrL9M7Rf9cc3F84Wnl', 'profileName': 'Rosa Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1263,29 +1161,29 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247221204110291/?dco_ad_token=Aapi5LUYJ66YPQtu8wCCqkj_NloXf31eqWUiqiNv-aQgbUB6ZV_PI2U2iAxb-IJOiGLoqwPH-Vd58J4Z&amp;dco_ad_id=120237893494860295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>En esa época si traía bien contenido ahora se cuentan las hojuelas y el yogurt no llega ni a la mitad además de que es súper costoso aún es un lujo comerlo</t>
+          <t>Antes de conocer la diabetes eras mi snack favorito y como a alpina LE QUEDO GRANDE sacar productos saludables....... Paila!</t>
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>45976.21402777778</v>
+        <v>45986.05385416667</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>45976</v>
+        <v>45986</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>05:08:12</t>
+          <t>01:17:33</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K16" t="n">
@@ -1297,13 +1195,13 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/', 'commentUrl': 'https://www.facebook.com/reel/1160900212791255/?comment_id=4212884165626897', 'id': 'Y29tbWVudDoxMjQ3MjIxOTY0MTEwMjE1XzQyMTI4ODQxNjU2MjY4OTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NzIyMTk2NDExMDIxNV80MjEyODg0MTY1NjI2ODk3', 'date': '2025-11-15T05:08:12.000Z', 'text': 'En esa época si traía bien contenido ahora se cuentan las hojuelas y el yogurt no llega ni a la mitad además de que es súper costoso aún es un lujo comerlo', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/447246605_10228647052455875_4301993996656586902_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=98MT_LI8SpsQ7kNvwH6Lwwt&amp;_nc_oc=AdlBQktiJEEJxbDTUrcJXJiyqtm8lyWW42gB2yPX9ouO3rCS4UbgSw4X-r0mKzLIOMg&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=qdkOrRW-DEg0IEzsqNtROg&amp;oh=00_AfhUbzuCLD7kYYxUofMjGMYIxLsfcgmrL_MlI1ADel2hgg&amp;oe=692260E7', 'profileId': 'pfbid0piHdDtfJrDNLaNiJfHk7Pm1v5o862q8aysTaZ3juGZzLAWGpCU8BFMzji6ofXy68l', 'profileName': 'Mabel Marcela Camargo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1247221964110215', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=1520253749021206', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzE1MjAyNTM3NDkwMjEyMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xNTIwMjUzNzQ5MDIxMjA2', 'date': '2025-11-25T01:17:33.000Z', 'text': 'Antes de conocer la diabetes eras mi snack favorito y como a alpina LE QUEDO GRANDE sacar productos saludables....... Paila!', 'profileUrl': 'https://www.facebook.com/tommy.gil.martinez', 'profilePicture': 'https://scontent.flas1-2.fna.fbcdn.net/v/t39.30808-1/503591956_122242588190081472_2905184460418413153_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=e5DYErdPckQQ7kNvwEdDcbG&amp;_nc_oc=AdkbP26qS3BHgjG_PnrtFjsPt04HLTf9l4ngk2I50JixxlFcJ8lV30WaK0Rm8wdtReE&amp;_nc_zt=24&amp;_nc_ht=scontent.flas1-2.fna&amp;_nc_gid=7U3CERbjSBknWI7S2ziLCw&amp;oh=00_AfjX4cPtItn0vDAu-OSYDRrdxgZURzfwut3uv0wS78y_tA&amp;oe=692B8CB0', 'profileId': '61552444185822', 'profileName': 'Tommy Gil Martinez', 'likesCount': '7', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1317,29 +1215,29 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247221204110291/?dco_ad_token=Aapi5LUYJ66YPQtu8wCCqkj_NloXf31eqWUiqiNv-aQgbUB6ZV_PI2U2iAxb-IJOiGLoqwPH-Vd58J4Z&amp;dco_ad_id=120237893494860295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Uy que sabor era ese ?</t>
+          <t>No han pensado en mejorar la fórmula? Para mi gusto es muy aguado, poco  y demasiado dulce.</t>
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>45974.73598379629</v>
+        <v>45985.91405092592</v>
       </c>
       <c r="H17" s="3" t="n">
-        <v>45974</v>
+        <v>45985</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>17:39:49</t>
+          <t>21:56:14</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K17" t="n">
@@ -1351,13 +1249,13 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/', 'commentUrl': 'https://www.facebook.com/reel/1160900212791255/?comment_id=1434216105158473', 'id': 'Y29tbWVudDoxMjQ3MjIxOTY0MTEwMjE1XzE0MzQyMTYxMDUxNTg0NzM=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NzIyMTk2NDExMDIxNV8xNDM0MjE2MTA1MTU4NDcz', 'date': '2025-11-13T17:39:49.000Z', 'text': 'Uy que sabor era ese ?', 'profileUrl': 'https://www.facebook.com/yisus.kravitz', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/469126633_875133821497117_2639883721969601219_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=DAZhyzUveygQ7kNvwGtMhzY&amp;_nc_oc=AdnOipp0mKN-BJJ7TIlT4O4m4N_rqx_ENLQ8kavNz_UAAyPhzIhSlPXxkQYzumFEPxY&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=qdkOrRW-DEg0IEzsqNtROg&amp;oh=00_AfiWiDsdKYVcXlBa1Sb0GGdagip24U31LUk002T0YeKAdA&amp;oe=69224BDC', 'profileId': 'pfbid0n5wSDAohmjn6Kpp6KYZDd64SsdbzG8rAWFepgixn4jYj8PaH3hnfjxLn9YKEKNuVl', 'profileName': 'Yisus Kravitz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1247221964110215', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=1192728072737622', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzExOTI3MjgwNzI3Mzc2MjI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xMTkyNzI4MDcyNzM3NjIy', 'date': '2025-11-24T21:56:14.000Z', 'text': 'No han pensado en mejorar la fórmula? Para mi gusto es muy aguado, poco  y demasiado dulce.', 'profilePicture': 'https://scontent.flas1-2.fna.fbcdn.net/v/t39.30808-1/568709187_2931465163703246_6852048957085631156_n.jpg?stp=c0.263.1283.1283a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=m2C_xJfku70Q7kNvwGY-e6Q&amp;_nc_oc=Adl0uXYGtWzq4H3cfU0RLT5wryNS_W6CtliWFJfTwviG_-iu-ltQBAzTd6EzgdOGURI&amp;_nc_zt=24&amp;_nc_ht=scontent.flas1-2.fna&amp;_nc_gid=7U3CERbjSBknWI7S2ziLCw&amp;oh=00_AfjIr17EpSHYjcARI7IuEepvG_dN3wxy5Kd1toNA4zSa6A&amp;oe=692BABA7', 'profileId': 'pfbid02G8JPHeiTSzk366FgLsxZNARGtXe954Gy73ZGHgv3V3BLgyPMbC7medKKeqrMPWr8l', 'profileName': 'Maricela Uribe Acero', 'likesCount': '7', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1371,24 +1269,24 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247221204110291/?dco_ad_token=Aapi5LUYJ66YPQtu8wCCqkj_NloXf31eqWUiqiNv-aQgbUB6ZV_PI2U2iAxb-IJOiGLoqwPH-Vd58J4Z&amp;dco_ad_id=120237893494860295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Y ahora tengo diabetes</t>
+          <t>777</t>
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>45976.02414351852</v>
+        <v>45986.03282407407</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>45976</v>
+        <v>45986</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>00:34:46</t>
+          <t>00:47:16</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1405,13 +1303,13 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/', 'commentUrl': 'https://www.facebook.com/reel/1160900212791255/?comment_id=1388500842873873', 'id': 'Y29tbWVudDoxMjQ3MjIxOTY0MTEwMjE1XzEzODg1MDA4NDI4NzM4NzM=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NzIyMTk2NDExMDIxNV8xMzg4NTAwODQyODczODcz', 'date': '2025-11-15T00:34:46.000Z', 'text': 'Y ahora tengo diabetes', 'profileUrl': 'https://www.facebook.com/wilfredo.quijano.612174', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=acGRQYQ8TUgQ7kNvwH4rgHa&amp;_nc_oc=Adn-fcoTJblna_7MemuziDbgKzRObZ74Rp6shwtNIRHlnulPP6NAJX2pUhIRc8esf3o&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;oh=00_Afgwg0FGvZ6UVK6UmsuiACCpeUjjYk6w9JA6-tX9Kg3xMg&amp;oe=6943F97A', 'profileId': 'pfbid02mxcz6NLe99xeoWBqXkgf13VZgS6w7acjCdE1y1PyZEsv7dQNRGtrXqtKUx4fpM7el', 'profileName': 'Wilfredo Quijano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1247221964110215', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=819552860968519', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzgxOTU1Mjg2MDk2ODUxOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM184MTk1NTI4NjA5Njg1MTk=', 'date': '2025-11-25T00:47:16.000Z', 'text': '777', 'profileUrl': 'https://www.facebook.com/margarita.gomezanichiarico', 'profilePicture': 'https://scontent.flas1-1.fna.fbcdn.net/v/t39.30808-1/587685997_4328783527405986_1754626108380108900_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RdGfAUIoJjYQ7kNvwG8mUj5&amp;_nc_oc=AdlmCKAkqE7kQGflfu-Lv0E7ttp5KG6VgIFemEvorn2ug_XLPl5VUdybIaIp77QQkLU&amp;_nc_zt=24&amp;_nc_ht=scontent.flas1-1.fna&amp;_nc_gid=7U3CERbjSBknWI7S2ziLCw&amp;oh=00_AfghzFcDsNbDRLoPh3i8e6GjKReG0aMPPyegEM_CNq05Sg&amp;oe=692B9C67', 'profileId': 'pfbid02ySok7kymkb91NXSMFeqPqwwNBcrbefiwh6RMSZJzHnffAibiZKLihNKXD2iK6o3Gl', 'profileName': 'Margarita Gomez Anichiarico', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1425,24 +1323,24 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247221204110291/?dco_ad_token=Aapi5LUYJ66YPQtu8wCCqkj_NloXf31eqWUiqiNv-aQgbUB6ZV_PI2U2iAxb-IJOiGLoqwPH-Vd58J4Z&amp;dco_ad_id=120237893494860295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Ya eso está caro 4200.</t>
+          <t>Es verdad</t>
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>45977.77717592593</v>
+        <v>45986.04137731482</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>45977</v>
+        <v>45986</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>18:39:08</t>
+          <t>00:59:35</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1459,13 +1357,13 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/', 'commentUrl': 'https://www.facebook.com/reel/1160900212791255/?comment_id=1002890339000105', 'id': 'Y29tbWVudDoxMjQ3MjIxOTY0MTEwMjE1XzEwMDI4OTAzMzkwMDAxMDU=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NzIyMTk2NDExMDIxNV8xMDAyODkwMzM5MDAwMTA1', 'date': '2025-11-16T18:39:08.000Z', 'text': 'Ya eso está caro 4200.', 'profileUrl': 'https://www.facebook.com/EL.ANDRES.TERAN', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/518352164_1237550521158299_7415198670225694975_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=n8iGShbD-ukQ7kNvwE6q0Zy&amp;_nc_oc=AdmX4CTbqki_pO5pv8S5iy82vQnZD5YRriC5qSKOSuK3BN15o4Plhm04lLKf0WWLFQc&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=qdkOrRW-DEg0IEzsqNtROg&amp;oh=00_AfgKobSBkACk23YmAQYTTnDEt4oU3o0aHyqGSgTZK71nnQ&amp;oe=692246BF', 'profileId': '100047100879680', 'profileName': 'Andres Teran II', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1247221964110215', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=1576500203505837', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzE1NzY1MDAyMDM1MDU4Mzc=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xNTc2NTAwMjAzNTA1ODM3', 'date': '2025-11-25T00:59:35.000Z', 'text': 'Es verdad', 'profileUrl': 'https://www.facebook.com/marcela.cardonaarenas', 'profilePicture': 'https://scontent.flas1-2.fna.fbcdn.net/v/t39.30808-1/366735909_10225820803680965_1972811500240780147_n.jpg?stp=c0.0.655.655a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=-TqJ3bDGcbsQ7kNvwGarqd1&amp;_nc_oc=Adk9Ts7Q_mk5TIMHP4BgpRaGUSQG4zEWaAuzuSzu34kEAt7AwXaDxqLOgHpd-8spCis&amp;_nc_zt=24&amp;_nc_ht=scontent.flas1-2.fna&amp;_nc_gid=7U3CERbjSBknWI7S2ziLCw&amp;oh=00_Afi2JZlE2TLU2iEXjxXagyG0SBF3sQ2C1FezBlSYBS2QrQ&amp;oe=692BA463', 'profileId': '1058529844', 'profileName': 'Marce Cardona Arenas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1479,24 +1377,24 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247221204110291/?dco_ad_token=Aapi5LUYJ66YPQtu8wCCqkj_NloXf31eqWUiqiNv-aQgbUB6ZV_PI2U2iAxb-IJOiGLoqwPH-Vd58J4Z&amp;dco_ad_id=120237893494860295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lo probé en 1988 costaba 100 pesos</t>
+          <t>Cuando valía 300 pesos</t>
         </is>
       </c>
       <c r="G20" s="2" t="n">
-        <v>45976.13188657408</v>
+        <v>45986.00526620371</v>
       </c>
       <c r="H20" s="3" t="n">
-        <v>45976</v>
+        <v>45986</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>03:09:55</t>
+          <t>00:07:35</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1513,13 +1411,13 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/', 'commentUrl': 'https://www.facebook.com/reel/1160900212791255/?comment_id=1165563205144296', 'id': 'Y29tbWVudDoxMjQ3MjIxOTY0MTEwMjE1XzExNjU1NjMyMDUxNDQyOTY=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NzIyMTk2NDExMDIxNV8xMTY1NTYzMjA1MTQ0Mjk2', 'date': '2025-11-15T03:09:55.000Z', 'text': 'Lo probé en 1988 costaba 100 pesos', 'profileUrl': 'https://www.facebook.com/cristian.rojasgordillo', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/560509628_24782025728102793_3031400656264440633_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=YRrENi_IsmwQ7kNvwEXnkt5&amp;_nc_oc=Adnu1wyphDp3FjK5kxBS1HCLnwQW72Tcaz8TsoOrhlPXZ0hKzFG6p5MWwAcPyGY5vbQ&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=qdkOrRW-DEg0IEzsqNtROg&amp;oh=00_AfhE5ywZfJpfeoqjHz5Q4hY9BHI_QwRws1W88DQK84csDQ&amp;oe=6922420F', 'profileId': '100001661272903', 'profileName': 'Cristian Rojas Gordillo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1247221964110215', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=1475494833548118', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzE0NzU0OTQ4MzM1NDgxMTg=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xNDc1NDk0ODMzNTQ4MTE4', 'date': '2025-11-25T00:07:35.000Z', 'text': 'Cuando valía 300 pesos', 'profileUrl': 'https://www.facebook.com/jimmymauricio.valenciagarcia', 'profilePicture': 'https://scontent.flas1-2.fna.fbcdn.net/v/t39.30808-1/462255160_8717554801641125_175399083759338104_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=TMAEuteHvZgQ7kNvwEjt5Fc&amp;_nc_oc=AdmMws4N5xJ-rGYKV-VLFHUjYfajuKGWbugBuBoaiinIjsLBO51mO-5MsWUdJt1lOTE&amp;_nc_zt=24&amp;_nc_ht=scontent.flas1-2.fna&amp;_nc_gid=7U3CERbjSBknWI7S2ziLCw&amp;oh=00_AfiyGGJGxZHSOMzawjmKfNTV0Rilnih2NHTawjUuNrFWBQ&amp;oe=692BA5B4', 'profileId': '100001600746705', 'profileName': 'Jm Valencia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1533,29 +1431,29 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247221204110291/?dco_ad_token=Aapi5LUYJ66YPQtu8wCCqkj_NloXf31eqWUiqiNv-aQgbUB6ZV_PI2U2iAxb-IJOiGLoqwPH-Vd58J4Z&amp;dco_ad_id=120237893494860295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Ese es Kevin Johansen?</t>
+          <t>Y la propaganda si quedo bien,, con ese precio ni uno se puede probar</t>
         </is>
       </c>
       <c r="G21" s="2" t="n">
-        <v>45977.69835648148</v>
+        <v>45985.78459490741</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>45977</v>
+        <v>45985</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>16:45:38</t>
+          <t>18:49:49</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K21" t="n">
@@ -1567,13 +1465,13 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/', 'commentUrl': 'https://www.facebook.com/reel/1160900212791255/?comment_id=1375037967528287', 'id': 'Y29tbWVudDoxMjQ3MjIxOTY0MTEwMjE1XzEzNzUwMzc5Njc1MjgyODc=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NzIyMTk2NDExMDIxNV8xMzc1MDM3OTY3NTI4Mjg3', 'date': '2025-11-16T16:45:38.000Z', 'text': 'Ese es Kevin Johansen?', 'profileUrl': 'https://www.facebook.com/jaime.contreras.5895', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/429666901_10159856758003461_4093730157637702040_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=u3hupiK320sQ7kNvwG0Qvwg&amp;_nc_oc=AdmqLn6ZDnCZmrUY6gypVOMrIGe8IF3hJ8A1ld475YKQM0DulIszISt1j7rKh7wEPWw&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=qdkOrRW-DEg0IEzsqNtROg&amp;oh=00_AfhBwkZWTPxUwGzNEbLQvQGE9yXzeSYiGh3bfYR8Kz2IIQ&amp;oe=6922567B', 'profileId': 'pfbid0erMVUX7ayiaxAzrcFthEuQNnZB6xP4u9LZEXp2YodE7wc29joDsJHnGm1g6k3ur4l', 'profileName': 'Jaime Contreras', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1247221964110215', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=25132294313095996', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzI1MTMyMjk0MzEzMDk1OTk2', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18yNTEzMjI5NDMxMzA5NTk5Ng==', 'date': '2025-11-24T18:49:49.000Z', 'text': 'Y la propaganda si quedo bien,, con ese precio ni uno se puede probar', 'profileUrl': 'https://www.facebook.com/angelica.cardona.5872', 'profilePicture': 'https://scontent.flas1-1.fna.fbcdn.net/v/t39.30808-1/505233924_3997357573853243_9123692372587398049_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=STkYJ_uC4eQQ7kNvwEpjVGl&amp;_nc_oc=AdmI7OcaV8ycQLUnLNnKAnZPLKVEFk4bShF1NB4-8zX_QOyMiyyl-QlihXnUZ1BnGQc&amp;_nc_zt=24&amp;_nc_ht=scontent.flas1-1.fna&amp;_nc_gid=7U3CERbjSBknWI7S2ziLCw&amp;oh=00_AfjhAstDsSj9N7S5Ce7UNsQ43bqc-4ut5tJCVS9TfOcGdg&amp;oe=692B99E5', 'profileId': 'pfbid02h5mgyoyN4Ki17h4Sq69V6phm4VWG5VgGac5LwZB7b6Ac4uBNwgsoP1uHmqfzhYD8l', 'profileName': 'Angelica Cardona', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1587,29 +1485,29 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247221204110291/?dco_ad_token=Aapi5LUYJ66YPQtu8wCCqkj_NloXf31eqWUiqiNv-aQgbUB6ZV_PI2U2iAxb-IJOiGLoqwPH-Vd58J4Z&amp;dco_ad_id=120237893494860295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Eduardo niño</t>
+          <t>No, porque es una estafa, solo empaque y bien costoso</t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>45976.64267361111</v>
+        <v>45985.94050925926</v>
       </c>
       <c r="H22" s="3" t="n">
-        <v>45976</v>
+        <v>45985</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>15:25:27</t>
+          <t>22:34:20</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -1621,13 +1519,13 @@
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/', 'commentUrl': 'https://www.facebook.com/reel/1160900212791255/?comment_id=838924618519412', 'id': 'Y29tbWVudDoxMjQ3MjIxOTY0MTEwMjE1XzgzODkyNDYxODUxOTQxMg==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NzIyMTk2NDExMDIxNV84Mzg5MjQ2MTg1MTk0MTI=', 'date': '2025-11-15T15:25:27.000Z', 'text': 'Eduardo niño', 'profileUrl': 'https://www.facebook.com/andrew.garcia.14268769', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/493262297_9770000893043444_7075122556462596182_n.jpg?stp=cp6_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PbelbwTg_JQQ7kNvwGO8Jl_&amp;_nc_oc=AdlxT_RNVHTMY3QUJ9NAH-Kbn02C8P_jdL9hS52nphFXuEJbLiTTu40dkMv55EFGb1Q&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=qdkOrRW-DEg0IEzsqNtROg&amp;oh=00_AfhJOYKUAfLLSPWQ5R47tSw47nh54K07BULWYmOJt4KiCg&amp;oe=69223738', 'profileId': 'pfbid0qpPnvrh1oVFua2D6TCDGmGPnXmfSMQTBjLHnX4qxr5P4cCwJPTGrYEV9G53DHdn7l', 'profileName': 'Andrew Garcia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1247221964110215', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=1260657349235501', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzEyNjA2NTczNDkyMzU1MDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xMjYwNjU3MzQ5MjM1NTAx', 'date': '2025-11-24T22:34:20.000Z', 'text': 'No, porque es una estafa, solo empaque y bien costoso', 'profileUrl': 'https://www.facebook.com/fredy.cotame.2025', 'profilePicture': 'https://scontent.flas1-1.fna.fbcdn.net/v/t39.30808-1/355876365_272551848766724_9175721193928506431_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=U_DtEiqcStoQ7kNvwEjA8c0&amp;_nc_oc=AdnD1O0HLGrOG4zlysHkQWceXztoXPfU8zBni3KW2PqFpWe-cE777ZvfWfWE84mEGBE&amp;_nc_zt=24&amp;_nc_ht=scontent.flas1-1.fna&amp;_nc_gid=7U3CERbjSBknWI7S2ziLCw&amp;oh=00_Afh5FeO-VH1TnSomLJwDUrPyn1qhdVrKRBTS8Mu6-T10yQ&amp;oe=692BA4E2', 'profileId': 'pfbid0cDMYWw8Lj25snpYWBtgRBbHPz4q4VcpSyt45pxcHNpwYxFqT6rygaseqGZFiXqybl', 'profileName': 'Fredy Cotame', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1641,24 +1539,24 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247221204110291/?dco_ad_token=Aapi5LUYJ66YPQtu8wCCqkj_NloXf31eqWUiqiNv-aQgbUB6ZV_PI2U2iAxb-IJOiGLoqwPH-Vd58J4Z&amp;dco_ad_id=120237893494860295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Chocapic</t>
+          <t>Tan bueno.</t>
         </is>
       </c>
       <c r="G23" s="2" t="n">
-        <v>45978.06253472222</v>
+        <v>45986.09997685185</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>45978</v>
+        <v>45986</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>01:30:03</t>
+          <t>02:23:58</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1675,13 +1573,13 @@
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/', 'commentUrl': 'https://www.facebook.com/reel/1160900212791255/?comment_id=776633392088465', 'id': 'Y29tbWVudDoxMjQ3MjIxOTY0MTEwMjE1Xzc3NjYzMzM5MjA4ODQ2NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NzIyMTk2NDExMDIxNV83NzY2MzMzOTIwODg0NjU=', 'date': '2025-11-17T01:30:03.000Z', 'text': 'Chocapic', 'profileUrl': 'https://www.facebook.com/oscar.montoyamosquera', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/556370552_1340445707601397_4510517131196275383_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=xRc9dzsg0ngQ7kNvwG0310S&amp;_nc_oc=AdljEOnD6qDR_YeYIqkViPaIh4e5MyK6VX5v7J41R3Ce8c0YLu8ixI35bLpTX3gnUck&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=qdkOrRW-DEg0IEzsqNtROg&amp;oh=00_Afj1wLsZWzNyrUGSEJmMlH2AIip38vbFHUH_ENJcBu3ikQ&amp;oe=69224C81', 'profileId': '100049079420425', 'profileName': 'Montoya Mosquera Oscar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1247221964110215', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1388063563103759', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzODgwNjM1NjMxMDM3NTk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzg4MDYzNTYzMTAzNzU5', 'date': '2025-11-25T02:23:58.000Z', 'text': 'Tan bueno.', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t1.6435-1/163069213_1667788816742137_1108665802889185616_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Hmn80GI1O5sQ7kNvwFx2uXt&amp;_nc_oc=AdkXUg21m2PAoGxe0ZgPMRHwbzDw4-pPZl9iA_-vXhEjGYH1z9bDmsjGkqr_L6DaBTo&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=P4HTrBC-d-7GH_qMu0c-SQ&amp;oh=00_AfgoBRx7-Txik9mA3dA3_uzlPkcpPt0dZhTCM6M_6R_hJA&amp;oe=694D2A94', 'profileId': 'pfbid02EffNBMA287tbdMG2DEu6CgfFMTLX3YaBaPwthJ79y2UhyYBZ1KWyHkD28PeHG8m6l', 'profileName': 'Jaker Albeiro Salvaje Cuartas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1695,24 +1593,24 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247221204110291/?dco_ad_token=Aapi5LUYJ66YPQtu8wCCqkj_NloXf31eqWUiqiNv-aQgbUB6ZV_PI2U2iAxb-IJOiGLoqwPH-Vd58J4Z&amp;dco_ad_id=120237893494860295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Ósea que desde hace 35 años la estafa en el yogurt, porque viene menos de la mitad</t>
+          <t>Alpina, los mejores lácteos de Colombia</t>
         </is>
       </c>
       <c r="G24" s="2" t="n">
-        <v>45976.95780092593</v>
+        <v>45986.58927083333</v>
       </c>
       <c r="H24" s="3" t="n">
-        <v>45976</v>
+        <v>45986</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>22:59:14</t>
+          <t>14:08:33</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1729,13 +1627,13 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/', 'commentUrl': 'https://www.facebook.com/reel/1160900212791255/?comment_id=871732425351553', 'id': 'Y29tbWVudDoxMjQ3MjIxOTY0MTEwMjE1Xzg3MTczMjQyNTM1MTU1Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NzIyMTk2NDExMDIxNV84NzE3MzI0MjUzNTE1NTM=', 'date': '2025-11-15T22:59:14.000Z', 'text': 'Ósea que desde hace 35 años la estafa en el yogurt, porque viene menos de la mitad', 'profileUrl': 'https://www.facebook.com/VODNIZA', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t1.6435-1/196125894_10157709064655443_8437366415884129041_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=bmK5SyFNuhcQ7kNvwFPlLqZ&amp;_nc_oc=Adn7aZPBbwnTZC3AOfooTiFpP_dp03NiLzZ95QH_R_ndhueFEKlp7Jcqio6ab4aguIY&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=oLI1MrrzuM1rmREx1zgi_Q&amp;oh=00_AfhRKafhp5snzLvtCO4lK2A9KRZ6jvQ25AFGAv3ZpEYKbA&amp;oe=6943F745', 'profileId': 'pfbid051QrP19YJZWyc6xSM9Q36fAduhhzqDXvfVWKC2RBeKghGhE7njwJySaogbcC5Mq7l', 'profileName': 'Fernando Moreno', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1247221964110215', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1152499160382981', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNTI0OTkxNjAzODI5ODE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTUyNDk5MTYwMzgyOTgx', 'date': '2025-11-25T14:08:33.000Z', 'text': 'Alpina, los mejores lácteos de Colombia', 'profileUrl': 'https://www.facebook.com/cristianleonardogarciarojas', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/452931325_10160399989414389_566148840137699952_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=7l4lDfdPmQcQ7kNvwEUuhnx&amp;_nc_oc=AdmkmqQZMCbF-gsq7lSQ6m2GFrsbF4f2wqMwffcv3Y3acOSE9fURF_LDVY6XbRZFPKw&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=P4HTrBC-d-7GH_qMu0c-SQ&amp;oh=00_AfjzRLqqFtZicC1DZbrI2q4y1SbVuy-_umO_rKlDstXVfg&amp;oe=692B9FB2', 'profileId': 'pfbid0FKtR4jrQKk4ARp5s7cu22qko2296tv4FpJcZvmwoT7H5Bki4BqFMbCahL5gjDCBYl', 'profileName': 'Cristian Leonardo Garcia Rojas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1749,29 +1647,29 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247221204110291/?dco_ad_token=Aapi5LUYJ66YPQtu8wCCqkj_NloXf31eqWUiqiNv-aQgbUB6ZV_PI2U2iAxb-IJOiGLoqwPH-Vd58J4Z&amp;dco_ad_id=120237893494860295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Gracias por vendernos basura por 35 años</t>
+          <t>35 años vendiendo productos sobrevalorados, bravo!</t>
         </is>
       </c>
       <c r="G25" s="2" t="n">
-        <v>45977.7458912037</v>
+        <v>45986.1346412037</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>45977</v>
+        <v>45986</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>17:54:05</t>
+          <t>03:13:53</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K25" t="n">
@@ -1783,13 +1681,13 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/', 'commentUrl': 'https://www.facebook.com/reel/1160900212791255/?comment_id=2346669862440074', 'id': 'Y29tbWVudDoxMjQ3MjIxOTY0MTEwMjE1XzIzNDY2Njk4NjI0NDAwNzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NzIyMTk2NDExMDIxNV8yMzQ2NjY5ODYyNDQwMDc0', 'date': '2025-11-16T17:54:05.000Z', 'text': 'Gracias por vendernos basura por 35 años', 'profileUrl': 'https://www.facebook.com/daniel.fernando.giraldo.2025', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/573522361_122145812756840932_5583705503299863483_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=QQDFENLtv50Q7kNvwE6bfiv&amp;_nc_oc=Admpk5fHFDNxLg8XkaxxoVJqsYeZOfvjdm_Op6b04btn9ea5FVLIv-gIs4CgeliFbag&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=oLI1MrrzuM1rmREx1zgi_Q&amp;oh=00_Afh9eMhgkwK7b7qCWirBMjRhl3BZOjfx0T6IHC_IbkGfrA&amp;oe=69223F2F', 'profileId': 'pfbid0msP2d6eirLRyobL6eZvReCgNeHRh7tYeUD7gDHPgpLb9vk1SrBejdb9FuW4QuaJ8l', 'profileName': 'Daniel Fernando Giraldo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1247221964110215', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1152991517044181', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNTI5OTE1MTcwNDQxODE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTUyOTkxNTE3MDQ0MTgx', 'date': '2025-11-25T03:13:53.000Z', 'text': '35 años vendiendo productos sobrevalorados, bravo!', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/565184876_10237965239371316_1025756455365633599_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=J1H0MpdiHqYQ7kNvwGWrkIB&amp;_nc_oc=Adl7EDb1JKRuVbbMjo3fi-TPbZatXtgtvVAzZLb03_ZALLDwiJQ5JAia5NWH0VtvAHM&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=P4HTrBC-d-7GH_qMu0c-SQ&amp;oh=00_AfgtT2wz6gaVjI0dW4NK2LYcUrgC-6vfI4oGzkaswwvUSg&amp;oe=692B820F', 'profileId': 'pfbid03CgbBm7aYy5t7NPqXMmU46qwX12bibmJpBCnaGN4f46cXvwZxapneHFRRtTwJ5Czl', 'profileName': 'Fabio Cuellar', 'likesCount': '7', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1803,29 +1701,29 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247221204110291/?dco_ad_token=Aapi5LUYJ66YPQtu8wCCqkj_NloXf31eqWUiqiNv-aQgbUB6ZV_PI2U2iAxb-IJOiGLoqwPH-Vd58J4Z&amp;dco_ad_id=120237893494860295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Bn caro y bien maluco esa mierd@..</t>
+          <t>Con esos precios na  gracias lo hago en casa me sale más barato  y más rico</t>
         </is>
       </c>
       <c r="G26" s="2" t="n">
-        <v>45976.37094907407</v>
+        <v>45986.50646990741</v>
       </c>
       <c r="H26" s="3" t="n">
-        <v>45976</v>
+        <v>45986</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>08:54:10</t>
+          <t>12:09:19</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K26" t="n">
@@ -1837,13 +1735,13 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/', 'commentUrl': 'https://www.facebook.com/reel/1160900212791255/?comment_id=1536887414121475', 'id': 'Y29tbWVudDoxMjQ3MjIxOTY0MTEwMjE1XzE1MzY4ODc0MTQxMjE0NzU=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NzIyMTk2NDExMDIxNV8xNTM2ODg3NDE0MTIxNDc1', 'date': '2025-11-15T08:54:10.000Z', 'text': 'Bn caro y bien maluco esa mierd@..', 'profileUrl': 'https://www.facebook.com/pablo.guerrero.921009', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/571442035_4222863411314760_9089915179445516382_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=sbyTZVVq00AQ7kNvwEeo0j6&amp;_nc_oc=AdkhD7unzD5QrsQZ5x-brKUjTA8kdBMpCrmHeHW7jjgxdKf-NJiKD5L72RX0S0QEMxQ&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=oLI1MrrzuM1rmREx1zgi_Q&amp;oh=00_AfjGviqNhpwQFPOXYDv7DzGnoV9OhzDBnAfQB5M4hv8_OA&amp;oe=69224095', 'profileId': 'pfbid0GyDwLYykEVjwDXPnMUK3qGNeZdS93g3fDAhGWQxScsLYfu1J1PUwg9QXS9JuERwyl', 'profileName': 'Påblō GūêRrêrō', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1247221964110215', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=2045961822830627', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIwNDU5NjE4MjI4MzA2Mjc=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMDQ1OTYxODIyODMwNjI3', 'date': '2025-11-25T12:09:19.000Z', 'text': 'Con esos precios na  gracias lo hago en casa me sale más barato  y más rico', 'profileUrl': 'https://www.facebook.com/david.fonk.913866', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/518197090_2028931904546235_7435092837846065560_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=124HZennl9MQ7kNvwGHc_87&amp;_nc_oc=Adlf86etw8h_wB6zLK83gz0qtyOmyNXWJI_DHAkXMtEgBeq6pFwC3lOfQ5vp0W1IzTU&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=P4HTrBC-d-7GH_qMu0c-SQ&amp;oh=00_Afhrg9FyLUQf9A58NsXy5LadY6MYfa-6KsBihK5p6JOiog&amp;oe=692B8381', 'profileId': '100022883357945', 'profileName': 'David Fonk', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1857,24 +1755,24 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247221204110291/?dco_ad_token=Aapi5LUYJ66YPQtu8wCCqkj_NloXf31eqWUiqiNv-aQgbUB6ZV_PI2U2iAxb-IJOiGLoqwPH-Vd58J4Z&amp;dco_ad_id=120237893494860295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>De niña no tomaba, muy caro y de adulta por hay 1 al año.  Caro sigue 🙄. Y la mitad sel frasco vacío</t>
+          <t>35 años vendiendo plástico, felicitaciones, que gran empresa</t>
         </is>
       </c>
       <c r="G27" s="2" t="n">
-        <v>45978.05296296296</v>
+        <v>45986.42283564815</v>
       </c>
       <c r="H27" s="3" t="n">
-        <v>45978</v>
+        <v>45986</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>01:16:16</t>
+          <t>10:08:53</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1891,13 +1789,13 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/', 'commentUrl': 'https://www.facebook.com/reel/1160900212791255/?comment_id=1793492798148479', 'id': 'Y29tbWVudDoxMjQ3MjIxOTY0MTEwMjE1XzE3OTM0OTI3OTgxNDg0Nzk=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NzIyMTk2NDExMDIxNV8xNzkzNDkyNzk4MTQ4NDc5', 'date': '2025-11-17T01:16:16.000Z', 'text': 'De niña no tomaba, muy caro y de adulta por hay 1 al año.  Caro sigue 🙄. Y la mitad sel frasco vacío', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/583339879_4418860178341333_4034263306258819037_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=_6VFNAw_M1UQ7kNvwFqWcw-&amp;_nc_oc=AdnTUlOsY8q0n5bMLWkr0GgNHbbWOvfKf0Hb37GgQAT6PprEJS0XdjMec_ZXaNXiLF8&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=oLI1MrrzuM1rmREx1zgi_Q&amp;oh=00_Afi9izcJM2eTD83JfZNbAWj3CN2CgpMfe4qxFotpo_xonA&amp;oe=69222F82', 'profileId': 'pfbid02YMaWmL24WZLcuwYokfcWHzNWC8rnvRvFTe3cRbELgFzHDyuNceQFSgChcDmpGMXyl', 'profileName': 'Marce GF', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1247221964110215', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=837830755559105', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzgzNzgzMDc1NTU1OTEwNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184Mzc4MzA3NTU1NTkxMDU=', 'date': '2025-11-25T10:08:53.000Z', 'text': '35 años vendiendo plástico, felicitaciones, que gran empresa', 'profileUrl': 'https://www.facebook.com/ANDYRODICK.509', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/544854593_10241181694778697_249590002339244172_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=TjSYTcB0t0sQ7kNvwG1uFTe&amp;_nc_oc=AdkLQTXrL2_reKh5uyZQlV3vy0fxWvDcEGZgPjyfgFns5aXsV7vLvfU0nxYvfDTgKv4&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=P4HTrBC-d-7GH_qMu0c-SQ&amp;oh=00_AfgvQusF3Mmdk4Jsssetrtzb_a-CNGP4rW3RZgevNpEHOw&amp;oe=692B8243', 'profileId': '1210177132', 'profileName': 'Felipe Andrés Morales', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1911,29 +1809,29 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247221204110291/?dco_ad_token=Aapi5LUYJ66YPQtu8wCCqkj_NloXf31eqWUiqiNv-aQgbUB6ZV_PI2U2iAxb-IJOiGLoqwPH-Vd58J4Z&amp;dco_ad_id=120237893494860295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Y simplemente costoso no tiene lógica</t>
+          <t>Sobrevalorado, es rico siii pero fácilmente me pasan años sin probarlo, su precio aleja para ser tan básico</t>
         </is>
       </c>
       <c r="G28" s="2" t="n">
-        <v>45979.05670138889</v>
+        <v>45986.21298611111</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>45979</v>
+        <v>45986</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>01:21:39</t>
+          <t>05:06:42</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K28" t="n">
@@ -1945,13 +1843,13 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/', 'commentUrl': 'https://www.facebook.com/reel/1160900212791255/?comment_id=618250194645948', 'id': 'Y29tbWVudDoxMjQ3MjIxOTY0MTEwMjE1XzYxODI1MDE5NDY0NTk0OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NzIyMTk2NDExMDIxNV82MTgyNTAxOTQ2NDU5NDg=', 'date': '2025-11-18T01:21:39.000Z', 'text': 'Y simplemente costoso no tiene lógica', 'profileUrl': 'https://www.facebook.com/blado.corredor', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t1.6435-1/123773625_109596510953181_8809219761692673744_n.jpg?stp=c68.228.330.329a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Ep24IWvRYJkQ7kNvwE0zdLF&amp;_nc_oc=Adnp32x47RoPJwqYZSYLUSHxL9HEqM9JSLrNabtVeDtpMxxMQi3TuOLs71wNjaTZ5IU&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=oLI1MrrzuM1rmREx1zgi_Q&amp;oh=00_Afjed_ZPHu2CK8Tu1OnqIZ5MhM8LvHDil_f302IQ9O0WrQ&amp;oe=6943D249', 'profileId': 'pfbid02mPkPsNAUhjq9tZPTGJN6d8K1apbh8fUZdWQKmkDVxxK3ezsxbFA9FmWUq1vDSMi1l', 'profileName': 'Blado Corredor', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1247221964110215', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1306741007870493', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzMDY3NDEwMDc4NzA0OTM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzA2NzQxMDA3ODcwNDkz', 'date': '2025-11-25T05:06:42.000Z', 'text': 'Sobrevalorado, es rico siii pero fácilmente me pasan años sin probarlo, su precio aleja para ser tan básico', 'profileUrl': 'https://www.facebook.com/oscar.f.prieto.14', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/457702307_10233564617640291_6209302674690125759_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=UKfRj2ucYHwQ7kNvwHHy8O3&amp;_nc_oc=AdmEZ1gFmEz8j9yXhUBKs2I10Ng67ldFIlPJ_w2jBhSTtn2daXRtVPUa-bL5miWOefM&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=P4HTrBC-d-7GH_qMu0c-SQ&amp;oh=00_AfhPgqD60gOHoTBOOxw2P-CQukZMhCcdc4ySP5lg0YsETw&amp;oe=692B9430', 'profileId': 'pfbid02gaq76sKzCayZXnBwQzfzj2jvm3YRS1MDv4myncmYQrCXDPwioRjzA2uUzmifdR3Ml', 'profileName': 'Oscar Fabian Buitrago Prieto', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1965,24 +1863,24 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247221204110291/?dco_ad_token=Aapi5LUYJ66YPQtu8wCCqkj_NloXf31eqWUiqiNv-aQgbUB6ZV_PI2U2iAxb-IJOiGLoqwPH-Vd58J4Z&amp;dco_ad_id=120237893494860295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Bórrame esa mierda de hay</t>
+          <t>Todo un lujo jjj</t>
         </is>
       </c>
       <c r="G29" s="2" t="n">
-        <v>45979.02355324074</v>
+        <v>45986.09811342593</v>
       </c>
       <c r="H29" s="3" t="n">
-        <v>45979</v>
+        <v>45986</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>00:33:55</t>
+          <t>02:21:17</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1999,13 +1897,13 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/', 'commentUrl': 'https://www.facebook.com/reel/1160900212791255/?comment_id=815364717973375', 'id': 'Y29tbWVudDoxMjQ3MjIxOTY0MTEwMjE1XzgxNTM2NDcxNzk3MzM3NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NzIyMTk2NDExMDIxNV84MTUzNjQ3MTc5NzMzNzU=', 'date': '2025-11-18T00:33:55.000Z', 'text': 'Bórrame esa mierda de hay', 'profileUrl': 'https://www.facebook.com/people/Neil-Rincon/pfbid02a1Ma3qHJrG2WjSiVYNefHv2QtsRVcLkMvdzMUuxMKU4oP1k1hpY1CUeAekZsc354l/', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=acGRQYQ8TUgQ7kNvwHB6E-B&amp;_nc_oc=AdkJU16JKRH4BtoiH96lLvhlnDioAiVusPV86dXwGaovY5-NrDiLlKi1dShBllZT30E&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;oh=00_Afg6TMtFEP3tRoUPdc2811X1XrkxPvUwjwWfCfTB-vWWCQ&amp;oe=6943F97A', 'profileId': 'pfbid02a1Ma3qHJrG2WjSiVYNefHv2QtsRVcLkMvdzMUuxMKU4oP1k1hpY1CUeAekZsc354l', 'profileName': 'Neil Rincon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1247221964110215', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=829854586452459', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzgyOTg1NDU4NjQ1MjQ1OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184Mjk4NTQ1ODY0NTI0NTk=', 'date': '2025-11-25T02:21:17.000Z', 'text': 'Todo un lujo jjj', 'profileUrl': 'https://www.facebook.com/luzbell.yepez', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/453730668_1638470000264918_8355986196165245239_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=k9OYS5QCpFUQ7kNvwFxhW_l&amp;_nc_oc=AdnLHdXBeEkKed3rm2i8h3d72WbYW0jjGwGZWQjkuFf9Gt-pUJC7OhfMptaQo0ZDmlw&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=P4HTrBC-d-7GH_qMu0c-SQ&amp;oh=00_AfgeXyjO-vS8GBPZ3SHn9KRXOMvjZOjBN0lTFlo6BWFbUg&amp;oe=692BA181', 'profileId': '100023058013154', 'profileName': 'Luzbell Patty', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2019,29 +1917,29 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247221204110291/?dco_ad_token=Aapi5LUYJ66YPQtu8wCCqkj_NloXf31eqWUiqiNv-aQgbUB6ZV_PI2U2iAxb-IJOiGLoqwPH-Vd58J4Z&amp;dco_ad_id=120237893494860295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>La mierda más mala y cara de colombia</t>
+          <t>Con ese precio mejor tomo aguapanelita con limon</t>
         </is>
       </c>
       <c r="G30" s="2" t="n">
-        <v>45972.4708912037</v>
+        <v>45985.93166666666</v>
       </c>
       <c r="H30" s="3" t="n">
-        <v>45972</v>
+        <v>45985</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>11:18:05</t>
+          <t>22:21:36</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K30" t="n">
@@ -2053,13 +1951,13 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/', 'commentUrl': 'https://www.facebook.com/reel/1160900212791255/?comment_id=1512826363088520', 'id': 'Y29tbWVudDoxMjQ3MjIxOTY0MTEwMjE1XzE1MTI4MjYzNjMwODg1MjA=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NzIyMTk2NDExMDIxNV8xNTEyODI2MzYzMDg4NTIw', 'date': '2025-11-11T11:18:05.000Z', 'text': 'La mierda más mala y cara de colombia', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/571671433_122178648368531798_9070491493848559412_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=3ytY_ac4SXQQ7kNvwFxi_gp&amp;_nc_oc=AdnbuR5jSZaAIioDpWSpSu3tCXxL8_mJCQW3JxOhOzJI-X6jjnwSwZbs8z76gb5_mDI&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=oLI1MrrzuM1rmREx1zgi_Q&amp;oh=00_AfjZ3S50QxLGMxOxu-Zo8mOqSqwPp-IsNDggzqe3al8aqA&amp;oe=692249F8', 'profileId': 'pfbid023J91wZCEyuMpaZHLkLX6drrujPDvogsYtYnLqrZeHzEBQyFXDUCSAznB2tznitQ2l', 'profileName': 'GI Hun', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1247221964110215', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=809611618734196', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzgwOTYxMTYxODczNDE5Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184MDk2MTE2MTg3MzQxOTY=', 'date': '2025-11-24T22:21:36.000Z', 'text': 'Con ese precio mejor tomo aguapanelita con limon', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/582415971_122231449286261461_6522798567143997130_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=e_p3acUPNvIQ7kNvwGmC6pc&amp;_nc_oc=Adl9pU-MhsV3K0CJ24hXqilxZyU7G-mUfO3bB9aVmcnl2E5LKH2KNu0vvNDcq_SKVEE&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=P4HTrBC-d-7GH_qMu0c-SQ&amp;oh=00_AfjOsZm9bRczF6ifP-i35RkLxqABVfhwkCIdifdIaYuUTg&amp;oe=692B74FD', 'profileId': 'pfbid027TAmGj1ecTbczVDQt7HD4PXQBWENhj7Di5UWNj4C4V19L6kmeiYZdekcJuEXgPpsl', 'profileName': 'Santiago Celis', 'likesCount': '13', 'commentsCount': 9, 'comments': [], 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2073,29 +1971,31 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247221204110291/?dco_ad_token=Aapi5LUYJ66YPQtu8wCCqkj_NloXf31eqWUiqiNv-aQgbUB6ZV_PI2U2iAxb-IJOiGLoqwPH-Vd58J4Z&amp;dco_ad_id=120237893494860295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>35 años? Fue en 1988 cuando el producto salió a la venta. Si van a promocionar, háganlo bien y sin caer en esa porquería de Inteligencia Artificial.</t>
+          <t>Me acordé de la propaganda que le preguntaban a la gente que cree que es bon yurt
+Y una señora toda elegante dice : en francés significa BUENOS DÍAS 
+Fue la primera palabra en otro idioma que aprendí gracias a ese marketing</t>
         </is>
       </c>
       <c r="G31" s="2" t="n">
-        <v>45978.73214120371</v>
+        <v>45986.05381944445</v>
       </c>
       <c r="H31" s="3" t="n">
-        <v>45978</v>
+        <v>45986</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>17:34:17</t>
+          <t>01:17:30</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K31" t="n">
@@ -2107,13 +2007,13 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/', 'commentUrl': 'https://www.facebook.com/reel/1160900212791255/?comment_id=830021179642812', 'id': 'Y29tbWVudDoxMjQ3MjIxOTY0MTEwMjE1XzgzMDAyMTE3OTY0MjgxMg==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NzIyMTk2NDExMDIxNV84MzAwMjExNzk2NDI4MTI=', 'date': '2025-11-17T17:34:17.000Z', 'text': '35 años? Fue en 1988 cuando el producto salió a la venta. Si van a promocionar, háganlo bien y sin caer en esa porquería de Inteligencia Artificial.', 'profileUrl': 'https://www.facebook.com/alex.j.fox.90', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/468819273_10160732834407828_1770336969269692997_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=d4rms0zfG7MQ7kNvwFmPYxT&amp;_nc_oc=AdkyoxTJXa7FsBsEoD-KbRadd7KWVbt91_bEgl0kHlL03pQmJz574TQ_E72CtOfSt04&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=oLI1MrrzuM1rmREx1zgi_Q&amp;oh=00_Afhtod6_-ByggNtAoGWHHzWtDO2GJyzulUsipHU9I4N9fA&amp;oe=69223C88', 'profileId': 'pfbid02HY6Sf6ceQNCs4kCAT8A4Dt4Rqo3u5YnC7KQDsJiiEQKwbXvWd3Q14Pexkhwg6dGnl', 'profileName': 'Alex J. Fox', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1247221964110215', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=2077627949641833', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIwNzc2Mjc5NDk2NDE4MzM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMDc3NjI3OTQ5NjQxODMz', 'date': '2025-11-25T01:17:30.000Z', 'text': 'Me acordé de la propaganda que le preguntaban a la gente que cree que es bon yurt\nY una señora toda elegante dice : en francés significa BUENOS DÍAS \nFue la primera palabra en otro idioma que aprendí gracias a ese marketing', 'profileUrl': 'https://www.facebook.com/alvaro.e.valbuena.1', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/496184028_10236240538011203_1945246543330215312_n.jpg?stp=c125.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=OjGgE6xgWtkQ7kNvwGQoJcr&amp;_nc_oc=AdmlHYG4AkjS6mcYfZKonHvA-HMhs2E7yMb3Vff90c3XSsSomo4meSW1_QzIwTRI6Xs&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=P4HTrBC-d-7GH_qMu0c-SQ&amp;oh=00_Afiuv17p_dEvfYmCEE7T1vgLyJZK7dl6OjK-aKnt6wk1LA&amp;oe=692B9508', 'profileId': '1160294878', 'profileName': 'Alvaro Esparza Valbuena', 'likesCount': '2', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2127,24 +2027,24 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247221204110291/?dco_ad_token=Aapi5LUYJ66YPQtu8wCCqkj_NloXf31eqWUiqiNv-aQgbUB6ZV_PI2U2iAxb-IJOiGLoqwPH-Vd58J4Z&amp;dco_ad_id=120237893494860295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Edjnsonyondh</t>
+          <t>Un mundo lleno de azúcar con seres humanos enfermos por esto mismo, el azúcar comida de muchas enfermedades entre ellas el cáncer, alimento ultraprocesado que hacen pasar por un alimento saludable  y ahora quien quiere contaminar a sus hijos o dañar sus sistemas digestivos .... Consume bon yurt te ayuda a estar mal si o si .........</t>
         </is>
       </c>
       <c r="G32" s="2" t="n">
-        <v>45977.9413425926</v>
+        <v>45986.47837962963</v>
       </c>
       <c r="H32" s="3" t="n">
-        <v>45977</v>
+        <v>45986</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>22:35:32</t>
+          <t>11:28:52</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2161,17 +2061,17 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/', 'commentUrl': 'https://www.facebook.com/reel/1160900212791255/?comment_id=1365929021988234', 'id': 'Y29tbWVudDoxMjQ3MjIxOTY0MTEwMjE1XzEzNjU5MjkwMjE5ODgyMzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NzIyMTk2NDExMDIxNV8xMzY1OTI5MDIxOTg4MjM0', 'date': '2025-11-16T22:35:32.000Z', 'text': 'Edjnsonyondh', 'attachments': [{'__typename': 'Sticker', 'frame_count': 12, 'frame_rate': 83, 'frames_per_column': 3, 'frames_per_row': 4, 'label': 'Animated yellow face emoji, smiling, with two beating hearts instead of eyes.', 'pack': {'name': 'Moodies', 'id': '516558918806470'}, 'sprite_image': {'uri': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.1997-6/106254925_953856331743391_5331504226039302019_n.png?stp=dst-png_p240x240&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=ba09c1&amp;_nc_ohc=xjRpSkPQWJ8Q7kNvwEN6NSq&amp;_nc_oc=Admw4mYL4BmNMVuXYqmdxERzPiGuqF92hInEmabUResPxrZXTKnlrPKccQGQ1PoI65I&amp;_nc_zt=26&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=oLI1MrrzuM1rmREx1zgi_Q&amp;oh=00_AfiMTMoLX7lU7fpekbkylIEWRS0ADa7UMvmi7xAGECvmjA&amp;oe=692247AC'}, 'image': {'uri': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.1997-6/104901883_953856378410053_2451179903294598842_n.png?stp=cp0_dst-png_s110x80&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=23dd7b&amp;_nc_ohc=Z3T5K7KGtzMQ7kNvwGbl1_R&amp;_nc_oc=AdkK3l-LnlbxjngdS2K14YNtmYcO_eUVuUlwxvVHRsejABTRnD24woddTfGzCxYRSb8&amp;_nc_zt=26&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=oLI1MrrzuM1rmREx1zgi_Q&amp;oh=00_Afi_Bf15oCw7uYuabPTiMn2LVxRrnXjcjsjGpDZsWrxlcA&amp;oe=69223745', 'width': 80, 'height': 80}, 'id': '529233777538984'}], 'profileUrl': 'https://www.facebook.com/people/Edison-Yonda/pfbid0dakFTvRVFjyHb4VyVqpvQP9TpJ3t5dBfqPqnvmN1Lrts6P7vV6mcUvc7SpYULvnvl/', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/497660365_122105408858864439_6295896565049305379_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=MNFkHxovYcEQ7kNvwEZ6tjx&amp;_nc_oc=AdmsNopR5IB_uGY_hzrzUVoBrVpIoaeFs5Dwe5b8rQeGr3SgJavmVnxYQb0lNZyewoE&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=oLI1MrrzuM1rmREx1zgi_Q&amp;oh=00_AfhT_P3tip_y2w9S0U3nHgG-yY8yGMIIQhS0whZobjyVyw&amp;oe=69225BB5', 'profileId': 'pfbid0dakFTvRVFjyHb4VyVqpvQP9TpJ3t5dBfqPqnvmN1Lrts6P7vV6mcUvc7SpYULvnvl', 'profileName': 'Edison Yonda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1247221964110215', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1247221204110291/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=740299422427121', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3Xzc0MDI5OTQyMjQyNzEyMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N183NDAyOTk0MjI0MjcxMjE=', 'date': '2025-11-25T11:28:52.000Z', 'text': 'Un mundo lleno de azúcar con seres humanos enfermos por esto mismo, el azúcar comida de muchas enfermedades entre ellas el cáncer, alimento ultraprocesado que hacen pasar por un alimento saludable  y ahora quien quiere contaminar a sus hijos o dañar sus sistemas digestivos .... Consume bon yurt te ayuda a estar mal si o si .........', 'profileUrl': 'https://www.facebook.com/people/Fazart-Ansestral/pfbid0226uLiwow7a9MhjuiktVxD49ZTy9EE5gyLWReTQudH5ctCs25qiRZgWe6w4o4eox1l/', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/584964433_883191414183992_4641468979062122638_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=sisAWWdQOr4Q7kNvwE-17Ux&amp;_nc_oc=Adm3r3vpw27pt4Gr3hgnp4zVE3RiyA-1u98DiZuTrsBe_yLf4rGRKdrHquH_sXJFFpc&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=P4HTrBC-d-7GH_qMu0c-SQ&amp;oh=00_Afh2gqmkJ6IOoverczZh_gg5TJIqNvb0qHD1l5rSj4YXxA&amp;oe=692B9324', 'profileId': 'pfbid0226uLiwow7a9MhjuiktVxD49ZTy9EE5gyLWReTQudH5ctCs25qiRZgWe6w4o4eox1l', 'profileName': 'Fazart Ansestral', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2181,16 +2081,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQ4T7oagGqD/#advertiser</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>0</v>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>35 años robando a las familias... Excelente como se han enriquecido</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>45986.47603009259</v>
+      </c>
+      <c r="H33" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>11:25:29</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -2198,24 +2112,20 @@
       <c r="L33" t="b">
         <v>0</v>
       </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DQ4T7oagGqD/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1557146152191245', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE1NTcxNDYxNTIxOTEyNDU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNTU3MTQ2MTUyMTkxMjQ1', 'date': '2025-11-25T11:25:29.000Z', 'text': '35 años robando a las familias... Excelente como se han enriquecido', 'profileUrl': 'https://www.facebook.com/ricardo.alvarado.303209', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/489963098_1177889487157615_7278733843491031172_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=P2Kmnn4E4LAQ7kNvwGxYcja&amp;_nc_oc=Adm9H5-7l4eDLjN1_jurkO7hvMVZcKdEUXn0x5mc1gl8kjQs59kmbIdZIpknIEJopg0&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=w9p7cbJDsX-XDWIzcYaFUg&amp;oh=00_AfiSPBTCXXrCSFmCrzSjnARIiPIbvtvnwcyEB3JkGeTN1w&amp;oe=692B7F97', 'profileId': 'pfbid0euk5FvGWJzbGa3P76eyBKDWXyDmYhntVEPDgNB7NZuQ2taEtaXS16rNGgVTqKZJfl', 'profileName': 'Ricardo Alvarado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2225,16 +2135,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQ4TbcNAFUD/#advertiser</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>0</v>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Esa época cuando el yogurt  era el propio sin derivados de sueros</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>45986.09702546296</v>
+      </c>
+      <c r="H34" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>02:19:43</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -2242,20 +2166,16 @@
       <c r="L34" t="b">
         <v>0</v>
       </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DQ4TbcNAFUD/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1177485643784836', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNzc0ODU2NDM3ODQ4MzY=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTc3NDg1NjQzNzg0ODM2', 'date': '2025-11-25T02:19:43.000Z', 'text': 'Esa época cuando el yogurt  era el propio sin derivados de sueros', 'profileUrl': 'https://www.facebook.com/alejandra.mesa.347498', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/482057859_598914793147624_2770549664691375390_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=wknIJ03wuNsQ7kNvwG7H-V5&amp;_nc_oc=Adk3qGLyF5n1B1Uqw4-o3YFK53xn5Q-tKb5aTaXrn_PI8_ozLrV75BcqUNU-RgEr3Oc&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=w9p7cbJDsX-XDWIzcYaFUg&amp;oh=00_AfhBq_HsahW5FaZCDYU8scaXFlArdYupNPys0Ec-5EOWXQ&amp;oe=692B85FD', 'profileId': '100090873254237', 'profileName': 'Alejandra Mesa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2269,16 +2189,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247217804110631/?dco_ad_token=Aarw8MxFPspt0ObKG96PHxCXj_tN88C6ZbD-jCFy0x84uCAcZNYBcn0azOm0IYyO44XJdD4iMqkre508&amp;dco_ad_id=120237893574550295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>0</v>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5 lucas un bon yurt nee jeeedaaa</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>45986.12678240741</v>
+      </c>
+      <c r="H35" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>03:02:34</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -2289,17 +2223,17 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064672685926/posts/1247217804110631/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=2057651748323375', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIwNTc2NTE3NDgzMjMzNzU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMDU3NjUxNzQ4MzIzMzc1', 'date': '2025-11-25T03:02:34.000Z', 'text': '5 lucas un bon yurt nee jeeedaaa', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/579096341_24930560536552313_4879993214776733949_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1ry4uQ-XYsgQ7kNvwF-4U50&amp;_nc_oc=AdkrAdjl279fczbkjr7Dq21E6r27feXZiRYSNP42albtC6X7umGliHDKpSmOthHNN80&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=w9p7cbJDsX-XDWIzcYaFUg&amp;oh=00_AfhvrqMn3O0-PP0FkpvI_5QUJhJsr_kI9r_yUJjR0F88og&amp;oe=692B79B9', 'profileId': 'pfbid02nPrRsY5azLdm9cuRWt1p9GYWSyTw95kDQqmCcjB76GrRJwycap2shaQZNrN2EHYRl', 'profileName': 'Rodríguez C Juan', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2309,16 +2243,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQ4T7rtgIL6/#advertiser</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>0</v>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Salió como a finales del 88</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>45986.00568287037</v>
+      </c>
+      <c r="H36" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>00:08:11</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -2326,20 +2274,16 @@
       <c r="L36" t="b">
         <v>0</v>
       </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DQ4T7rtgIL6/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=2154810411989541', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIxNTQ4MTA0MTE5ODk1NDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMTU0ODEwNDExOTg5NTQx', 'date': '2025-11-25T00:08:11.000Z', 'text': 'Salió como a finales del 88', 'profileUrl': 'https://www.facebook.com/jotaw13', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/337289576_1576143646203421_1755706736298063618_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1nwcyctg6GIQ7kNvwFjw0Er&amp;_nc_oc=AdluXgz0BytOCSK2Hiz672peXwi3Mve2tUcrtZItpbSyIUm0JztsHODD6RTgK30iJiA&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=w9p7cbJDsX-XDWIzcYaFUg&amp;oh=00_AfjR112S03pN56Q4--Y37Zz06mOehbixGxJirzoPpP_N_g&amp;oe=692B77BA', 'profileId': 'pfbid03Tki1jGUfZAGN5wMh9FDmjKnhigkQP5GTdMFg2JWqfdxEs2nP5GCvjNwsrafGWhSl', 'profileName': 'Jota Dobleu', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2353,16 +2297,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247221017443643/?dco_ad_token=AaoBopZZI9KGjA5oC_0ad31mxzo-SII-3kiWpAiEZPBSOr4NX3CeMv_lxyski_y7V-fIAdy1XXO39riB&amp;dco_ad_id=120237893574540295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>0</v>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Lástima lo inflado del precio</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>45985.81935185185</v>
+      </c>
+      <c r="H37" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>19:39:52</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -2373,7 +2331,989 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064672685926/posts/1247221017443643/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1149425460681635', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNDk0MjU0NjA2ODE2MzU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTQ5NDI1NDYwNjgxNjM1', 'date': '2025-11-24T19:39:52.000Z', 'text': 'Lástima lo inflado del precio', 'profileUrl': 'https://www.facebook.com/MauRock66', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/566387101_26077118705210524_8269391756508760371_n.jpg?stp=cp6_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=joB-7o-LarIQ7kNvwHReKTt&amp;_nc_oc=AdnxAJF9pBvoqQelxGXepTO7jC9rOCS-hvvK3bYKpQpNIWuwhprtNB17Y4B9TQq9DQA&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=w9p7cbJDsX-XDWIzcYaFUg&amp;oh=00_Afh_tf7C71byAhpAjgpDnj-72LwNQ1jrsnzCaU461P1Uuw&amp;oe=692B7A07', 'profileId': '100000172524271', 'profileName': 'Sergio Mauricio', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>13</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Ojalá el precio también sea retro.</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>45986.03555555556</v>
+      </c>
+      <c r="H38" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>00:51:12</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1597679538060212', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE1OTc2Nzk1MzgwNjAyMTI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNTk3Njc5NTM4MDYwMjEy', 'date': '2025-11-25T00:51:12.000Z', 'text': 'Ojalá el precio también sea retro.', 'profileUrl': 'https://www.facebook.com/people/Hansel-Henao/pfbid0NaEg3aBqn2ww95pskHUTCsAVwWPY1kpN4YkodTkXkHZkfJxCwZBTUtL5PK2MvmmPl/', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/574881308_122141790008886423_3926047453065656662_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=BDbfoJVH9ecQ7kNvwEYwq9o&amp;_nc_oc=AdnXdt5GRoPEblG27uah5HCKkWfLEOa4sCN_PwcC4TKNvweW9-pHBgZusBDikVoTqqE&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=w9p7cbJDsX-XDWIzcYaFUg&amp;oh=00_Afj-bPRIIGpKe1HFWs2xC2ULutHy3zBkNNUjiiLuTus8zQ&amp;oe=692B7B0B', 'profileId': 'pfbid0NaEg3aBqn2ww95pskHUTCsAVwWPY1kpN4YkodTkXkHZkfJxCwZBTUtL5PK2MvmmPl', 'profileName': 'Hansel Henao', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>13</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Muy poquito para el valor! Se pasan...</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>45986.2392824074</v>
+      </c>
+      <c r="H39" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>05:44:34</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1616838652836190', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE2MTY4Mzg2NTI4MzYxOTA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNjE2ODM4NjUyODM2MTkw', 'date': '2025-11-25T05:44:34.000Z', 'text': 'Muy poquito para el valor! Se pasan...', 'profileUrl': 'https://www.facebook.com/jeisson.velasquez1', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/452370479_10160282363657916_289347451250372803_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=IB1YpOYaE_QQ7kNvwF4k3vO&amp;_nc_oc=AdmcQrqGghRkNDHyUH5yjZqWM7bcTcrsxhiX6sA6TNrTB5fvo29mlR1wYWMc4DHRLLw&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=w9p7cbJDsX-XDWIzcYaFUg&amp;oh=00_AfhmsLib1U7U2279NnXG0Al7wWp4mwOfcabx2q2O7cZ-jA&amp;oe=692B92B3', 'profileId': 'pfbid02Wzd6UgTp1s8naWrTKatgLVzXs4dARbuMGi8DLTFMZ1Nc5X5sQTz9e718MC3dWKGhl', 'profileName': 'Jeisson Andres Velásquez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>13</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Deberían más BN de bajar esos precios</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>45985.97886574074</v>
+      </c>
+      <c r="H40" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>23:29:34</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1180817223396975', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExODA4MTcyMjMzOTY5NzU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTgwODE3MjIzMzk2OTc1', 'date': '2025-11-24T23:29:34.000Z', 'text': 'Deberían más BN de bajar esos precios', 'profileUrl': 'https://www.facebook.com/andres.berrio.5099', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/505076476_2471279906587344_4562158579986467172_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=tnzosi5PxugQ7kNvwHOfcnG&amp;_nc_oc=Adnw0XKgyJ8kS0W1WDP6NpdYFTYqQ8j9dGr93HYBiXmaJI4eWKjmgnGFzhg8URdHMOs&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=w9p7cbJDsX-XDWIzcYaFUg&amp;oh=00_Afhq5wQx9i_kWHp59jKgexW5R1DxVKWW3l9p_y-tMdMlTw&amp;oe=692B9532', 'profileId': '100011160751685', 'profileName': 'Jõsê Åńdrés Bêrrïø', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>13</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>BEBIDA LÁCTEA QUE NO ES YOGURT</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>45986.32553240741</v>
+      </c>
+      <c r="H41" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>07:48:46</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1351672526428164', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzNTE2NzI1MjY0MjgxNjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzUxNjcyNTI2NDI4MTY0', 'date': '2025-11-25T07:48:46.000Z', 'text': 'BEBIDA LÁCTEA QUE NO ES YOGURT', 'profileUrl': 'https://www.facebook.com/roman.alberto.bedoya.lopez', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/509434251_122215215074155260_588325818133350255_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=lWZXDpTbpxkQ7kNvwFl7sxq&amp;_nc_oc=Adl7e2dJHl7UCKxYejgtc2tPa6raXYW1_lqVxQjku6Hy5ybHAcTtyCuT6MXRRei8FPA&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=w9p7cbJDsX-XDWIzcYaFUg&amp;oh=00_AfjzySbKJGUkUG0OLkJ5X4nQOABFyCXQwMu5XjBFTjPpdQ&amp;oe=692B8A7D', 'profileId': 'pfbid02iQ1c2zrGHZsxAkEgfyRedNYYFAcQPSv2BNpFz9D5Z4Eb4DBCyJXt9j6VvR2XFyBl', 'profileName': 'Roman Alberto Bedoya Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>13</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Ese es peso pluma ?</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>45985.79761574074</v>
+      </c>
+      <c r="H42" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>19:08:34</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=745583734460698', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3Xzc0NTU4MzczNDQ2MDY5OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N183NDU1ODM3MzQ0NjA2OTg=', 'date': '2025-11-24T19:08:34.000Z', 'text': 'Ese es peso pluma ?', 'profileUrl': 'https://www.facebook.com/mike.willians.5070', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/584383279_1562176281802832_965959746697360446_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=MIGsVsxqkrcQ7kNvwFUlnLV&amp;_nc_oc=AdkKEnRnlTV5mPcAIelizmxfVGLJ0I5CqADRrvsf648ahFD6MFNL3KNTBcPutFkveyY&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=w9p7cbJDsX-XDWIzcYaFUg&amp;oh=00_Afiiod65gsdbHOGufUoVajgaVFo8GCV8khQzfI5E0BbpyQ&amp;oe=692B8A4B', 'profileId': '100040314257533', 'profileName': 'Mike Boomin', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>13</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Recuerdo esa primera propaganda: "¿Sabe usted qué es Bon Yurt? Bon Yurt... Bon Yurt..."</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>45985.90262731481</v>
+      </c>
+      <c r="H43" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>21:39:47</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1871869833723454', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE4NzE4Njk4MzM3MjM0NTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xODcxODY5ODMzNzIzNDU0', 'date': '2025-11-24T21:39:47.000Z', 'text': 'Recuerdo esa primera propaganda: "¿Sabe usted qué es Bon Yurt? Bon Yurt... Bon Yurt..."', 'profileUrl': 'https://www.facebook.com/jorgeelias.estradacontreras', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/433482453_10233287643592000_5084357381527629157_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=_QJkmOOEX2wQ7kNvwG3DYLE&amp;_nc_oc=AdkaNYrb3nj_61GXA7qJQsNR7BrE5EiRQ_UE15F47vBKm1ITnr6vjACv14WJEUxHlmM&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=cRL1hCycpT7kLf8jdeLcuQ&amp;oh=00_Afgv5wN4QrrzAYEz0MKvNMxQR1VPJwTn7L5C5bMxbuOnqQ&amp;oe=692B7975', 'profileId': '1199642613', 'profileName': 'Jorge Elìas Estrada Contreras', 'likesCount': '2', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>13</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Semejante cara de bobo este personaje...</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>45986.03559027778</v>
+      </c>
+      <c r="H44" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>00:51:15</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1178608700915001', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNzg2MDg3MDA5MTUwMDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTc4NjA4NzAwOTE1MDAx', 'date': '2025-11-25T00:51:15.000Z', 'text': 'Semejante cara de bobo este personaje...', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/581235981_10167208688688849_3520455922866965120_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=DvGqiB8qC_cQ7kNvwFy5tGz&amp;_nc_oc=Adk708x-xDILUPIhJymeJRZXgmbpedAtHYa36UstUFj5mLxstnbRkkj3f-umUKrqQuo&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=cRL1hCycpT7kLf8jdeLcuQ&amp;oh=00_AfhJKEDHi5cD0Bh0wpSOGhP2tN6HOyDqRIxZ-yrFiFVlJw&amp;oe=692B9A78', 'profileId': 'pfbid021jPWK28LDwTjVSExPQvHaHMPJQkKNkBTZstQNCL1w5f5BawrkVqyAhCAP79nC7Mgl', 'profileName': 'Daniel Zuluaga', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>13</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Como pasa el tiempo 😳</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>45985.77719907407</v>
+      </c>
+      <c r="H45" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>18:39:10</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1387173373123562', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzODcxNzMzNzMxMjM1NjI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzg3MTczMzczMTIzNTYy', 'date': '2025-11-24T18:39:10.000Z', 'text': 'Como pasa el tiempo 😳', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-6/588706634_4751773904963963_6329048467427518043_n.jpg?stp=dst-jpg_fb30_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=5ziYfdGp3A8Q7kNvwFITdyc&amp;_nc_oc=AdmDvAMl8VTkiQbVWA6bR9gIZ8FHr6OnviM4IdULro5Zl8cPqkv4PrbhKaqb41tXYcE&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=cRL1hCycpT7kLf8jdeLcuQ&amp;oh=00_AfhMzD75GiHjTqyOROyL5fo5iWfjGGQmtXSPsBrgNQs4VQ&amp;oe=692B7C68'}, 'id': '4751773898297297', 'cix_screen': None, 'massive_image': {'width': 450, 'height': 444}, 'image': {'uri': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-6/588706634_4751773904963963_6329048467427518043_n.jpg?stp=dst-jpg_p228x119_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=5ziYfdGp3A8Q7kNvwFITdyc&amp;_nc_oc=AdmDvAMl8VTkiQbVWA6bR9gIZ8FHr6OnviM4IdULro5Zl8cPqkv4PrbhKaqb41tXYcE&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=cRL1hCycpT7kLf8jdeLcuQ&amp;oh=00_AfjB66PgTLusRuWIsQJpHYkW93LePH8lIqLSYRkluhB2KA&amp;oe=692B7C68', 'width': 228, 'height': 225}, 'ocrText': 'May be an image of one or more people and eyeglasses'}], 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/515600430_4593995740741781_8041180333788133360_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zPKtRpE7iCIQ7kNvwG0edgd&amp;_nc_oc=Adl3ffagaPAoe3jlkU7LgoFdxeW-ztF_N5SroaYPT2-3cgDwPSdOXbTFvMtJmf1AUf8&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=cRL1hCycpT7kLf8jdeLcuQ&amp;oh=00_Afirx204s6n7Qt076EMl3gVdQyvLalx3Hr4FhyVONvEINg&amp;oe=692B999A', 'profileId': 'pfbid02BQjDvjTv3VKn4H8sy9vQebvL9Vgh92sGZ73aNBQrjgHFg1PDfgzdxnbeHHY7D9iwl', 'profileName': 'Alberto Caicedo', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>13</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Inaccesible muy caro 🫰</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>45985.7908912037</v>
+      </c>
+      <c r="H46" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>18:58:53</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=860109699855760', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3Xzg2MDEwOTY5OTg1NTc2MA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184NjAxMDk2OTk4NTU3NjA=', 'date': '2025-11-24T18:58:53.000Z', 'text': 'Inaccesible muy caro 🫰', 'profileUrl': 'https://www.facebook.com/fredy.pinedaromero', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/582712248_10163552280388631_2890703655290218320_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=vIxQRd7siBkQ7kNvwGTztVk&amp;_nc_oc=AdkpWQKeenreFDKRFjOIzYqW2hGX37ByLipeLEiEP4rbpFVHyoA3RcvXbOSLJkD3IWA&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=cRL1hCycpT7kLf8jdeLcuQ&amp;oh=00_Afga8ykG9m37SzOQdqHFiuZi4U7wJQnlsMiA90SulrH18A&amp;oe=692B80E7', 'profileId': 'pfbid0W84T9JZRTEhNGiQ8FE7MwJdXGduU5PzvabimSszFL3yfyLVzkQGneFTpcwKK5US5l', 'profileName': 'Fredy Alejandro Pineda Romero', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>13</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Este man no es el que hizo de Vaselino en vecinos?</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="n">
+        <v>45986.06347222222</v>
+      </c>
+      <c r="H47" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>01:31:24</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1383064816735090', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzODMwNjQ4MTY3MzUwOTA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzgzMDY0ODE2NzM1MDkw', 'date': '2025-11-25T01:31:24.000Z', 'text': 'Este man no es el que hizo de Vaselino en vecinos?', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/566211812_10237810548219540_8624372396031958154_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=7Osh7XWOPBAQ7kNvwFkyNM6&amp;_nc_oc=AdkL7rOWzH410hacBbOUY9jvh0dpOhcXGECvxw8OSxD6qM_-GL4l4oXjml8xfQ9wH2o&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=cRL1hCycpT7kLf8jdeLcuQ&amp;oh=00_Afio6-bSSDc-HS4yjjw9l8GsSzm-GWnZdq2xrRawR2KTog&amp;oe=692BABE2', 'profileId': 'pfbid0umrAZ1nWhfUmidvwFwm51YhqXyzZKseR6VhJgzB9ZBnADtqvnfcWG1HBQJQ2hm5il', 'profileName': 'Juan Carlos Mendez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>13</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Ahora el precio es el del 2035, qué gonorrea si es caro un bon yurt.</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>45985.96413194444</v>
+      </c>
+      <c r="H48" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>23:08:21</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1141110784879560', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNDExMTA3ODQ4Nzk1NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTQxMTEwNzg0ODc5NTYw', 'date': '2025-11-24T23:08:21.000Z', 'text': 'Ahora el precio es el del 2035, qué gonorrea si es caro un bon yurt.', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/557590332_10162478701478778_7375230878345478238_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=dRHHLfJtvdsQ7kNvwFLKywg&amp;_nc_oc=AdlWOd5evQ4PEeoeoOl5VqWw1vCp0v6v7ZBmzIz1ZR5cjUekvxcZdqPAjF9kHo6etpo&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=cRL1hCycpT7kLf8jdeLcuQ&amp;oh=00_AfioH8i-jItz4pkWYAmCVCwcYQ2CtYXeap9AHG9eeuFDYw&amp;oe=692BAC31', 'profileId': 'pfbid02sp3tCcTBuexsJUCPidndkY1bgoR6JRtNibs6aTkfmQtG3uLurSJh8EcoNXJVmmMol', 'profileName': 'John Lozano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>13</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Eso para que SIRVE</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="n">
+        <v>45985.77598379629</v>
+      </c>
+      <c r="H49" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>18:37:25</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=24232223896453338', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzI0MjMyMjIzODk2NDUzMzM4', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yNDIzMjIyMzg5NjQ1MzMzOA==', 'date': '2025-11-24T18:37:25.000Z', 'text': 'Eso para que SIRVE', 'profileUrl': 'https://www.facebook.com/people/Ricardo-Martinez/pfbid02MWRTue7EtWFtcL8C23xNK8mpPeZveGmb8MqAKjMJejz2FP9BtX21G1HHF4EV6Qc9l/', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/363379112_265769309508179_7686631491666001927_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VID1p2X8JqAQ7kNvwFHXy05&amp;_nc_oc=AdnKeWogh1Tuh58hVdnIjFWQiUHVqMJppFPgpd8eD3AyXwhqlapNLb9NK10w4tws97g&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=cRL1hCycpT7kLf8jdeLcuQ&amp;oh=00_AfgvyOcDO5UOAz-fOyQA_0OIZ7ze6mqQfasxU_PZqzfi0Q&amp;oe=692B792D', 'profileId': 'pfbid02MWRTue7EtWFtcL8C23xNK8mpPeZveGmb8MqAKjMJejz2FP9BtX21G1HHF4EV6Qc9l', 'profileName': 'Ricardo Martinez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>13</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>No les da verguenza, vivir del negocio d los alimentos y causar enfermedades con sus productos...</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>45986.18716435185</v>
+      </c>
+      <c r="H50" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>04:29:31</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1382763526625753', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzODI3NjM1MjY2MjU3NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzgyNzYzNTI2NjI1NzUz', 'date': '2025-11-25T04:29:31.000Z', 'text': 'No les da verguenza, vivir del negocio d los alimentos y causar enfermedades con sus productos...', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/466953448_10233191195299867_727325023498730916_n.jpg?stp=c90.0.540.540a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=-yClTIfy6pUQ7kNvwFFtMmD&amp;_nc_oc=Adlv6BzFJptrWBCD8LIxRoqfTH0in9qpPv_SuGGs0XYdO9lWq6gpf1jYV7DwkJ4AB80&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=cRL1hCycpT7kLf8jdeLcuQ&amp;oh=00_AfhHGLfmpCyL-4kbxLCyk00ZSjpu3a6_ckw_i3ATScO5XA&amp;oe=692B8AA4', 'profileId': '1170078283', 'profileName': 'Carlos Esteban García Godin', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>13</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Antes traía más , le undieron el fondo al envase</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>45985.94378472222</v>
+      </c>
+      <c r="H51" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>22:39:03</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=3091916754347395', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzMwOTE5MTY3NTQzNDczOTU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18zMDkxOTE2NzU0MzQ3Mzk1', 'date': '2025-11-24T22:39:03.000Z', 'text': 'Antes traía más , le undieron el fondo al envase', 'profileUrl': 'https://www.facebook.com/manuelemilio.alvarezgonzalez', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=zc_bz3Z8qrgQ7kNvwEgrTdZ&amp;_nc_oc=AdnHgXL5x15vFr9UUN9jcjvJyd2r6QFSnu0sbAcfE_qaSnAiGNTj04lpOmQf3rPWNYw&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;oh=00_AfgwYKUPspegVr7BWZx0nOCv05rXLHGeWvTCQKxVai32-g&amp;oe=694D33FA', 'profileId': 'pfbid0ddNVZuHz6Gco68YZto7iPtNqutD7HUzDCyFHqF4t4Cn4cH7am7tcAoW3txtpR8X2l', 'profileName': 'Manuel Emilio Alvarez Gonzalez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>13</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Que hpta joda tan cara. Rem@lpäridos abusadores</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>45985.9574537037</v>
+      </c>
+      <c r="H52" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>22:58:44</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1505629667162278', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE1MDU2Mjk2NjcxNjIyNzg=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNTA1NjI5NjY3MTYyMjc4', 'date': '2025-11-24T22:58:44.000Z', 'text': 'Que hpta joda tan cara. Rem@lpäridos abusadores', 'profileUrl': 'https://www.facebook.com/people/TrendWave/61564976918087/', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/458338873_122106654380499230_4856158366769970704_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=2d3e12&amp;_nc_ohc=CDmm-FvAvM4Q7kNvwFqWBDg&amp;_nc_oc=AdnWLL2Uv51kqkAb0ParraSNaqCmITrZkCwRtcaMG8l5CWAOje1oq6C8R1gjlb4HHRA&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=cRL1hCycpT7kLf8jdeLcuQ&amp;oh=00_AfjGE-mgrrecz1kaOYdqDe8rJaS1NR9gzM7LZerO0NCYKA&amp;oe=692B8236', 'profileId': '61564976918087', 'profileName': 'TrendWave', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>14</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://adsmanager.facebook.com/adsmanager/manage/ads</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>{'url': 'https://adsmanager.facebook.com/adsmanager/manage/ads', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>15</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRcmY2BAIwj/</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DRcmY2BAIwj/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>16</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRcmcJbgDUW/</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DRcmcJbgDUW/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>17</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRcmTd6gJGA/</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DRcmTd6gJGA/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -2388,7 +3328,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2434,7 +3374,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQ4T6V_AAuu/#advertiser</t>
+          <t>https://www.instagram.com/p/DQ4T6V_AAuu/</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -2455,7 +3395,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247221154110296/?dco_ad_token=AaqJ8z2f3GnDAp4tQmYKKFNmaiee4fKcT8uqDb-0XbzzioMYq8iFEQsm6fwZee1LJXfLApto8Mq-E1mH&amp;dco_ad_id=120237892963330295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1247221154110296/</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -2476,16 +3416,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247221204110291/?dco_ad_token=Aapi5LUYJ66YPQtu8wCCqkj_NloXf31eqWUiqiNv-aQgbUB6ZV_PI2U2iAxb-IJOiGLoqwPH-Vd58J4Z&amp;dco_ad_id=120237893494860295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1247221204110291/</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>29</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>081401000000000000000000000000</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2499,7 +3437,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQ4T7oagGqD/#advertiser</t>
+          <t>https://www.instagram.com/p/DQ4T7oagGqD/</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -2520,7 +3458,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQ4TbcNAFUD/#advertiser</t>
+          <t>https://www.instagram.com/p/DQ4TbcNAFUD/</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -2541,7 +3479,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247217804110631/?dco_ad_token=Aarw8MxFPspt0ObKG96PHxCXj_tN88C6ZbD-jCFy0x84uCAcZNYBcn0azOm0IYyO44XJdD4iMqkre508&amp;dco_ad_id=120237893574550295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1247217804110631/</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -2562,7 +3500,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQ4T7rtgIL6/#advertiser</t>
+          <t>https://www.instagram.com/p/DQ4T7rtgIL6/</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -2583,13 +3521,208 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247221017443643/?dco_ad_token=AaoBopZZI9KGjA5oC_0ad31mxzo-SII-3kiWpAiEZPBSOr4NX3CeMv_lxyski_y7V-fIAdy1XXO39riB&amp;dco_ad_id=120237893574540295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1247221017443643/</t>
         </is>
       </c>
       <c r="D9" t="n">
         <v>1</v>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258767226289022/</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258767229622355/</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258767296289015/</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>8</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>07700011</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>30</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0071010132000000400012060101012</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://adsmanager.facebook.com/adsmanager/manage/ads</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRcmY2BAIwj/</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRcmcJbgDUW/</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRcmTd6gJGA/</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -939,7 +939,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02vDjJopkwJ1E4ttEJPs8Q5WtCbkyYAnJ22tMuNREZgXTVE7PAeoMpaduR3LMCgVnAl?comment_id=1707136334025082', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzE3MDcxMzYzMzQwMjUwODI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV8xNzA3MTM2MzM0MDI1MDgy', 'date': '2025-11-26T03:38:22.000Z', 'text': 'Como los de me infancia', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/495851492_9723408417747012_8296794829451701261_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=b2xWrBhzPa0Q7kNvwEy8lmx&amp;_nc_oc=Adnw4nsVH_xFO6A-udqO-9BNUvDXQRDy_hv4OSuDtnqrw0suh0S2ip5t3zTfxi4mTAk&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=Nw-ogY7CnN5Jj_X4T6ezrg&amp;oh=00_Afhl0eDpFPw-X6NWkd2O8b0VH5Ys3Ylrn_EZqSe81kkJjQ&amp;oe=692CCC92', 'profileId': '100002338506399', 'profileName': 'Moises NG', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0rC8bL1ZNd53DUDQACn4DNToUNzpXotxkgAnkUWv11mattx5o32FpceJKz4Lcvj9tl?comment_id=1707136334025082', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzE3MDcxMzYzMzQwMjUwODI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV8xNzA3MTM2MzM0MDI1MDgy', 'date': '2025-11-26T03:38:22.000Z', 'text': 'Como los de me infancia', 'profilePicture': 'https://scontent.fabe1-1.fna.fbcdn.net/v/t39.30808-1/495851492_9723408417747012_8296794829451701261_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=NZw3SEcCIOoQ7kNvwEaBT2R&amp;_nc_oc=AdnCFep090HdY25YLUl3s1TQ4NPnY4rxKWXxgjqKEj94s9VsSh_6vuqY7BAD2dkXEhY&amp;_nc_zt=24&amp;_nc_ht=scontent.fabe1-1.fna&amp;_nc_gid=JdwyjCtrZsw-tJ2ROpO8vw&amp;oh=00_AfjuKKtlnmUslELWDjimuKwW9GDNi-yTp-oUvi04V5jg1g&amp;oe=692E1E12', 'profileId': '100002338506399', 'profileName': 'Moises NG', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02vDjJopkwJ1E4ttEJPs8Q5WtCbkyYAnJ22tMuNREZgXTVE7PAeoMpaduR3LMCgVnAl?comment_id=879171581131006', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzg3OTE3MTU4MTEzMTAwNg==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV84NzkxNzE1ODExMzEwMDY=', 'date': '2025-11-26T04:06:53.000Z', 'text': 'Ni uno ni dos ni tres ya es imposible poder comer un bon yurt su costo cada día esta por las nubes, solía ser mi postre 🍨 favorito pero esta tan costoso que ni recuerdo su sabor 😔', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/459564597_8966520580030975_2018006115904800734_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=s8dtzeiVufYQ7kNvwG4RrJp&amp;_nc_oc=AdlJE46ncSbmLvDt1dUUPrVEDndTZucuetZx6PlNpRM_TKOuFVaYU1lIE3HX7k0Jms0&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=Nw-ogY7CnN5Jj_X4T6ezrg&amp;oh=00_AfimDOjfQ8gdde9HLp8j9qlPD04ojJATRniESp1AmI4E8g&amp;oe=692CE4B0', 'profileId': '100000193678054', 'profileName': 'Catcocktail Merpar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0rC8bL1ZNd53DUDQACn4DNToUNzpXotxkgAnkUWv11mattx5o32FpceJKz4Lcvj9tl?comment_id=879171581131006', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzg3OTE3MTU4MTEzMTAwNg==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV84NzkxNzE1ODExMzEwMDY=', 'date': '2025-11-26T04:06:53.000Z', 'text': 'Ni uno ni dos ni tres ya es imposible poder comer un bon yurt su costo cada día esta por las nubes, solía ser mi postre 🍨 favorito pero esta tan costoso que ni recuerdo su sabor 😔', 'profilePicture': 'https://scontent.fabe1-1.fna.fbcdn.net/v/t39.30808-1/459564597_8966520580030975_2018006115904800734_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=s8dtzeiVufYQ7kNvwE69UJl&amp;_nc_oc=Adl1ueCi8SYVQJJzEAty_9tNZQ0_KP4SPIA02IvfPtcbIVy4RMJh-4sPBhlYeK2MdHE&amp;_nc_zt=24&amp;_nc_ht=scontent.fabe1-1.fna&amp;_nc_gid=JdwyjCtrZsw-tJ2ROpO8vw&amp;oh=00_AfjO9xMi83LE2tZeMfByb5jxYwNbgPc9mRACv_-rHUK_Nw&amp;oe=692E3630', 'profileId': '100000193678054', 'profileName': 'Catcocktail Merpar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02vDjJopkwJ1E4ttEJPs8Q5WtCbkyYAnJ22tMuNREZgXTVE7PAeoMpaduR3LMCgVnAl?comment_id=1820814188796053', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzE4MjA4MTQxODg3OTYwNTM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV8xODIwODE0MTg4Nzk2MDUz', 'date': '2025-11-25T04:34:17.000Z', 'text': 'Cuando eran ricos y traían más que aire', 'profileUrl': 'https://www.facebook.com/jeiko8511', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/468060314_10162361510499273_507374193545330854_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HWI7q6rxv30Q7kNvwH7k6Si&amp;_nc_oc=Adm_hfEoW4Hd-nFHL0eIjNhKUjY1-dsvCOsZcBaq1KRjZT8bY0T1snvgxLvp1DDIKq4&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=Nw-ogY7CnN5Jj_X4T6ezrg&amp;oh=00_AfjZnwE1ASmgCfiu8D81t8UHIesgLJcwcKoays8h21T5KA&amp;oe=692CE05E', 'profileId': 'pfbid0315AWJ6i9heLr26b7LgfSwoME1pHUtzGGfHkXoMiYMBrGYu5oQNJNgGXRNSBLhNC6l', 'profileName': 'Jeiko Hernandez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0rC8bL1ZNd53DUDQACn4DNToUNzpXotxkgAnkUWv11mattx5o32FpceJKz4Lcvj9tl?comment_id=1820814188796053', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzE4MjA4MTQxODg3OTYwNTM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV8xODIwODE0MTg4Nzk2MDUz', 'date': '2025-11-25T04:34:17.000Z', 'text': 'Cuando eran ricos y traían más que aire', 'profileUrl': 'https://www.facebook.com/jeiko8511', 'profilePicture': 'https://scontent.fabe1-1.fna.fbcdn.net/v/t39.30808-1/468060314_10162361510499273_507374193545330854_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HWI7q6rxv30Q7kNvwFpGzlx&amp;_nc_oc=AdmtoAkj87Wipp3LXnmbFHslA7UjMVkgK6m9odkdjL1_zzOVIwEPUhGftvOLyobJnYY&amp;_nc_zt=24&amp;_nc_ht=scontent.fabe1-1.fna&amp;_nc_gid=JdwyjCtrZsw-tJ2ROpO8vw&amp;oh=00_Afioc-Rtf1vd4ITo4XRpElz7li7YeRV7tHXPPLSlha1sRA&amp;oe=692E31DE', 'profileId': 'pfbid0w3ZnpHWb2njUEBPydA123QnYVFDM7HsFCnR4ydVLZJWzp2CmBi5iDa9pTJUH6Z8Kl', 'profileName': 'Jeiko Hernandez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02vDjJopkwJ1E4ttEJPs8Q5WtCbkyYAnJ22tMuNREZgXTVE7PAeoMpaduR3LMCgVnAl?comment_id=843566781589283', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzg0MzU2Njc4MTU4OTI4Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV84NDM1NjY3ODE1ODkyODM=', 'date': '2025-11-25T03:23:08.000Z', 'text': 'Pos si como tres me da un coma diabético....', 'profileUrl': 'https://www.facebook.com/andres.torres.90834', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/496882250_10161702226334830_5679666335987461894_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=UmMYxG2WzFAQ7kNvwHQ0OnQ&amp;_nc_oc=AdkAl0uGUxxxus5BiA74wy1Wg9vNYTEAdXS5Wpiqnp20pQfksxuPoyny0WEUKS0_SOs&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=Nw-ogY7CnN5Jj_X4T6ezrg&amp;oh=00_AfiQad12a3e8RpztisYS1LHSxzuLnJCTYidbcttXJ800Nw&amp;oe=692CE044', 'profileId': '607764829', 'profileName': 'Andres Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0rC8bL1ZNd53DUDQACn4DNToUNzpXotxkgAnkUWv11mattx5o32FpceJKz4Lcvj9tl?comment_id=843566781589283', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzg0MzU2Njc4MTU4OTI4Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV84NDM1NjY3ODE1ODkyODM=', 'date': '2025-11-25T03:23:08.000Z', 'text': 'Pos si como tres me da un coma diabético....', 'profileUrl': 'https://www.facebook.com/andres.torres.90834', 'profilePicture': 'https://scontent.fabe1-1.fna.fbcdn.net/v/t39.30808-1/496882250_10161702226334830_5679666335987461894_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=cYAsO0SQLjYQ7kNvwEp3LgH&amp;_nc_oc=AdlQMoTuDGfw14Z5EYVJxNCp1LciNUXA4XqRjKRdQXkMDu14PYqc_6MTXjCmAEYrZgU&amp;_nc_zt=24&amp;_nc_ht=scontent.fabe1-1.fna&amp;_nc_gid=JdwyjCtrZsw-tJ2ROpO8vw&amp;oh=00_AfhL9fbKvw5Nm3k2dZdD5iQqs2gLqGTYd22FGWk0oxXvrQ&amp;oe=692E31C4', 'profileId': '607764829', 'profileName': 'Andres Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02vDjJopkwJ1E4ttEJPs8Q5WtCbkyYAnJ22tMuNREZgXTVE7PAeoMpaduR3LMCgVnAl?comment_id=861351922903088', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzg2MTM1MTkyMjkwMzA4OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV84NjEzNTE5MjI5MDMwODg=', 'date': '2025-11-25T05:11:04.000Z', 'text': 'Esq eso era muy caro un riñón prácticamente ps pero vale la pena', 'profileUrl': 'https://www.facebook.com/david.santiago.500055', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=zc_bz3Z8qrgQ7kNvwE_0Da_&amp;_nc_oc=AdkdYL9aZOJLELi2STfcAYcx2BxgKeU08-7i5IxFS4Y_NHha-GoASgPByMSqZJOjP0I&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;oh=00_AfjKouXlsplWdHpO1odwp0sqkf_xN_mtHFiz-CvC12Qm9A&amp;oe=694E857A', 'profileId': 'pfbid032gebQpQLDx6ihTwLAfKsCBVURdiZRRurUEAdQtcpZPX3mqGozXMhecH17dS7Ca4Ql', 'profileName': 'Santiago Yarce', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0rC8bL1ZNd53DUDQACn4DNToUNzpXotxkgAnkUWv11mattx5o32FpceJKz4Lcvj9tl?comment_id=861351922903088', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzg2MTM1MTkyMjkwMzA4OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV84NjEzNTE5MjI5MDMwODg=', 'date': '2025-11-25T05:11:04.000Z', 'text': 'Esq eso era muy caro un riñón prácticamente ps pero vale la pena', 'profileUrl': 'https://www.facebook.com/david.santiago.500055', 'profilePicture': 'https://scontent.fabe1-1.fna.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=zc_bz3Z8qrgQ7kNvwEfpFPG&amp;_nc_oc=Adkdo77Knm8LwquZR6O0fuxTp0YPqx6XXLK2U2VdcpbzpHYVRWfpwYXJFjK9kNZWsaI&amp;_nc_zt=24&amp;_nc_ht=scontent.fabe1-1.fna&amp;oh=00_AfhojEtYAnyUJRwL_fCXwWn7ukUFDqmFPmkJpA5p0e8h8A&amp;oe=694FD6FA', 'profileId': 'pfbid0y91QVemyNuJo9WZ6NhvvA1nGRrZwmJishAdLnkf1AANy9L5k14sZAXYShhuTk6oxl', 'profileName': 'Santiago Yarce', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767296289015/', 'commentUrl': 'https://www.facebook.com/reel/1837323323843066/?comment_id=829490193278336', 'id': 'Y29tbWVudDoxMjU4NzY4OTYyOTU1NTE1XzgyOTQ5MDE5MzI3ODMzNg==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2ODk2Mjk1NTUxNV84Mjk0OTAxOTMyNzgzMzY=', 'date': '2025-11-26T01:57:43.000Z', 'text': 'El kumis es pura agua y dulce', 'profileUrl': 'https://www.facebook.com/yohana.martin.77178', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/577764354_767711772971306_3406793745669722656_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=rg0tSephFrMQ7kNvwEuqLEX&amp;_nc_oc=AdlcNM5wFeubCoy06XbbZBOPBY831Ucj8gkVfqSlk4gbZqJwVZrC2rrOVDMvH-yw9Rc&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=ekb26LdeMz02iqGMSj77QQ&amp;oh=00_AfgNqsmwoDAJSyEsFyOMnph7WeobjIssqIS-9ZhM6UrQ6A&amp;oe=692CCB70', 'profileId': 'pfbid05pp8sK6jcPB3Hbry1Uh8PGsNj4fwbfDDrpRe64w66qP4ymMvZdTnsSgR4XJAFhkEl', 'profileName': 'Yohana Martin', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258768962955515', 'postTitle': 'Dicen que uno vuelve a lo que lo hizo feliz 🤎 Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate. ¿Ya lo probaste?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767296289015/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767296289015/', 'commentUrl': 'https://www.facebook.com/reel/1837323323843066/?comment_id=829490193278336', 'id': 'Y29tbWVudDoxMjU4NzY4OTYyOTU1NTE1XzgyOTQ5MDE5MzI3ODMzNg==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2ODk2Mjk1NTUxNV84Mjk0OTAxOTMyNzgzMzY=', 'date': '2025-11-26T01:57:43.000Z', 'text': 'El kumis es pura agua y dulce', 'profileUrl': 'https://www.facebook.com/yohana.martin.77178', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/577764354_767711772971306_3406793745669722656_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=rg0tSephFrMQ7kNvwHjxHgx&amp;_nc_oc=AdlDolBNPNR7Ok_bct22sLnW9hZ_q_FOBP0gSUNYFkh4n81FxhdJE4_FhAzpgKBVyZH1j25XXDXk8cOtRMntsrH-&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=hHcFkpzcOGuKUn1znWPKrA&amp;oh=00_AfgjvOFRxtjAFeQ2a3e1-lFP7o1RU2UGTgBZe0rQrPw58w&amp;oe=692E1CF0', 'profileId': 'pfbid029gFr3z2ZTdy1jCpTqRsFKbqB5yPnZnTTFs4r29rnzGZ43o8u5w59B5cgkr1rmdTHl', 'profileName': 'Yohana Martin', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258768962955515', 'postTitle': 'Dicen que uno vuelve a lo que lo hizo feliz 🤎 Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate. ¿Ya lo probaste?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767296289015/'}</t>
         </is>
       </c>
     </row>
@@ -1263,7 +1263,7 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767296289015/', 'commentUrl': 'https://www.facebook.com/reel/1837323323843066/?comment_id=1995575221176205', 'id': 'Y29tbWVudDoxMjU4NzY4OTYyOTU1NTE1XzE5OTU1NzUyMjExNzYyMDU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2ODk2Mjk1NTUxNV8xOTk1NTc1MjIxMTc2MjA1', 'date': '2025-11-26T02:59:40.000Z', 'text': 'Y la de su hijo cuando sale,o por esa sentencia que la oculten.', 'profileUrl': 'https://www.facebook.com/people/Maria-Alejo/pfbid0dPB6g2TV5m8d1Gsmu483mBHS7fvA6VLG9AZqkNd1Qoepnf8ofMzLzMJQdDWRmFyZl/', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t1.6435-1/118594516_1604675779692468_1002436422543398699_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=g_y-aCzzYO4Q7kNvwFQM0qB&amp;_nc_oc=AdmEfiJpENO8bfYvUKR71TULL4Y4K2xix5C0DVY8DlbFa6zbwCMGq3o77XfZ9D4ILOg&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=ekb26LdeMz02iqGMSj77QQ&amp;oh=00_AfiK1De0jmhzqWfB6B8uLUb3gYihaGLmompW2klLDBhcag&amp;oe=694E7529', 'profileId': 'pfbid0dPB6g2TV5m8d1Gsmu483mBHS7fvA6VLG9AZqkNd1Qoepnf8ofMzLzMJQdDWRmFyZl', 'profileName': 'Maria Alejo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258768962955515', 'postTitle': 'Dicen que uno vuelve a lo que lo hizo feliz 🤎 Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate. ¿Ya lo probaste?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767296289015/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767296289015/', 'commentUrl': 'https://www.facebook.com/reel/1837323323843066/?comment_id=1995575221176205', 'id': 'Y29tbWVudDoxMjU4NzY4OTYyOTU1NTE1XzE5OTU1NzUyMjExNzYyMDU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2ODk2Mjk1NTUxNV8xOTk1NTc1MjIxMTc2MjA1', 'date': '2025-11-26T02:59:40.000Z', 'text': 'Y la de su hijo cuando sale,o por esa sentencia que la oculten.', 'profileUrl': 'https://www.facebook.com/people/Maria-Alejo/pfbid02hEcorhPJwK9iHqRJFt9UGbrTspgoNS1Gps314gXdSCEa2xUn6ceb1oiWxTibS6gel/', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t1.6435-1/118594516_1604675779692468_1002436422543398699_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=g_y-aCzzYO4Q7kNvwHmgwSH&amp;_nc_oc=AdlAQeRb5HC7YAsU7iSwsU_-sitmqgljkmm1l50mlnjQ7VNwE5z6WeF1SSRKpiL6vHJuwRFOdCLG6iaKLdRAX6mz&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=hHcFkpzcOGuKUn1znWPKrA&amp;oh=00_Afi3kebUz8aM2mng28cFqjUV19ddlO5TsuaCU8Qsu3wPXA&amp;oe=694FC6A9', 'profileId': 'pfbid02hEcorhPJwK9iHqRJFt9UGbrTspgoNS1Gps314gXdSCEa2xUn6ceb1oiWxTibS6gel', 'profileName': 'Maria Alejo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258768962955515', 'postTitle': 'Dicen que uno vuelve a lo que lo hizo feliz 🤎 Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate. ¿Ya lo probaste?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767296289015/'}</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0pWAoWyvS35gEbmNY4iroXRHxr3bJCapgrXMBVhverDdwtJKE2NaqkMfEvMvMjiBBl?comment_id=1952455178667084', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzE5NTI0NTUxNzg2NjcwODQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xOTUyNDU1MTc4NjY3MDg0', 'date': '2025-11-25T03:25:21.000Z', 'text': 'Perfecto!!!!❤️', 'profileUrl': 'https://www.facebook.com/rosa.lopez.92754397', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/417102719_10225249911019485_6080224190762171653_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zLsa44_thNYQ7kNvwFAcUhn&amp;_nc_oc=AdlCFs4FJpsvfFydVWLtoidU4E74iePHUg6O5L6X8I_bEYghPJ4xLWTua4rSfMk-Du0&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=qQ_4wqx8zhkSh_S7lsbAUw&amp;oh=00_Afhm_hghSXSKD32cMdOwZG6mlfhzd-4cb-aRr9PJQ0PibQ&amp;oe=692CD172', 'profileId': 'pfbid0KPLwpvhbj87DNzpE5iA43DLTxTpTyaN7P4xBwN7VghMoXYhMS7YTtuyYWkNvVP95l', 'profileName': 'Rosa Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02tMcWherFtTTxU8wptBXvSxxjRfXg37KyeXiRjFr3SACcErMUaS7VpVf1UbYPgukpl?comment_id=1952455178667084', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzE5NTI0NTUxNzg2NjcwODQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xOTUyNDU1MTc4NjY3MDg0', 'date': '2025-11-25T03:25:21.000Z', 'text': 'Perfecto!!!!❤️', 'profileUrl': 'https://www.facebook.com/rosa.lopez.92754397', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/417102719_10225249911019485_6080224190762171653_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zLsa44_thNYQ7kNvwHwy-Gi&amp;_nc_oc=AdkIKe-xVMUdFVvfTEBI_Q8zZs0e5N1RMKE--E7rKUF46BhRZz97h0OsKfN3oZAu15E&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=jeOf_I2tpue2Jjw8T30xaA&amp;oh=00_AfhDUxQRmN6_qfWv8sA1eoV0-1Wpaw2nI2CBrZmOiQqAfA&amp;oe=692E22F2', 'profileId': 'pfbid02PEnf1bdRaf21gnsMaeDXgAHsnc2o8RDZd8E2JQpbgqpLh6zh1Rgg79X9Xi26ZHRJl', 'profileName': 'Rosa Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0pWAoWyvS35gEbmNY4iroXRHxr3bJCapgrXMBVhverDdwtJKE2NaqkMfEvMvMjiBBl?comment_id=1520253749021206', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzE1MjAyNTM3NDkwMjEyMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xNTIwMjUzNzQ5MDIxMjA2', 'date': '2025-11-25T01:17:33.000Z', 'text': 'Antes de conocer la diabetes eras mi snack favorito y como a alpina LE QUEDO GRANDE sacar productos saludables....... Paila!', 'profileUrl': 'https://www.facebook.com/tommy.gil.martinez', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/503591956_122242588190081472_2905184460418413153_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=e5DYErdPckQQ7kNvwH56HF8&amp;_nc_oc=AdnKLKGF9JNjsujxRJCnEtIFu-YXLBvTR6hQUNcDbWfNjev6Ca6Vgz7lvVPzfFfaSDs&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=qQ_4wqx8zhkSh_S7lsbAUw&amp;oh=00_AfjOuUX3ocPhGZAcFK59MZEn8WKfBfrhPB8hDMj7_D4eUA&amp;oe=692CDE30', 'profileId': '61552444185822', 'profileName': 'Tommy Gil Martinez', 'likesCount': '11', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02tMcWherFtTTxU8wptBXvSxxjRfXg37KyeXiRjFr3SACcErMUaS7VpVf1UbYPgukpl?comment_id=1520253749021206', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzE1MjAyNTM3NDkwMjEyMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xNTIwMjUzNzQ5MDIxMjA2', 'date': '2025-11-25T01:17:33.000Z', 'text': 'Antes de conocer la diabetes eras mi snack favorito y como a alpina LE QUEDO GRANDE sacar productos saludables....... Paila!', 'profileUrl': 'https://www.facebook.com/tommy.gil.martinez', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/503591956_122242588190081472_2905184460418413153_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=e5DYErdPckQQ7kNvwEyf6yK&amp;_nc_oc=AdnzJbaoMOhx3WqFKKXrubMzwwSVT3FXbyafGUTiscERJrFu3sDtvCiBmJyyw59Wvfk&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=jeOf_I2tpue2Jjw8T30xaA&amp;oh=00_AfjEXe4U_OFwdFXjH-FJned6dKrZQbMB7nLokfz2cHZTNQ&amp;oe=692E2FB0', 'profileId': '61552444185822', 'profileName': 'Tommy Gil Martinez', 'likesCount': '11', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0pWAoWyvS35gEbmNY4iroXRHxr3bJCapgrXMBVhverDdwtJKE2NaqkMfEvMvMjiBBl?comment_id=1192728072737622', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzExOTI3MjgwNzI3Mzc2MjI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xMTkyNzI4MDcyNzM3NjIy', 'date': '2025-11-24T21:56:14.000Z', 'text': 'No han pensado en mejorar la fórmula? Para mi gusto es muy aguado, poco  y demasiado dulce.', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/568709187_2931465163703246_6852048957085631156_n.jpg?stp=c0.263.1283.1283a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=m2C_xJfku70Q7kNvwF6engy&amp;_nc_oc=AdnvvSN23j2XWVIiFST3949qCWb_q73ayRQ1EUIEkktJ6SDlNzVsW8XzuGQnML6SSV4&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=qQ_4wqx8zhkSh_S7lsbAUw&amp;oh=00_AfiEVsfd--T24MyKh5-2KgP61V9hIroXdds5PzCGrEM0wA&amp;oe=692CC4E7', 'profileId': 'pfbid02G8JPHeiTSzk366FgLsxZNARGtXe954Gy73ZGHgv3V3BLgyPMbC7medKKeqrMPWr8l', 'profileName': 'Maricela Uribe Acero', 'likesCount': '15', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02tMcWherFtTTxU8wptBXvSxxjRfXg37KyeXiRjFr3SACcErMUaS7VpVf1UbYPgukpl?comment_id=1192728072737622', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzExOTI3MjgwNzI3Mzc2MjI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xMTkyNzI4MDcyNzM3NjIy', 'date': '2025-11-24T21:56:14.000Z', 'text': 'No han pensado en mejorar la fórmula? Para mi gusto es muy aguado, poco  y demasiado dulce.', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/568709187_2931465163703246_6852048957085631156_n.jpg?stp=c0.263.1283.1283a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=g6QWZvRqbnAQ7kNvwFsvsRP&amp;_nc_oc=AdkQuCRDrYltz-FHNHgNJlulJaGGRnOc1yjmmws70HeXIlngIvtBUgx8CsDzhM5drPA&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=jeOf_I2tpue2Jjw8T30xaA&amp;oh=00_Afi-sjNWtNoutqbcoC7qr7pVLw1xHQYGRa_UjxaVE5NUmA&amp;oe=692E1667', 'profileId': 'pfbid0C6hfoqWtn6LM6Fffw7NrmbVgkPG73Qdbwae4dSvDVqU7c9Dui5kPGXsqKPgp1JPol', 'profileName': 'Maricela Uribe Acero', 'likesCount': '15', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
         </is>
       </c>
     </row>
@@ -1479,7 +1479,7 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0pWAoWyvS35gEbmNY4iroXRHxr3bJCapgrXMBVhverDdwtJKE2NaqkMfEvMvMjiBBl?comment_id=1111242237572829', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzExMTEyNDIyMzc1NzI4Mjk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xMTExMjQyMjM3NTcyODI5', 'date': '2025-11-26T03:13:49.000Z', 'text': 'La verdad me parecía tan ricos antes de k le cambiarán la fórmula', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/374574761_6778927545492943_8801407896077667905_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=L0BygSyCPSUQ7kNvwGLvSl3&amp;_nc_oc=AdljGidzVI9z3FiHVrrmzSfJ_zaLE2UogY7qMkbwaFN9VuX5mIqoYELJv-lei7k786M&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=qQ_4wqx8zhkSh_S7lsbAUw&amp;oh=00_Afhpd0fn05G_o_qLhS0vCBuibCCookzOyUmox2V8CvtZHQ&amp;oe=692CE6B7', 'profileId': 'pfbid02CshFBeHg9pRq3kgPL8k1XWfsa3e2C6kW7eEsjcTxScrcWZmu45NPt5xhrdzVwgBkl', 'profileName': 'Rodriguez Paola', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02tMcWherFtTTxU8wptBXvSxxjRfXg37KyeXiRjFr3SACcErMUaS7VpVf1UbYPgukpl?comment_id=1111242237572829', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzExMTEyNDIyMzc1NzI4Mjk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xMTExMjQyMjM3NTcyODI5', 'date': '2025-11-26T03:13:49.000Z', 'text': 'La verdad me parecía tan ricos antes de k le cambiarán la fórmula', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/374574761_6778927545492943_8801407896077667905_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VMx9gIcyfpkQ7kNvwGtI2MI&amp;_nc_oc=AdkAuoVLpu26Jtlm9lhyNi7nvrnorwDI3kNVNHxRxMHB-3AdYouOY23dmnGe7nMk4fo&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=jeOf_I2tpue2Jjw8T30xaA&amp;oh=00_AfgDhx7lR0_2WGzW60XQPVGSJVGo0VQdqmPxKvKh9TBudA&amp;oe=692E3837', 'profileId': 'pfbid08r6Xhq67UyViTpqedaRZfbMSfM9hnAgrAfm9x18LTL82GHPhhUpewxjg2GkA9D7gl', 'profileName': 'Rodriguez Paola', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0pWAoWyvS35gEbmNY4iroXRHxr3bJCapgrXMBVhverDdwtJKE2NaqkMfEvMvMjiBBl?comment_id=1392442662241880', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzEzOTI0NDI2NjIyNDE4ODA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xMzkyNDQyNjYyMjQxODgw', 'date': '2025-11-25T22:42:33.000Z', 'text': 'ALPINA es una de las empresas más sobrevaloradas de Colombia.', 'profileUrl': 'https://www.facebook.com/VicDOS', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/450390302_10231664043128242_8364514855999038466_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=4bYCjrQqrV4Q7kNvwEsn9LY&amp;_nc_oc=AdklME2nXyclJ3Ji0u6ZZCXA0z9oEhUq29D7pq6OIbtNnkcpSFZ8Qfy6AQoPwsx6V84&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=qQ_4wqx8zhkSh_S7lsbAUw&amp;oh=00_AfirdOZCUBWvAmhpkf1QaaCsTOekMnwVLaeZhdJQaDnbkg&amp;oe=692CB16A', 'profileId': 'pfbid02p87EipZo5CsMuyGo9LTBNvrbv53ybeydVST8WPDXz7xx1gkzQvAsNyP5zeebj4iZl', 'profileName': 'Daniel Alzate', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02tMcWherFtTTxU8wptBXvSxxjRfXg37KyeXiRjFr3SACcErMUaS7VpVf1UbYPgukpl?comment_id=1392442662241880', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzEzOTI0NDI2NjIyNDE4ODA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xMzkyNDQyNjYyMjQxODgw', 'date': '2025-11-25T22:42:33.000Z', 'text': 'ALPINA es una de las empresas más sobrevaloradas de Colombia.', 'profileUrl': 'https://www.facebook.com/VicDOS', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/450390302_10231664043128242_8364514855999038466_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=4bYCjrQqrV4Q7kNvwHoLBGJ&amp;_nc_oc=AdnOLI46xIGxGX1jaZNg843Eko7jg02i6LrWZjn9MMOygitT03Y4AB04DY-Qoo_0oho&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=jeOf_I2tpue2Jjw8T30xaA&amp;oh=00_AfiFdWQbhp2fbM5DG5Uuukdv4mk6k27uhi6uZLD5N8fDuw&amp;oe=692E02EA', 'profileId': 'pfbid0kaU3oewSDrNV8wYd3PP3bBXQKgQi5H4g9d4EhbzgXaJGvkpu8G1d9zmkE5ztcR5Sl', 'profileName': 'Daniel Alzate', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
         </is>
       </c>
     </row>
@@ -1587,7 +1587,7 @@
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0pWAoWyvS35gEbmNY4iroXRHxr3bJCapgrXMBVhverDdwtJKE2NaqkMfEvMvMjiBBl?comment_id=819552860968519', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzgxOTU1Mjg2MDk2ODUxOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM184MTk1NTI4NjA5Njg1MTk=', 'date': '2025-11-25T00:47:16.000Z', 'text': '777', 'profileUrl': 'https://www.facebook.com/margarita.gomezanichiarico', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/587685997_4328783527405986_1754626108380108900_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RdGfAUIoJjYQ7kNvwGQPmYw&amp;_nc_oc=Adm7shN6jjbGHzE3Frp99GmFruimSd25TBTk8vM_WFUgpNBTy669svuz5cemuro_J2E&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=qQ_4wqx8zhkSh_S7lsbAUw&amp;oh=00_AfgnSiEx2kvTHtMC6eVQ90_rD74KKNPdLhE_qJ38M8X55w&amp;oe=692CB5A7', 'profileId': 'pfbid0uuAZCbMQuJ1CQmFikX1RhoJWtdHiffXgFpn8o5XeLw8YafGpiiC6MiTciC3aajr2l', 'profileName': 'Margarita Gomez Anichiarico', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02tMcWherFtTTxU8wptBXvSxxjRfXg37KyeXiRjFr3SACcErMUaS7VpVf1UbYPgukpl?comment_id=819552860968519', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzgxOTU1Mjg2MDk2ODUxOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM184MTk1NTI4NjA5Njg1MTk=', 'date': '2025-11-25T00:47:16.000Z', 'text': '777', 'profileUrl': 'https://www.facebook.com/margarita.gomezanichiarico', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/587685997_4328783527405986_1754626108380108900_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RdGfAUIoJjYQ7kNvwHS-NrR&amp;_nc_oc=Adnpd4x5dTgEBlyQ6qb26VzbJRQ2CFsL072TfEJdFoH_gzNJJl6SgvpvBIzntSfgd1M&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=jeOf_I2tpue2Jjw8T30xaA&amp;oh=00_AfgRqf1o-l2CGnuxRwFMiz2gyNiDDC7PVsGwqwDNa8wkDg&amp;oe=692E0727', 'profileId': 'pfbid02yGejpci2vvJU3EUykK5nmexZ9F4krfc8r5Y1DssaH2ntx1Vis6TmgKh2CYwDA9wKl', 'profileName': 'Margarita Gomez Anichiarico', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0pWAoWyvS35gEbmNY4iroXRHxr3bJCapgrXMBVhverDdwtJKE2NaqkMfEvMvMjiBBl?comment_id=1576500203505837', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzE1NzY1MDAyMDM1MDU4Mzc=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xNTc2NTAwMjAzNTA1ODM3', 'date': '2025-11-25T00:59:35.000Z', 'text': 'Es verdad', 'profileUrl': 'https://www.facebook.com/marcela.cardonaarenas', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/366735909_10225820803680965_1972811500240780147_n.jpg?stp=c0.0.655.655a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=dhnkMyo700YQ7kNvwGw0Nvv&amp;_nc_oc=Adm7h9MJa6HAdSYpjJ9VSs8WG7ZbZKQdJSKw-HoRsX0bYGchpHeDuvjGuKEVire4dCA&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=qQ_4wqx8zhkSh_S7lsbAUw&amp;oh=00_Afi0HTlxxBnOP571W0OcFuX2oRIzKWxSMsKEGtI28x65SQ&amp;oe=692CBDA3', 'profileId': '1058529844', 'profileName': 'Marce Cardona Arenas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02tMcWherFtTTxU8wptBXvSxxjRfXg37KyeXiRjFr3SACcErMUaS7VpVf1UbYPgukpl?comment_id=1576500203505837', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzE1NzY1MDAyMDM1MDU4Mzc=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xNTc2NTAwMjAzNTA1ODM3', 'date': '2025-11-25T00:59:35.000Z', 'text': 'Es verdad', 'profileUrl': 'https://www.facebook.com/marcela.cardonaarenas', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/366735909_10225820803680965_1972811500240780147_n.jpg?stp=c0.0.655.655a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=dhnkMyo700YQ7kNvwGFPvxf&amp;_nc_oc=AdmJlVdLhQ6nvJDqDg33g9jp7l6EtpRg26bwMTpu1_lj7vZBtOYUoEGKcJseczUyWtM&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=jeOf_I2tpue2Jjw8T30xaA&amp;oh=00_AfjkFenFj6L7Y5QRfAt5wYWaRFl0eWx9Wj32YTjDCR9sjQ&amp;oe=692E0F23', 'profileId': '1058529844', 'profileName': 'Marce Cardona Arenas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
         </is>
       </c>
     </row>
@@ -1695,7 +1695,7 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0pWAoWyvS35gEbmNY4iroXRHxr3bJCapgrXMBVhverDdwtJKE2NaqkMfEvMvMjiBBl?comment_id=1382018550229999', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzEzODIwMTg1NTAyMjk5OTk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xMzgyMDE4NTUwMjI5OTk5', 'date': '2025-11-25T20:18:02.000Z', 'text': 'Medio vaso de yogur, 6 morenitas, la calidad del yogur baja y el precio alto 🤦🏼\u200d♀️', 'profileUrl': 'https://www.facebook.com/ginamarcela.henao', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/536270859_10239294931008962_4303037549656228839_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=WKvyZ3HM2t8Q7kNvwFwUxAK&amp;_nc_oc=Adkm5JBbuGNRheZP-H4F8NP9kDzhp90shGxzqFqMwil1KlC3YuFw4vDT5yg_SsdmbBc&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=qQ_4wqx8zhkSh_S7lsbAUw&amp;oh=00_AfiifaCy5khuzYsR2o96nBeOcVXdz0RjuETqZ8OxP5dEiQ&amp;oe=692CD1E2', 'profileId': 'pfbid0UP9gsGpmUkKGbb4ujapf2SWjjK4An6Qq6y7zN1aToU8KgxMaJKxBeHUt2DPeh47ul', 'profileName': 'Gina Marcela Henao', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02tMcWherFtTTxU8wptBXvSxxjRfXg37KyeXiRjFr3SACcErMUaS7VpVf1UbYPgukpl?comment_id=1382018550229999', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzEzODIwMTg1NTAyMjk5OTk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xMzgyMDE4NTUwMjI5OTk5', 'date': '2025-11-25T20:18:02.000Z', 'text': 'Medio vaso de yogur, 6 morenitas, la calidad del yogur baja y el precio alto 🤦🏼\u200d♀️', 'profileUrl': 'https://www.facebook.com/ginamarcela.henao', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/536270859_10239294931008962_4303037549656228839_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=WKvyZ3HM2t8Q7kNvwFkGVwu&amp;_nc_oc=AdmjVu394UHiWYoPPrEQKxcN3N8KcoDrdrb195verX2d9UMKz218jjVL7TGnaIiRuzo&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=jeOf_I2tpue2Jjw8T30xaA&amp;oh=00_AfjwbdgE6M4f4A0cA2UxDit6TEW42iQZLPIOsJMY3pKf0Q&amp;oe=692E2362', 'profileId': 'pfbid02XkdsVJBPWJGWuTDx5uvx11kpRgKp7neW8WELo3uXzwa5neszPYzYVQHXHDJWENUYl', 'profileName': 'Gina Marcela Henao', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0pWAoWyvS35gEbmNY4iroXRHxr3bJCapgrXMBVhverDdwtJKE2NaqkMfEvMvMjiBBl?comment_id=845111814882138', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzg0NTExMTgxNDg4MjEzOA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM184NDUxMTE4MTQ4ODIxMzg=', 'date': '2025-11-26T02:45:12.000Z', 'text': 'Hoy toca probar uno cada 6 meses😂 se volvieron intocables y pequeños', 'profileUrl': 'https://www.facebook.com/alex.moreno.412286', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t1.6435-1/145147494_712955466259155_307990092778565359_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=4QmjQGNX9u8Q7kNvwFt9oi6&amp;_nc_oc=AdmVMJQs-XEgh45BpHezHv6Sxcz3fTNLaK0qqr-KHVLlT_p3lBW5k-89BVzAmSjYoXM&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=qQ_4wqx8zhkSh_S7lsbAUw&amp;oh=00_AfjT0deMXsU31PmEmqlYdp1QMUET6-JdB67ukqi-C_W4Eg&amp;oe=694E7408', 'profileId': 'pfbid0emSj2zBqSF9q5XWMRkctXPN5bL1qvL8Crc9M8hxNrA6HdziMBfrJ7fnz9BwjRwXCl', 'profileName': 'Alex Moreno', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02tMcWherFtTTxU8wptBXvSxxjRfXg37KyeXiRjFr3SACcErMUaS7VpVf1UbYPgukpl?comment_id=845111814882138', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzg0NTExMTgxNDg4MjEzOA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM184NDUxMTE4MTQ4ODIxMzg=', 'date': '2025-11-26T02:45:12.000Z', 'text': 'Hoy toca probar uno cada 6 meses😂 se volvieron intocables y pequeños', 'profileUrl': 'https://www.facebook.com/alex.moreno.412286', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t1.6435-1/145147494_712955466259155_307990092778565359_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=akmw-IJDUl0Q7kNvwHktjm2&amp;_nc_oc=AdnrVyUaGkSPyp5eRWJiSV-VR3R0bqsr-qwe8eg9pPHoR7IXu3MvMdvfjUiwDXodUkI&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=jeOf_I2tpue2Jjw8T30xaA&amp;oh=00_Afg0Lyw9zfV_pvawLUYX138cabem2aiqybQWcKzEVXIwIQ&amp;oe=694FC588', 'profileId': 'pfbid02ictSDf7fHZiybrG4A3KtSG4QERTRpFF8JycXkTgPcSb2RtwXbHvGFDUxM6q4hjUVl', 'profileName': 'Alex Moreno', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
         </is>
       </c>
     </row>
@@ -1803,7 +1803,7 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0pWAoWyvS35gEbmNY4iroXRHxr3bJCapgrXMBVhverDdwtJKE2NaqkMfEvMvMjiBBl?comment_id=1475494833548118', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzE0NzU0OTQ4MzM1NDgxMTg=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xNDc1NDk0ODMzNTQ4MTE4', 'date': '2025-11-25T00:07:35.000Z', 'text': 'Cuando valía 300 pesos', 'profileUrl': 'https://www.facebook.com/jimmymauricio.valenciagarcia', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/462255160_8717554801641125_175399083759338104_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=TMAEuteHvZgQ7kNvwEeZGBb&amp;_nc_oc=Adl5BK5TE9ZQU_Qy4sEu9ey53d4q6V3TqztKc-SFtIwPBWi8-SCivKiqx5Vx6-hBtz4&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=qQ_4wqx8zhkSh_S7lsbAUw&amp;oh=00_Afgmw6Wk2526lHl6grjdYuORDGjgkGfl9DbBE0WNp5dCQw&amp;oe=692CBEF4', 'profileId': '100001600746705', 'profileName': 'Jm Valencia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02tMcWherFtTTxU8wptBXvSxxjRfXg37KyeXiRjFr3SACcErMUaS7VpVf1UbYPgukpl?comment_id=1475494833548118', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzE0NzU0OTQ4MzM1NDgxMTg=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xNDc1NDk0ODMzNTQ4MTE4', 'date': '2025-11-25T00:07:35.000Z', 'text': 'Cuando valía 300 pesos', 'profileUrl': 'https://www.facebook.com/jimmymauricio.valenciagarcia', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/462255160_8717554801641125_175399083759338104_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=E59hmgqvb2EQ7kNvwEW9JYX&amp;_nc_oc=AdkcW3Nrkg5GbfUOr8PddAh0qePfoIcpUwXdIG4ez81ldbC8uzDcDgCH2sSivLLqOvk&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=jeOf_I2tpue2Jjw8T30xaA&amp;oh=00_AfhZwWSUUSeq7MdEY-cwVDjwxrGjo5c29RjS_AKO0PQjvQ&amp;oe=692E1074', 'profileId': '100001600746705', 'profileName': 'Jm Valencia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0pWAoWyvS35gEbmNY4iroXRHxr3bJCapgrXMBVhverDdwtJKE2NaqkMfEvMvMjiBBl?comment_id=874050021630534', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzg3NDA1MDAyMTYzMDUzNA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM184NzQwNTAwMjE2MzA1MzQ=', 'date': '2025-11-26T04:57:24.000Z', 'text': 'Caro y feo 🙈🙈🙈', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/339934306_1281052579284231_2407755968004920347_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=ASeepM-FfA8Q7kNvwE2S9gH&amp;_nc_oc=AdmIjQYGpvlLAsRPOGTkBXslqGe5CvV86Mub2x81PckWvR8_YOc1hkOYXJ9h6IB5oP4&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=ZL7iscr04fzZVz81oBnBpg&amp;oh=00_AfgOEjBRQ_fofxSg6s10y03VfZjaEW26XV1YzXwTjemcjw&amp;oe=692CE03B', 'profileId': '647105731', 'profileName': 'Tatiana Alford', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02tMcWherFtTTxU8wptBXvSxxjRfXg37KyeXiRjFr3SACcErMUaS7VpVf1UbYPgukpl?comment_id=874050021630534', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzg3NDA1MDAyMTYzMDUzNA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM184NzQwNTAwMjE2MzA1MzQ=', 'date': '2025-11-26T04:57:24.000Z', 'text': 'Caro y feo 🙈🙈🙈', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/339934306_1281052579284231_2407755968004920347_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=ASeepM-FfA8Q7kNvwGeOcl7&amp;_nc_oc=AdkPqyJbZO0IH-0Q4_ckQ5Ur6SQd1OItSmfYNxZdNRLQUR7BYh0JqEBfFq_tW3KqZi0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=zJnARSmICRGzyA1oFaRk_A&amp;oh=00_AfjpsCYtUqG_E6LWSscgXTOGMhBFPYfoc9ZoQafJ3GcPbQ&amp;oe=692E31BB', 'profileId': '647105731', 'profileName': 'Tatiana Alford', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0pWAoWyvS35gEbmNY4iroXRHxr3bJCapgrXMBVhverDdwtJKE2NaqkMfEvMvMjiBBl?comment_id=813744634893571', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzgxMzc0NDYzNDg5MzU3MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM184MTM3NDQ2MzQ4OTM1NzE=', 'date': '2025-11-26T03:24:23.000Z', 'text': 'Elaine Ramírez 🤤', 'profileUrl': 'https://www.facebook.com/elys.delahozramirez', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/509432194_732906435772345_791327506062062845_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=55HiSQcJickQ7kNvwFeKYBy&amp;_nc_oc=Adm-Ix0-XZrnI4kzs2yiq6P6bGszwS7DCEJbNiZJmC-E_HgeE-wsuELVuopnAB2d02Q&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=ZL7iscr04fzZVz81oBnBpg&amp;oh=00_AfhTdB-IQowFtnimuVXr0mZ8cdDvY5HMmS9e1LBumEIf3w&amp;oe=692CB13C', 'profileId': 'pfbid02b1MJ735k3qHVrAcTesLuUp5L6isQpJn5aCTDfGczkzM43pV4AgkWRMf83TG92zSkl', 'profileName': 'Kathe Ramiirez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02tMcWherFtTTxU8wptBXvSxxjRfXg37KyeXiRjFr3SACcErMUaS7VpVf1UbYPgukpl?comment_id=813744634893571', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzgxMzc0NDYzNDg5MzU3MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM184MTM3NDQ2MzQ4OTM1NzE=', 'date': '2025-11-26T03:24:23.000Z', 'text': 'Elaine Ramírez 🤤', 'profileUrl': 'https://www.facebook.com/elys.delahozramirez', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/509432194_732906435772345_791327506062062845_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=55HiSQcJickQ7kNvwF2hEXB&amp;_nc_oc=Adlo3x_ZIptEtbvte3KeEANP6UU6zfQchdN0v-hf46G4OvvAKQ83-TYpbEhxDLNe_qA&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=zJnARSmICRGzyA1oFaRk_A&amp;oh=00_Afh1t6m_h7nxU3jx2b4_CCPBbUE0xxIZXCMDBwrPw4MqNA&amp;oe=692E02BC', 'profileId': 'pfbid0WykadDtBNqRBrqK2BfYhqWHusRyqxUrovUxp9ZfYGxYBzGvbdUy7tnJunWbdptjgl', 'profileName': 'Kathe Ramiirez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
         </is>
       </c>
     </row>
@@ -1965,7 +1965,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0pWAoWyvS35gEbmNY4iroXRHxr3bJCapgrXMBVhverDdwtJKE2NaqkMfEvMvMjiBBl?comment_id=25132294313095996', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzI1MTMyMjk0MzEzMDk1OTk2', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18yNTEzMjI5NDMxMzA5NTk5Ng==', 'date': '2025-11-24T18:49:49.000Z', 'text': 'Y la propaganda si quedo bien,, con ese precio ni uno se puede probar', 'profileUrl': 'https://www.facebook.com/angelica.cardona.5872', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/505233924_3997357573853243_9123692372587398049_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=e-vuBr4XnskQ7kNvwEuOLZF&amp;_nc_oc=AdlmVSIR7xJmIaNXFGmUbn4-rlJu-2Cx3vjqp87Um5G8myQKDBJoFi2hYCxJLfJP1yE&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=ZL7iscr04fzZVz81oBnBpg&amp;oh=00_AfhxAwgiMIvpHARvAdSyE6FJUth5rl9uI4lZvFDV0gywjA&amp;oe=692CB325', 'profileId': 'pfbid0dY8W4eM1DDrCZemSts3ZvF9aZPsJiN7QShvXVNNVS3JNmPGFLm1ZMaQH2aGh6hnwl', 'profileName': 'Angelica Cardona', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02tMcWherFtTTxU8wptBXvSxxjRfXg37KyeXiRjFr3SACcErMUaS7VpVf1UbYPgukpl?comment_id=25132294313095996', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzI1MTMyMjk0MzEzMDk1OTk2', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18yNTEzMjI5NDMxMzA5NTk5Ng==', 'date': '2025-11-24T18:49:49.000Z', 'text': 'Y la propaganda si quedo bien,, con ese precio ni uno se puede probar', 'profileUrl': 'https://www.facebook.com/angelica.cardona.5872', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/505233924_3997357573853243_9123692372587398049_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=e-vuBr4XnskQ7kNvwFo_mny&amp;_nc_oc=AdkRphFlgQGC3Ypaq4y_O0v6UErSfk-9k9g6cNlJZfLST-t-p3IbNZvCQFZCXNUtU4E&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=zJnARSmICRGzyA1oFaRk_A&amp;oh=00_Afj72v-1ZZHywuqw1p_Cf2oRb-kQxiuLUAK9eB1rcEjluQ&amp;oe=692E04A5', 'profileId': 'pfbid02gucggfhdEpQRysWaF8sTgH8o2SFqxhYhQYfyKATJaNDKKWrp5ofLGGvsZnLuchfPl', 'profileName': 'Angelica Cardona', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
         </is>
       </c>
     </row>
@@ -2019,7 +2019,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0pWAoWyvS35gEbmNY4iroXRHxr3bJCapgrXMBVhverDdwtJKE2NaqkMfEvMvMjiBBl?comment_id=25039922978949409', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzI1MDM5OTIyOTc4OTQ5NDA5', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18yNTAzOTkyMjk3ODk0OTQwOQ==', 'date': '2025-11-26T05:16:54.000Z', 'text': 'Bofff', 'profileUrl': 'https://www.facebook.com/daniela.motato.670111', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/516520495_122137512200793689_7086044033064241675_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=qAnapcoVbdQQ7kNvwGM2tyz&amp;_nc_oc=AdmEuxjaiFADtkY1Am8VVnJ73lrSgbDaqLjRvaFSFj1vmWg5CWpdzHDEZwGqYXkFsfQ&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=ZL7iscr04fzZVz81oBnBpg&amp;oh=00_AfhcxL0U-dPMl23ZLVVF1QkOBd-F-HWD3I3HobSIWjFL2Q&amp;oe=692CCBBE', 'profileId': '61573810682867', 'profileName': 'Motita D Dani', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02tMcWherFtTTxU8wptBXvSxxjRfXg37KyeXiRjFr3SACcErMUaS7VpVf1UbYPgukpl?comment_id=25039922978949409', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzI1MDM5OTIyOTc4OTQ5NDA5', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18yNTAzOTkyMjk3ODk0OTQwOQ==', 'date': '2025-11-26T05:16:54.000Z', 'text': 'Bofff', 'profileUrl': 'https://www.facebook.com/daniela.motato.670111', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/516520495_122137512200793689_7086044033064241675_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=qAnapcoVbdQQ7kNvwGfynoc&amp;_nc_oc=AdnosNh6FkSNQPcuDvSy5A1zOfXaTVi63jCWOQ2B1eyGlAy-LP0UKHXpClqqPYoATyI&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=zJnARSmICRGzyA1oFaRk_A&amp;oh=00_AfglMuVm_T3KFWK9R6x80ooHjbMGNsymqCYHm3wZF7mlOQ&amp;oe=692E1D3E', 'profileId': '61573810682867', 'profileName': 'Motita D Dani', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
         </is>
       </c>
     </row>
@@ -2073,7 +2073,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0pWAoWyvS35gEbmNY4iroXRHxr3bJCapgrXMBVhverDdwtJKE2NaqkMfEvMvMjiBBl?comment_id=1260657349235501', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzEyNjA2NTczNDkyMzU1MDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xMjYwNjU3MzQ5MjM1NTAx', 'date': '2025-11-24T22:34:20.000Z', 'text': 'No, porque es una estafa, solo empaque y bien costoso', 'profileUrl': 'https://www.facebook.com/fredy.cotame.2025', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/355876365_272551848766724_9175721193928506431_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=42qAS0KEOWUQ7kNvwEVYtiP&amp;_nc_oc=AdkEVp-BXvzSizd_1O5VVN57vD00dZPzskLB2MWcx-jRSiQov8U_9hvWu28cePvcFIw&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=ZL7iscr04fzZVz81oBnBpg&amp;oh=00_AfhrLKV9FW1FnlYL9stf33vCxTZlGnElbCA3llmqaXil2A&amp;oe=692CBE22', 'profileId': 'pfbid02g4oFhc4AaVs5ATYdPva9zYt4QTEX7miLgK5FBzs9DGCCvaPW4fCSWHykdD6iHQY3l', 'profileName': 'Fredy Cotame', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02tMcWherFtTTxU8wptBXvSxxjRfXg37KyeXiRjFr3SACcErMUaS7VpVf1UbYPgukpl?comment_id=1260657349235501', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzEyNjA2NTczNDkyMzU1MDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xMjYwNjU3MzQ5MjM1NTAx', 'date': '2025-11-24T22:34:20.000Z', 'text': 'No, porque es una estafa, solo empaque y bien costoso', 'profileUrl': 'https://www.facebook.com/fredy.cotame.2025', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/355876365_272551848766724_9175721193928506431_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=42qAS0KEOWUQ7kNvwEEtfs6&amp;_nc_oc=AdkWnjWDOnd-IPjtuCq5mviOsyABqWZZDK2rBB7zeCdpn6xY0UJ94SR0XjDan4StZF0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=zJnARSmICRGzyA1oFaRk_A&amp;oh=00_Afjul4UFi05WSohkWyWKK0Q1BI0RGWwuToAWi8swwy9GpQ&amp;oe=692E0FA2', 'profileId': 'pfbid0cXA4nSRojFCTTQinm8G9rvGCHFP8rhRdfr279xFAjhG9dV6UgiEnysvs8AMbTPeZl', 'profileName': 'Fredy Cotame', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
         </is>
       </c>
     </row>
@@ -2127,7 +2127,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0pWAoWyvS35gEbmNY4iroXRHxr3bJCapgrXMBVhverDdwtJKE2NaqkMfEvMvMjiBBl?comment_id=816873427884424', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzgxNjg3MzQyNzg4NDQyNA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM184MTY4NzM0Mjc4ODQ0MjQ=', 'date': '2025-11-26T09:57:15.000Z', 'text': 'Yo compro kumis litros y ojuelas azucaradas marca tigrillo atracardo y resulta que es igual', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-6/589430400_1833125634242127_6273034138670878428_n.jpg?stp=dst-jpg_fb30_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ybEjQYmZVwAQ7kNvwEXv0TN&amp;_nc_oc=AdkwJV9MUZXvWcszNKDGF5cANNk9EAZjxCXB0_OCtcltAHBXatiw-5OA_YzPUDaUZF8&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=ZL7iscr04fzZVz81oBnBpg&amp;oh=00_AfimEYPOjAazNvUamwdYo2ruQzckL11lPyrTO_xf336r0Q&amp;oe=692CC405'}, 'id': '1833125630908794', 'cix_screen': None, 'massive_image': {'width': 505, 'height': 385}, 'image': {'uri': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-6/589430400_1833125634242127_6273034138670878428_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ybEjQYmZVwAQ7kNvwEXv0TN&amp;_nc_oc=AdkwJV9MUZXvWcszNKDGF5cANNk9EAZjxCXB0_OCtcltAHBXatiw-5OA_YzPUDaUZF8&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=ZL7iscr04fzZVz81oBnBpg&amp;oh=00_AfjKDqR5nnUce1xCGL7eN_sn8gaZwr6jkKuhMiyLCYA8fw&amp;oe=692CC405', 'width': 261, 'height': 199}, 'ocrText': 'No photo description available.'}], 'profileUrl': 'https://www.facebook.com/alex.moreno.412286', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t1.6435-1/145147494_712955466259155_307990092778565359_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=4QmjQGNX9u8Q7kNvwFiscOD&amp;_nc_oc=Adn_ATG8A10rJjf53syEcw0m_yVSTMfe7VGGYmgNHCe6pvfRa32yDNe3X5LhmMNEAqU&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=ZL7iscr04fzZVz81oBnBpg&amp;oh=00_Afi7N6JXNg9OCE74GMZB_QTo4uCZ8HrOsI2GChzM-_aY5w&amp;oe=694E7408', 'profileId': 'pfbid0emSj2zBqSF9q5XWMRkctXPN5bL1qvL8Crc9M8hxNrA6HdziMBfrJ7fnz9BwjRwXCl', 'profileName': 'Alex Moreno', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02tMcWherFtTTxU8wptBXvSxxjRfXg37KyeXiRjFr3SACcErMUaS7VpVf1UbYPgukpl?comment_id=816873427884424', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzgxNjg3MzQyNzg4NDQyNA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM184MTY4NzM0Mjc4ODQ0MjQ=', 'date': '2025-11-26T09:57:15.000Z', 'text': 'Yo compro kumis litros y ojuelas azucaradas marca tigrillo atracardo y resulta que es igual', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-6/589430400_1833125634242127_6273034138670878428_n.jpg?stp=dst-jpg_fb30_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=4P_iCLQ-jUUQ7kNvwG9M8qD&amp;_nc_oc=Adl--BDbW2rpBp9vOAmDhb-DsneHdYA7R2s8sjD4N4VIkNjPOPeSBi81TTkDk10nZiA&amp;_nc_zt=23&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=zJnARSmICRGzyA1oFaRk_A&amp;oh=00_AfgQfoVTMpFnjDE7S2ndKzM4aahxFPYXvEcjNqOJ8frCwg&amp;oe=692E1585'}, 'id': '1833125630908794', 'cix_screen': None, 'massive_image': {'width': 505, 'height': 385}, 'image': {'uri': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-6/589430400_1833125634242127_6273034138670878428_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=4P_iCLQ-jUUQ7kNvwG9M8qD&amp;_nc_oc=Adl--BDbW2rpBp9vOAmDhb-DsneHdYA7R2s8sjD4N4VIkNjPOPeSBi81TTkDk10nZiA&amp;_nc_zt=23&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=zJnARSmICRGzyA1oFaRk_A&amp;oh=00_AfiGamPHEQzC7d8Fc7wk6DlM8jxUQZRA8oDYWUwCdyFuGg&amp;oe=692E1585', 'width': 261, 'height': 199}, 'ocrText': 'No photo description available.'}], 'profileUrl': 'https://www.facebook.com/alex.moreno.412286', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t1.6435-1/145147494_712955466259155_307990092778565359_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=akmw-IJDUl0Q7kNvwGBcUCm&amp;_nc_oc=AdmQpMIXVD1RmIaAQBRRhmnWUeUDpbBavyZ7k9ub7L4ttAbelwx-kDJUK4DaJTHVDJc&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=zJnARSmICRGzyA1oFaRk_A&amp;oh=00_AfgX39xnEkR9t6PwSycScGbS8Jvkh8zbk18YNPUFwKitFQ&amp;oe=694FC588', 'profileId': 'pfbid02ictSDf7fHZiybrG4A3KtSG4QERTRpFF8JycXkTgPcSb2RtwXbHvGFDUxM6q4hjUVl', 'profileName': 'Alex Moreno', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=1388063563103759', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzODgwNjM1NjMxMDM3NTk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzg4MDYzNTYzMTAzNzU5', 'date': '2025-11-25T02:23:58.000Z', 'text': 'Tan bueno.', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t1.6435-1/163069213_1667788816742137_1108665802889185616_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Hmn80GI1O5sQ7kNvwH0mUtU&amp;_nc_oc=AdlwT5496G0QNX57z-QW17OeWsev7ZwH3NbtA__m3LjBu3yRr_7X2lz86wMqhUuGYKg&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=eEANawFA4sRrBrpcoz-O_Q&amp;oh=00_AfhgjSqzi1_bsS3ASZBdQJPwr8P-GfuDNK6P6UIeGC8TJw&amp;oe=694E7C14', 'profileId': 'pfbid0B82BGBXfGr7EABBdPdaP7o5UMFFiuwXmZRxowuFUDC17TEmDD96fG8PixHJ8QUQvl', 'profileName': 'Jaker Albeiro Salvaje Cuartas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1388063563103759', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzODgwNjM1NjMxMDM3NTk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzg4MDYzNTYzMTAzNzU5', 'date': '2025-11-25T02:23:58.000Z', 'text': 'Tan bueno.', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t1.6435-1/163069213_1667788816742137_1108665802889185616_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=GURBjoSIphMQ7kNvwEzhHQA&amp;_nc_oc=AdlIHjKxS6y_lhRhZymQ82ikqImWyONiMPQRgAOjiJStRBHbVhL0d9HecCUgDsSRkdM&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=BKcJ-G6MspRh7uHKZUGg4w&amp;oh=00_AfgGVCFD7Zhoigcnk0sphlMTF971JR8NkFzpHjfuA58t1Q&amp;oe=694FCD94', 'profileId': 'pfbid02EVWMtCtHJb5A4nkP7GgNRBxEVhtDxemvnQ11YYteHPsXY9RveEKn8awAvscMfTwvl', 'profileName': 'Jaker Albeiro Salvaje Cuartas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -2235,7 +2235,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=2045961822830627', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIwNDU5NjE4MjI4MzA2Mjc=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMDQ1OTYxODIyODMwNjI3', 'date': '2025-11-25T12:09:19.000Z', 'text': 'Con esos precios na  gracias lo hago en casa me sale más barato  y más rico', 'profileUrl': 'https://www.facebook.com/david.fonk.913866', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-1/518197090_2028931904546235_7435092837846065560_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=124HZennl9MQ7kNvwGvHaQG&amp;_nc_oc=Adn23XNw88qLWAzpwMKjVjS9Nm9TW-KwPElnADb7TtXLoEREgx5fLiJNLMpY7qUkYs0&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=eEANawFA4sRrBrpcoz-O_Q&amp;oh=00_AfjgRIggMU24g6rv7U9W07wJLQ5EE28FBtkS6CzWmht29w&amp;oe=692CD501', 'profileId': '100022883357945', 'profileName': 'David Fonk', 'likesCount': '10', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=2045961822830627', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIwNDU5NjE4MjI4MzA2Mjc=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMDQ1OTYxODIyODMwNjI3', 'date': '2025-11-25T12:09:19.000Z', 'text': 'Con esos precios na  gracias lo hago en casa me sale más barato  y más rico', 'profileUrl': 'https://www.facebook.com/david.fonk.913866', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/518197090_2028931904546235_7435092837846065560_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=124HZennl9MQ7kNvwGpb51W&amp;_nc_oc=AdnPOPs2Oodh8Mciq41wxcoxMktF4XjQ9Fhr7YTJnZKfSFCYgt5Gi5lap76Ca7A0jTY&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=BKcJ-G6MspRh7uHKZUGg4w&amp;oh=00_Afgxe_srj_JLOYx5DZvavwTeu7V-BbpqSdfhZrJ0x3GouQ&amp;oe=692E2681', 'profileId': '100022883357945', 'profileName': 'David Fonk', 'likesCount': '10', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=1152991517044181', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNTI5OTE1MTcwNDQxODE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTUyOTkxNTE3MDQ0MTgx', 'date': '2025-11-25T03:13:53.000Z', 'text': '35 años vendiendo productos sobrevalorados, bravo!', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-1/565184876_10237965239371316_1025756455365633599_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=J1H0MpdiHqYQ7kNvwGHZdK-&amp;_nc_oc=AdmTtnp2k_4E1s9dSXDXIhg3dpdu0vhiQ_r3MUf8AYizXLHJjeen1A0NmAHe6SWEo1o&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=eEANawFA4sRrBrpcoz-O_Q&amp;oh=00_AfhjChWwPgzt3p3RzZfiHz0qx-N0iEgq1PhR3h05g1Go9Q&amp;oe=692CD38F', 'profileId': 'pfbid02748JNS3QQQWXXq47jpG7y2ZxNrn3RQYXTz31wjHNfQk2R1s91wxT958UquTHs6Svl', 'profileName': 'Fabio Cuellar', 'likesCount': '19', 'commentsCount': 3, 'comments': [], 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1152991517044181', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNTI5OTE1MTcwNDQxODE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTUyOTkxNTE3MDQ0MTgx', 'date': '2025-11-25T03:13:53.000Z', 'text': '35 años vendiendo productos sobrevalorados, bravo!', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/565184876_10237965239371316_1025756455365633599_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=bjGuO7RqBQQQ7kNvwF9u7Uf&amp;_nc_oc=AdlYOmjrfw6kpkOFbp0AmVxHhOJYe6vYXhi4RDS2xPGucbbdaQW2Pl1aCCXSv4dS7vM&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=BKcJ-G6MspRh7uHKZUGg4w&amp;oh=00_AfitmMaJPGv05iqA6unyY_PVHlKFU4LnRYMSkx0biVFbrA&amp;oe=692E250F', 'profileId': 'pfbid032XatcqqjTvSZcmKz9NcTckiZs97tWgp8yaiMaHXvLVTxRFiB7F24aizu6sW6VYLl', 'profileName': 'Fabio Cuellar', 'likesCount': '19', 'commentsCount': 3, 'comments': [], 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=837830755559105', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzgzNzgzMDc1NTU1OTEwNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184Mzc4MzA3NTU1NTkxMDU=', 'date': '2025-11-25T10:08:53.000Z', 'text': '35 años vendiendo plástico, felicitaciones, que gran empresa', 'profileUrl': 'https://www.facebook.com/ANDYRODICK.509', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-1/544854593_10241181694778697_249590002339244172_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=TjSYTcB0t0sQ7kNvwGnIUAY&amp;_nc_oc=AdkrRXm_qhEAdng0Z_YbL_MhVkeYdn5j2hSgddgVmBfrqYVNZnCfOQW2lreA4KSwMYo&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=eEANawFA4sRrBrpcoz-O_Q&amp;oh=00_Afin7tuwB6ZgxsPpa957zigQruhLh87xI10mDst1VxcTng&amp;oe=692CD3C3', 'profileId': '1210177132', 'profileName': 'Felipe Andrés Morales', 'likesCount': '2', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=837830755559105', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzgzNzgzMDc1NTU1OTEwNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184Mzc4MzA3NTU1NTkxMDU=', 'date': '2025-11-25T10:08:53.000Z', 'text': '35 años vendiendo plástico, felicitaciones, que gran empresa', 'profileUrl': 'https://www.facebook.com/ANDYRODICK.509', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/544854593_10241181694778697_249590002339244172_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=1DNyfVPoknsQ7kNvwFBrs_A&amp;_nc_oc=AdkTYjpi4o2GPkbxd-3AGxRpor-BIX_AHuWG63k45KMpB2DBRlmTaVJKeLDfD5xMelM&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=BKcJ-G6MspRh7uHKZUGg4w&amp;oh=00_AfgkKDh039YiviuHAGz4sPBD-UCva-3IoOhueRRgcUSHJg&amp;oe=692E2543', 'profileId': '1210177132', 'profileName': 'Felipe Andrés Morales', 'likesCount': '2', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -2399,7 +2399,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=1424902262582540', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE0MjQ5MDIyNjI1ODI1NDA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNDI0OTAyMjYyNTgyNTQw', 'date': '2025-11-25T21:24:21.000Z', 'text': 'La mayoría de productos alpina, son de excelente calidad.\nYo personalmente no le doy a mis hijos Bon yurt, por los altos contenidos de azúcar.\nNo es para nada un alimento, y mucho menos para niños.', 'profileUrl': 'https://www.facebook.com/arikapha.walker.johnnie', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-1/465035527_10235660426509533_6472777142166050788_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=DAqodvjoIxwQ7kNvwFj-23o&amp;_nc_oc=AdnnIRc-SDmbekCwUL6MUpLVsHsZaeiC2QJd-B3FrXwVumXL_rpRVmvq-Cgbx0bpFzk&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=eEANawFA4sRrBrpcoz-O_Q&amp;oh=00_Afjie7vqsy7ncflq-V5SOmBevI01yTF_0YW3czcqjAUMhg&amp;oe=692CBFA8', 'profileId': 'pfbid0TDmVgE9pg3fwVig7atC1nBiWnMJWV3TGxFdEiq3eJz6rTEi6tRFMwsRQ4TiBrVUrl', 'profileName': 'Arikapha Walker Johnnie', 'likesCount': '0', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1424902262582540', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE0MjQ5MDIyNjI1ODI1NDA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNDI0OTAyMjYyNTgyNTQw', 'date': '2025-11-25T21:24:21.000Z', 'text': 'La mayoría de productos alpina, son de excelente calidad.\nYo personalmente no le doy a mis hijos Bon yurt, por los altos contenidos de azúcar.\nNo es para nada un alimento, y mucho menos para niños.', 'profileUrl': 'https://www.facebook.com/arikapha.walker.johnnie', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/465035527_10235660426509533_6472777142166050788_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=E-8VpozTbRMQ7kNvwGCPCTE&amp;_nc_oc=AdnOVCg6H4two_QIZm3jTo-zKCvd5r5KhmwdmE8LYwGujJvLdJiedHMkGcnKH4-Cvpc&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=BKcJ-G6MspRh7uHKZUGg4w&amp;oh=00_Afi5Yybo_Ga5k-goq3mpnlM8R6_2z7Se-_JvG_0hJ1R8Sg&amp;oe=692E1128', 'profileId': 'pfbid02X5DCru5eXWYuJh2m7zcHfutJuFPgAkWLGvmkikRK81tBff26hKp5ttmX3i5aXFH6l', 'profileName': 'Arikapha Walker Johnnie', 'likesCount': '0', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -2453,7 +2453,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=2677048389302225', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzI2NzcwNDgzODkzMDIyMjU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yNjc3MDQ4Mzg5MzAyMjI1', 'date': '2025-11-25T16:19:54.000Z', 'text': 'A mi me parece un muy buen producto y una excelente alianza. Que la calidad a bajado después de 2006,  si así es pero agradezcan a la mano de impuestos que tenemos en el país, antes es que la empresa aún sigue dando empleo a miles de colombianos, a dado la pelea. Y estos gobiernos son lo mismo pidan y pidan y solo den contentillo al pueblo. No hablen mal de las empresas y sus productos antes agradezcamos que aún tenemos empresas en colombia.', 'profileUrl': 'https://www.facebook.com/alejandro.p.buitrago.7', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-1/570737555_10236356351236135_7109030256808597490_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=OFr_4W5cqvkQ7kNvwEDhau0&amp;_nc_oc=AdmcJfJPA1ucLI-LqTHnYF5dFUuVY5ag9Tz-qNL5yicQFgEfyvRs_8WGv3c3i3EeISg&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=eEANawFA4sRrBrpcoz-O_Q&amp;oh=00_AfiUj70qEhLg_kdJ6fqUSliP75DPc3cOvO8KoCICUwoRaA&amp;oe=692CB253', 'profileId': '1450520155', 'profileName': 'Alejandro Paipilla Buitrago', 'likesCount': '5', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=2677048389302225', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzI2NzcwNDgzODkzMDIyMjU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yNjc3MDQ4Mzg5MzAyMjI1', 'date': '2025-11-25T16:19:54.000Z', 'text': 'A mi me parece un muy buen producto y una excelente alianza. Que la calidad a bajado después de 2006,  si así es pero agradezcan a la mano de impuestos que tenemos en el país, antes es que la empresa aún sigue dando empleo a miles de colombianos, a dado la pelea. Y estos gobiernos son lo mismo pidan y pidan y solo den contentillo al pueblo. No hablen mal de las empresas y sus productos antes agradezcamos que aún tenemos empresas en colombia.', 'profileUrl': 'https://www.facebook.com/alejandro.p.buitrago.7', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/570737555_10236356351236135_7109030256808597490_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=D0y79zx_x24Q7kNvwFCDDZU&amp;_nc_oc=Adm02_XNupT9f_KVcpRklTd0q5C6m90TLle2YAYq7DZmbotDJKMej6zU_-UymtrZ0g8&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=BKcJ-G6MspRh7uHKZUGg4w&amp;oh=00_AfgPrTeepLIAIr3ZYv3mxvOltqFATpboyDAtfXQQMEHxxA&amp;oe=692E03D3', 'profileId': '1450520155', 'profileName': 'Alejandro Paipilla Buitrago', 'likesCount': '5', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -2507,7 +2507,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=1306741007870493', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzMDY3NDEwMDc4NzA0OTM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzA2NzQxMDA3ODcwNDkz', 'date': '2025-11-25T05:06:42.000Z', 'text': 'Sobrevalorado, es rico siii pero fácilmente me pasan años sin probarlo, su precio aleja para ser tan básico', 'profileUrl': 'https://www.facebook.com/oscar.f.prieto.14', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-1/457702307_10233564617640291_6209302674690125759_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=UKfRj2ucYHwQ7kNvwG8edSO&amp;_nc_oc=AdlkQs28U4fu_pd1eW5CotHfoXod0GkD4IItG2H7lDwChnO0RdThDbhuGvLIuJ9bT4I&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=eEANawFA4sRrBrpcoz-O_Q&amp;oh=00_AfhwA9PozQBnjJ_bi3OM_QXUe2FVMK5qJ6l_8o4sXZ06GQ&amp;oe=692CE5B0', 'profileId': 'pfbid0d3BvBhhdMRNGLAtcxeR4wiDkARGCqXfxCGPeSv4YTGbaGThy3r4CDrW7iZjy3aBrl', 'profileName': 'Oscar Fabian Buitrago Prieto', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1306741007870493', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzMDY3NDEwMDc4NzA0OTM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzA2NzQxMDA3ODcwNDkz', 'date': '2025-11-25T05:06:42.000Z', 'text': 'Sobrevalorado, es rico siii pero fácilmente me pasan años sin probarlo, su precio aleja para ser tan básico', 'profileUrl': 'https://www.facebook.com/oscar.f.prieto.14', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/588566367_10239804375670342_4460210495587386708_n.jpg?stp=c6.0.483.483a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ptQGZqr7xB8Q7kNvwGNW_3l&amp;_nc_oc=AdlGznKjMVRdhOunLOyQozLULnGXKeQaIZeHx16wpOuC5tWqlhxGcr8M4I5z9RQURkc&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=BKcJ-G6MspRh7uHKZUGg4w&amp;oh=00_AfgpqGO-Xaosj3z121bYcEspBko2jhi3rvYifEIJWvuZyA&amp;oe=692E1146', 'profileId': 'pfbid02gQg6oj4FNzsLuZsL8PizMYmasozKYco19xXL8UGxvS97xxLoyXYBbU1UAARJybkJl', 'profileName': 'Oscar Fabian Buitrago Prieto', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=829854586452459', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzgyOTg1NDU4NjQ1MjQ1OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184Mjk4NTQ1ODY0NTI0NTk=', 'date': '2025-11-25T02:21:17.000Z', 'text': 'Todo un lujo jjj', 'profileUrl': 'https://www.facebook.com/luzbell.yepez', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-1/453730668_1638470000264918_8355986196165245239_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=k9OYS5QCpFUQ7kNvwEh8Eot&amp;_nc_oc=AdnZy6JuDNMVIWrlUQvbK6BA2P7tSZAPgNUeQOS4hlrTGcPqkS8C7-P-1_AWVCcqvRU&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=eEANawFA4sRrBrpcoz-O_Q&amp;oh=00_AfghprFKlcW1bDqEv2MhmAjmDONYCFaFl5P6jM90v82lnA&amp;oe=692CBAC1', 'profileId': '100023058013154', 'profileName': 'Luzbell Patty', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=829854586452459', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzgyOTg1NDU4NjQ1MjQ1OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184Mjk4NTQ1ODY0NTI0NTk=', 'date': '2025-11-25T02:21:17.000Z', 'text': 'Todo un lujo jjj', 'profileUrl': 'https://www.facebook.com/luzbell.yepez', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/453730668_1638470000264918_8355986196165245239_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=4jFVxezzpLoQ7kNvwH11Lw_&amp;_nc_oc=Adk2KWeA9A4jgq3ayxNjy2YyI2yv6LOyzYgiNeYK6xgPquxwIB0cSrrXV010KZc-fE4&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=BKcJ-G6MspRh7uHKZUGg4w&amp;oh=00_Afi0lVSKWv6Q5xLu4axwEPCHnwatdBTmkATK83IuScrN4A&amp;oe=692E0C41', 'profileId': '100023058013154', 'profileName': 'Luzbell Patty', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -2615,7 +2615,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=809611618734196', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzgwOTYxMTYxODczNDE5Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184MDk2MTE2MTg3MzQxOTY=', 'date': '2025-11-24T22:21:36.000Z', 'text': 'Con ese precio mejor tomo aguapanelita con limon', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-1/582415971_122231449286261461_6522798567143997130_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=e_p3acUPNvIQ7kNvwHwldMO&amp;_nc_oc=AdlOU0FsDWx_fP1XsbwanH2nMLKxvGayAvBAcoMDqzyBRoujxbOx8y8b9KPV6h_U-_0&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=eEANawFA4sRrBrpcoz-O_Q&amp;oh=00_AfiGUJc-TJOQylUCRmerw0BJoOsI5Z4VlKy4COjLL9rtjg&amp;oe=692CC67D', 'profileId': 'pfbid03Ra3nup5wJz2a7znGov5eJjsRE6EF6dCPicu7WwPVMyTdCWtTxsbgKUhsqQhs7q7l', 'profileName': 'Santiago Celis', 'likesCount': '15', 'commentsCount': 12, 'comments': [], 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=809611618734196', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzgwOTYxMTYxODczNDE5Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184MDk2MTE2MTg3MzQxOTY=', 'date': '2025-11-24T22:21:36.000Z', 'text': 'Con ese precio mejor tomo aguapanelita con limon', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/582415971_122231449286261461_6522798567143997130_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=e_p3acUPNvIQ7kNvwF_iZCH&amp;_nc_oc=Adk7cah3uFNV1EleGjfOsDlEKzoDN1vDxRXJzoyANfpKVax9N7Mf2A0lz5QWpU-SG68&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=BKcJ-G6MspRh7uHKZUGg4w&amp;oh=00_AficvM3NNUpx8_8mcj6jQryBj_0_ELVqfmBcwuftSAa8QA&amp;oe=692E17FD', 'profileId': 'pfbid027H1kyajunv4vKu7GsUVjgHeg3h4zifrgwAc1NeVh36DPz1X8apKm8xwBo2KGkDSVl', 'profileName': 'Santiago Celis', 'likesCount': '15', 'commentsCount': 12, 'comments': [], 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -2669,7 +2669,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=4316274151993029', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzQzMTYyNzQxNTE5OTMwMjk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N180MzE2Mjc0MTUxOTkzMDI5', 'date': '2025-11-25T17:30:48.000Z', 'text': 'Cuando vuelven a sacar los sacapuntas tío Bon Yurt se les recuerda con cariño.', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-1/488615637_10163135707878628_9115785384800601259_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FJPRlem5kFsQ7kNvwFf7F5b&amp;_nc_oc=Adkcce51b0yU3L-A8eICKElvN6Zn6f8cnOlhBKDvouB4o-ciA4NnVDMSeXW63HvDfBA&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=eEANawFA4sRrBrpcoz-O_Q&amp;oh=00_AfiJKLCHBsdca86pf-rZBQ7USu-bo5LskdeUSmqr41UXHg&amp;oe=692CD203', 'profileId': 'pfbid036SrJFkN37BfankQ9QyhQgb1B35ScjXr73DsqiiH1fWW9WsDMjb6u2WFuh9XoTuqvl', 'profileName': 'Elkin Yesid Veslin Diaz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=4316274151993029', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzQzMTYyNzQxNTE5OTMwMjk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N180MzE2Mjc0MTUxOTkzMDI5', 'date': '2025-11-25T17:30:48.000Z', 'text': 'Cuando vuelven a sacar los sacapuntas tío Bon Yurt se les recuerda con cariño.', 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.30808-1/488615637_10163135707878628_9115785384800601259_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=hmXSRs1yY7AQ7kNvwGYH9U0&amp;_nc_oc=AdkM3DBHzrADoNQUdBAvjLuEO4dF_FwZ9PFL4EutsMkwjz4jcoj9nhPqJ4qLijt6oLs&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=BKcJ-G6MspRh7uHKZUGg4w&amp;oh=00_AfjoRhDyv-gkD9TTGGGG7ueGj1Rk1g8zeWY1l0VhgGVvjA&amp;oe=692E2383', 'profileId': 'pfbid022RFamwAUSJBkgGZ4B6eHipwzj1ZkFWs4mkALKQrgM6e5AG32ZXUjghRQq8vvkGE2l', 'profileName': 'Elkin Yesid Veslin Diaz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -2723,7 +2723,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=833502609502751', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzgzMzUwMjYwOTUwMjc1MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184MzM1MDI2MDk1MDI3NTE=', 'date': '2025-11-25T22:01:36.000Z', 'text': 'Me gustaba más cuando era barato 🥲😅😅', 'profileUrl': 'https://www.facebook.com/mazob', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/518138460_10162171774598813_8268606707648269936_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=QeXkj17h-Y8Q7kNvwFFq3dc&amp;_nc_oc=AdmgpqCbTQyfiv3OZxhj-pbzGYwI2S3xoGek0DwHFVRJm9gUhGc8DOmBNKC3qFVpiiE&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=vncxrxAjjdH6hWB1oJNNTg&amp;oh=00_AfhWmpLbTlpnWRAoOFQIARu4kvd5ms8b0Oa01F2b9VgvEg&amp;oe=692CC790', 'profileId': '594658812', 'profileName': 'Henry Mazshop', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=833502609502751', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzgzMzUwMjYwOTUwMjc1MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184MzM1MDI2MDk1MDI3NTE=', 'date': '2025-11-25T22:01:36.000Z', 'text': 'Me gustaba más cuando era barato 🥲😅😅', 'profileUrl': 'https://www.facebook.com/mazob', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/518138460_10162171774598813_8268606707648269936_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=QeXkj17h-Y8Q7kNvwHIPeeO&amp;_nc_oc=Adms9ogQXCtbm1ayshistgYpcB3PdQN95XtLYMzAfBvE2k3oAgDVHYGvd6Q_PuhXZ2Q&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=ad6t0WRsrd_7iP2jDxgQYQ&amp;oh=00_Afg-b5K29oIHZ-EY4-qCfx76HvNnUUwgs5LPLxpAPcRHKw&amp;oe=692E1910', 'profileId': '594658812', 'profileName': 'Henry Mazshop', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -2777,7 +2777,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=702194206278282', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzcwMjE5NDIwNjI3ODI4Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N183MDIxOTQyMDYyNzgyODI=', 'date': '2025-11-26T03:35:44.000Z', 'text': 'Bonito recuerdo cuando lo comí por primera vez,me lo compro mi hermano que ya no esta.😔', 'profileUrl': 'https://www.facebook.com/people/Juan-Pablo-Salgado-Galvez/pfbid02vjoJAvV1bBprKMEcdR9aQuHvpARxEN42h8JGp4Xwae4kkhsEHgP2emdVPPJn891l/', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/469488281_122100720986667542_3546846497168303239_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=XH1b0e75T2wQ7kNvwE9pYjB&amp;_nc_oc=Adl5oPyu8UwWBJ3rTwebT4HEKUnVNCilwjVcYJANy9ehaPya1xA0q3HD8NKsYo3Vkgc&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=vncxrxAjjdH6hWB1oJNNTg&amp;oh=00_AfhvVppkK86CKPilVYmFp4aJOpRoKzo6_Kr74AEitDfh9Q&amp;oe=692CC3FF', 'profileId': 'pfbid02vjoJAvV1bBprKMEcdR9aQuHvpARxEN42h8JGp4Xwae4kkhsEHgP2emdVPPJn891l', 'profileName': 'Juan Pablo Salgado Galvez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=702194206278282', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzcwMjE5NDIwNjI3ODI4Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N183MDIxOTQyMDYyNzgyODI=', 'date': '2025-11-26T03:35:44.000Z', 'text': 'Bonito recuerdo cuando lo comí por primera vez,me lo compro mi hermano que ya no esta.😔', 'profileUrl': 'https://www.facebook.com/people/Juan-Pablo-Salgado-Galvez/pfbid026JDyvCH738y1pgBcPtJTAABTMxfLRxmoGPy9t9YPBiKrKA2S7rhhifPXFVygyvfKl/', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/469488281_122100720986667542_3546846497168303239_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9TkqgITDrWsQ7kNvwEI_7Xv&amp;_nc_oc=AdmilR8XusUaAv5Vb_yDwZbVPoCP3_A2-5eL1hkbefIsvHQ7y4nYM4zAxaqFxca65ao&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=ad6t0WRsrd_7iP2jDxgQYQ&amp;oh=00_AfhwDjiO6zeyL9QP_N2lrtR92ANeGqJQJJSZGp-1yU8vjQ&amp;oe=692E157F', 'profileId': 'pfbid026JDyvCH738y1pgBcPtJTAABTMxfLRxmoGPy9t9YPBiKrKA2S7rhhifPXFVygyvfKl', 'profileName': 'Juan Pablo Salgado Galvez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=1175232757386966', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNzUyMzI3NTczODY5NjY=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTc1MjMyNzU3Mzg2OTY2', 'date': '2025-11-25T18:47:26.000Z', 'text': '¿Van a sacar la versión clásica? Uy, sería genial. Existía una versión de ninjas con historietas.', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/456461448_10232106070008085_3658764015300107828_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=efTpQv3kEUUQ7kNvwHl-Ie8&amp;_nc_oc=AdmDupA6uIDOy0CrC9-1zVHVAVAm9Rc5WD7znw9mcR41tjjmKBBEqCroID6KJd4zHPg&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=vncxrxAjjdH6hWB1oJNNTg&amp;oh=00_Afhay8Rm5zFPYSGp-x_Hm1RjJVfiZjxzroWHSfvaFGHUbQ&amp;oe=692CD2AF', 'profileId': '1040248128', 'profileName': 'Jose Luis', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1175232757386966', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNzUyMzI3NTczODY5NjY=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTc1MjMyNzU3Mzg2OTY2', 'date': '2025-11-25T18:47:26.000Z', 'text': '¿Van a sacar la versión clásica? Uy, sería genial. Existía una versión de ninjas con historietas.', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/456461448_10232106070008085_3658764015300107828_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=efTpQv3kEUUQ7kNvwHQ6ba-&amp;_nc_oc=AdmMHzldHuB_lZumUDKWSc94v79jKKRlUybzDKj1i2KoCI3PL2iZjrpwqRD0J2P3m1Y&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=ad6t0WRsrd_7iP2jDxgQYQ&amp;oh=00_AfhOQTChoRQajgF_kb5w0YekAShdhOV9Mc9J1Sy0AjysLg&amp;oe=692E242F', 'profileId': '1040248128', 'profileName': 'Jose Luis', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -2887,7 +2887,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=2077627949641833', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIwNzc2Mjc5NDk2NDE4MzM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMDc3NjI3OTQ5NjQxODMz', 'date': '2025-11-25T01:17:30.000Z', 'text': 'Me acordé de la propaganda que le preguntaban a la gente que cree que es bon yurt\nY una señora toda elegante dice : en francés significa BUENOS DÍAS \nFue la primera palabra en otro idioma que aprendí gracias a ese marketing', 'profileUrl': 'https://www.facebook.com/alvaro.e.valbuena.1', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/496184028_10236240538011203_1945246543330215312_n.jpg?stp=c125.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=Sx9aDDIthSkQ7kNvwExgqr5&amp;_nc_oc=AdnkxqLHzbVVgLJpdXUL7MrwsjSZWbkN6hfL7gVb2T94lJQI9e2V3kMz5MuIlcO0Tvs&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=vncxrxAjjdH6hWB1oJNNTg&amp;oh=00_Afi41G-p7RuARl_hblaWPRKnuh1y93NLTR5nF6QTcoOMVg&amp;oe=692CE688', 'profileId': '1160294878', 'profileName': 'Alvaro Esparza Valbuena', 'likesCount': '4', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=2077627949641833', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIwNzc2Mjc5NDk2NDE4MzM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMDc3NjI3OTQ5NjQxODMz', 'date': '2025-11-25T01:17:30.000Z', 'text': 'Me acordé de la propaganda que le preguntaban a la gente que cree que es bon yurt\nY una señora toda elegante dice : en francés significa BUENOS DÍAS \nFue la primera palabra en otro idioma que aprendí gracias a ese marketing', 'profileUrl': 'https://www.facebook.com/alvaro.e.valbuena.1', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/496184028_10236240538011203_1945246543330215312_n.jpg?stp=c125.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=Sx9aDDIthSkQ7kNvwEkL_6d&amp;_nc_oc=AdnN8bfYfsenh887c0rHG9rkoMHW_AxiSm0mcLpiFlW0voHUKUJm81vwN1cyo-xn4-4&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=ad6t0WRsrd_7iP2jDxgQYQ&amp;oh=00_AfiIMClTatRxtWe8j6HU_JEKnvrXBALsc2WWRHCU3lLw7A&amp;oe=692E3808', 'profileId': '1160294878', 'profileName': 'Alvaro Esparza Valbuena', 'likesCount': '4', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -2941,7 +2941,7 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=1150071166850358', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNTAwNzExNjY4NTAzNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTUwMDcxMTY2ODUwMzU4', 'date': '2025-11-25T20:12:00.000Z', 'text': 'Traigan de vuelta el sabor original del kumis y los chocokrispis rojos', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/475745976_10235682019889523_165687499300067340_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=OuGV5RLgFzkQ7kNvwHJTt1G&amp;_nc_oc=AdmAjnlKSJpWYVPkFFY7wd3lqK6H8YIzJPoMdv7M-SmcSYT13yEMfIvCBHHJvcs_oHg&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=vncxrxAjjdH6hWB1oJNNTg&amp;oh=00_Afj8iKTzvxOsbVfhnJF3MaQ5-HufaynuYwpULTUaNV29zg&amp;oe=692CD5B6', 'profileId': 'pfbid0299tvCQa7XxhxSbCWnig5rYtKFCdtviAtdoaKfBg9AvBYwmQXWxU6j79KZRGke4rXl', 'profileName': 'Karn Oj Gob', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1150071166850358', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNTAwNzExNjY4NTAzNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTUwMDcxMTY2ODUwMzU4', 'date': '2025-11-25T20:12:00.000Z', 'text': 'Traigan de vuelta el sabor original del kumis y los chocokrispis rojos', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/475745976_10235682019889523_165687499300067340_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=OuGV5RLgFzkQ7kNvwGK-Jxi&amp;_nc_oc=AdncCRN7c53oGvcGM5nl5v9BWMbe5VEwKXPF4m_aey6E5HP_zP1O64h_tHuE4KYAT1A&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=ad6t0WRsrd_7iP2jDxgQYQ&amp;oh=00_AfiRFOmVyAgCmnha8EA3xD-TOBZgPWOc-QxX9atAZZYQLA&amp;oe=692E2736', 'profileId': 'pfbid05cFjHEwkgjW2fvQ2K1cvcv8cf16yuxBZpoM4m87dmT8SjdiHNUoxWixLYsifGQnkl', 'profileName': 'Karn Oj Gob', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -2995,7 +2995,7 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=740299422427121', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3Xzc0MDI5OTQyMjQyNzEyMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N183NDAyOTk0MjI0MjcxMjE=', 'date': '2025-11-25T11:28:52.000Z', 'text': 'Un mundo lleno de azúcar con seres humanos enfermos por esto mismo, el azúcar comida de muchas enfermedades entre ellas el cáncer, alimento ultraprocesado que hacen pasar por un alimento saludable  y ahora quien quiere contaminar a sus hijos o dañar sus sistemas digestivos .... Consume bon yurt te ayuda a estar mal si o si .........', 'profileUrl': 'https://www.facebook.com/people/Fazart-Ansestral/pfbid035xM3ucjkxsze3nsqDa1ApRATuLVnbyNYtHgF55bB6ZG3fLph3QJ3Zzb7Y3oq9Ac5l/', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/584964433_883191414183992_4641468979062122638_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=z0sP33xJRp4Q7kNvwE6jGRo&amp;_nc_oc=Adn71MdQ5LQzlWVzV_tmM41vN0wwVWCC-WirEsZQn3ChcsTwEyo3doL75OUvfi3rl84&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=vncxrxAjjdH6hWB1oJNNTg&amp;oh=00_AfitEX_--XqF8DiBmSWT7nZWa-XLmc2O9_0zrjSYA6_lhg&amp;oe=692CE4A4', 'profileId': 'pfbid035xM3ucjkxsze3nsqDa1ApRATuLVnbyNYtHgF55bB6ZG3fLph3QJ3Zzb7Y3oq9Ac5l', 'profileName': 'Fazart Ansestral', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=740299422427121', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3Xzc0MDI5OTQyMjQyNzEyMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N183NDAyOTk0MjI0MjcxMjE=', 'date': '2025-11-25T11:28:52.000Z', 'text': 'Un mundo lleno de azúcar con seres humanos enfermos por esto mismo, el azúcar comida de muchas enfermedades entre ellas el cáncer, alimento ultraprocesado que hacen pasar por un alimento saludable  y ahora quien quiere contaminar a sus hijos o dañar sus sistemas digestivos .... Consume bon yurt te ayuda a estar mal si o si .........', 'profileUrl': 'https://www.facebook.com/people/Fazart-Ansestral/pfbid021vkLRoYCHvdDrSAJnZHXbHbryaciUzqD4AmfQzdpQoX4WQTBL6mHSKsE1wH3X7AVl/', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/584964433_883191414183992_4641468979062122638_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=z0sP33xJRp4Q7kNvwEE_RT_&amp;_nc_oc=Adk1yPCo6OEHcrstQ9lTrU4azmgm20FhBPYsDo4wk5PA0ejadvVvU3O9NIr8jr3nNzc&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=ad6t0WRsrd_7iP2jDxgQYQ&amp;oh=00_Afi3FhRKebACup2gIAQf4DKPCjmFLupzgcH-0b-dsDhsmQ&amp;oe=692E3624', 'profileId': 'pfbid021vkLRoYCHvdDrSAJnZHXbHbryaciUzqD4AmfQzdpQoX4WQTBL6mHSKsE1wH3X7AVl', 'profileName': 'Fazart Ansestral', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -3049,7 +3049,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=1888526355075070', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE4ODg1MjYzNTUwNzUwNzA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xODg4NTI2MzU1MDc1MDcw', 'date': '2025-11-26T03:33:56.000Z', 'text': 'Recuerdo que reclamé un borrador de la forma del bonyurt en el año 92 o 93  y los muñecos eso pelos parados los tolw algo asi', 'profileUrl': 'https://www.facebook.com/odasir.bovea.2025', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/515440668_122152448126785945_755157395072017963_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=IRQB39WdWdsQ7kNvwEtcKPF&amp;_nc_oc=AdmxA5gkQJkE_5nWsblqB1bTlPOoaAeiDL1PNjOBI6ZzNy1ZAmh-e3OUB6jTNnw9aug&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=vncxrxAjjdH6hWB1oJNNTg&amp;oh=00_Afg3JalaxL27YdZUgMFRweS4jCxaBgl1asLlbk0Q9Tp9Dg&amp;oe=692CBFF9', 'profileId': 'pfbid022wwSUQxwdMqfKe9CrTfwRCHWnMthjD39Wjsbf4NfpqcoAQdC3erNZFRF8CGdDLdcl', 'profileName': 'Odasir Bovea', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1888526355075070', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE4ODg1MjYzNTUwNzUwNzA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xODg4NTI2MzU1MDc1MDcw', 'date': '2025-11-26T03:33:56.000Z', 'text': 'Recuerdo que reclamé un borrador de la forma del bonyurt en el año 92 o 93  y los muñecos eso pelos parados los tolw algo asi', 'profileUrl': 'https://www.facebook.com/odasir.bovea.2025', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/515440668_122152448126785945_755157395072017963_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ea0sY9hoF-QQ7kNvwEg_5UG&amp;_nc_oc=AdlQqr7BJRDtkqOQOLkL9gAcOvAM80rw4rVG_BdvrQV-lzL4PDj2Xuqxk-In0VTN_EY&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=ad6t0WRsrd_7iP2jDxgQYQ&amp;oh=00_AfjONvxOK26EG7BGKAqcmGJBi68hIAqTWcXli89YiVjIFQ&amp;oe=692E1179', 'profileId': 'pfbid036oP9f5tmUqU5dtXWdAKVShTmtYW2V3PiwmBg9b1i1eDq7RAUiiUkrv5ZYa8H33tgl', 'profileName': 'Odasir Bovea', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -3103,7 +3103,7 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=1557146152191245', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE1NTcxNDYxNTIxOTEyNDU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNTU3MTQ2MTUyMTkxMjQ1', 'date': '2025-11-25T11:25:29.000Z', 'text': '35 años robando a las familias... Excelente como se han enriquecido', 'profileUrl': 'https://www.facebook.com/ricardo.alvarado.303209', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/489963098_1177889487157615_7278733843491031172_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=fkOa6hKBwWQQ7kNvwE-TM3j&amp;_nc_oc=Adn56oCQ3laEIxIRvPA9cFw9Rr-lqn45JOaP0C3HfwyilVkuXECs1ByEm9ZCtcg1WsE&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=vncxrxAjjdH6hWB1oJNNTg&amp;oh=00_Afjc44Vt2arsIGskX-80iqS3troZqHhI6lJ62WRu1xe-Iw&amp;oe=692CD117', 'profileId': 'pfbid02imBnSbCLATcGyd2jJHCMEsVokXoFZpwwLPa3Zh2EejT4ZAdYpeAdh6RyEH3VfQKTl', 'profileName': 'Ricardo Alvarado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1557146152191245', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE1NTcxNDYxNTIxOTEyNDU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNTU3MTQ2MTUyMTkxMjQ1', 'date': '2025-11-25T11:25:29.000Z', 'text': '35 años robando a las familias... Excelente como se han enriquecido', 'profileUrl': 'https://www.facebook.com/ricardo.alvarado.303209', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/489963098_1177889487157615_7278733843491031172_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=fkOa6hKBwWQQ7kNvwH4kkyU&amp;_nc_oc=Adn1aAN3YQZ2Nv0zEIYhWoNGZV5hqpYLrfvdHZtG61O9zP4jhDt279bRhdNhkNRQByg&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=ad6t0WRsrd_7iP2jDxgQYQ&amp;oh=00_AfgRpodp20Xr0FNsmPeevQgL0bHSdRyqgvOUTwtKNNDkHw&amp;oe=692E2297', 'profileId': 'pfbid0ejb4xmzmVaqaEzD8NBUHCsPAMVN9NhUTe75SMeJiMFpTJG5neU6gCKnJhitBz5Dul', 'profileName': 'Ricardo Alvarado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=1189320129825469', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExODkzMjAxMjk4MjU0Njk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTg5MzIwMTI5ODI1NDY5', 'date': '2025-11-26T03:28:59.000Z', 'text': 'Joda si', 'profileUrl': 'https://www.facebook.com/odasir.bovea.2025', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/515440668_122152448126785945_755157395072017963_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=IRQB39WdWdsQ7kNvwEtcKPF&amp;_nc_oc=AdmxA5gkQJkE_5nWsblqB1bTlPOoaAeiDL1PNjOBI6ZzNy1ZAmh-e3OUB6jTNnw9aug&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=vncxrxAjjdH6hWB1oJNNTg&amp;oh=00_Afg3JalaxL27YdZUgMFRweS4jCxaBgl1asLlbk0Q9Tp9Dg&amp;oe=692CBFF9', 'profileId': 'pfbid022wwSUQxwdMqfKe9CrTfwRCHWnMthjD39Wjsbf4NfpqcoAQdC3erNZFRF8CGdDLdcl', 'profileName': 'Odasir Bovea', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1189320129825469', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExODkzMjAxMjk4MjU0Njk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTg5MzIwMTI5ODI1NDY5', 'date': '2025-11-26T03:28:59.000Z', 'text': 'Joda si', 'profileUrl': 'https://www.facebook.com/odasir.bovea.2025', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/515440668_122152448126785945_755157395072017963_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ea0sY9hoF-QQ7kNvwEg_5UG&amp;_nc_oc=AdlQqr7BJRDtkqOQOLkL9gAcOvAM80rw4rVG_BdvrQV-lzL4PDj2Xuqxk-In0VTN_EY&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=ad6t0WRsrd_7iP2jDxgQYQ&amp;oh=00_AfjONvxOK26EG7BGKAqcmGJBi68hIAqTWcXli89YiVjIFQ&amp;oe=692E1179', 'profileId': 'pfbid036oP9f5tmUqU5dtXWdAKVShTmtYW2V3PiwmBg9b1i1eDq7RAUiiUkrv5ZYa8H33tgl', 'profileName': 'Odasir Bovea', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -3211,7 +3211,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=1177485643784836', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNzc0ODU2NDM3ODQ4MzY=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTc3NDg1NjQzNzg0ODM2', 'date': '2025-11-25T02:19:43.000Z', 'text': 'Esa época cuando el yogurt  era el propio sin derivados de sueros', 'profileUrl': 'https://www.facebook.com/alejandra.mesa.347498', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/482057859_598914793147624_2770549664691375390_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=wknIJ03wuNsQ7kNvwE7w1LQ&amp;_nc_oc=AdmMe3lVW4q-9I4JqTd3jc9d1jUjqqoKQftfQVll4LsTlVYPzjIWhCkpvFuGDUuxEVo&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=vncxrxAjjdH6hWB1oJNNTg&amp;oh=00_Afjlbx2Mtqht0furDfBH3HKCQg242qRAxG1BHQRx8nJURw&amp;oe=692CD77D', 'profileId': '100090873254237', 'profileName': 'Alejandra Mesa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1177485643784836', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNzc0ODU2NDM3ODQ4MzY=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTc3NDg1NjQzNzg0ODM2', 'date': '2025-11-25T02:19:43.000Z', 'text': 'Esa época cuando el yogurt  era el propio sin derivados de sueros', 'profileUrl': 'https://www.facebook.com/alejandra.mesa.347498', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/482057859_598914793147624_2770549664691375390_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=SI8PMuMdtoYQ7kNvwGRGweM&amp;_nc_oc=AdmpbUKpftVE8HCcwfOiWdSIaPF6eNZqVv8FDVIQkeZOpj8QN-PSoFxZk1N0dUBx4Tg&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=ad6t0WRsrd_7iP2jDxgQYQ&amp;oh=00_AfgnCVwvnsEtECJCxljC1jqUSytPekrQCu9XvGaNDG_cXw&amp;oe=692E28FD', 'profileId': '100090873254237', 'profileName': 'Alejandra Mesa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -3265,7 +3265,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=2057651748323375', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIwNTc2NTE3NDgzMjMzNzU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMDU3NjUxNzQ4MzIzMzc1', 'date': '2025-11-25T03:02:34.000Z', 'text': '5 lucas un bon yurt nee jeeedaaa', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/579096341_24930560536552313_4879993214776733949_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=fGpHN7U4v04Q7kNvwGA_jOW&amp;_nc_oc=AdnlG7K5z8QXlWlZSWq5CrPbj2sVstJ38YCY1NiYnb55o_l_6zz_Zi3l4CJ2Kd3AVBc&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=SaGqmaKe0VukIPPRCWOvsA&amp;oh=00_Afgcep6lkyScpxDqDPkhCXZXRMmf9GMMb1gQsxZtU-P4uQ&amp;oe=692CCB39', 'profileId': 'pfbid0irDExNTE93GyVAux7aKXsGtGng2ATG9VzDDGrFJex6aVYSk4BFc8HcZYiUa9g6Pxl', 'profileName': 'Rodríguez C Juan', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=2057651748323375', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIwNTc2NTE3NDgzMjMzNzU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMDU3NjUxNzQ4MzIzMzc1', 'date': '2025-11-25T03:02:34.000Z', 'text': '5 lucas un bon yurt nee jeeedaaa', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/579096341_24930560536552313_4879993214776733949_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=fGpHN7U4v04Q7kNvwHNkzzz&amp;_nc_oc=AdmF5qBxMsMvmZgyfl6GQ5M0HI15vvULvpOQbRlvTgkeXbPGfBbkq9ragIx3WgiLRCgEyhXIjlnlKtKS35_hELi5&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=UHYB2ttD_zRGU0h_45FoLw&amp;oh=00_Afhsz0qYqA90Z3zFWPTQQH50ZCi9iF1wrVQ5NQGu0Awy6g&amp;oe=692E1CB9', 'profileId': 'pfbid02nDhRaPorAk1H97NWQpHuCpKZetVyLXYYv9YLhq7mgN3R2wK4Y6Lkq9Ju7SVJuorVl', 'profileName': 'Rodríguez C Juan', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=2154810411989541', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIxNTQ4MTA0MTE5ODk1NDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMTU0ODEwNDExOTg5NTQx', 'date': '2025-11-25T00:08:11.000Z', 'text': 'Salió como a finales del 88', 'profileUrl': 'https://www.facebook.com/jotaw13', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/337289576_1576143646203421_1755706736298063618_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1nwcyctg6GIQ7kNvwGxGigS&amp;_nc_oc=Adn3UPyYmAXduLBf3U7Ug4JPZlD5x-Kd7q33_-uYUXKtimeZX2RmGYctfVwkyNbdx7U&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=SaGqmaKe0VukIPPRCWOvsA&amp;oh=00_AfhZJTUW3fcrRj00OMshPmQCVY19PvIToefpRVkegLFPVA&amp;oe=692CC93A', 'profileId': 'pfbid027KCRCQCJWyrNX98MGsLWGbjw8caJZjXyVqGHSxcsBmABiu52CwRVVCBj3B4aTGW5l', 'profileName': 'Jota Dobleu', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=2154810411989541', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIxNTQ4MTA0MTE5ODk1NDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMTU0ODEwNDExOTg5NTQx', 'date': '2025-11-25T00:08:11.000Z', 'text': 'Salió como a finales del 88', 'profileUrl': 'https://www.facebook.com/jotaw13', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/337289576_1576143646203421_1755706736298063618_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1nwcyctg6GIQ7kNvwEGq0ez&amp;_nc_oc=AdnAzLzUYyfFe0dWUn32iJKOZ95g0BA_uFLEnOej7pG_espdYg-e4-0m93pE7710nZBtD_3b3_W7_Bf1YT4wswjW&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=UHYB2ttD_zRGU0h_45FoLw&amp;oh=00_AfgpcUZJiYdRcKGIKxQjuE9nlF6cLx4GQSNgB-xTkbmyOA&amp;oe=692E1ABA', 'profileId': 'pfbid03mZEHEZwfo9G2hooYk61pxLJtjoyBnoGaMAWRmpvUA22QuxUsiSBmXcg8EDnxpWpl', 'profileName': 'Jota Dobleu', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -3373,7 +3373,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=1149425460681635', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNDk0MjU0NjA2ODE2MzU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTQ5NDI1NDYwNjgxNjM1', 'date': '2025-11-24T19:39:52.000Z', 'text': 'Lástima lo inflado del precio', 'profileUrl': 'https://www.facebook.com/MauRock66', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/566387101_26077118705210524_8269391756508760371_n.jpg?stp=cp6_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=joB-7o-LarIQ7kNvwFXzezM&amp;_nc_oc=Adl4z0SHKAZgUE_cXpKfSMOqs80PhGxpcR1FtMYOAIoiZrfDt9TKt8DbdwvY2gBCG5g&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=SaGqmaKe0VukIPPRCWOvsA&amp;oh=00_Afjbw5yF2AAGshvyd6kBD-s46g-KKAcYMCgHyIosagMuxQ&amp;oe=692CCB87', 'profileId': '100000172524271', 'profileName': 'Sergio Mauricio', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1149425460681635', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNDk0MjU0NjA2ODE2MzU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTQ5NDI1NDYwNjgxNjM1', 'date': '2025-11-24T19:39:52.000Z', 'text': 'Lástima lo inflado del precio', 'profileUrl': 'https://www.facebook.com/MauRock66', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/566387101_26077118705210524_8269391756508760371_n.jpg?stp=cp6_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=03b0I3FbsKAQ7kNvwHDlngV&amp;_nc_oc=AdmM5mDcp69Tn2-JRoi7yBKoptuzRwMkSaxerbOVAUsKTS3oUm69qI7l0jOg6dx17hcP64ChiQ2PisGJvusFFeYU&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=UHYB2ttD_zRGU0h_45FoLw&amp;oh=00_AfhCE_UnCdUDXWlvfda6oc9PgSiyxraPJnS5s4ksaqIuLA&amp;oe=692E1D07', 'profileId': '100000172524271', 'profileName': 'Sergio Mauricio', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -3427,7 +3427,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=1573691613912258', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE1NzM2OTE2MTM5MTIyNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNTczNjkxNjEzOTEyMjU4', 'date': '2025-11-26T03:21:58.000Z', 'text': 'ES MUY CARO', 'profileUrl': 'https://www.facebook.com/kbotiva', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/469015823_10160949995396984_516869165540557324_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=dKa9ED8fU0QQ7kNvwEkLRtD&amp;_nc_oc=AdkFga9RSZfTZPyz-lZ0HxcGsiupexyorZRQVct7Wqvt9a0KEUnPdBO8e__v538PO3U&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=SaGqmaKe0VukIPPRCWOvsA&amp;oh=00_AfjRiK-hZ3ZRYuNIT7TJGtK0Ic_C1TTnR_sxcm_5lTYbzA&amp;oe=692CE8D0', 'profileId': 'pfbid02VC7JZxpbQNog7ycBxG6xwHEtdikPYJs4Ga9GifxnfD2fhnxMuwZdvSazoPTbdbj4l', 'profileName': 'Juan Kamilo Botiva', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1573691613912258', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE1NzM2OTE2MTM5MTIyNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNTczNjkxNjEzOTEyMjU4', 'date': '2025-11-26T03:21:58.000Z', 'text': 'ES MUY CARO', 'profileUrl': 'https://www.facebook.com/kbotiva', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/469015823_10160949995396984_516869165540557324_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=c_jiZKq0HSoQ7kNvwHNDuid&amp;_nc_oc=AdmWaGPyEbcX85JWbVQ3NW5w2UzqsPKSngV1U0cyE-e2rgddt4-iI_vmTAoJYD76_fqT3j8pDbEw_ljQz5D_SCfX&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=UHYB2ttD_zRGU0h_45FoLw&amp;oh=00_AfgkNUik1o0t95QXxMs8E-ys-jEjl3ipmPfKPi0Lod743g&amp;oe=692E3A50', 'profileId': 'pfbid0RAWb69d2jU8BeN1a1WDYQGyUNvdNmc4B1szcpY2eMQRA5yQ8WNQGdUpXwoYgjb9dl', 'profileName': 'Juan Kamilo Botiva', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -3481,7 +3481,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=1597679538060212', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE1OTc2Nzk1MzgwNjAyMTI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNTk3Njc5NTM4MDYwMjEy', 'date': '2025-11-25T00:51:12.000Z', 'text': 'Ojalá el precio también sea retro.', 'profileUrl': 'https://www.facebook.com/people/Hansel-Henao/pfbid02RwirfbYToooJkTNPBUWeVDL6tiPuQAi2fhqppp7TiRYGmn8ZqErLbMdqyGjrgNVyl/', 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.30808-1/574881308_122141790008886423_3926047453065656662_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=BDbfoJVH9ecQ7kNvwGrMFYt&amp;_nc_oc=Adm8F_ZTQw5xQIn3m2LseUMnrqYrWbuJbeJhzeGHJjN98enywEKkZgbT3WDTSr9_gZg&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=SaGqmaKe0VukIPPRCWOvsA&amp;oh=00_AfgLm0P6h2YewVv-BevomIFcrhiNPBTBjRPIRW7ONPGqog&amp;oe=692CCC8B', 'profileId': 'pfbid02RwirfbYToooJkTNPBUWeVDL6tiPuQAi2fhqppp7TiRYGmn8ZqErLbMdqyGjrgNVyl', 'profileName': 'Hansel Henao', 'likesCount': '5', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1597679538060212', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE1OTc2Nzk1MzgwNjAyMTI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNTk3Njc5NTM4MDYwMjEy', 'date': '2025-11-25T00:51:12.000Z', 'text': 'Ojalá el precio también sea retro.', 'profileUrl': 'https://www.facebook.com/people/Hansel-Henao/pfbid0NQ5fkRv6xeCcwqKQptLL3wBQbWrLcosCqDuyFDTv48RC3YJhbLXXVJZ3EPXw8zYml/', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/574881308_122141790008886423_3926047453065656662_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Lpi8ftXijI4Q7kNvwFogcCH&amp;_nc_oc=AdkgKDZEBBV3Fk5d_KDegI4cFBxz9hQhRQKgr1wSBpkptZt5_s0Gu7-6MC6_nkTAiklHchPxl1R3x4pq1OKxZvt-&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=UHYB2ttD_zRGU0h_45FoLw&amp;oh=00_AfheagEQAUB-xCdTsknfLEXOoOwpUmh2JIIvip-yXuI17w&amp;oe=692E1E0B', 'profileId': 'pfbid0NQ5fkRv6xeCcwqKQptLL3wBQbWrLcosCqDuyFDTv48RC3YJhbLXXVJZ3EPXw8zYml', 'profileName': 'Hansel Henao', 'likesCount': '5', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -3535,7 +3535,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=1616838652836190', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE2MTY4Mzg2NTI4MzYxOTA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNjE2ODM4NjUyODM2MTkw', 'date': '2025-11-25T05:44:34.000Z', 'text': 'Muy poquito para el valor! Se pasan...', 'profileUrl': 'https://www.facebook.com/jeisson.velasquez1', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/452370479_10160282363657916_289347451250372803_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=IB1YpOYaE_QQ7kNvwHR80YY&amp;_nc_oc=Adlmgzr_HzbcDMMpmH7Y3JzOtgcWFe7fu7GcsEc4hWXAQ_zI8p_xyecLB0b_YuYCNhw&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=SaGqmaKe0VukIPPRCWOvsA&amp;oh=00_AfhcP4V4lJ3KGBC6P2h4A65J-vQbHpdgv6HG0IFimGQDSA&amp;oe=692CE433', 'profileId': 'pfbid0TSyuZWqTAd2twPRsPfE47x8k6CYx6LFy5dpq1SbHJ3ujvJ3QAJvfQMJmKAjc38nPl', 'profileName': 'Jeisson Andres Velásquez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1616838652836190', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE2MTY4Mzg2NTI4MzYxOTA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNjE2ODM4NjUyODM2MTkw', 'date': '2025-11-25T05:44:34.000Z', 'text': 'Muy poquito para el valor! Se pasan...', 'profileUrl': 'https://www.facebook.com/jeisson.velasquez1', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/452370479_10160282363657916_289347451250372803_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=IB1YpOYaE_QQ7kNvwHKbJdW&amp;_nc_oc=AdkTKtFScyW4xQ0Eq6wPGMblRdaUQCPmtgJBmSm4BTjd_xGPsemJwkQf4Vxa7YJyEA0d8T920aih0B18zXLLJ5Wi&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=UHYB2ttD_zRGU0h_45FoLw&amp;oh=00_AfjfmZWcM5-wMbdrghoDdTeox4EgnfeVXSAVYkDRbgfGGQ&amp;oe=692E35B3', 'profileId': 'pfbid02WpU6BYC5CPqx8mbtzENHqCN7L4hzkQA6rjTiNyZPsdcwz5LLyGbWw5Y5Tu947aS4l', 'profileName': 'Jeisson Andres Velásquez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -3589,7 +3589,7 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=1180817223396975', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExODA4MTcyMjMzOTY5NzU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTgwODE3MjIzMzk2OTc1', 'date': '2025-11-24T23:29:34.000Z', 'text': 'Deberían más BN de bajar esos precios', 'profileUrl': 'https://www.facebook.com/andres.berrio.5099', 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.30808-1/505076476_2471279906587344_4562158579986467172_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=tnzosi5PxugQ7kNvwFGYl4W&amp;_nc_oc=AdnFt8yVlbxl1A6vhzgZFfH0m2tWuue89lueu12yfl8THzW1ZmFk7DfTlGJ3oi3_qfE&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=SaGqmaKe0VukIPPRCWOvsA&amp;oh=00_Afi-6UQP3SrWJq-vHxpklq06WxXlzwRg_2avxubYIpmjRQ&amp;oe=692CE6B2', 'profileId': '100011160751685', 'profileName': 'Jõsê Åńdrés Bêrrïø', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1180817223396975', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExODA4MTcyMjMzOTY5NzU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTgwODE3MjIzMzk2OTc1', 'date': '2025-11-24T23:29:34.000Z', 'text': 'Deberían más BN de bajar esos precios', 'profileUrl': 'https://www.facebook.com/andres.berrio.5099', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/505076476_2471279906587344_4562158579986467172_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=KlCk15UWv7QQ7kNvwEhMvIM&amp;_nc_oc=AdmxosFTABpUZIUCj0vie-u71iZzuGK-beSbVV9PvWjBQpwbEPZxea34fZqOT4WCk7IvDW5zTfm4VReIu1gfSj5L&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=UHYB2ttD_zRGU0h_45FoLw&amp;oh=00_AfiRMlriAeW6iA5AjKBIjyygP3yTarGZgb435zYumNUbjw&amp;oe=692E3832', 'profileId': '100011160751685', 'profileName': 'Jõsê Åńdrés Bêrrïø', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -3644,7 +3644,7 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=1166068235132001', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNjYwNjgyMzUxMzIwMDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTY2MDY4MjM1MTMyMDAx', 'date': '2025-11-26T02:51:33.000Z', 'text': 'Chévere que hubiese publicado la foto original.\nSe nota el montaje por los sellitos negros de "exceso en azúcares" en el envase 😁', 'profileUrl': 'https://www.facebook.com/jorge.jimenez.24273', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/518278300_24459861853611584_4348845349159347876_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=h-58sXEbh_QQ7kNvwEUApQg&amp;_nc_oc=AdnayGBY2SvJng9g9Fc_QHAjcwLo2sgUILr77OfaNHBq7bnfba-uiTVG7iYB-W1CD6w&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=SaGqmaKe0VukIPPRCWOvsA&amp;oh=00_Afh9_4aKH6RrlXhW2Wqqkr4pTfUYxSQqbOL77_piHP-lUA&amp;oe=692CD47E', 'profileId': 'pfbid0PhDZgdXwqacZShTXUh5Dybs9RvFrtsU5Nqrrh6buxDmaYEzgEkhxhMvLnHWwjqnhl', 'profileName': 'Jorge Jimenez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1166068235132001', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNjYwNjgyMzUxMzIwMDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTY2MDY4MjM1MTMyMDAx', 'date': '2025-11-26T02:51:33.000Z', 'text': 'Chévere que hubiese publicado la foto original.\nSe nota el montaje por los sellitos negros de "exceso en azúcares" en el envase 😁', 'profileUrl': 'https://www.facebook.com/jorge.jimenez.24273', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/518278300_24459861853611584_4348845349159347876_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=h-58sXEbh_QQ7kNvwF65seR&amp;_nc_oc=AdnnOespvdF0Yjur334ATW3fVrQKZkl8PVNHGEnpsA8s3tHnE1uQj4Jxe09pvub7b5yaVrvRkuKaIk5ZWuEUdcrI&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=UHYB2ttD_zRGU0h_45FoLw&amp;oh=00_AfgnrMF5d2bKa0REHq-bxsK9Z4c3YniiIqO_CTooeHhSgw&amp;oe=692E25FE', 'profileId': 'pfbid02TYfGsJTmgv7RFvVwDpEtc1FMwn7Dkiszxab16iuAjbdPoSAvoTMnka1NJkG8u2Rfl', 'profileName': 'Jorge Jimenez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -3698,7 +3698,7 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=4187311174822779', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzQxODczMTExNzQ4MjI3Nzk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N180MTg3MzExMTc0ODIyNzc5', 'date': '2025-11-25T23:58:47.000Z', 'text': 'Pensé que el de la foto era Dante Gebel 😅', 'profileUrl': 'https://www.facebook.com/people/Nora-Zur/pfbid0DaKeVVb6nCYmVHhdty89N1VMXwcnMHmYm54qq556Zj6Ru5pPPA87xu4aqvF8eXpFl/', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/584404620_122150418680686171_3556114011047307700_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Jil69kEAPRgQ7kNvwHhoho_&amp;_nc_oc=AdnY-cW3lakWpCXPiMHU4S8_D2nAABybaPPeV_NTISd8E6u4uK4xlCNKpRo7md5pHyU&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=SaGqmaKe0VukIPPRCWOvsA&amp;oh=00_AfhJ04LPX44aTfHLtMcNDaxyeaYxcvKxWrIY5DLgC57OfQ&amp;oe=692CDA67', 'profileId': 'pfbid0DaKeVVb6nCYmVHhdty89N1VMXwcnMHmYm54qq556Zj6Ru5pPPA87xu4aqvF8eXpFl', 'profileName': 'Nora Zur', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=4187311174822779', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzQxODczMTExNzQ4MjI3Nzk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N180MTg3MzExMTc0ODIyNzc5', 'date': '2025-11-25T23:58:47.000Z', 'text': 'Pensé que el de la foto era Dante Gebel 😅', 'profileUrl': 'https://www.facebook.com/people/Nora-Zur/pfbid02HRmMgAWvdYXieHmKKCPqodzx9Bn2aiabdUrE6EjoFp3ZMTLkKdVN5HsRSwdqNuXKl/', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/584404620_122150418680686171_3556114011047307700_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=_QF7xklfnZgQ7kNvwHYAxMw&amp;_nc_oc=AdnIwxhzMxLc9hraypeF8z6T_H4e3If8-tjSdvcdRGnTutNJ9n-ILM7AbM-H8H3PGPH3xwpM4BfVig_JTGq8H3tG&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=UHYB2ttD_zRGU0h_45FoLw&amp;oh=00_Afi7aFJw32WprMSUqSPeXp8JJs-IRCRMnwx3hzWW1wh9CA&amp;oe=692E2BE7', 'profileId': 'pfbid02HRmMgAWvdYXieHmKKCPqodzx9Bn2aiabdUrE6EjoFp3ZMTLkKdVN5HsRSwdqNuXKl', 'profileName': 'Nora Zur', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -3752,7 +3752,7 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=1351672526428164', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzNTE2NzI1MjY0MjgxNjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzUxNjcyNTI2NDI4MTY0', 'date': '2025-11-25T07:48:46.000Z', 'text': 'BEBIDA LÁCTEA QUE NO ES YOGURT', 'profileUrl': 'https://www.facebook.com/roman.alberto.bedoya.lopez', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/509434251_122215215074155260_588325818133350255_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1LhlOD7GpnoQ7kNvwHVnzx4&amp;_nc_oc=AdmAxxLjJNXqem6dQL3AmGT7V27mlmU1PMB2WRtUbsylR78bnYH_gWrcV2nGCI7J98c&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=SaGqmaKe0VukIPPRCWOvsA&amp;oh=00_AfhaI7qSRVwWBS7NliyfEL3msASWOWsZzdx3FqABgOG2Ww&amp;oe=692CDBFD', 'profileId': 'pfbid026Zqinhvg7fyGYvQr9fq6s65CGrDwPFW9EVPGgnLFiaBZwD86VP3eCzuxJcoQM72Dl', 'profileName': 'Roman Alberto Bedoya Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1351672526428164', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzNTE2NzI1MjY0MjgxNjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzUxNjcyNTI2NDI4MTY0', 'date': '2025-11-25T07:48:46.000Z', 'text': 'BEBIDA LÁCTEA QUE NO ES YOGURT', 'profileUrl': 'https://www.facebook.com/roman.alberto.bedoya.lopez', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/509434251_122215215074155260_588325818133350255_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1LhlOD7GpnoQ7kNvwFLCtmD&amp;_nc_oc=AdlppfV-V0O1TD_Ua90k7jemwFfQEGEQjbL1UoQBQQT72ofTVygrHF55p4ivqstvEtonQUu0-rSMb9w-6QgVn84E&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=UHYB2ttD_zRGU0h_45FoLw&amp;oh=00_Afjp8R978c_aGbHkVc6zDMI5fgwPOURfSD7Thk-cMs5mRQ&amp;oe=692E2D7D', 'profileId': 'pfbid02YF1Jtj7SjES1WbAQLsnAMM9MUvwGn1fHTeDt8NkXpHVfWWhKmmdZHLGRrro7Ma9l', 'profileName': 'Roman Alberto Bedoya Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -3806,7 +3806,7 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=1749236129073465', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE3NDkyMzYxMjkwNzM0NjU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNzQ5MjM2MTI5MDczNDY1', 'date': '2025-11-25T21:28:51.000Z', 'text': 'Que será de la vida de ese man, deberían buscarlo y hacer de nuevo la foto', 'profileUrl': 'https://www.facebook.com/people/Ivan-Rodriguez-Ruiz/100006904455714/', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t1.6435-1/59301667_2304314133142046_3924238509421887488_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=hOtdYyrpHh4Q7kNvwEm4zlC&amp;_nc_oc=AdmmtQr_hPumuW2VVQGLCQYe6hmucYsLrUUE-AR5CZnNTdMjIRYgpM9pcCMPvJnz7m8&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=1eite1vYnvZwN8jJUBeTKQ&amp;oh=00_Afgri6gTrOIXveihbvWNoeGCi9gwcQGmpEoKNpVJN32owg&amp;oe=694E6A9C', 'profileId': '100006904455714', 'profileName': 'Ivan Rodriguez Ruiz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1749236129073465', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE3NDkyMzYxMjkwNzM0NjU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNzQ5MjM2MTI5MDczNDY1', 'date': '2025-11-25T21:28:51.000Z', 'text': 'Que será de la vida de ese man, deberían buscarlo y hacer de nuevo la foto', 'profileUrl': 'https://www.facebook.com/people/Ivan-Rodriguez-Ruiz/100006904455714/', 'profilePicture': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t1.6435-1/59301667_2304314133142046_3924238509421887488_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=yzEZIjqlm0AQ7kNvwEjzymi&amp;_nc_oc=AdkN-gfT3Fts2szzpByAgyn5HjfBmDWACKdTusMJPGqKPweSkQfEGG6HjMz1H9umvK4&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=BhbfsiI3dPoDgsSKHdaydQ&amp;oh=00_AfjoQGeUxQOILu5x7jFn17oKuKbPlWSLB7UEHhM7xEWmpA&amp;oe=694FBC1C', 'profileId': '100006904455714', 'profileName': 'Ivan Rodriguez Ruiz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -3860,7 +3860,7 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=2315324775557493', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIzMTUzMjQ3NzU1NTc0OTM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMzE1MzI0Nzc1NTU3NDkz', 'date': '2025-11-26T03:34:49.000Z', 'text': 'Gxxxĝ', 'profileUrl': 'https://www.facebook.com/fernando.vargas.18892', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/471666993_1101336188305234_7887220475124323_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=yslKtthT5OkQ7kNvwFyNhGm&amp;_nc_oc=AdnQvCQIANzahZkslQeRzqO5I7oonrDnSnVgsBKuKbqDneqlHcQJs9ov_OvFcZvFz3U&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=1eite1vYnvZwN8jJUBeTKQ&amp;oh=00_AfgKBMAWSex_QBOTEvd6XavBK0nOrA_FDg-N3DspILiISw&amp;oe=692CC6B0', 'profileId': 'pfbid02uf5QnTjRYxMwFtepdmmge4XNzMGV6xnYaoQAw2KF8Qhqs325AUskr4y6JCpg9D8Ul', 'profileName': 'Fernando Vargas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=2315324775557493', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIzMTUzMjQ3NzU1NTc0OTM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMzE1MzI0Nzc1NTU3NDkz', 'date': '2025-11-26T03:34:49.000Z', 'text': 'Gxxxĝ', 'profileUrl': 'https://www.facebook.com/fernando.vargas.18892', 'profilePicture': 'https://scontent.fagc1-2.fna.fbcdn.net/v/t39.30808-1/471666993_1101336188305234_7887220475124323_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=yslKtthT5OkQ7kNvwGQNiSf&amp;_nc_oc=Adm5waGGi41fa95_pmi9Q7UCQ9Ok887EPRIuqoJyEndGFXCZBkjXtw9ZilBNhi-OOBQ&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-2.fna&amp;_nc_gid=BhbfsiI3dPoDgsSKHdaydQ&amp;oh=00_AfiwRfYPQReue6--2QJuvhDPKnMxoQ8BxSQQHqzMdtpAgw&amp;oe=692E1830', 'profileId': 'pfbid0r7SDsJ74hfe2d7cHrFXEYcz6wDzK3rgPQ2Yp5dHRVFMM87vT7afxHSe2evwxvBKol', 'profileName': 'Fernando Vargas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -3914,7 +3914,7 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=745583734460698', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3Xzc0NTU4MzczNDQ2MDY5OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N183NDU1ODM3MzQ0NjA2OTg=', 'date': '2025-11-24T19:08:34.000Z', 'text': 'Ese es peso pluma ?', 'profileUrl': 'https://www.facebook.com/mike.willians.5070', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/584383279_1562176281802832_965959746697360446_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=MIGsVsxqkrcQ7kNvwGzZr9v&amp;_nc_oc=AdnSVHacJoAePbrHtYRSY4U3h0wgvKC8rN156uwEJ-KKnKq3G4cAFzXcBGXC859lUeM&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=1eite1vYnvZwN8jJUBeTKQ&amp;oh=00_Afg5Isy-8VBhfPJX6fydZkPj-cX-txyTYc5S0hERtZC9Rg&amp;oe=692CDBCB', 'profileId': '100040314257533', 'profileName': 'Mike Boomin', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=745583734460698', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3Xzc0NTU4MzczNDQ2MDY5OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N183NDU1ODM3MzQ0NjA2OTg=', 'date': '2025-11-24T19:08:34.000Z', 'text': 'Ese es peso pluma ?', 'profileUrl': 'https://www.facebook.com/mike.willians.5070', 'profilePicture': 'https://scontent.fagc1-2.fna.fbcdn.net/v/t39.30808-1/584383279_1562176281802832_965959746697360446_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=vSBQim4Kq0sQ7kNvwGyC0Zn&amp;_nc_oc=AdkgB0K6gF1GPS0uNDYjAkKvYv8gMeVu94jzJzl8p2qBl5txVgmGLyn-NewV1LantTI&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-2.fna&amp;_nc_gid=BhbfsiI3dPoDgsSKHdaydQ&amp;oh=00_AfimeJlGTqk26FDcs3UxpTPnwoUeEfjyaeA1QxyQoGIWeg&amp;oe=692E2D4B', 'profileId': '100040314257533', 'profileName': 'Mike Boomin', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -3968,7 +3968,7 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=25455168007442408', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzI1NDU1MTY4MDA3NDQyNDA4', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yNTQ1NTE2ODAwNzQ0MjQwOA==', 'date': '2025-11-25T23:47:18.000Z', 'text': 'Ay nooo, mis 35 años ￼￼😣😣', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t1.6435-1/82417803_10164598644810206_1162378966758064128_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=6p3uV5qYckMQ7kNvwGLpOzv&amp;_nc_oc=AdkZS13jfDrYmbNu_qTtWeDNAamfsG5rKA5SiLu18yPXBNbXxvvNP8xRERBj31pDxwk&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=1eite1vYnvZwN8jJUBeTKQ&amp;oh=00_Afhdb02C8-Ok0BZ2mWbCE-msiPNKepbxBOuoe-ZXVQJf6w&amp;oe=694E7FAD', 'profileId': 'pfbid02E8RqZragHgzN58proaWftjVxwctQmS3Dj2bNhpjNZ7dY2URVADNxTAqoUaEYJU4jl', 'profileName': 'William A. Diaz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=25455168007442408', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzI1NDU1MTY4MDA3NDQyNDA4', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yNTQ1NTE2ODAwNzQ0MjQwOA==', 'date': '2025-11-25T23:47:18.000Z', 'text': 'Ay nooo, mis 35 años ￼￼😣😣', 'profilePicture': 'https://scontent.fagc1-2.fna.fbcdn.net/v/t1.6435-1/82417803_10164598644810206_1162378966758064128_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zB9P-JSf9FkQ7kNvwHafmE7&amp;_nc_oc=AdnI5UyYeF70IScm2A6CymOtO8rmz-WRWiA3Z6aoDseGYuw0fvAh69v5qBsseWIKmtk&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-2.fna&amp;_nc_gid=BhbfsiI3dPoDgsSKHdaydQ&amp;oh=00_AfityAPyVfOv8-U4yLWVU0NflGsVPqcmUIVrl7WgGd8UcQ&amp;oe=694FD12D', 'profileId': 'pfbid0AaneegxKSM8erC6Ks6QN4v4Kr9AMNv6GRbJLYFKUdmn6BojviAmQutVe8qvwRQmzl', 'profileName': 'William A. Diaz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -4022,7 +4022,7 @@
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=1871869833723454', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE4NzE4Njk4MzM3MjM0NTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xODcxODY5ODMzNzIzNDU0', 'date': '2025-11-24T21:39:47.000Z', 'text': 'Recuerdo esa primera propaganda: "¿Sabe usted qué es Bon Yurt? Bon Yurt... Bon Yurt..."', 'profileUrl': 'https://www.facebook.com/jorgeelias.estradacontreras', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/433482453_10233287643592000_5084357381527629157_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=_QJkmOOEX2wQ7kNvwE-n329&amp;_nc_oc=Adk_Iyeo5BG_Hoc_jsRFmdmfeaSQdOvGLQsBEaC_tDl-79TGGEpOrag3kG0geHPqjs8&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=1eite1vYnvZwN8jJUBeTKQ&amp;oh=00_Afj9-cfn18pWHXIp-UA_9dyxQe8ixolxAQxiHGcRcDeMqQ&amp;oe=692CCAF5', 'profileId': '1199642613', 'profileName': 'Jorge Elìas Estrada Contreras', 'likesCount': '2', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1871869833723454', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE4NzE4Njk4MzM3MjM0NTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xODcxODY5ODMzNzIzNDU0', 'date': '2025-11-24T21:39:47.000Z', 'text': 'Recuerdo esa primera propaganda: "¿Sabe usted qué es Bon Yurt? Bon Yurt... Bon Yurt..."', 'profileUrl': 'https://www.facebook.com/jorgeelias.estradacontreras', 'profilePicture': 'https://scontent.fagc1-2.fna.fbcdn.net/v/t39.30808-1/433482453_10233287643592000_5084357381527629157_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=wmQXzb3PKAgQ7kNvwH0Gz2R&amp;_nc_oc=AdnAegv12lG-eTDDgK-CsIDLr4iS0ZpU4sFkOi6MI0MM1pt2-vMouU1BlcRxTk9QSG0&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-2.fna&amp;_nc_gid=BhbfsiI3dPoDgsSKHdaydQ&amp;oh=00_Afh7Hsxp_22YzWP73FT7rcwkMltpv1OokXum5vIrhXLEjw&amp;oe=692E1C75', 'profileId': '1199642613', 'profileName': 'Jorge Elìas Estrada Contreras', 'likesCount': '2', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -4076,7 +4076,7 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=866995402501722', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3Xzg2Njk5NTQwMjUwMTcyMg==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184NjY5OTU0MDI1MDE3MjI=', 'date': '2025-11-26T02:11:19.000Z', 'text': '@', 'profileUrl': 'https://www.facebook.com/jose.del.c.mahecha.2025', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/459319364_3497032950593976_1872580334980248089_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=g4zO6e-MZ5oQ7kNvwHDNWsW&amp;_nc_oc=Adne2vSPc2KiMCpAsy5DHhciB0ZYYJdeI6lbxvp1L5bxRvkXVxDWS3A-tROWP5aYvZ0&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=1eite1vYnvZwN8jJUBeTKQ&amp;oh=00_Afh9B8LVy6bGUwz6msks04GkE33fvgRWx6Z-zeqT0OYW6g&amp;oe=692CCF52', 'profileId': 'pfbid0qqi5JsnRBEFs9ofMwVLwiH3SjvDpmnhqgM1iCxKivMEpteWwn8tS5oS2kZ5W8AtQl', 'profileName': 'Jose Del C Mahecha', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=866995402501722', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3Xzg2Njk5NTQwMjUwMTcyMg==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184NjY5OTU0MDI1MDE3MjI=', 'date': '2025-11-26T02:11:19.000Z', 'text': '@', 'profileUrl': 'https://www.facebook.com/jose.del.c.mahecha.2025', 'profilePicture': 'https://scontent.fagc1-2.fna.fbcdn.net/v/t39.30808-1/459319364_3497032950593976_1872580334980248089_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=g4zO6e-MZ5oQ7kNvwElIQxI&amp;_nc_oc=Adkj2kDWibsDhT0z2euKW5BStkgXUgFlt-hYYrr8x_bHWTfVIYNokBrtp2R3InFxnUM&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-2.fna&amp;_nc_gid=BhbfsiI3dPoDgsSKHdaydQ&amp;oh=00_Afjfw6Pf5ZVbz-4EyH9m3QWH6BLGC2E2yu1LuN8jtVqelQ&amp;oe=692E20D2', 'profileId': 'pfbid02uh9nVYiF2bLXeTrYbUJz8k4Vfa1eczu91GR2eMKLWHjWohHVZbqkphfYndKpKgBVl', 'profileName': 'Jose Del C Mahecha', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -4130,7 +4130,7 @@
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=1387173373123562', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzODcxNzMzNzMxMjM1NjI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzg3MTczMzczMTIzNTYy', 'date': '2025-11-24T18:39:10.000Z', 'text': 'Como pasa el tiempo 😳', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-6/588706634_4751773904963963_6329048467427518043_n.jpg?stp=dst-jpg_fb30_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=5ziYfdGp3A8Q7kNvwHrCPli&amp;_nc_oc=Adn0jxA_RmXBNbHmpnVLZ1i6WNtLBWIBiN1I7fwZyrVsXR8Nnx7As1vOjetfDPaBzNo&amp;_nc_zt=23&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=1eite1vYnvZwN8jJUBeTKQ&amp;oh=00_AfiuinU4XZo_bx8AhI7gS9RjKD03mTDwKL8-NO_l67svrQ&amp;oe=692CCDE8'}, 'id': '4751773898297297', 'cix_screen': None, 'massive_image': {'width': 450, 'height': 444}, 'image': {'uri': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-6/588706634_4751773904963963_6329048467427518043_n.jpg?stp=dst-jpg_p228x119_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=5ziYfdGp3A8Q7kNvwHrCPli&amp;_nc_oc=Adn0jxA_RmXBNbHmpnVLZ1i6WNtLBWIBiN1I7fwZyrVsXR8Nnx7As1vOjetfDPaBzNo&amp;_nc_zt=23&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=1eite1vYnvZwN8jJUBeTKQ&amp;oh=00_AfhIVpfW4I3txudLdQMqbKfJWJpvkt7C_oMAn6ZFQqkLPw&amp;oe=692CCDE8', 'width': 228, 'height': 225}, 'ocrText': 'May be an image of one or more people and eyeglasses'}], 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/515600430_4593995740741781_8041180333788133360_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zPKtRpE7iCIQ7kNvwHxuf9m&amp;_nc_oc=AdmW9i9Ct0Y8OrFmkPCz2SvYfuGt8PbSz3OKId0noIaAg14AAcL0-ReZ0w9PCTfZR3M&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=1eite1vYnvZwN8jJUBeTKQ&amp;oh=00_AfhA-q7da7H9AGstZyeRJNtIKejpJW7rtFWCkVDRZSshVA&amp;oe=692CB2DA', 'profileId': 'pfbid07P8WSvGMNbn7NVcJYdKx18zXnzr1TSn4Py3MeHWV2cdp3rJrTX2NvpvSAZYsUZCdl', 'profileName': 'Alberto Caicedo', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1387173373123562', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzODcxNzMzNzMxMjM1NjI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzg3MTczMzczMTIzNTYy', 'date': '2025-11-24T18:39:10.000Z', 'text': 'Como pasa el tiempo 😳', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t39.30808-6/588706634_4751773904963963_6329048467427518043_n.jpg?stp=dst-jpg_fb30_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=5ziYfdGp3A8Q7kNvwFr4Qxq&amp;_nc_oc=Adl0mauZCUhk8zcl7lTsPmo9jBsD3UfFpW5fRCq6-w8Thex5c9MxfeeZACczh5vnG5A&amp;_nc_zt=23&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=BhbfsiI3dPoDgsSKHdaydQ&amp;oh=00_Afh9yXUgTvF2tHh1WjXuWHHCVNO7FJbFF28kRxrQAXjkSA&amp;oe=692E1F68'}, 'id': '4751773898297297', 'cix_screen': None, 'massive_image': {'width': 450, 'height': 444}, 'image': {'uri': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t39.30808-6/588706634_4751773904963963_6329048467427518043_n.jpg?stp=dst-jpg_p228x119_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=5ziYfdGp3A8Q7kNvwFr4Qxq&amp;_nc_oc=Adl0mauZCUhk8zcl7lTsPmo9jBsD3UfFpW5fRCq6-w8Thex5c9MxfeeZACczh5vnG5A&amp;_nc_zt=23&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=BhbfsiI3dPoDgsSKHdaydQ&amp;oh=00_AfhbMFfj8hK3r2VzE_4t_04OlQ9DZIHYI4xk-xP3UwNS8A&amp;oe=692E1F68', 'width': 228, 'height': 225}, 'ocrText': 'May be an image of one or more people and eyeglasses'}], 'profilePicture': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t39.30808-1/515600430_4593995740741781_8041180333788133360_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=_FREGiDPRcoQ7kNvwHCrB-1&amp;_nc_oc=AdkpqJZbZgmi1Xak46hmqpOLNBFDpp5RYXCUza7oEdBcKz-Il54p7kH-sntjarllR4Q&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=BhbfsiI3dPoDgsSKHdaydQ&amp;oh=00_AfjKoiIgBYbhWlkopFH9HYCA_wj6ZE81I8Z7P14cenbmww&amp;oe=692E045A', 'profileId': 'pfbid02BEaDdbCBDrDaiinT2vB4t3gubuxbg53RWBTL6H8jZZNqQk7wDuW5Y4M5rXX71v1Yl', 'profileName': 'Alberto Caicedo', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -4184,7 +4184,7 @@
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=860109699855760', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3Xzg2MDEwOTY5OTg1NTc2MA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184NjAxMDk2OTk4NTU3NjA=', 'date': '2025-11-24T18:58:53.000Z', 'text': 'Inaccesible muy caro 🫰', 'profileUrl': 'https://www.facebook.com/fredy.pinedaromero', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/582712248_10163552280388631_2890703655290218320_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=vIxQRd7siBkQ7kNvwFmiXW8&amp;_nc_oc=AdkvOFta2Nh2ff85OjMWDBhMGtubSK92wpJ5_XKS6xh14OabhO-J_kzCAhRfHaoatUU&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=1eite1vYnvZwN8jJUBeTKQ&amp;oh=00_AfjFQWYiwi9J1YZZ8_4RxP0X8eG58Zu6dRci9eQmftJ6zQ&amp;oe=692CD267', 'profileId': 'pfbid02ZyWAKyVFJYahsFf9tA4BJ6EgqoB4uXUGxejUSKAnUMMvAZCxgd8bnh6BKAhwFHJql', 'profileName': 'Fredy Alejandro Pineda Romero', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=860109699855760', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3Xzg2MDEwOTY5OTg1NTc2MA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184NjAxMDk2OTk4NTU3NjA=', 'date': '2025-11-24T18:58:53.000Z', 'text': 'Inaccesible muy caro 🫰', 'profileUrl': 'https://www.facebook.com/fredy.pinedaromero', 'profilePicture': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t39.30808-1/582712248_10163552280388631_2890703655290218320_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=jgd_4CG0ybwQ7kNvwGxo55w&amp;_nc_oc=AdkYGMTwFs8_yxgy4NAMCgG3fJxuFxzOppJEaG88o5fLGwgu6eYcq4HnK_QJfMFZUmc&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=BhbfsiI3dPoDgsSKHdaydQ&amp;oh=00_Afi-7RgGkwJ3DvXnf192HF08mFRvTkAr7JnkW0S3PzDJPw&amp;oe=692E23E7', 'profileId': 'pfbid0VwuSrAHgdXHaWLx7YXoceXnYPsn9mhsmEbAaBtwCsqTkx71EasYZYxdJoED3dDiPl', 'profileName': 'Fredy Alejandro Pineda Romero', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -4238,7 +4238,7 @@
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=1383064816735090', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzODMwNjQ4MTY3MzUwOTA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzgzMDY0ODE2NzM1MDkw', 'date': '2025-11-25T01:31:24.000Z', 'text': 'Este man no es el que hizo de Vaselino en vecinos?', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/566211812_10237810548219540_8624372396031958154_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=x8XH7PmwKJQQ7kNvwFJTbvB&amp;_nc_oc=Adn_T7TKBKcxA-HC_m3nYbteucf3kxq3R_r4-loR-db2hIMGwUxTat2dQG_6bkdboWo&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=1eite1vYnvZwN8jJUBeTKQ&amp;oh=00_AfijIh1tQWhkeIoIWQUbtX9i2iMCWVgzoUzlKdtzwQT2pQ&amp;oe=692CC522', 'profileId': 'pfbid02ydHsjgiLZ67kXv784WHmiYgkjV2RYaZst4p3U7bANabktsenmAj3FHRXKnKu2UXyl', 'profileName': 'Juan Carlos Mendez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1383064816735090', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzODMwNjQ4MTY3MzUwOTA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzgzMDY0ODE2NzM1MDkw', 'date': '2025-11-25T01:31:24.000Z', 'text': 'Este man no es el que hizo de Vaselino en vecinos?', 'profilePicture': 'https://scontent.fagc1-2.fna.fbcdn.net/v/t39.30808-1/566211812_10237810548219540_8624372396031958154_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=x8XH7PmwKJQQ7kNvwE9f_rf&amp;_nc_oc=AdmipS6Qvc2N-ZY_1q59ipj7cdjYXgeAbrnljsA2Kq4Zd5GxJcP_yMs1Kf6s9XPkQlQ&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-2.fna&amp;_nc_gid=BhbfsiI3dPoDgsSKHdaydQ&amp;oh=00_AfgDokJrRk4sH3850h1oj1N18uMuLEhNGKiU4PND_xhw6w&amp;oe=692E16A2', 'profileId': 'pfbid0ubhAFsWmtBnqJ3FmcvjMMoRm4aVdVt64LUsRBF7RbFYUtzcodzgCanR4MvZBsiFgl', 'profileName': 'Juan Carlos Mendez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -4292,7 +4292,7 @@
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=3387224181452602', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzMzODcyMjQxODE0NTI2MDI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18zMzg3MjI0MTgxNDUyNjAy', 'date': '2025-11-26T01:10:11.000Z', 'text': 'Si la i as kierda no le pone problema a avelardo llorenla yose ke porlas vias legales no le ganan la is la III erda tiene la ventaja con la a rejistraduria coprada ellos  dejan en pueblos las botasiones astala 6 dela tarde nunca avia pasao sea ke votaron por ellos', 'profileUrl': 'https://www.facebook.com/argemiro.giraldo.507535', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=zc_bz3Z8qrgQ7kNvwEjaG19&amp;_nc_oc=AdlaxHVRJCPgftaZ9WKSUCTU-wVs0eKQRbLicCj-hQ3lCcu5AhLf_0721pdHgF4xWtU&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;oh=00_AfjvbY9UI6a8dZS00wVxsbThFEGxIqTv7m3bkgFQp3TRPw&amp;oe=694E857A', 'profileId': 'pfbid0FTK96XB5TDeoBZ1vNiHEsekbwDXkX8KuHrX9oNpdjC6WxJChY9X7nxpGMHXGgh3Al', 'profileName': 'Argemiro Giraldo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=3387224181452602', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzMzODcyMjQxODE0NTI2MDI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18zMzg3MjI0MTgxNDUyNjAy', 'date': '2025-11-26T01:10:11.000Z', 'text': 'Si la i as kierda no le pone problema a avelardo llorenla yose ke porlas vias legales no le ganan la is la III erda tiene la ventaja con la a rejistraduria coprada ellos  dejan en pueblos las botasiones astala 6 dela tarde nunca avia pasao sea ke votaron por ellos', 'profileUrl': 'https://www.facebook.com/argemiro.giraldo.507535', 'profilePicture': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=zc_bz3Z8qrgQ7kNvwEvANR3&amp;_nc_oc=AdncEcF-iQIejbR7ePDi5a00Rpzkci12-B6Jm9ZAsqUeN2bnqv_kvDtuPEfVXTGkJb8&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-1.fna&amp;oh=00_Afh4IS4ZaDLJYBvflqL6jL6hrULzNE2wTlqb-c6cN-Jjuw&amp;oe=694FD6FA', 'profileId': 'pfbid02JpoKiYXhUrXDYuMexeeQCWHLAegS2VXyrY6dDwJkbZAdh7usM4qXmzzZ8zrMDkbFl', 'profileName': 'Argemiro Giraldo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -4346,7 +4346,7 @@
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=2942130725965941', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzI5NDIxMzA3MjU5NjU5NDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yOTQyMTMwNzI1OTY1OTQx', 'date': '2025-11-26T00:37:03.000Z', 'text': 'Ya no sabe lo mismo...', 'profileUrl': 'https://www.facebook.com/pherseo.poetaerrante', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/464721011_27465017686447590_5742974034914001954_n.jpg?stp=c113.4.577.576a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=EghelewY-04Q7kNvwFMbbwd&amp;_nc_oc=Adk9a6zbNPWHTJrWIdk2PcPwsaXf1YHvfeggJ6KwU7FM05u0TQBbByMGPyTWct2BAqI&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=7WjSMVw2RDW5ByDi3YRUHQ&amp;oh=00_AfjPkHwKNltelo7_eA9Rip4VMnLfoisLdVfD9uvO4URagg&amp;oe=692CE11A', 'profileId': '100000981850453', 'profileName': 'Duber Don Gato Rosso', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=2942130725965941', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzI5NDIxMzA3MjU5NjU5NDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yOTQyMTMwNzI1OTY1OTQx', 'date': '2025-11-26T00:37:03.000Z', 'text': 'Ya no sabe lo mismo...', 'profileUrl': 'https://www.facebook.com/pherseo.poetaerrante', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/464721011_27465017686447590_5742974034914001954_n.jpg?stp=c113.4.577.576a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=EghelewY-04Q7kNvwEaLG7M&amp;_nc_oc=Adknoo5e-0KJhZQYHPUJdPgmXcQlmC0A5gg3YJK0lCwdM67WnCHdyitFSvVfGzxRht0&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=PDcKgBnuMIjJ4HMr7zhoyQ&amp;oh=00_AfhVOMOaNIw__W8E-rlddy0kmp30mtOHDP6TKuGoP8CFQw&amp;oe=692E329A', 'profileId': '100000981850453', 'profileName': 'Duber Don Gato Rosso', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -4400,7 +4400,7 @@
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=772382055843885', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3Xzc3MjM4MjA1NTg0Mzg4NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N183NzIzODIwNTU4NDM4ODU=', 'date': '2025-11-26T00:18:26.000Z', 'text': 'Y cuánto plástico acumulado en estas décadas???? ya debería haber dejado de usar tanto plástico👎🏼', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/586382584_25001899076145851_6275114829556037212_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=hHJp_iMlPAEQ7kNvwGNHX9Z&amp;_nc_oc=AdmUq_ndlSSf2VPTbGwqUSle_0Nlf8c4iaUaZE1fM4m5reaJF1VS6Q0ZDQ2MoYwMm6Q&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=7WjSMVw2RDW5ByDi3YRUHQ&amp;oh=00_Afgx1F24vSQTZRhqThpG_S9GtPrjkMrKnbt-Q7JezTqFjQ&amp;oe=692CC7A5', 'profileId': 'pfbid0CmoHRA57HyyThdBQDQYBPi9sqS6dCtKvgUEwuVrAcmLreTosttNSarA8w9aC6Ug2l', 'profileName': 'Emilio Garzía', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=772382055843885', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3Xzc3MjM4MjA1NTg0Mzg4NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N183NzIzODIwNTU4NDM4ODU=', 'date': '2025-11-26T00:18:26.000Z', 'text': 'Y cuánto plástico acumulado en estas décadas???? ya debería haber dejado de usar tanto plástico👎🏼', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/586382584_25001899076145851_6275114829556037212_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=hHJp_iMlPAEQ7kNvwFw-iPR&amp;_nc_oc=AdkdmHNeT0AilyBtsVn8YtsXGeooqEMQYmK0Yu5nFIGpDlo7vRcUniKLTOvoANtU-vQ&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=PDcKgBnuMIjJ4HMr7zhoyQ&amp;oh=00_AfiJlf1dmN7DCWJhouNPZ4TEvWsAVUetdyF3cUzjddmeaA&amp;oe=692E1925', 'profileId': 'pfbid02GdEzbpzw9UWy4oNHGUXMpXqZTU1ptC2Xizom4G3hXPmZxCmXk3kSpfGhvYGU54C6l', 'profileName': 'Emilio Garzía', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -4454,7 +4454,7 @@
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=1727270721277307', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE3MjcyNzA3MjEyNzczMDc=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNzI3MjcwNzIxMjc3MzA3', 'date': '2025-11-26T02:37:51.000Z', 'text': 'Ya no saben igual y mucho más poquito', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/464143757_1297560301407075_73410222741401897_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=Nt4vrUYH3UwQ7kNvwEw-Dx9&amp;_nc_oc=AdkeNAu6sQPl8pjD0tLzz3mOf5xPRYScmU2oG1JIWeFA0wzKoLnYRGWED8X5feGAKyo&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=7WjSMVw2RDW5ByDi3YRUHQ&amp;oh=00_Afi-rdiJACOYADfpfNsRKh9k9qhEmF2zYWHBen4orlgDKw&amp;oe=692CE788', 'profileId': '100034593527241', 'profileName': 'Andrés Paolo C R', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1727270721277307', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE3MjcyNzA3MjEyNzczMDc=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNzI3MjcwNzIxMjc3MzA3', 'date': '2025-11-26T02:37:51.000Z', 'text': 'Ya no saben igual y mucho más poquito', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/464143757_1297560301407075_73410222741401897_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=Nt4vrUYH3UwQ7kNvwGycjVz&amp;_nc_oc=AdkJeWAAa6Rhkap5ToXv1JfkuQtmKJGaULfW-bm8Ixky-SqfzTbGPgwgarGww_5xG9k&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=PDcKgBnuMIjJ4HMr7zhoyQ&amp;oh=00_Afjcz-U3eSyL8mucwcrOu4LnHS1Z7biGittu7M4HIWOoMA&amp;oe=692E3908', 'profileId': '100034593527241', 'profileName': 'Andrés Paolo C R', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -4508,7 +4508,7 @@
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=1141110784879560', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNDExMTA3ODQ4Nzk1NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTQxMTEwNzg0ODc5NTYw', 'date': '2025-11-24T23:08:21.000Z', 'text': 'Ahora el precio es el del 2035, qué gonorrea si es caro un bon yurt.', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/557590332_10162478701478778_7375230878345478238_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=AKtgcucDQUIQ7kNvwEdBm_-&amp;_nc_oc=AdlPluRr1gmecyFNaBJRjJgKLew4E8RD8Krdrpo_EsNtZdheqQpMTj5ZPc_VpPx1Kx8&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=7WjSMVw2RDW5ByDi3YRUHQ&amp;oh=00_AfhD1etD8xvnbKrFnNby675ODP5XedArQta89ZWfVsanyg&amp;oe=692CC571', 'profileId': 'pfbid02sp3tCcTBuexsJUCPidndkY1bgoR6JRtNibs6aTkfmQtG3uLurSJh8EcoNXJVmmMol', 'profileName': 'John Lozano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1141110784879560', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNDExMTA3ODQ4Nzk1NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTQxMTEwNzg0ODc5NTYw', 'date': '2025-11-24T23:08:21.000Z', 'text': 'Ahora el precio es el del 2035, qué gonorrea si es caro un bon yurt.', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/557590332_10162478701478778_7375230878345478238_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=AKtgcucDQUIQ7kNvwHFwB09&amp;_nc_oc=AdnI8BYZRCPrjqpIGFnZmGac8vUwqFfO9n9qRRa5A99xmltKShIOUMjPgQx3qIdyHqA&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=PDcKgBnuMIjJ4HMr7zhoyQ&amp;oh=00_AfgZeLPSYw9Yj5x0JfCJCBTWT9jX8ArMA4hyNJftwNC_Lg&amp;oe=692E16F1', 'profileId': 'pfbid0onTAioFdEk33Bqy4XtroPpWZjiNRBFaRdtqLEGxPwx5XDmXqbUdagjmLipSp1Bvvl', 'profileName': 'John Lozano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -4562,7 +4562,7 @@
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=1394764695697246', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzOTQ3NjQ2OTU2OTcyNDY=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzk0NzY0Njk1Njk3MjQ2', 'date': '2025-11-26T01:27:20.000Z', 'text': 'PARA COMPRAR UNO EN ESTOS DIAS HAY QUE VENDER UN RIÑON', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/412356559_1060423464994654_1796713112590319482_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RAzP0H4wqAEQ7kNvwEPeVnY&amp;_nc_oc=AdnGCPTYOFvYlLKT3aqCLeYZV_svIP6j27IG9qw9lhXEQ27dn3QKiMnyCkoSaLbM6iI&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=7WjSMVw2RDW5ByDi3YRUHQ&amp;oh=00_AfhB9VcTSNrANi6gUtlqeWIusrtQ-qyTNavt8KYMUWLPYA&amp;oe=692CDA71', 'profileId': 'pfbid0kjCkzdgJezAmHgc6pHqq5UzkdY8Rkfhvx5oS8f7VYLvvPjms3x7Uz96uePdijgrel', 'profileName': 'Jhon Nkunia Congo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1394764695697246', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzOTQ3NjQ2OTU2OTcyNDY=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzk0NzY0Njk1Njk3MjQ2', 'date': '2025-11-26T01:27:20.000Z', 'text': 'PARA COMPRAR UNO EN ESTOS DIAS HAY QUE VENDER UN RIÑON', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/412356559_1060423464994654_1796713112590319482_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=B4Rcy7jb2KIQ7kNvwFwCSEO&amp;_nc_oc=AdmnEh71MFAfnugzqOJHP8MzIN8690Kd18h_xfUCgPswR9PFKcxFbrksr4dEVG2YOAI&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=PDcKgBnuMIjJ4HMr7zhoyQ&amp;oh=00_Afgwxb9k9uCjgyG-0vSjXa4VwOKLhaxx2GWUCRS9bQ_TRw&amp;oe=692E2BF1', 'profileId': 'pfbid02p6gwcf2vgY9FTNpNQNncBGBnJHCzxxzFkj4bjQvzesPUDH49m7oTSbQSB45mFpdNl', 'profileName': 'Jhon Nkunia Congo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -4616,7 +4616,7 @@
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=1924670054749279', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE5MjQ2NzAwNTQ3NDkyNzk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xOTI0NjcwMDU0NzQ5Mjc5', 'date': '2025-11-25T23:51:03.000Z', 'text': 'Ojalá traiga la misma cantidad de antes y no lo poco que trae ahora', 'profileUrl': 'https://www.facebook.com/joseignacio.guzman.35', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/384276911_10227578720287040_5664517602042236735_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=BVsZ2fAZfbQQ7kNvwGrVVXq&amp;_nc_oc=AdlmHtNQtDZKTKs_sdfgXlFXeWSkAqWd9VdAdEOdpOMoFrqpKx5DIlpSxie5PHBdAOE&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=7WjSMVw2RDW5ByDi3YRUHQ&amp;oh=00_AfingCMD5_rTt1DoduzqKC-uZPWimmmeZA67yAhzd-QZ7g&amp;oe=692CB874', 'profileId': 'pfbid02SC8yCMAiMP1xDnkBCVsY5UW6vBc7poHfZ3Y9UgL3M1PAcw22TN3FDxKR5atuuf1Yl', 'profileName': 'Ignacio Guzman', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1924670054749279', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE5MjQ2NzAwNTQ3NDkyNzk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xOTI0NjcwMDU0NzQ5Mjc5', 'date': '2025-11-25T23:51:03.000Z', 'text': 'Ojalá traiga la misma cantidad de antes y no lo poco que trae ahora', 'profileUrl': 'https://www.facebook.com/joseignacio.guzman.35', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/384276911_10227578720287040_5664517602042236735_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=BVsZ2fAZfbQQ7kNvwEviNB2&amp;_nc_oc=Adn2sqCSPuAjSpTaH8k2J58XcNupJROaD4kCLdMyN4kHT3A_Jdfcrcp6vQ9piaAikK8&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=PDcKgBnuMIjJ4HMr7zhoyQ&amp;oh=00_AfgGNLYALrmvXA-vkQ8k8PK6LILkZtWOIbSufJEWfsJMwA&amp;oe=692E09F4', 'profileId': 'pfbid0NeVnHBYMWCHzxfJHsYac5CSExL99HKXfyL1LkanaHd2n7XM5LoQ2r8RuovCgxseFl', 'profileName': 'Ignacio Guzman', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -4670,7 +4670,7 @@
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=724688210136182', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzcyNDY4ODIxMDEzNjE4Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N183MjQ2ODgyMTAxMzYxODI=', 'date': '2025-11-25T16:51:29.000Z', 'text': 'Desde cuándo el CHAMBON del INGENIERO Obando, sirve de IA para promocionar Bonyurt jaja', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/491846101_10234111509665430_2018683431021948483_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=251Y5cfpQe0Q7kNvwH_zU7V&amp;_nc_oc=Adn_ev0zPoiyeOFxH_7kFqxN8TRGFJNzCdNd_T7ri0NfNUokTZfhqaJj4KS8o7aT-tg&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=7WjSMVw2RDW5ByDi3YRUHQ&amp;oh=00_AfhjMHn3XisrQcKyZggtumQE39Q9t1UU50azGdAlvIEyMQ&amp;oe=692CB0F2', 'profileId': 'pfbid02KTt5wnNz3hZ52sdpDWZ2hHHNiYeqNzsAptgJ1c49qJok1euBdeLiWLeEAESKvKXl', 'profileName': 'Daniel Ricardo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=724688210136182', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzcyNDY4ODIxMDEzNjE4Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N183MjQ2ODgyMTAxMzYxODI=', 'date': '2025-11-25T16:51:29.000Z', 'text': 'Desde cuándo el CHAMBON del INGENIERO Obando, sirve de IA para promocionar Bonyurt jaja', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/491846101_10234111509665430_2018683431021948483_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=251Y5cfpQe0Q7kNvwHF-a_M&amp;_nc_oc=AdleaG3hNN45BvikoEyptDOdckWPz86FUBSF9g-py4N2hdB1d_WLp1H1_F8U7ud5xmU&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=PDcKgBnuMIjJ4HMr7zhoyQ&amp;oh=00_Afi1LteJKglIOqkS8_8WhWkFuBqTsaTT9lz8jh_nPpXDiA&amp;oe=692E3AB2', 'profileId': 'pfbid025gx4hy911r8XWcmT7bKkYjV2H1NyUriRBGoi12X5apiuKNsKAsWybFpNQXRPKrE7l', 'profileName': 'Daniel Ricardo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -4724,7 +4724,7 @@
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=24232223896453338', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzI0MjMyMjIzODk2NDUzMzM4', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yNDIzMjIyMzg5NjQ1MzMzOA==', 'date': '2025-11-24T18:37:25.000Z', 'text': 'Eso para que SIRVE', 'profileUrl': 'https://www.facebook.com/people/Ricardo-Martinez/pfbid0HUpkRpugDgiezhoqiUTAqMtht5UDKEa5LxAiym4CjL9KBQRL9EqVQZfKyyUzxcGTl/', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/363379112_265769309508179_7686631491666001927_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VID1p2X8JqAQ7kNvwF2Ltfb&amp;_nc_oc=AdkyhqbeoKzBGDMOzu3ubbkPARNlDNbVKkw9dsqnH2B5acKtJEWltjZouxJjRkrUisc&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=7WjSMVw2RDW5ByDi3YRUHQ&amp;oh=00_AfgI__ePkDHITKcmwVb2EGDWoYJDsO7hhERpks6WbhVp9w&amp;oe=692CCAAD', 'profileId': 'pfbid0HUpkRpugDgiezhoqiUTAqMtht5UDKEa5LxAiym4CjL9KBQRL9EqVQZfKyyUzxcGTl', 'profileName': 'Ricardo Martinez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=24232223896453338', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzI0MjMyMjIzODk2NDUzMzM4', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yNDIzMjIyMzg5NjQ1MzMzOA==', 'date': '2025-11-24T18:37:25.000Z', 'text': 'Eso para que SIRVE', 'profileUrl': 'https://www.facebook.com/people/Ricardo-Martinez/pfbid02MLGTcVqW4uMK4Vx9zgu2HMLSDFewFZiqfZcSm3Tm7CCeAemaYvMRLeRU3zBbwiysl/', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/363379112_265769309508179_7686631491666001927_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VID1p2X8JqAQ7kNvwFwk4d8&amp;_nc_oc=AdkuIuUPQ3zeaohE_-pNbRrXWW4ulaslnmmf7XJVGn9uhkUk8zKZ3Gif0DrrlFlqo_Q&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=PDcKgBnuMIjJ4HMr7zhoyQ&amp;oh=00_AfjYBPqlYdILByfkPL3NklBeqEjQU8HsrMnpzjD7cA63rQ&amp;oe=692E1C2D', 'profileId': 'pfbid02MLGTcVqW4uMK4Vx9zgu2HMLSDFewFZiqfZcSm3Tm7CCeAemaYvMRLeRU3zBbwiysl', 'profileName': 'Ricardo Martinez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -4778,7 +4778,7 @@
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=3091916754347395', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzMwOTE5MTY3NTQzNDczOTU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18zMDkxOTE2NzU0MzQ3Mzk1', 'date': '2025-11-24T22:39:03.000Z', 'text': 'Antes traía más , le undieron el fondo al envase', 'profileUrl': 'https://www.facebook.com/manuelemilio.alvarezgonzalez', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=zc_bz3Z8qrgQ7kNvwGt6hE0&amp;_nc_oc=AdlCv9UCayHEjlEw5yFc0E8qEM_AqvvXuh7YCPZ3Bc6rxJSvbvtCgsYsiY7cjWQBX0Y&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;oh=00_AfgJCmsRA0jN_VyOmbVP3fHohhe0GIjUz3TEB0KPU6FfZA&amp;oe=694E857A', 'profileId': 'pfbid02gzrgBvec8659vbHVMs83PpyowLUrggzA9aVddoYazAo2JfCpPj8pSutHtUioD5bjl', 'profileName': 'Manuel Emilio Alvarez Gonzalez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=3091916754347395', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzMwOTE5MTY3NTQzNDczOTU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18zMDkxOTE2NzU0MzQ3Mzk1', 'date': '2025-11-24T22:39:03.000Z', 'text': 'Antes traía más , le undieron el fondo al envase', 'profileUrl': 'https://www.facebook.com/manuelemilio.alvarezgonzalez', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=zc_bz3Z8qrgQ7kNvwFw2UEg&amp;_nc_oc=Adnw6L_LIldqsd2BfofBdCIcJKb2jim4PL_FXBYJ04UUMeVXnWpKMUXh5wuj6YUbLrs&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;oh=00_Afj0YFlHTOZBWbgDOM5dJ233Wttux8p6iZo7yXab0L4fUw&amp;oe=694FD6FA', 'profileId': 'pfbid0dTDVGm2FGiwwhELByrn1LPoprpSBscZzQzUh5VBw9FMk8LQDsBkgxF6AziNg2d5nl', 'profileName': 'Manuel Emilio Alvarez Gonzalez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -4832,7 +4832,7 @@
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AHRVMEK3zLRdVa6JCbraePuuRL1cSQWrL97y1arT9C5KEE797r2He2ZEwsiJhsMol?comment_id=1637569370732699', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE2Mzc1NjkzNzA3MzI2OTk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNjM3NTY5MzcwNzMyNjk5', 'date': '2025-11-25T22:29:42.000Z', 'text': 'En otros 35 años van a vender los tarros vacíos jaja', 'profileUrl': 'https://www.facebook.com/oscarjavier.amorteguicardenas', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/273695285_6971223269619590_1323976999532144755_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=C4mEQv2FxbYQ7kNvwHcsKRN&amp;_nc_oc=AdkP0tvd4S1Ti3LD1jWRpzWOrkO2TKCkUbkSBjpefisEre0UsYPvBpEXieet9KHpmwo&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=7WjSMVw2RDW5ByDi3YRUHQ&amp;oh=00_AfhWY001rAR-BSC_7ivLSX1Ov4m_Rd1_0R5JbQQqGeHSQg&amp;oe=692CDB0B', 'profileId': '100001959574620', 'profileName': 'Oscar Javier Amortegui Cardenas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1637569370732699', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE2Mzc1NjkzNzA3MzI2OTk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNjM3NTY5MzcwNzMyNjk5', 'date': '2025-11-25T22:29:42.000Z', 'text': 'En otros 35 años van a vender los tarros vacíos jaja', 'profileUrl': 'https://www.facebook.com/oscarjavier.amorteguicardenas', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/273695285_6971223269619590_1323976999532144755_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=C4mEQv2FxbYQ7kNvwEkCVXa&amp;_nc_oc=AdkRzkW7sDUa7GRF2deuIvUjadQghyXSxY3JtJTknDnYHM6OgKy7Y4a8AGTCjaYP4Xo&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=PDcKgBnuMIjJ4HMr7zhoyQ&amp;oh=00_AfiZ40dndwhs-nHeR-SDFPmZAtNtB_vgHs7ccKDaBNEZSQ&amp;oe=692E2C8B', 'profileId': '100001959574620', 'profileName': 'Oscar Javier Amortegui Cardenas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -5004,7 +5004,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DRcmTd6gJGA/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DRcmTd6gJGA/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N87"/>
+  <dimension ref="A1:N95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -911,18 +911,18 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Como los de me infancia</t>
+          <t>Sepa bien  bera</t>
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>45987.15164351852</v>
+        <v>45989.19319444444</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>45987</v>
+        <v>45989</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>03:38:22</t>
+          <t>04:38:12</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -939,7 +939,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0rC8bL1ZNd53DUDQACn4DNToUNzpXotxkgAnkUWv11mattx5o32FpceJKz4Lcvj9tl?comment_id=1707136334025082', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzE3MDcxMzYzMzQwMjUwODI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV8xNzA3MTM2MzM0MDI1MDgy', 'date': '2025-11-26T03:38:22.000Z', 'text': 'Como los de me infancia', 'profilePicture': 'https://scontent.fabe1-1.fna.fbcdn.net/v/t39.30808-1/495851492_9723408417747012_8296794829451701261_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=NZw3SEcCIOoQ7kNvwEaBT2R&amp;_nc_oc=AdnCFep090HdY25YLUl3s1TQ4NPnY4rxKWXxgjqKEj94s9VsSh_6vuqY7BAD2dkXEhY&amp;_nc_zt=24&amp;_nc_ht=scontent.fabe1-1.fna&amp;_nc_gid=JdwyjCtrZsw-tJ2ROpO8vw&amp;oh=00_AfjuKKtlnmUslELWDjimuKwW9GDNi-yTp-oUvi04V5jg1g&amp;oe=692E1E12', 'profileId': '100002338506399', 'profileName': 'Moises NG', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02v3aJWgVCULJ4gRGihqJj3N5Jyj5zab4m4YPwo5GaJvFzAL2DEMUMxMJW9ctiwgM9l?comment_id=1160555079539208', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzExNjA1NTUwNzk1MzkyMDg=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV8xMTYwNTU1MDc5NTM5MjA4', 'date': '2025-11-28T04:38:12.000Z', 'text': 'Sepa bien  bera', 'profileUrl': 'https://www.facebook.com/carlos.gelves.36907', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/358444505_103223549509165_611244367080502977_n.jpg?stp=c0.0.972.972a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Pjaybn6EMEIQ7kNvwGhukOH&amp;_nc_oc=Adlgt64FrrrV_WFOATGsB8-P6b3EZYYSy5XdMXj2fHFTX6MUpogMAu_oc5fTi6AnQv8&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=sHuwtxNqWi0vJSfA7-bM_g&amp;oh=00_Afgikq7JknJu9EFoSExXcdkL1Tp8wARXR9RUPS0vulwMFw&amp;oe=692F6D8F', 'profileId': 'pfbid02L98yAgNN6AAiisCTy8J3ZH3fAQzjy57ymRm61uTK6yYyab1o5hNYXTwP4eDxmfeDl', 'profileName': 'Carlos Gelves', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
         </is>
       </c>
     </row>
@@ -965,18 +965,18 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ni uno ni dos ni tres ya es imposible poder comer un bon yurt su costo cada día esta por las nubes, solía ser mi postre 🍨 favorito pero esta tan costoso que ni recuerdo su sabor 😔</t>
+          <t>Como los de me infancia</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>45987.17144675926</v>
+        <v>45987.15164351852</v>
       </c>
       <c r="H12" s="3" t="n">
         <v>45987</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>04:06:53</t>
+          <t>03:38:22</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -993,7 +993,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0rC8bL1ZNd53DUDQACn4DNToUNzpXotxkgAnkUWv11mattx5o32FpceJKz4Lcvj9tl?comment_id=879171581131006', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzg3OTE3MTU4MTEzMTAwNg==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV84NzkxNzE1ODExMzEwMDY=', 'date': '2025-11-26T04:06:53.000Z', 'text': 'Ni uno ni dos ni tres ya es imposible poder comer un bon yurt su costo cada día esta por las nubes, solía ser mi postre 🍨 favorito pero esta tan costoso que ni recuerdo su sabor 😔', 'profilePicture': 'https://scontent.fabe1-1.fna.fbcdn.net/v/t39.30808-1/459564597_8966520580030975_2018006115904800734_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=s8dtzeiVufYQ7kNvwE69UJl&amp;_nc_oc=Adl1ueCi8SYVQJJzEAty_9tNZQ0_KP4SPIA02IvfPtcbIVy4RMJh-4sPBhlYeK2MdHE&amp;_nc_zt=24&amp;_nc_ht=scontent.fabe1-1.fna&amp;_nc_gid=JdwyjCtrZsw-tJ2ROpO8vw&amp;oh=00_AfjO9xMi83LE2tZeMfByb5jxYwNbgPc9mRACv_-rHUK_Nw&amp;oe=692E3630', 'profileId': '100000193678054', 'profileName': 'Catcocktail Merpar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02v3aJWgVCULJ4gRGihqJj3N5Jyj5zab4m4YPwo5GaJvFzAL2DEMUMxMJW9ctiwgM9l?comment_id=1707136334025082', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzE3MDcxMzYzMzQwMjUwODI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV8xNzA3MTM2MzM0MDI1MDgy', 'date': '2025-11-26T03:38:22.000Z', 'text': 'Como los de me infancia', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/495851492_9723408417747012_8296794829451701261_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=NZw3SEcCIOoQ7kNvwFCtTe6&amp;_nc_oc=AdmGo-OkqAFfQ8sdxsxAYykQbMzKivybmPVmy6XxoDe_7CecAswV8zlWlPCLuR8u4kQ&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=sHuwtxNqWi0vJSfA7-bM_g&amp;oh=00_Afj0XLPILosqoGE-nmBJQrYFtwce77U2ZjjcW69LNZC2KA&amp;oe=692F6F92', 'profileId': '100002338506399', 'profileName': 'Moises NG', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
         </is>
       </c>
     </row>
@@ -1019,18 +1019,18 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Cuando eran ricos y traían más que aire</t>
+          <t>Ni uno ni dos ni tres ya es imposible poder comer un bon yurt su costo cada día esta por las nubes, solía ser mi postre 🍨 favorito pero esta tan costoso que ni recuerdo su sabor 😔</t>
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>45986.19047453703</v>
+        <v>45987.17144675926</v>
       </c>
       <c r="H13" s="3" t="n">
-        <v>45986</v>
+        <v>45987</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>04:34:17</t>
+          <t>04:06:53</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1047,7 +1047,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0rC8bL1ZNd53DUDQACn4DNToUNzpXotxkgAnkUWv11mattx5o32FpceJKz4Lcvj9tl?comment_id=1820814188796053', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzE4MjA4MTQxODg3OTYwNTM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV8xODIwODE0MTg4Nzk2MDUz', 'date': '2025-11-25T04:34:17.000Z', 'text': 'Cuando eran ricos y traían más que aire', 'profileUrl': 'https://www.facebook.com/jeiko8511', 'profilePicture': 'https://scontent.fabe1-1.fna.fbcdn.net/v/t39.30808-1/468060314_10162361510499273_507374193545330854_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HWI7q6rxv30Q7kNvwFpGzlx&amp;_nc_oc=AdmtoAkj87Wipp3LXnmbFHslA7UjMVkgK6m9odkdjL1_zzOVIwEPUhGftvOLyobJnYY&amp;_nc_zt=24&amp;_nc_ht=scontent.fabe1-1.fna&amp;_nc_gid=JdwyjCtrZsw-tJ2ROpO8vw&amp;oh=00_Afioc-Rtf1vd4ITo4XRpElz7li7YeRV7tHXPPLSlha1sRA&amp;oe=692E31DE', 'profileId': 'pfbid0w3ZnpHWb2njUEBPydA123QnYVFDM7HsFCnR4ydVLZJWzp2CmBi5iDa9pTJUH6Z8Kl', 'profileName': 'Jeiko Hernandez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02v3aJWgVCULJ4gRGihqJj3N5Jyj5zab4m4YPwo5GaJvFzAL2DEMUMxMJW9ctiwgM9l?comment_id=879171581131006', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzg3OTE3MTU4MTEzMTAwNg==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV84NzkxNzE1ODExMzEwMDY=', 'date': '2025-11-26T04:06:53.000Z', 'text': 'Ni uno ni dos ni tres ya es imposible poder comer un bon yurt su costo cada día esta por las nubes, solía ser mi postre 🍨 favorito pero esta tan costoso que ni recuerdo su sabor 😔', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/459564597_8966520580030975_2018006115904800734_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=nUzroSc_NogQ7kNvwEUsqD3&amp;_nc_oc=AdlvjChtE0TwW2Ggl1IBYeYdNK-9PCDPokuGgjbJ-2WeU8J0QszWzmOh8Nta467edqg&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=sHuwtxNqWi0vJSfA7-bM_g&amp;oh=00_Afj4i46jecQ3PikyOo2g6q1yju2mPtlykRGIJignW4gdvQ&amp;oe=692F87B0', 'profileId': '100000193678054', 'profileName': 'Catcocktail Merpar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
         </is>
       </c>
     </row>
@@ -1073,23 +1073,23 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Pos si como tres me da un coma diabético....</t>
+          <t>la LECHE Pésimo producto sabor a remedio</t>
         </is>
       </c>
       <c r="G14" s="2" t="n">
-        <v>45986.14106481482</v>
+        <v>45989.09731481481</v>
       </c>
       <c r="H14" s="3" t="n">
-        <v>45986</v>
+        <v>45989</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>03:23:08</t>
+          <t>02:20:08</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K14" t="n">
@@ -1101,7 +1101,7 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0rC8bL1ZNd53DUDQACn4DNToUNzpXotxkgAnkUWv11mattx5o32FpceJKz4Lcvj9tl?comment_id=843566781589283', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzg0MzU2Njc4MTU4OTI4Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV84NDM1NjY3ODE1ODkyODM=', 'date': '2025-11-25T03:23:08.000Z', 'text': 'Pos si como tres me da un coma diabético....', 'profileUrl': 'https://www.facebook.com/andres.torres.90834', 'profilePicture': 'https://scontent.fabe1-1.fna.fbcdn.net/v/t39.30808-1/496882250_10161702226334830_5679666335987461894_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=cYAsO0SQLjYQ7kNvwEp3LgH&amp;_nc_oc=AdlQMoTuDGfw14Z5EYVJxNCp1LciNUXA4XqRjKRdQXkMDu14PYqc_6MTXjCmAEYrZgU&amp;_nc_zt=24&amp;_nc_ht=scontent.fabe1-1.fna&amp;_nc_gid=JdwyjCtrZsw-tJ2ROpO8vw&amp;oh=00_AfhL9fbKvw5Nm3k2dZdD5iQqs2gLqGTYd22FGWk0oxXvrQ&amp;oe=692E31C4', 'profileId': '607764829', 'profileName': 'Andres Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02v3aJWgVCULJ4gRGihqJj3N5Jyj5zab4m4YPwo5GaJvFzAL2DEMUMxMJW9ctiwgM9l?comment_id=822335630610124', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzgyMjMzNTYzMDYxMDEyNA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV84MjIzMzU2MzA2MTAxMjQ=', 'date': '2025-11-28T02:20:08.000Z', 'text': 'la LECHE Pésimo producto sabor a remedio', 'profileUrl': 'https://www.facebook.com/people/Marco-Sanchez/pfbid05CLZt6JDDNJ8fZPg8k42BCchdxPAhdWN8L5jqrfY5DwVUvuVYz4GdW2nPMvqF1Bkl/', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=_YrXabF6_a4Q7kNvwHwZYTq&amp;_nc_oc=Adm7UATwK87LVBuKUNrLcZPgCdWb7I3G1nxlQULZkjvOsn4nMN3jPZEnFbgEhhzi-Hw&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;oh=00_AfixALLRwRp_uyzsMFpw5HVZvxviNyFn7dwQOvanL1wOgg&amp;oe=6951287A', 'profileId': 'pfbid05CLZt6JDDNJ8fZPg8k42BCchdxPAhdWN8L5jqrfY5DwVUvuVYz4GdW2nPMvqF1Bkl', 'profileName': 'Marco Sanchez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
         </is>
       </c>
     </row>
@@ -1127,23 +1127,23 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Esq eso era muy caro un riñón prácticamente ps pero vale la pena</t>
+          <t>Cuando eran ricos y traían más que aire</t>
         </is>
       </c>
       <c r="G15" s="2" t="n">
-        <v>45986.21601851852</v>
+        <v>45986.19047453703</v>
       </c>
       <c r="H15" s="3" t="n">
         <v>45986</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>05:11:04</t>
+          <t>04:34:17</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K15" t="n">
@@ -1155,13 +1155,13 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0rC8bL1ZNd53DUDQACn4DNToUNzpXotxkgAnkUWv11mattx5o32FpceJKz4Lcvj9tl?comment_id=861351922903088', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzg2MTM1MTkyMjkwMzA4OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV84NjEzNTE5MjI5MDMwODg=', 'date': '2025-11-25T05:11:04.000Z', 'text': 'Esq eso era muy caro un riñón prácticamente ps pero vale la pena', 'profileUrl': 'https://www.facebook.com/david.santiago.500055', 'profilePicture': 'https://scontent.fabe1-1.fna.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=zc_bz3Z8qrgQ7kNvwEfpFPG&amp;_nc_oc=Adkdo77Knm8LwquZR6O0fuxTp0YPqx6XXLK2U2VdcpbzpHYVRWfpwYXJFjK9kNZWsaI&amp;_nc_zt=24&amp;_nc_ht=scontent.fabe1-1.fna&amp;oh=00_AfhojEtYAnyUJRwL_fCXwWn7ukUFDqmFPmkJpA5p0e8h8A&amp;oe=694FD6FA', 'profileId': 'pfbid0y91QVemyNuJo9WZ6NhvvA1nGRrZwmJishAdLnkf1AANy9L5k14sZAXYShhuTk6oxl', 'profileName': 'Santiago Yarce', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02v3aJWgVCULJ4gRGihqJj3N5Jyj5zab4m4YPwo5GaJvFzAL2DEMUMxMJW9ctiwgM9l?comment_id=1820814188796053', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzE4MjA4MTQxODg3OTYwNTM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV8xODIwODE0MTg4Nzk2MDUz', 'date': '2025-11-25T04:34:17.000Z', 'text': 'Cuando eran ricos y traían más que aire', 'profileUrl': 'https://www.facebook.com/jeiko8511', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/468060314_10162361510499273_507374193545330854_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HWI7q6rxv30Q7kNvwGMu6IN&amp;_nc_oc=AdnPmq7sABKtmy8Bjgni7Z6m9IAUJc0jWrFV8P1xI6WCl5BAWYmlxCDGQIOS8Ts7Ij0&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=sHuwtxNqWi0vJSfA7-bM_g&amp;oh=00_AfgFkqfY2tPvjcLhXayaLL7QEFHFkXR3zje_Wl5r7ZZe2Q&amp;oe=692F835E', 'profileId': 'pfbid02zu1VzxSQt953wYr7sspSarkZHsA1w63eu9uZJuyZEuqDravvWSb65JyvNmXPmD4Ll', 'profileName': 'Jeiko Hernandez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1175,24 +1175,24 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258767296289015/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258767229622355/</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>El kumis es pura agua y dulce</t>
+          <t>Pos si como tres me da un coma diabético....</t>
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>45987.08174768519</v>
+        <v>45986.14106481482</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>45987</v>
+        <v>45986</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>01:57:43</t>
+          <t>03:23:08</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1209,13 +1209,13 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767296289015/', 'commentUrl': 'https://www.facebook.com/reel/1837323323843066/?comment_id=829490193278336', 'id': 'Y29tbWVudDoxMjU4NzY4OTYyOTU1NTE1XzgyOTQ5MDE5MzI3ODMzNg==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2ODk2Mjk1NTUxNV84Mjk0OTAxOTMyNzgzMzY=', 'date': '2025-11-26T01:57:43.000Z', 'text': 'El kumis es pura agua y dulce', 'profileUrl': 'https://www.facebook.com/yohana.martin.77178', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/577764354_767711772971306_3406793745669722656_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=rg0tSephFrMQ7kNvwHjxHgx&amp;_nc_oc=AdlDolBNPNR7Ok_bct22sLnW9hZ_q_FOBP0gSUNYFkh4n81FxhdJE4_FhAzpgKBVyZH1j25XXDXk8cOtRMntsrH-&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=hHcFkpzcOGuKUn1znWPKrA&amp;oh=00_AfgjvOFRxtjAFeQ2a3e1-lFP7o1RU2UGTgBZe0rQrPw58w&amp;oe=692E1CF0', 'profileId': 'pfbid029gFr3z2ZTdy1jCpTqRsFKbqB5yPnZnTTFs4r29rnzGZ43o8u5w59B5cgkr1rmdTHl', 'profileName': 'Yohana Martin', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258768962955515', 'postTitle': 'Dicen que uno vuelve a lo que lo hizo feliz 🤎 Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate. ¿Ya lo probaste?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767296289015/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02v3aJWgVCULJ4gRGihqJj3N5Jyj5zab4m4YPwo5GaJvFzAL2DEMUMxMJW9ctiwgM9l?comment_id=843566781589283', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzg0MzU2Njc4MTU4OTI4Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV84NDM1NjY3ODE1ODkyODM=', 'date': '2025-11-25T03:23:08.000Z', 'text': 'Pos si como tres me da un coma diabético....', 'profileUrl': 'https://www.facebook.com/andres.torres.90834', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/496882250_10161702226334830_5679666335987461894_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=cYAsO0SQLjYQ7kNvwGvuBhw&amp;_nc_oc=AdkYIrNrjkVldj3uKQwm4d0ZUC17FZoVwKpTFxuGawODXVgu6CXIf-CNcdPR5D7DuBg&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=sHuwtxNqWi0vJSfA7-bM_g&amp;oh=00_AfgMptASrk5FD3mIT92EHbrHtRU6ZVzmY_6zBpTPCiDKfA&amp;oe=692F8344', 'profileId': '607764829', 'profileName': 'Andres Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1229,24 +1229,24 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258767296289015/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258767229622355/</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Y la de su hijo cuando sale,o por esa sentencia que la oculten.</t>
+          <t>Toca probar solo uno x q está costoso, muy costoso</t>
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>45987.12476851852</v>
+        <v>45989.4880787037</v>
       </c>
       <c r="H17" s="3" t="n">
-        <v>45987</v>
+        <v>45989</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>02:59:40</t>
+          <t>11:42:50</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1263,13 +1263,13 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767296289015/', 'commentUrl': 'https://www.facebook.com/reel/1837323323843066/?comment_id=1995575221176205', 'id': 'Y29tbWVudDoxMjU4NzY4OTYyOTU1NTE1XzE5OTU1NzUyMjExNzYyMDU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2ODk2Mjk1NTUxNV8xOTk1NTc1MjIxMTc2MjA1', 'date': '2025-11-26T02:59:40.000Z', 'text': 'Y la de su hijo cuando sale,o por esa sentencia que la oculten.', 'profileUrl': 'https://www.facebook.com/people/Maria-Alejo/pfbid02hEcorhPJwK9iHqRJFt9UGbrTspgoNS1Gps314gXdSCEa2xUn6ceb1oiWxTibS6gel/', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t1.6435-1/118594516_1604675779692468_1002436422543398699_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=g_y-aCzzYO4Q7kNvwHmgwSH&amp;_nc_oc=AdlAQeRb5HC7YAsU7iSwsU_-sitmqgljkmm1l50mlnjQ7VNwE5z6WeF1SSRKpiL6vHJuwRFOdCLG6iaKLdRAX6mz&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=hHcFkpzcOGuKUn1znWPKrA&amp;oh=00_Afi3kebUz8aM2mng28cFqjUV19ddlO5TsuaCU8Qsu3wPXA&amp;oe=694FC6A9', 'profileId': 'pfbid02hEcorhPJwK9iHqRJFt9UGbrTspgoNS1Gps314gXdSCEa2xUn6ceb1oiWxTibS6gel', 'profileName': 'Maria Alejo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258768962955515', 'postTitle': 'Dicen que uno vuelve a lo que lo hizo feliz 🤎 Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate. ¿Ya lo probaste?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767296289015/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02v3aJWgVCULJ4gRGihqJj3N5Jyj5zab4m4YPwo5GaJvFzAL2DEMUMxMJW9ctiwgM9l?comment_id=1366544288333559', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzEzNjY1NDQyODgzMzM1NTk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV8xMzY2NTQ0Mjg4MzMzNTU5', 'date': '2025-11-28T11:42:50.000Z', 'text': 'Toca probar solo uno x q está costoso, muy costoso', 'profileUrl': 'https://www.facebook.com/Yoja83', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/579286472_25381916678161669_1407969858151178588_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zvIZZ7GYqOoQ7kNvwFm04e-&amp;_nc_oc=AdmonlmiCNgkrwnKqafYhv6o4Jh21bqRg1EA_HGfgyRtiTXkROk21gxu5waIdHADjGg&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=sHuwtxNqWi0vJSfA7-bM_g&amp;oh=00_Afg9V8zisoWkf7X1obO0nI-6YUQFWrRaqcvEnh3B8wJQVw&amp;oe=692F8515', 'profileId': 'pfbid024Serj39JGnyvKdX9HQsvK9GcdTP4HYak2E9Ay7XDQJHFbBKJgEcmjZrXfRVtNwJhl', 'profileName': 'Yohana Garcia Martinez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1283,29 +1283,29 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258767229622355/</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Perfecto!!!!❤️</t>
+          <t>Esq eso era muy caro un riñón prácticamente ps pero vale la pena</t>
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>45986.14260416666</v>
+        <v>45986.21601851852</v>
       </c>
       <c r="H18" s="3" t="n">
         <v>45986</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>03:25:21</t>
+          <t>05:11:04</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K18" t="n">
@@ -1317,13 +1317,13 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02tMcWherFtTTxU8wptBXvSxxjRfXg37KyeXiRjFr3SACcErMUaS7VpVf1UbYPgukpl?comment_id=1952455178667084', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzE5NTI0NTUxNzg2NjcwODQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xOTUyNDU1MTc4NjY3MDg0', 'date': '2025-11-25T03:25:21.000Z', 'text': 'Perfecto!!!!❤️', 'profileUrl': 'https://www.facebook.com/rosa.lopez.92754397', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/417102719_10225249911019485_6080224190762171653_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zLsa44_thNYQ7kNvwHwy-Gi&amp;_nc_oc=AdkIKe-xVMUdFVvfTEBI_Q8zZs0e5N1RMKE--E7rKUF46BhRZz97h0OsKfN3oZAu15E&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=jeOf_I2tpue2Jjw8T30xaA&amp;oh=00_AfhDUxQRmN6_qfWv8sA1eoV0-1Wpaw2nI2CBrZmOiQqAfA&amp;oe=692E22F2', 'profileId': 'pfbid02PEnf1bdRaf21gnsMaeDXgAHsnc2o8RDZd8E2JQpbgqpLh6zh1Rgg79X9Xi26ZHRJl', 'profileName': 'Rosa Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02v3aJWgVCULJ4gRGihqJj3N5Jyj5zab4m4YPwo5GaJvFzAL2DEMUMxMJW9ctiwgM9l?comment_id=861351922903088', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzg2MTM1MTkyMjkwMzA4OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV84NjEzNTE5MjI5MDMwODg=', 'date': '2025-11-25T05:11:04.000Z', 'text': 'Esq eso era muy caro un riñón prácticamente ps pero vale la pena', 'profileUrl': 'https://www.facebook.com/david.santiago.500055', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=_YrXabF6_a4Q7kNvwHwZYTq&amp;_nc_oc=Adm7UATwK87LVBuKUNrLcZPgCdWb7I3G1nxlQULZkjvOsn4nMN3jPZEnFbgEhhzi-Hw&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;oh=00_AfixALLRwRp_uyzsMFpw5HVZvxviNyFn7dwQOvanL1wOgg&amp;oe=6951287A', 'profileId': 'pfbid032zT7gKhoE9q1LbvDGJoAvyoBv7Qx3vGYqnKcwJGRYx4kAv9r1WQUz8o3Txbf3S8Ul', 'profileName': 'Santiago Yarce', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1337,29 +1337,29 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258767296289015/</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Antes de conocer la diabetes eras mi snack favorito y como a alpina LE QUEDO GRANDE sacar productos saludables....... Paila!</t>
+          <t>El kumis es pura agua y dulce</t>
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>45986.05385416667</v>
+        <v>45987.08174768519</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>45986</v>
+        <v>45987</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>01:17:33</t>
+          <t>01:57:43</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K19" t="n">
@@ -1371,13 +1371,13 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02tMcWherFtTTxU8wptBXvSxxjRfXg37KyeXiRjFr3SACcErMUaS7VpVf1UbYPgukpl?comment_id=1520253749021206', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzE1MjAyNTM3NDkwMjEyMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xNTIwMjUzNzQ5MDIxMjA2', 'date': '2025-11-25T01:17:33.000Z', 'text': 'Antes de conocer la diabetes eras mi snack favorito y como a alpina LE QUEDO GRANDE sacar productos saludables....... Paila!', 'profileUrl': 'https://www.facebook.com/tommy.gil.martinez', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/503591956_122242588190081472_2905184460418413153_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=e5DYErdPckQQ7kNvwEyf6yK&amp;_nc_oc=AdnzJbaoMOhx3WqFKKXrubMzwwSVT3FXbyafGUTiscERJrFu3sDtvCiBmJyyw59Wvfk&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=jeOf_I2tpue2Jjw8T30xaA&amp;oh=00_AfjEXe4U_OFwdFXjH-FJned6dKrZQbMB7nLokfz2cHZTNQ&amp;oe=692E2FB0', 'profileId': '61552444185822', 'profileName': 'Tommy Gil Martinez', 'likesCount': '11', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767296289015/', 'commentUrl': 'https://www.facebook.com/reel/1837323323843066/?comment_id=829490193278336', 'id': 'Y29tbWVudDoxMjU4NzY4OTYyOTU1NTE1XzgyOTQ5MDE5MzI3ODMzNg==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2ODk2Mjk1NTUxNV84Mjk0OTAxOTMyNzgzMzY=', 'date': '2025-11-26T01:57:43.000Z', 'text': 'El kumis es pura agua y dulce', 'profileUrl': 'https://www.facebook.com/yohana.martin.77178', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/577764354_767711772971306_3406793745669722656_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=fuYJquGA4xUQ7kNvwEKEN6q&amp;_nc_oc=AdlHnPGJMqKN7FgsaNYJTr1jiGfG7skbfdUvj8vXYo9mNVskmzZCwRIcWSt0nhYT7Vo&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=KAy49yCAs2t9U14FOhBw4A&amp;oh=00_Afgcxvgwl6YfYK8vq-o5FuaISevwoa7n1kc7LuzckPRCKQ&amp;oe=692F6E70', 'profileId': 'pfbid068cf8pQCcdkZFLtKV57xsM2yCrzUkzTMH1PxUwjo5zRRF9mNX6n818pFRqD3pAjbl', 'profileName': 'Yohana Martin', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258768962955515', 'postTitle': 'Dicen que uno vuelve a lo que lo hizo feliz 🤎 Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate. ¿Ya lo probaste?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767296289015/'}</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1391,29 +1391,29 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258767296289015/</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>No han pensado en mejorar la fórmula? Para mi gusto es muy aguado, poco  y demasiado dulce.</t>
+          <t>un bonyort a esta hora uff no me encanta mucho</t>
         </is>
       </c>
       <c r="G20" s="2" t="n">
-        <v>45985.91405092592</v>
+        <v>45989.12140046297</v>
       </c>
       <c r="H20" s="3" t="n">
-        <v>45985</v>
+        <v>45989</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>21:56:14</t>
+          <t>02:54:49</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K20" t="n">
@@ -1425,13 +1425,13 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02tMcWherFtTTxU8wptBXvSxxjRfXg37KyeXiRjFr3SACcErMUaS7VpVf1UbYPgukpl?comment_id=1192728072737622', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzExOTI3MjgwNzI3Mzc2MjI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xMTkyNzI4MDcyNzM3NjIy', 'date': '2025-11-24T21:56:14.000Z', 'text': 'No han pensado en mejorar la fórmula? Para mi gusto es muy aguado, poco  y demasiado dulce.', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/568709187_2931465163703246_6852048957085631156_n.jpg?stp=c0.263.1283.1283a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=g6QWZvRqbnAQ7kNvwFsvsRP&amp;_nc_oc=AdkQuCRDrYltz-FHNHgNJlulJaGGRnOc1yjmmws70HeXIlngIvtBUgx8CsDzhM5drPA&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=jeOf_I2tpue2Jjw8T30xaA&amp;oh=00_Afi-sjNWtNoutqbcoC7qr7pVLw1xHQYGRa_UjxaVE5NUmA&amp;oe=692E1667', 'profileId': 'pfbid0C6hfoqWtn6LM6Fffw7NrmbVgkPG73Qdbwae4dSvDVqU7c9Dui5kPGXsqKPgp1JPol', 'profileName': 'Maricela Uribe Acero', 'likesCount': '15', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767296289015/', 'commentUrl': 'https://www.facebook.com/reel/1837323323843066/?comment_id=1290898106398272', 'id': 'Y29tbWVudDoxMjU4NzY4OTYyOTU1NTE1XzEyOTA4OTgxMDYzOTgyNzI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2ODk2Mjk1NTUxNV8xMjkwODk4MTA2Mzk4Mjcy', 'date': '2025-11-28T02:54:49.000Z', 'text': 'un bonyort a esta hora uff no me encanta mucho', 'profileUrl': 'https://www.facebook.com/edith.pineda.994628', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/586515673_122149885658855042_1839722494053972743_n.jpg?stp=c0.0.144.144a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=OuK10wG2-ysQ7kNvwEFljhs&amp;_nc_oc=Admn30ZQvb3PxS-8B1VKQXY9rFIxFkJy-LkDz-iCXWDZwepT7Bt_r8G2vDRudjJyscM&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=KAy49yCAs2t9U14FOhBw4A&amp;oh=00_Afj9do7qynUZymsVk3utrQdNew4jeJI19kYiG7BVhfAD8w&amp;oe=692F5445', 'profileId': 'pfbid0rm7ZogmWfq6L7fzQaVZ46bd5tNuynAd5YCkfT5YL1F85QwaEE6K2DNa8nPV9LAKQl', 'profileName': 'Luz Mayorly Pineda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258768962955515', 'postTitle': 'Dicen que uno vuelve a lo que lo hizo feliz 🤎 Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate. ¿Ya lo probaste?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767296289015/'}</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1445,24 +1445,24 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258767296289015/</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>La verdad me parecía tan ricos antes de k le cambiarán la fórmula</t>
+          <t>Y la de su hijo cuando sale,o por esa sentencia que la oculten.</t>
         </is>
       </c>
       <c r="G21" s="2" t="n">
-        <v>45987.13459490741</v>
+        <v>45987.12476851852</v>
       </c>
       <c r="H21" s="3" t="n">
         <v>45987</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>03:13:49</t>
+          <t>02:59:40</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1479,7 +1479,7 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02tMcWherFtTTxU8wptBXvSxxjRfXg37KyeXiRjFr3SACcErMUaS7VpVf1UbYPgukpl?comment_id=1111242237572829', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzExMTEyNDIyMzc1NzI4Mjk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xMTExMjQyMjM3NTcyODI5', 'date': '2025-11-26T03:13:49.000Z', 'text': 'La verdad me parecía tan ricos antes de k le cambiarán la fórmula', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/374574761_6778927545492943_8801407896077667905_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VMx9gIcyfpkQ7kNvwGtI2MI&amp;_nc_oc=AdkAuoVLpu26Jtlm9lhyNi7nvrnorwDI3kNVNHxRxMHB-3AdYouOY23dmnGe7nMk4fo&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=jeOf_I2tpue2Jjw8T30xaA&amp;oh=00_AfgDhx7lR0_2WGzW60XQPVGSJVGo0VQdqmPxKvKh9TBudA&amp;oe=692E3837', 'profileId': 'pfbid08r6Xhq67UyViTpqedaRZfbMSfM9hnAgrAfm9x18LTL82GHPhhUpewxjg2GkA9D7gl', 'profileName': 'Rodriguez Paola', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767296289015/', 'commentUrl': 'https://www.facebook.com/reel/1837323323843066/?comment_id=1995575221176205', 'id': 'Y29tbWVudDoxMjU4NzY4OTYyOTU1NTE1XzE5OTU1NzUyMjExNzYyMDU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2ODk2Mjk1NTUxNV8xOTk1NTc1MjIxMTc2MjA1', 'date': '2025-11-26T02:59:40.000Z', 'text': 'Y la de su hijo cuando sale,o por esa sentencia que la oculten.', 'profileUrl': 'https://www.facebook.com/people/Maria-Alejo/pfbid0dD26NtBkGJfJo9MkRJ5usj5QWURaJiQp672SowsmGUCqxEXF5WbE544oswK1V5T1l/', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t1.6435-1/118594516_1604675779692468_1002436422543398699_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=xK60Fqw391MQ7kNvwEpY7ck&amp;_nc_oc=AdnZxXVK5Mxd7QVPbcDEUYjiYJc9qe_-2lupvqkVH4BJj29WJtHT3VY3H-NPELvGNbQ&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=KAy49yCAs2t9U14FOhBw4A&amp;oh=00_Afia4xU51k4Xt-yR0OjLpVcIxKSCkAckSxfGI6ZggMPUsA&amp;oe=69511829', 'profileId': 'pfbid0dD26NtBkGJfJo9MkRJ5usj5QWURaJiQp672SowsmGUCqxEXF5WbE544oswK1V5T1l', 'profileName': 'Maria Alejo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258768962955515', 'postTitle': 'Dicen que uno vuelve a lo que lo hizo feliz 🤎 Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate. ¿Ya lo probaste?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767296289015/'}</t>
         </is>
       </c>
     </row>
@@ -1505,23 +1505,23 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ALPINA es una de las empresas más sobrevaloradas de Colombia.</t>
+          <t>Siempre será mí favorito el de Chococrispis.</t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>45986.94621527778</v>
+        <v>45989.14309027778</v>
       </c>
       <c r="H22" s="3" t="n">
-        <v>45986</v>
+        <v>45989</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>22:42:33</t>
+          <t>03:26:03</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -1533,7 +1533,7 @@
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02tMcWherFtTTxU8wptBXvSxxjRfXg37KyeXiRjFr3SACcErMUaS7VpVf1UbYPgukpl?comment_id=1392442662241880', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzEzOTI0NDI2NjIyNDE4ODA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xMzkyNDQyNjYyMjQxODgw', 'date': '2025-11-25T22:42:33.000Z', 'text': 'ALPINA es una de las empresas más sobrevaloradas de Colombia.', 'profileUrl': 'https://www.facebook.com/VicDOS', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/450390302_10231664043128242_8364514855999038466_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=4bYCjrQqrV4Q7kNvwHoLBGJ&amp;_nc_oc=AdnOLI46xIGxGX1jaZNg843Eko7jg02i6LrWZjn9MMOygitT03Y4AB04DY-Qoo_0oho&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=jeOf_I2tpue2Jjw8T30xaA&amp;oh=00_AfiFdWQbhp2fbM5DG5Uuukdv4mk6k27uhi6uZLD5N8fDuw&amp;oe=692E02EA', 'profileId': 'pfbid0kaU3oewSDrNV8wYd3PP3bBXQKgQi5H4g9d4EhbzgXaJGvkpu8G1d9zmkE5ztcR5Sl', 'profileName': 'Daniel Alzate', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0pL1oDqehDXa2onXQuju8i31LSdFWah9DR9kePWfj32xPDN28L9entZAoERRgz7cSl?comment_id=692017943704749', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzY5MjAxNzk0MzcwNDc0OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM182OTIwMTc5NDM3MDQ3NDk=', 'date': '2025-11-28T03:26:03.000Z', 'text': 'Siempre será mí favorito el de Chococrispis.', 'profilePicture': 'https://scontent.fphl1-1.fna.fbcdn.net/v/t1.6435-1/56334624_10156935558342278_6009051691150737408_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=T_5l2-3J5kkQ7kNvwEBHHTl&amp;_nc_oc=AdlERBBe76yytzebibjgIfTy3lIU9iR1hJdscevFT3GSs99_u2CjzPpPcF-Q2ZfNOmE&amp;_nc_zt=24&amp;_nc_ht=scontent.fphl1-1.fna&amp;_nc_gid=FYxErsMjeaXnekJl-yqQPA&amp;oh=00_Afin8lvQUOzgcwHFsfi5epeTF_2NmysA0ukFSxr6pT5xNA&amp;oe=6950FFA0', 'profileId': 'pfbid0pbxZgCCgvDHb1ccFNih151eGJbJwyKeT5uFHsppNeejoLaXWqGinWZdre5dNhf5Xl', 'profileName': 'Juan Pablo Granados', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
         </is>
       </c>
     </row>
@@ -1559,18 +1559,18 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>777</t>
+          <t>Perfecto!!!!❤️</t>
         </is>
       </c>
       <c r="G23" s="2" t="n">
-        <v>45986.03282407407</v>
+        <v>45986.14260416666</v>
       </c>
       <c r="H23" s="3" t="n">
         <v>45986</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>00:47:16</t>
+          <t>03:25:21</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1587,7 +1587,7 @@
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02tMcWherFtTTxU8wptBXvSxxjRfXg37KyeXiRjFr3SACcErMUaS7VpVf1UbYPgukpl?comment_id=819552860968519', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzgxOTU1Mjg2MDk2ODUxOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM184MTk1NTI4NjA5Njg1MTk=', 'date': '2025-11-25T00:47:16.000Z', 'text': '777', 'profileUrl': 'https://www.facebook.com/margarita.gomezanichiarico', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/587685997_4328783527405986_1754626108380108900_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RdGfAUIoJjYQ7kNvwHS-NrR&amp;_nc_oc=Adnpd4x5dTgEBlyQ6qb26VzbJRQ2CFsL072TfEJdFoH_gzNJJl6SgvpvBIzntSfgd1M&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=jeOf_I2tpue2Jjw8T30xaA&amp;oh=00_AfgRqf1o-l2CGnuxRwFMiz2gyNiDDC7PVsGwqwDNa8wkDg&amp;oe=692E0727', 'profileId': 'pfbid02yGejpci2vvJU3EUykK5nmexZ9F4krfc8r5Y1DssaH2ntx1Vis6TmgKh2CYwDA9wKl', 'profileName': 'Margarita Gomez Anichiarico', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0pL1oDqehDXa2onXQuju8i31LSdFWah9DR9kePWfj32xPDN28L9entZAoERRgz7cSl?comment_id=1952455178667084', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzE5NTI0NTUxNzg2NjcwODQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xOTUyNDU1MTc4NjY3MDg0', 'date': '2025-11-25T03:25:21.000Z', 'text': 'Perfecto!!!!❤️', 'profileUrl': 'https://www.facebook.com/rosa.lopez.92754397', 'profilePicture': 'https://scontent.fphl1-1.fna.fbcdn.net/v/t39.30808-1/417102719_10225249911019485_6080224190762171653_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zLsa44_thNYQ7kNvwEdwLfw&amp;_nc_oc=Adl9khu19Oeh54U3a0HhCZjhZhX9FXMUPpKP3IRfA-77ZvC-6dpoInzI7uWnyUSC1W4&amp;_nc_zt=24&amp;_nc_ht=scontent.fphl1-1.fna&amp;_nc_gid=FYxErsMjeaXnekJl-yqQPA&amp;oh=00_AfiHVZyJIOuUuGeiBBwIpEO9KgHVuNy3BtH2Tq4p9cwY2g&amp;oe=692F7472', 'profileId': 'pfbid0Kh9U6S14jQevAGhdv6dv2iUmsmXsnPv8pLYJVC5V3jMtBk8k44JPgMm5fPmWBWWVl', 'profileName': 'Rosa Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
         </is>
       </c>
     </row>
@@ -1613,23 +1613,23 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Es verdad</t>
+          <t>Antes de conocer la diabetes eras mi snack favorito y como a alpina LE QUEDO GRANDE sacar productos saludables....... Paila!</t>
         </is>
       </c>
       <c r="G24" s="2" t="n">
-        <v>45986.04137731482</v>
+        <v>45986.05385416667</v>
       </c>
       <c r="H24" s="3" t="n">
         <v>45986</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>00:59:35</t>
+          <t>01:17:33</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K24" t="n">
@@ -1641,7 +1641,7 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02tMcWherFtTTxU8wptBXvSxxjRfXg37KyeXiRjFr3SACcErMUaS7VpVf1UbYPgukpl?comment_id=1576500203505837', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzE1NzY1MDAyMDM1MDU4Mzc=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xNTc2NTAwMjAzNTA1ODM3', 'date': '2025-11-25T00:59:35.000Z', 'text': 'Es verdad', 'profileUrl': 'https://www.facebook.com/marcela.cardonaarenas', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/366735909_10225820803680965_1972811500240780147_n.jpg?stp=c0.0.655.655a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=dhnkMyo700YQ7kNvwGFPvxf&amp;_nc_oc=AdmJlVdLhQ6nvJDqDg33g9jp7l6EtpRg26bwMTpu1_lj7vZBtOYUoEGKcJseczUyWtM&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=jeOf_I2tpue2Jjw8T30xaA&amp;oh=00_AfjkFenFj6L7Y5QRfAt5wYWaRFl0eWx9Wj32YTjDCR9sjQ&amp;oe=692E0F23', 'profileId': '1058529844', 'profileName': 'Marce Cardona Arenas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0pL1oDqehDXa2onXQuju8i31LSdFWah9DR9kePWfj32xPDN28L9entZAoERRgz7cSl?comment_id=1520253749021206', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzE1MjAyNTM3NDkwMjEyMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xNTIwMjUzNzQ5MDIxMjA2', 'date': '2025-11-25T01:17:33.000Z', 'text': 'Antes de conocer la diabetes eras mi snack favorito y como a alpina LE QUEDO GRANDE sacar productos saludables....... Paila!', 'profileUrl': 'https://www.facebook.com/tommy.gil.martinez', 'profilePicture': 'https://scontent.fphl1-1.fna.fbcdn.net/v/t39.30808-1/503591956_122242588190081472_2905184460418413153_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=IK1-3-S0YRkQ7kNvwGeUTPT&amp;_nc_oc=Adle9S_QAVP9y_3Sy_-MxyJQX26FVPXNbjJ_EjOe5JXTT8mGHNAiUt_H2UFIFIOknYk&amp;_nc_zt=24&amp;_nc_ht=scontent.fphl1-1.fna&amp;_nc_gid=FYxErsMjeaXnekJl-yqQPA&amp;oh=00_AfjNC1q22x13un5lBRGsmL137Icin6Sw_mBmXb1K9plDwg&amp;oe=692F8130', 'profileId': '61552444185822', 'profileName': 'Tommy Gil Martinez', 'likesCount': '22', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
         </is>
       </c>
     </row>
@@ -1667,23 +1667,23 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Medio vaso de yogur, 6 morenitas, la calidad del yogur baja y el precio alto 🤦🏼‍♀️</t>
+          <t>No han pensado en mejorar la fórmula? Para mi gusto es muy aguado, poco  y demasiado dulce.</t>
         </is>
       </c>
       <c r="G25" s="2" t="n">
-        <v>45986.84585648148</v>
+        <v>45985.91405092592</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>45986</v>
+        <v>45985</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>20:18:02</t>
+          <t>21:56:14</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K25" t="n">
@@ -1695,7 +1695,7 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02tMcWherFtTTxU8wptBXvSxxjRfXg37KyeXiRjFr3SACcErMUaS7VpVf1UbYPgukpl?comment_id=1382018550229999', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzEzODIwMTg1NTAyMjk5OTk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xMzgyMDE4NTUwMjI5OTk5', 'date': '2025-11-25T20:18:02.000Z', 'text': 'Medio vaso de yogur, 6 morenitas, la calidad del yogur baja y el precio alto 🤦🏼\u200d♀️', 'profileUrl': 'https://www.facebook.com/ginamarcela.henao', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/536270859_10239294931008962_4303037549656228839_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=WKvyZ3HM2t8Q7kNvwFkGVwu&amp;_nc_oc=AdmjVu394UHiWYoPPrEQKxcN3N8KcoDrdrb195verX2d9UMKz218jjVL7TGnaIiRuzo&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=jeOf_I2tpue2Jjw8T30xaA&amp;oh=00_AfjwbdgE6M4f4A0cA2UxDit6TEW42iQZLPIOsJMY3pKf0Q&amp;oe=692E2362', 'profileId': 'pfbid02XkdsVJBPWJGWuTDx5uvx11kpRgKp7neW8WELo3uXzwa5neszPYzYVQHXHDJWENUYl', 'profileName': 'Gina Marcela Henao', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0pL1oDqehDXa2onXQuju8i31LSdFWah9DR9kePWfj32xPDN28L9entZAoERRgz7cSl?comment_id=1192728072737622', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzExOTI3MjgwNzI3Mzc2MjI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xMTkyNzI4MDcyNzM3NjIy', 'date': '2025-11-24T21:56:14.000Z', 'text': 'No han pensado en mejorar la fórmula? Para mi gusto es muy aguado, poco  y demasiado dulce.', 'profilePicture': 'https://scontent.fphl1-1.fna.fbcdn.net/v/t39.30808-1/568709187_2931465163703246_6852048957085631156_n.jpg?stp=c0.263.1283.1283a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=g6QWZvRqbnAQ7kNvwHpzbYF&amp;_nc_oc=AdkQeUB5uBx7QD4NNWgUwM-3Ya8QkOBbUsK65iq0RnA82ArZQ2MXt2jQ1LB03RTrLd4&amp;_nc_zt=24&amp;_nc_ht=scontent.fphl1-1.fna&amp;_nc_gid=FYxErsMjeaXnekJl-yqQPA&amp;oh=00_AfiFZeoOlT19FOoEmJO1ONM4XWlWxa5xvf1p3TgqPhpO7w&amp;oe=692F67E7', 'profileId': 'pfbid02Fx9NzWSidWCV3cqMRyoCeLBpU5LprEYBp1RD7RcgZx4u8G1yMwwkv3YaKXGiCaLzl', 'profileName': 'Maricela Uribe Acero', 'likesCount': '23', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
         </is>
       </c>
     </row>
@@ -1721,18 +1721,18 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Hoy toca probar uno cada 6 meses😂 se volvieron intocables y pequeños</t>
+          <t>La verdad me parecía tan ricos antes de k le cambiarán la fórmula</t>
         </is>
       </c>
       <c r="G26" s="2" t="n">
-        <v>45987.11472222222</v>
+        <v>45987.13459490741</v>
       </c>
       <c r="H26" s="3" t="n">
         <v>45987</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>02:45:12</t>
+          <t>03:13:49</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1749,7 +1749,7 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02tMcWherFtTTxU8wptBXvSxxjRfXg37KyeXiRjFr3SACcErMUaS7VpVf1UbYPgukpl?comment_id=845111814882138', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzg0NTExMTgxNDg4MjEzOA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM184NDUxMTE4MTQ4ODIxMzg=', 'date': '2025-11-26T02:45:12.000Z', 'text': 'Hoy toca probar uno cada 6 meses😂 se volvieron intocables y pequeños', 'profileUrl': 'https://www.facebook.com/alex.moreno.412286', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t1.6435-1/145147494_712955466259155_307990092778565359_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=akmw-IJDUl0Q7kNvwHktjm2&amp;_nc_oc=AdnrVyUaGkSPyp5eRWJiSV-VR3R0bqsr-qwe8eg9pPHoR7IXu3MvMdvfjUiwDXodUkI&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=jeOf_I2tpue2Jjw8T30xaA&amp;oh=00_Afg0Lyw9zfV_pvawLUYX138cabem2aiqybQWcKzEVXIwIQ&amp;oe=694FC588', 'profileId': 'pfbid02ictSDf7fHZiybrG4A3KtSG4QERTRpFF8JycXkTgPcSb2RtwXbHvGFDUxM6q4hjUVl', 'profileName': 'Alex Moreno', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0pL1oDqehDXa2onXQuju8i31LSdFWah9DR9kePWfj32xPDN28L9entZAoERRgz7cSl?comment_id=1111242237572829', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzExMTEyNDIyMzc1NzI4Mjk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xMTExMjQyMjM3NTcyODI5', 'date': '2025-11-26T03:13:49.000Z', 'text': 'La verdad me parecía tan ricos antes de k le cambiarán la fórmula', 'profilePicture': 'https://scontent.fphl1-1.fna.fbcdn.net/v/t39.30808-1/374574761_6778927545492943_8801407896077667905_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VMx9gIcyfpkQ7kNvwEuZ33h&amp;_nc_oc=AdnGvIDqNdtanV_USG4Hpq7zg4bepZkfd2L_YZWPvfrEwOEHJjoU2jv-IGKz4JPes0U&amp;_nc_zt=24&amp;_nc_ht=scontent.fphl1-1.fna&amp;_nc_gid=FYxErsMjeaXnekJl-yqQPA&amp;oh=00_AfiVZt8gePKsK6POzehPGqWG2EDyfHmmlA4xxWkt940TwA&amp;oe=692F89B7', 'profileId': 'pfbid02ChYEtW1wLQCH38GVdpCZ6ehUVAbc9j8tohWHwvMvvquvRi6iCFLAuexgK3iBuUGYl', 'profileName': 'Rodriguez Paola', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
         </is>
       </c>
     </row>
@@ -1775,18 +1775,18 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Cuando valía 300 pesos</t>
+          <t>Se pasan! 🤤</t>
         </is>
       </c>
       <c r="G27" s="2" t="n">
-        <v>45986.00526620371</v>
+        <v>45989.150625</v>
       </c>
       <c r="H27" s="3" t="n">
-        <v>45986</v>
+        <v>45989</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>00:07:35</t>
+          <t>03:36:54</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1803,7 +1803,7 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02tMcWherFtTTxU8wptBXvSxxjRfXg37KyeXiRjFr3SACcErMUaS7VpVf1UbYPgukpl?comment_id=1475494833548118', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzE0NzU0OTQ4MzM1NDgxMTg=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xNDc1NDk0ODMzNTQ4MTE4', 'date': '2025-11-25T00:07:35.000Z', 'text': 'Cuando valía 300 pesos', 'profileUrl': 'https://www.facebook.com/jimmymauricio.valenciagarcia', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/462255160_8717554801641125_175399083759338104_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=E59hmgqvb2EQ7kNvwEW9JYX&amp;_nc_oc=AdkcW3Nrkg5GbfUOr8PddAh0qePfoIcpUwXdIG4ez81ldbC8uzDcDgCH2sSivLLqOvk&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=jeOf_I2tpue2Jjw8T30xaA&amp;oh=00_AfhZwWSUUSeq7MdEY-cwVDjwxrGjo5c29RjS_AKO0PQjvQ&amp;oe=692E1074', 'profileId': '100001600746705', 'profileName': 'Jm Valencia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0pL1oDqehDXa2onXQuju8i31LSdFWah9DR9kePWfj32xPDN28L9entZAoERRgz7cSl?comment_id=1757385708284353', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzE3NTczODU3MDgyODQzNTM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xNzU3Mzg1NzA4Mjg0MzUz', 'date': '2025-11-28T03:36:54.000Z', 'text': 'Se pasan! 🤤', 'profilePicture': 'https://scontent.fphl1-1.fna.fbcdn.net/v/t39.30808-1/499943291_10163063338834539_2555238479091995470_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=JC8u2rOx-2YQ7kNvwG3zqSY&amp;_nc_oc=AdmojN6wW-GBaSFi1H2PC7ZgSGufxGQxeJbL1bnLKpV_Y10ZwKNnSo4kMoXQF4wjMjo&amp;_nc_zt=24&amp;_nc_ht=scontent.fphl1-1.fna&amp;_nc_gid=FYxErsMjeaXnekJl-yqQPA&amp;oh=00_AfhVbb-_ZQpZpMQO01zdmrQrsbVvj0XhlyKMrIe9bXyuJw&amp;oe=692F554A', 'profileId': 'pfbid02g3beo5fwtEFyNNqfSsEeU6JM5ccoufRZApMCyXRL6U8JUFYR3BTKSHqyoUaXT9Ecl', 'profileName': 'Estefania Giraldo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
         </is>
       </c>
     </row>
@@ -1829,23 +1829,23 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Caro y feo 🙈🙈🙈</t>
+          <t>ALPINA es una de las empresas más sobrevaloradas de Colombia.</t>
         </is>
       </c>
       <c r="G28" s="2" t="n">
-        <v>45987.20652777778</v>
+        <v>45986.94621527778</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>45987</v>
+        <v>45986</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>04:57:24</t>
+          <t>22:42:33</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K28" t="n">
@@ -1857,7 +1857,7 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02tMcWherFtTTxU8wptBXvSxxjRfXg37KyeXiRjFr3SACcErMUaS7VpVf1UbYPgukpl?comment_id=874050021630534', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzg3NDA1MDAyMTYzMDUzNA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM184NzQwNTAwMjE2MzA1MzQ=', 'date': '2025-11-26T04:57:24.000Z', 'text': 'Caro y feo 🙈🙈🙈', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/339934306_1281052579284231_2407755968004920347_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=ASeepM-FfA8Q7kNvwGeOcl7&amp;_nc_oc=AdkPqyJbZO0IH-0Q4_ckQ5Ur6SQd1OItSmfYNxZdNRLQUR7BYh0JqEBfFq_tW3KqZi0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=zJnARSmICRGzyA1oFaRk_A&amp;oh=00_AfjpsCYtUqG_E6LWSscgXTOGMhBFPYfoc9ZoQafJ3GcPbQ&amp;oe=692E31BB', 'profileId': '647105731', 'profileName': 'Tatiana Alford', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0pL1oDqehDXa2onXQuju8i31LSdFWah9DR9kePWfj32xPDN28L9entZAoERRgz7cSl?comment_id=1392442662241880', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzEzOTI0NDI2NjIyNDE4ODA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xMzkyNDQyNjYyMjQxODgw', 'date': '2025-11-25T22:42:33.000Z', 'text': 'ALPINA es una de las empresas más sobrevaloradas de Colombia.', 'profileUrl': 'https://www.facebook.com/VicDOS', 'profilePicture': 'https://scontent.fphl1-1.fna.fbcdn.net/v/t39.30808-1/450390302_10231664043128242_8364514855999038466_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=4bYCjrQqrV4Q7kNvwHkRUv-&amp;_nc_oc=AdkR3JSDeGHFrj6B-zV8QeCY3k3ppN5IengGGDp9tO01BPDryjaGf9jDBiZV8uMTjQk&amp;_nc_zt=24&amp;_nc_ht=scontent.fphl1-1.fna&amp;_nc_gid=FYxErsMjeaXnekJl-yqQPA&amp;oh=00_Afibh-sfJNgzvKESjxNwXIodEbnSVx6SouQiOkUYDRfFDQ&amp;oe=692F546A', 'profileId': 'pfbid02pRukzKsG5J53kkjwLNegbEuroQcX2fQztde5HyEFm4Ncr5tueZkkANLFt2UNzJjWl', 'profileName': 'Daniel Alzate', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
         </is>
       </c>
     </row>
@@ -1883,23 +1883,23 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Elaine Ramírez 🤤</t>
+          <t>777</t>
         </is>
       </c>
       <c r="G29" s="2" t="n">
-        <v>45987.14193287037</v>
+        <v>45986.03282407407</v>
       </c>
       <c r="H29" s="3" t="n">
-        <v>45987</v>
+        <v>45986</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>03:24:23</t>
+          <t>00:47:16</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K29" t="n">
@@ -1911,7 +1911,7 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02tMcWherFtTTxU8wptBXvSxxjRfXg37KyeXiRjFr3SACcErMUaS7VpVf1UbYPgukpl?comment_id=813744634893571', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzgxMzc0NDYzNDg5MzU3MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM184MTM3NDQ2MzQ4OTM1NzE=', 'date': '2025-11-26T03:24:23.000Z', 'text': 'Elaine Ramírez 🤤', 'profileUrl': 'https://www.facebook.com/elys.delahozramirez', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/509432194_732906435772345_791327506062062845_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=55HiSQcJickQ7kNvwF2hEXB&amp;_nc_oc=Adlo3x_ZIptEtbvte3KeEANP6UU6zfQchdN0v-hf46G4OvvAKQ83-TYpbEhxDLNe_qA&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=zJnARSmICRGzyA1oFaRk_A&amp;oh=00_Afh1t6m_h7nxU3jx2b4_CCPBbUE0xxIZXCMDBwrPw4MqNA&amp;oe=692E02BC', 'profileId': 'pfbid0WykadDtBNqRBrqK2BfYhqWHusRyqxUrovUxp9ZfYGxYBzGvbdUy7tnJunWbdptjgl', 'profileName': 'Kathe Ramiirez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0pL1oDqehDXa2onXQuju8i31LSdFWah9DR9kePWfj32xPDN28L9entZAoERRgz7cSl?comment_id=819552860968519', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzgxOTU1Mjg2MDk2ODUxOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM184MTk1NTI4NjA5Njg1MTk=', 'date': '2025-11-25T00:47:16.000Z', 'text': '777', 'profileUrl': 'https://www.facebook.com/margarita.gomezanichiarico', 'profilePicture': 'https://scontent.fphl1-1.fna.fbcdn.net/v/t39.30808-1/587685997_4328783527405986_1754626108380108900_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-X6lD5bCUzsQ7kNvwE8cC1L&amp;_nc_oc=AdkCbLevFGZ3Np52I2at0xRwKpuHQedpR_8WJEqRAj3HXPJX2inEJwYXu3ZT_ZFYTYc&amp;_nc_zt=24&amp;_nc_ht=scontent.fphl1-1.fna&amp;_nc_gid=FYxErsMjeaXnekJl-yqQPA&amp;oh=00_AfjzR-AUyWIrGlp9hKB6kbo2ZQYcBg7-F1h7JIprZAcpkA&amp;oe=692F58A7', 'profileId': 'pfbid0uj1YuT5g5fZqB9MvWyBjAWud6SnAksLzuSmK2UcLA2JAzgYUKc3tTWGRUBuP4wJ7l', 'profileName': 'Margarita Gomez Anichiarico', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
         </is>
       </c>
     </row>
@@ -1937,23 +1937,23 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Y la propaganda si quedo bien,, con ese precio ni uno se puede probar</t>
+          <t>Es verdad</t>
         </is>
       </c>
       <c r="G30" s="2" t="n">
-        <v>45985.78459490741</v>
+        <v>45986.04137731482</v>
       </c>
       <c r="H30" s="3" t="n">
-        <v>45985</v>
+        <v>45986</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>18:49:49</t>
+          <t>00:59:35</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K30" t="n">
@@ -1965,7 +1965,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02tMcWherFtTTxU8wptBXvSxxjRfXg37KyeXiRjFr3SACcErMUaS7VpVf1UbYPgukpl?comment_id=25132294313095996', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzI1MTMyMjk0MzEzMDk1OTk2', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18yNTEzMjI5NDMxMzA5NTk5Ng==', 'date': '2025-11-24T18:49:49.000Z', 'text': 'Y la propaganda si quedo bien,, con ese precio ni uno se puede probar', 'profileUrl': 'https://www.facebook.com/angelica.cardona.5872', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/505233924_3997357573853243_9123692372587398049_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=e-vuBr4XnskQ7kNvwFo_mny&amp;_nc_oc=AdkRphFlgQGC3Ypaq4y_O0v6UErSfk-9k9g6cNlJZfLST-t-p3IbNZvCQFZCXNUtU4E&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=zJnARSmICRGzyA1oFaRk_A&amp;oh=00_Afj72v-1ZZHywuqw1p_Cf2oRb-kQxiuLUAK9eB1rcEjluQ&amp;oe=692E04A5', 'profileId': 'pfbid02gucggfhdEpQRysWaF8sTgH8o2SFqxhYhQYfyKATJaNDKKWrp5ofLGGvsZnLuchfPl', 'profileName': 'Angelica Cardona', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0pL1oDqehDXa2onXQuju8i31LSdFWah9DR9kePWfj32xPDN28L9entZAoERRgz7cSl?comment_id=1576500203505837', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzE1NzY1MDAyMDM1MDU4Mzc=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xNTc2NTAwMjAzNTA1ODM3', 'date': '2025-11-25T00:59:35.000Z', 'text': 'Es verdad', 'profileUrl': 'https://www.facebook.com/marcela.cardonaarenas', 'profilePicture': 'https://scontent.fphl1-1.fna.fbcdn.net/v/t39.30808-1/366735909_10225820803680965_1972811500240780147_n.jpg?stp=c0.0.655.655a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=dhnkMyo700YQ7kNvwH8lETf&amp;_nc_oc=AdkMl79o26QJMYi9FYNyamF1VAlcYJZ6yxMV8oZd78ytJI2Fm-QhWnm1WS1iW1nAyxw&amp;_nc_zt=24&amp;_nc_ht=scontent.fphl1-1.fna&amp;_nc_gid=FYxErsMjeaXnekJl-yqQPA&amp;oh=00_AfjzTLP2E9VGlx8SFawsinqSvYe1udu7HohjzD3ETuPMRw&amp;oe=692F60A3', 'profileId': '1058529844', 'profileName': 'Marce Cardona Arenas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
         </is>
       </c>
     </row>
@@ -1991,23 +1991,23 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Bofff</t>
+          <t>Medio vaso de yogur, 6 morenitas, la calidad del yogur baja y el precio alto 🤦🏼‍♀️</t>
         </is>
       </c>
       <c r="G31" s="2" t="n">
-        <v>45987.22006944445</v>
+        <v>45986.84585648148</v>
       </c>
       <c r="H31" s="3" t="n">
-        <v>45987</v>
+        <v>45986</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>05:16:54</t>
+          <t>20:18:02</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K31" t="n">
@@ -2019,7 +2019,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02tMcWherFtTTxU8wptBXvSxxjRfXg37KyeXiRjFr3SACcErMUaS7VpVf1UbYPgukpl?comment_id=25039922978949409', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzI1MDM5OTIyOTc4OTQ5NDA5', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18yNTAzOTkyMjk3ODk0OTQwOQ==', 'date': '2025-11-26T05:16:54.000Z', 'text': 'Bofff', 'profileUrl': 'https://www.facebook.com/daniela.motato.670111', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/516520495_122137512200793689_7086044033064241675_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=qAnapcoVbdQQ7kNvwGfynoc&amp;_nc_oc=AdnosNh6FkSNQPcuDvSy5A1zOfXaTVi63jCWOQ2B1eyGlAy-LP0UKHXpClqqPYoATyI&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=zJnARSmICRGzyA1oFaRk_A&amp;oh=00_AfglMuVm_T3KFWK9R6x80ooHjbMGNsymqCYHm3wZF7mlOQ&amp;oe=692E1D3E', 'profileId': '61573810682867', 'profileName': 'Motita D Dani', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0pL1oDqehDXa2onXQuju8i31LSdFWah9DR9kePWfj32xPDN28L9entZAoERRgz7cSl?comment_id=1382018550229999', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzEzODIwMTg1NTAyMjk5OTk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xMzgyMDE4NTUwMjI5OTk5', 'date': '2025-11-25T20:18:02.000Z', 'text': 'Medio vaso de yogur, 6 morenitas, la calidad del yogur baja y el precio alto 🤦🏼\u200d♀️', 'profileUrl': 'https://www.facebook.com/ginamarcela.henao', 'profilePicture': 'https://scontent.fphl1-1.fna.fbcdn.net/v/t39.30808-1/536270859_10239294931008962_4303037549656228839_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=WKvyZ3HM2t8Q7kNvwGTdrt0&amp;_nc_oc=Adm1NE_ysvEIxqzFvHDRPbp5BhgEUKY2TEojHp2RrqseCiICJrFMdNzfTvjbxv-HNsw&amp;_nc_zt=24&amp;_nc_ht=scontent.fphl1-1.fna&amp;_nc_gid=FYxErsMjeaXnekJl-yqQPA&amp;oh=00_AfgTsu2kJl2R5ltMeaGOokt37BxjTSC9_EnJV0G9ypPYBw&amp;oe=692F74E2', 'profileId': 'pfbid0UCzga8Z2fC1QVCv8u8VKsM7JTxNduWLCjGYqQVRVxy55NZ2o79HCi8ARNZhaAKMMl', 'profileName': 'Gina Marcela Henao', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
         </is>
       </c>
     </row>
@@ -2045,18 +2045,18 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>No, porque es una estafa, solo empaque y bien costoso</t>
+          <t>Hoy toca probar uno cada 6 meses😂 se volvieron intocables y pequeños</t>
         </is>
       </c>
       <c r="G32" s="2" t="n">
-        <v>45985.94050925926</v>
+        <v>45987.11472222222</v>
       </c>
       <c r="H32" s="3" t="n">
-        <v>45985</v>
+        <v>45987</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>22:34:20</t>
+          <t>02:45:12</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2073,7 +2073,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02tMcWherFtTTxU8wptBXvSxxjRfXg37KyeXiRjFr3SACcErMUaS7VpVf1UbYPgukpl?comment_id=1260657349235501', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzEyNjA2NTczNDkyMzU1MDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xMjYwNjU3MzQ5MjM1NTAx', 'date': '2025-11-24T22:34:20.000Z', 'text': 'No, porque es una estafa, solo empaque y bien costoso', 'profileUrl': 'https://www.facebook.com/fredy.cotame.2025', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/355876365_272551848766724_9175721193928506431_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=42qAS0KEOWUQ7kNvwEEtfs6&amp;_nc_oc=AdkWnjWDOnd-IPjtuCq5mviOsyABqWZZDK2rBB7zeCdpn6xY0UJ94SR0XjDan4StZF0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=zJnARSmICRGzyA1oFaRk_A&amp;oh=00_Afjul4UFi05WSohkWyWKK0Q1BI0RGWwuToAWi8swwy9GpQ&amp;oe=692E0FA2', 'profileId': 'pfbid0cXA4nSRojFCTTQinm8G9rvGCHFP8rhRdfr279xFAjhG9dV6UgiEnysvs8AMbTPeZl', 'profileName': 'Fredy Cotame', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0pL1oDqehDXa2onXQuju8i31LSdFWah9DR9kePWfj32xPDN28L9entZAoERRgz7cSl?comment_id=845111814882138', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzg0NTExMTgxNDg4MjEzOA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM184NDUxMTE4MTQ4ODIxMzg=', 'date': '2025-11-26T02:45:12.000Z', 'text': 'Hoy toca probar uno cada 6 meses😂 se volvieron intocables y pequeños', 'profileUrl': 'https://www.facebook.com/alex.moreno.412286', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t1.6435-1/145147494_712955466259155_307990092778565359_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=akmw-IJDUl0Q7kNvwHReZb-&amp;_nc_oc=AdnLQaKrpAzcouBnLA1oDw32T8Ga1KGjbSH6qvIV1qh8Hcb4_AOCiqNiHEna9Is0duY&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=lu88ourtVGiMbFamlj8M8Q&amp;oh=00_AfgrnFPTj-Aoyrt5HY8V63R67lg-uHMxqS3TTkG9fg7hhw&amp;oe=69511708', 'profileId': 'pfbid0f5FFJVVJSTKsC3uGVrgGYjjQVUfYJDteyjNoBody23wXYhjQHipRfwy4RxSNCLrtl', 'profileName': 'Alex Moreno', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
         </is>
       </c>
     </row>
@@ -2099,18 +2099,18 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Yo compro kumis litros y ojuelas azucaradas marca tigrillo atracardo y resulta que es igual</t>
+          <t>Cuando valía 300 pesos</t>
         </is>
       </c>
       <c r="G33" s="2" t="n">
-        <v>45987.41475694445</v>
+        <v>45986.00526620371</v>
       </c>
       <c r="H33" s="3" t="n">
-        <v>45987</v>
+        <v>45986</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>09:57:15</t>
+          <t>00:07:35</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2127,13 +2127,13 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02tMcWherFtTTxU8wptBXvSxxjRfXg37KyeXiRjFr3SACcErMUaS7VpVf1UbYPgukpl?comment_id=816873427884424', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzgxNjg3MzQyNzg4NDQyNA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM184MTY4NzM0Mjc4ODQ0MjQ=', 'date': '2025-11-26T09:57:15.000Z', 'text': 'Yo compro kumis litros y ojuelas azucaradas marca tigrillo atracardo y resulta que es igual', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-6/589430400_1833125634242127_6273034138670878428_n.jpg?stp=dst-jpg_fb30_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=4P_iCLQ-jUUQ7kNvwG9M8qD&amp;_nc_oc=Adl--BDbW2rpBp9vOAmDhb-DsneHdYA7R2s8sjD4N4VIkNjPOPeSBi81TTkDk10nZiA&amp;_nc_zt=23&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=zJnARSmICRGzyA1oFaRk_A&amp;oh=00_AfgQfoVTMpFnjDE7S2ndKzM4aahxFPYXvEcjNqOJ8frCwg&amp;oe=692E1585'}, 'id': '1833125630908794', 'cix_screen': None, 'massive_image': {'width': 505, 'height': 385}, 'image': {'uri': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-6/589430400_1833125634242127_6273034138670878428_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=4P_iCLQ-jUUQ7kNvwG9M8qD&amp;_nc_oc=Adl--BDbW2rpBp9vOAmDhb-DsneHdYA7R2s8sjD4N4VIkNjPOPeSBi81TTkDk10nZiA&amp;_nc_zt=23&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=zJnARSmICRGzyA1oFaRk_A&amp;oh=00_AfiGamPHEQzC7d8Fc7wk6DlM8jxUQZRA8oDYWUwCdyFuGg&amp;oe=692E1585', 'width': 261, 'height': 199}, 'ocrText': 'No photo description available.'}], 'profileUrl': 'https://www.facebook.com/alex.moreno.412286', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t1.6435-1/145147494_712955466259155_307990092778565359_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=akmw-IJDUl0Q7kNvwGBcUCm&amp;_nc_oc=AdmQpMIXVD1RmIaAQBRRhmnWUeUDpbBavyZ7k9ub7L4ttAbelwx-kDJUK4DaJTHVDJc&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=zJnARSmICRGzyA1oFaRk_A&amp;oh=00_AfgX39xnEkR9t6PwSycScGbS8Jvkh8zbk18YNPUFwKitFQ&amp;oe=694FC588', 'profileId': 'pfbid02ictSDf7fHZiybrG4A3KtSG4QERTRpFF8JycXkTgPcSb2RtwXbHvGFDUxM6q4hjUVl', 'profileName': 'Alex Moreno', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0pL1oDqehDXa2onXQuju8i31LSdFWah9DR9kePWfj32xPDN28L9entZAoERRgz7cSl?comment_id=1475494833548118', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzE0NzU0OTQ4MzM1NDgxMTg=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xNDc1NDk0ODMzNTQ4MTE4', 'date': '2025-11-25T00:07:35.000Z', 'text': 'Cuando valía 300 pesos', 'profileUrl': 'https://www.facebook.com/jimmymauricio.valenciagarcia', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/462255160_8717554801641125_175399083759338104_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=E59hmgqvb2EQ7kNvwFP2LYP&amp;_nc_oc=AdnE_1hKnDgCDvYpLKK4JBD2-lEueFpQg86Ta-yxvYHDwBb9V1r9QBbZfDst6JjOBDU&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=lu88ourtVGiMbFamlj8M8Q&amp;oh=00_AfguLqrKg_ohnAXCEY33y2d-IbQkndroYQ4Dfgp2R99O2w&amp;oe=692F61F4', 'profileId': '100001600746705', 'profileName': 'Jm Valencia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2147,24 +2147,24 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Tan bueno.</t>
+          <t>Caro y feo 🙈🙈🙈</t>
         </is>
       </c>
       <c r="G34" s="2" t="n">
-        <v>45986.09997685185</v>
+        <v>45987.20652777778</v>
       </c>
       <c r="H34" s="3" t="n">
-        <v>45986</v>
+        <v>45987</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>02:23:58</t>
+          <t>04:57:24</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2181,13 +2181,13 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1388063563103759', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzODgwNjM1NjMxMDM3NTk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzg4MDYzNTYzMTAzNzU5', 'date': '2025-11-25T02:23:58.000Z', 'text': 'Tan bueno.', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t1.6435-1/163069213_1667788816742137_1108665802889185616_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=GURBjoSIphMQ7kNvwEzhHQA&amp;_nc_oc=AdlIHjKxS6y_lhRhZymQ82ikqImWyONiMPQRgAOjiJStRBHbVhL0d9HecCUgDsSRkdM&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=BKcJ-G6MspRh7uHKZUGg4w&amp;oh=00_AfgGVCFD7Zhoigcnk0sphlMTF971JR8NkFzpHjfuA58t1Q&amp;oe=694FCD94', 'profileId': 'pfbid02EVWMtCtHJb5A4nkP7GgNRBxEVhtDxemvnQ11YYteHPsXY9RveEKn8awAvscMfTwvl', 'profileName': 'Jaker Albeiro Salvaje Cuartas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0pL1oDqehDXa2onXQuju8i31LSdFWah9DR9kePWfj32xPDN28L9entZAoERRgz7cSl?comment_id=874050021630534', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzg3NDA1MDAyMTYzMDUzNA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM184NzQwNTAwMjE2MzA1MzQ=', 'date': '2025-11-26T04:57:24.000Z', 'text': 'Caro y feo 🙈🙈🙈', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/339934306_1281052579284231_2407755968004920347_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=ASeepM-FfA8Q7kNvwF65uRv&amp;_nc_oc=AdmCqKZMLqbA1Q72_OWgYCsxOugIjGC6QXq72xzRkMskMqphKXQwN_SUjEdkWyfKyjI&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=lu88ourtVGiMbFamlj8M8Q&amp;oh=00_AfiyyDgh3zCmvGGLjKDAe84xkLCJHqvLf2Y6wlvu55cyqQ&amp;oe=692F833B', 'profileId': '647105731', 'profileName': 'Tatiana Alford', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2201,29 +2201,29 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Con esos precios na  gracias lo hago en casa me sale más barato  y más rico</t>
+          <t>Elaine Ramírez 🤤</t>
         </is>
       </c>
       <c r="G35" s="2" t="n">
-        <v>45986.50646990741</v>
+        <v>45987.14193287037</v>
       </c>
       <c r="H35" s="3" t="n">
-        <v>45986</v>
+        <v>45987</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>12:09:19</t>
+          <t>03:24:23</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K35" t="n">
@@ -2235,13 +2235,13 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=2045961822830627', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIwNDU5NjE4MjI4MzA2Mjc=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMDQ1OTYxODIyODMwNjI3', 'date': '2025-11-25T12:09:19.000Z', 'text': 'Con esos precios na  gracias lo hago en casa me sale más barato  y más rico', 'profileUrl': 'https://www.facebook.com/david.fonk.913866', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/518197090_2028931904546235_7435092837846065560_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=124HZennl9MQ7kNvwGpb51W&amp;_nc_oc=AdnPOPs2Oodh8Mciq41wxcoxMktF4XjQ9Fhr7YTJnZKfSFCYgt5Gi5lap76Ca7A0jTY&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=BKcJ-G6MspRh7uHKZUGg4w&amp;oh=00_Afgxe_srj_JLOYx5DZvavwTeu7V-BbpqSdfhZrJ0x3GouQ&amp;oe=692E2681', 'profileId': '100022883357945', 'profileName': 'David Fonk', 'likesCount': '10', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0pL1oDqehDXa2onXQuju8i31LSdFWah9DR9kePWfj32xPDN28L9entZAoERRgz7cSl?comment_id=813744634893571', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzgxMzc0NDYzNDg5MzU3MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM184MTM3NDQ2MzQ4OTM1NzE=', 'date': '2025-11-26T03:24:23.000Z', 'text': 'Elaine Ramírez 🤤', 'profileUrl': 'https://www.facebook.com/elys.delahozramirez', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/509432194_732906435772345_791327506062062845_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=55HiSQcJickQ7kNvwGUTP7K&amp;_nc_oc=AdlviL5TfEdmY1eKhcMa2VUDKIUcPyJT81N4Bz6t73m9u8Y6lmyiv-rSSZFCUl__a54&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=lu88ourtVGiMbFamlj8M8Q&amp;oh=00_AfgCOO9rhkN0hO9wMO1CUgHsVskbB6fbRyq2Km1H40TNFQ&amp;oe=692F543C', 'profileId': 'pfbid02aqCHotp1EQbdneRZPnpMuj8rNSys91jSPVD7C6SYPBuXDiswjBs81hX94CcwNsg4l', 'profileName': 'Kathe Ramiirez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2255,29 +2255,29 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>35 años vendiendo productos sobrevalorados, bravo!</t>
+          <t>Y la propaganda si quedo bien,, con ese precio ni uno se puede probar</t>
         </is>
       </c>
       <c r="G36" s="2" t="n">
-        <v>45986.1346412037</v>
+        <v>45985.78459490741</v>
       </c>
       <c r="H36" s="3" t="n">
-        <v>45986</v>
+        <v>45985</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>03:13:53</t>
+          <t>18:49:49</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K36" t="n">
@@ -2289,13 +2289,13 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1152991517044181', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNTI5OTE1MTcwNDQxODE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTUyOTkxNTE3MDQ0MTgx', 'date': '2025-11-25T03:13:53.000Z', 'text': '35 años vendiendo productos sobrevalorados, bravo!', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/565184876_10237965239371316_1025756455365633599_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=bjGuO7RqBQQQ7kNvwF9u7Uf&amp;_nc_oc=AdlYOmjrfw6kpkOFbp0AmVxHhOJYe6vYXhi4RDS2xPGucbbdaQW2Pl1aCCXSv4dS7vM&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=BKcJ-G6MspRh7uHKZUGg4w&amp;oh=00_AfitmMaJPGv05iqA6unyY_PVHlKFU4LnRYMSkx0biVFbrA&amp;oe=692E250F', 'profileId': 'pfbid032XatcqqjTvSZcmKz9NcTckiZs97tWgp8yaiMaHXvLVTxRFiB7F24aizu6sW6VYLl', 'profileName': 'Fabio Cuellar', 'likesCount': '19', 'commentsCount': 3, 'comments': [], 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0pL1oDqehDXa2onXQuju8i31LSdFWah9DR9kePWfj32xPDN28L9entZAoERRgz7cSl?comment_id=25132294313095996', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzI1MTMyMjk0MzEzMDk1OTk2', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18yNTEzMjI5NDMxMzA5NTk5Ng==', 'date': '2025-11-24T18:49:49.000Z', 'text': 'Y la propaganda si quedo bien,, con ese precio ni uno se puede probar', 'profileUrl': 'https://www.facebook.com/angelica.cardona.5872', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/505233924_3997357573853243_9123692372587398049_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=e-vuBr4XnskQ7kNvwEgH2ij&amp;_nc_oc=AdkZ6O2Qmwwv_TLI22PyJY6qEuXmD7ReUEeRqNUD4FvunvY9nuyZdER_ZfO3-MnYAyo&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=lu88ourtVGiMbFamlj8M8Q&amp;oh=00_AfhaNIa_nrV16WC-3Q2H3Vt0Sx82PxlYWYVk4IssJvj4zw&amp;oe=692F5625', 'profileId': 'pfbid0dMyVmW5GPfbKVWaXBdUsqSRBztur2TkhbtEouSDunRRKRmGNRxL8MiT5zctmCWgCl', 'profileName': 'Angelica Cardona', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2309,29 +2309,29 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>35 años vendiendo plástico, felicitaciones, que gran empresa</t>
+          <t>Bofff</t>
         </is>
       </c>
       <c r="G37" s="2" t="n">
-        <v>45986.42283564815</v>
+        <v>45987.22006944445</v>
       </c>
       <c r="H37" s="3" t="n">
-        <v>45986</v>
+        <v>45987</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>10:08:53</t>
+          <t>05:16:54</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K37" t="n">
@@ -2343,13 +2343,13 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=837830755559105', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzgzNzgzMDc1NTU1OTEwNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184Mzc4MzA3NTU1NTkxMDU=', 'date': '2025-11-25T10:08:53.000Z', 'text': '35 años vendiendo plástico, felicitaciones, que gran empresa', 'profileUrl': 'https://www.facebook.com/ANDYRODICK.509', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/544854593_10241181694778697_249590002339244172_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=1DNyfVPoknsQ7kNvwFBrs_A&amp;_nc_oc=AdkTYjpi4o2GPkbxd-3AGxRpor-BIX_AHuWG63k45KMpB2DBRlmTaVJKeLDfD5xMelM&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=BKcJ-G6MspRh7uHKZUGg4w&amp;oh=00_AfgkKDh039YiviuHAGz4sPBD-UCva-3IoOhueRRgcUSHJg&amp;oe=692E2543', 'profileId': '1210177132', 'profileName': 'Felipe Andrés Morales', 'likesCount': '2', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0pL1oDqehDXa2onXQuju8i31LSdFWah9DR9kePWfj32xPDN28L9entZAoERRgz7cSl?comment_id=25039922978949409', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzI1MDM5OTIyOTc4OTQ5NDA5', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18yNTAzOTkyMjk3ODk0OTQwOQ==', 'date': '2025-11-26T05:16:54.000Z', 'text': 'Bofff', 'profileUrl': 'https://www.facebook.com/daniela.motato.670111', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/516520495_122137512200793689_7086044033064241675_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=Arz-tg_TOCkQ7kNvwEwI41B&amp;_nc_oc=AdmmnHjx-aIM0W4ZvvdbZnMIO4YVmRguFPYwKNFKGnuaPcgqHDI5QY_mAXjsV6LNP3w&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=lu88ourtVGiMbFamlj8M8Q&amp;oh=00_Afi5QmwqKENw-_piBkNEIFZbkvgHF56WHOMo-WTq_4eKhQ&amp;oe=692F6EBE', 'profileId': '61573810682867', 'profileName': 'Motita D Dani', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2363,1113 +2363,1114 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
+        <is>
+          <t>Alpina se ha consolidado como una empresa ladrona que atraca a los consumidores vendiéndoles medio vaso de yogurt y una puñadita de cereal en $4000 casi 5000</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>45989.07928240741</v>
+      </c>
+      <c r="H38" s="3" t="n">
+        <v>45989</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>01:54:10</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0pL1oDqehDXa2onXQuju8i31LSdFWah9DR9kePWfj32xPDN28L9entZAoERRgz7cSl?comment_id=1267284695440479', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzEyNjcyODQ2OTU0NDA0Nzk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xMjY3Mjg0Njk1NDQwNDc5', 'date': '2025-11-28T01:54:10.000Z', 'text': 'Alpina se ha consolidado como una empresa ladrona que atraca a los consumidores vendiéndoles medio vaso de yogurt y una puñadita de cereal en $4000 casi 5000', 'profileUrl': 'https://www.facebook.com/people/Heriberto-Uribe/pfbid029DPgkbeCm9McTdP6C2dFhA8M77wrA96ZnKmNLVQseajAmbqu3dxRNuj3bRMgF9jXl/', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/466382748_914617963991205_773994950271645125_n.jpg?stp=c0.0.480.480a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=d01OEC6p8YIQ7kNvwG_nKf_&amp;_nc_oc=AdmlS2aU95YX2M_32t_ipXWXFs7Sp1uoi79fDt0J5ZxgOEcgV6ufk8VU56iWMf-SNqY&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=lu88ourtVGiMbFamlj8M8Q&amp;oh=00_Afh6a8DyQJwTqmVz6F5WhXOgdDEg7XnvOHUZLsKtF0wrBw&amp;oe=692F867E', 'profileId': 'pfbid029DPgkbeCm9McTdP6C2dFhA8M77wrA96ZnKmNLVQseajAmbqu3dxRNuj3bRMgF9jXl', 'profileName': 'Heriberto Uribe', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>12</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>No es por nada pero BONYURT ES BONYURT no hay comparación alguna</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>45989.25265046296</v>
+      </c>
+      <c r="H39" s="3" t="n">
+        <v>45989</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>06:03:49</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0pL1oDqehDXa2onXQuju8i31LSdFWah9DR9kePWfj32xPDN28L9entZAoERRgz7cSl?comment_id=3488021474690298', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzM0ODgwMjE0NzQ2OTAyOTg=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18zNDg4MDIxNDc0NjkwMjk4', 'date': '2025-11-28T06:03:49.000Z', 'text': 'No es por nada pero BONYURT ES BONYURT no hay comparación alguna', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/529816075_1285901579990977_1799187942218740562_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=j5qS_zyBkfgQ7kNvwFJUDAY&amp;_nc_oc=AdlCzIJGYRkRMFMdGmYK0DiAYCOVE686Asd3gItnS_trWibVfzlHYyKjLEaB3kImHtQ&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=lu88ourtVGiMbFamlj8M8Q&amp;oh=00_AfhjIoqFoukOcUZCWcNUleeD21eF39rCJuLNWNtpxcGXvw&amp;oe=692F5994', 'profileId': 'pfbid0tyKsnPBpjW4Yn9us9cZ2XrkK4uGYRvRpLC2mA4EmbaeDoT5NnGnAJM5s4G5tzQFMl', 'profileName': 'Daniela Torrado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>12</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>No, porque es una estafa, solo empaque y bien costoso</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>45985.94050925926</v>
+      </c>
+      <c r="H40" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>22:34:20</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0pL1oDqehDXa2onXQuju8i31LSdFWah9DR9kePWfj32xPDN28L9entZAoERRgz7cSl?comment_id=1260657349235501', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzEyNjA2NTczNDkyMzU1MDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xMjYwNjU3MzQ5MjM1NTAx', 'date': '2025-11-24T22:34:20.000Z', 'text': 'No, porque es una estafa, solo empaque y bien costoso', 'profileUrl': 'https://www.facebook.com/fredy.cotame.2025', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/355876365_272551848766724_9175721193928506431_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=42qAS0KEOWUQ7kNvwHMwVkv&amp;_nc_oc=Adk3B8mlcd7BvvIn5S8Mz5p42pOtjs6xXTy2fw7drl4IVaD9pKjWOffyndS0nS_ezqk&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=lu88ourtVGiMbFamlj8M8Q&amp;oh=00_AfhXytMDZlQeNBp-Yio5lyqGaC7BFZD8lq2hpC0hsu5QHQ&amp;oe=692F6122', 'profileId': 'pfbid02fteFQTnRkvdDekCRbiMVVVN2A4gE8JHpvwRTAa8bbSGxCeqACN7nVAy46K52hmZtl', 'profileName': 'Fredy Cotame', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>12</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Yo compro kumis litros y ojuelas azucaradas marca tigrillo atracardo y resulta que es igual</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>45987.41475694445</v>
+      </c>
+      <c r="H41" s="3" t="n">
+        <v>45987</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>09:57:15</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0pL1oDqehDXa2onXQuju8i31LSdFWah9DR9kePWfj32xPDN28L9entZAoERRgz7cSl?comment_id=816873427884424', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzgxNjg3MzQyNzg4NDQyNA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM184MTY4NzM0Mjc4ODQ0MjQ=', 'date': '2025-11-26T09:57:15.000Z', 'text': 'Yo compro kumis litros y ojuelas azucaradas marca tigrillo atracardo y resulta que es igual', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-6/589430400_1833125634242127_6273034138670878428_n.jpg?stp=dst-jpg_fb30_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=4P_iCLQ-jUUQ7kNvwEPV0I_&amp;_nc_oc=Adl16nt6NBNZJ37zwcEAGWjk4RZveNQG5ZWNV1c27t7RyLFIWo76GF7kXlQyUonzIsM&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=lu88ourtVGiMbFamlj8M8Q&amp;oh=00_AfgpzzArQOFkETeZqFIRnpm-jf3goBiWRlZXYCSkcHkSUw&amp;oe=692F6705'}, 'id': '1833125630908794', 'cix_screen': None, 'massive_image': {'width': 505, 'height': 385}, 'image': {'uri': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-6/589430400_1833125634242127_6273034138670878428_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=4P_iCLQ-jUUQ7kNvwEPV0I_&amp;_nc_oc=Adl16nt6NBNZJ37zwcEAGWjk4RZveNQG5ZWNV1c27t7RyLFIWo76GF7kXlQyUonzIsM&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=lu88ourtVGiMbFamlj8M8Q&amp;oh=00_AfiU24xaPtvbZNd4-tXH2-Ja48flaQRftpRiTLsA08tl8A&amp;oe=692F6705', 'width': 261, 'height': 199}, 'ocrText': 'No photo description available.'}], 'profileUrl': 'https://www.facebook.com/alex.moreno.412286', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t1.6435-1/145147494_712955466259155_307990092778565359_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=akmw-IJDUl0Q7kNvwHReZb-&amp;_nc_oc=AdnLQaKrpAzcouBnLA1oDw32T8Ga1KGjbSH6qvIV1qh8Hcb4_AOCiqNiHEna9Is0duY&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=lu88ourtVGiMbFamlj8M8Q&amp;oh=00_AfgrnFPTj-Aoyrt5HY8V63R67lg-uHMxqS3TTkG9fg7hhw&amp;oe=69511708', 'profileId': 'pfbid0f5FFJVVJSTKsC3uGVrgGYjjQVUfYJDteyjNoBody23wXYhjQHipRfwy4RxSNCLrtl', 'profileName': 'Alex Moreno', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258726882959723', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>13</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Tan bueno.</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>45986.09997685185</v>
+      </c>
+      <c r="H42" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>02:23:58</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=1388063563103759', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzODgwNjM1NjMxMDM3NTk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzg4MDYzNTYzMTAzNzU5', 'date': '2025-11-25T02:23:58.000Z', 'text': 'Tan bueno.', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t1.6435-1/163069213_1667788816742137_1108665802889185616_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=GURBjoSIphMQ7kNvwFV5dQu&amp;_nc_oc=AdnKcjCFyhtZ2RXjpdDlC2r2deWjKU5jpD-7PBf2b8PEshMOaZkWMjw0JJvij7qRMtHbA-BJE1TpJW__VCgRIl_y&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=TTZyYoKLW_o2XsMDA0OTqg&amp;oh=00_AfjSB9E_e2spbZkxu6o9GBS8N267uU-VBh_pooezI0SzWg&amp;oe=69511F14', 'profileId': 'pfbid0AwsAy3FvTM7APZaFaH3PkzKghwfywEizaw5nJMftQaKpfAiUmMV2BUuB9GuiiHCtl', 'profileName': 'Jaker Albeiro Salvaje Cuartas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>13</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Sii total que recuerdos ! El sabor es de lo mejor , algo que puede uno comer en la calle con toda confianza . 
+Pero lo que más recuerdo es ... Su tamaño , estoy segura que era mucho más grande!</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>45989.5015625</v>
+      </c>
+      <c r="H43" s="3" t="n">
+        <v>45989</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>12:02:15</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=32654832737494475', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzMyNjU0ODMyNzM3NDk0NDc1', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18zMjY1NDgzMjczNzQ5NDQ3NQ==', 'date': '2025-11-28T12:02:15.000Z', 'text': 'Sii total que recuerdos ! El sabor es de lo mejor , algo que puede uno comer en la calle con toda confianza . \nPero lo que más recuerdo es ... Su tamaño , estoy segura que era mucho más grande!', 'profileUrl': 'https://www.facebook.com/mariarubiela.torres.7', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/321662529_878193136663269_5099190175442074070_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ONsGRVIEtS4Q7kNvwGh5Sai&amp;_nc_oc=AdmNT2wF8x9UmGqbbs-p41DGoDh3SMMR8hEtfAnhbhpAlqNx03k4Qe2LmquwEGMUy-gzlXV_qYgZpPoLKZcDtRVt&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=TTZyYoKLW_o2XsMDA0OTqg&amp;oh=00_AfjSbY41vvwiwKx_oNfM-3fB3EioftDzMWdZM652DcHZ5w&amp;oe=692F7FBC', 'profileId': 'pfbid02G3iSx5aKpJ1raon4Jn6p3FKiuR5L63pg5fpNwGq8TFUXD129JB9UjkzozEenNFdml', 'profileName': 'Maria Rubiela Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>13</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Yo hace 25 años. Que recuerdos más bellos.</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>45989.11664351852</v>
+      </c>
+      <c r="H44" s="3" t="n">
+        <v>45989</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>02:47:58</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=2312935789221188', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIzMTI5MzU3ODkyMjExODg=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMzEyOTM1Nzg5MjIxMTg4', 'date': '2025-11-28T02:47:58.000Z', 'text': 'Yo hace 25 años. Que recuerdos más bellos.', 'profileUrl': 'https://www.facebook.com/variedades.masiro', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/504005431_1018280620473952_6403227695446080493_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=KLZDwebSM8kQ7kNvwGabnPa&amp;_nc_oc=Adnwe7jrA4e4jfNjpAMaTFOBCwBvqHIyNxeFNeEclJjwXX-OlpJLA8LqHysYb74JToSRTcY0bYmYJzdCuZjWY4o5&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=TTZyYoKLW_o2XsMDA0OTqg&amp;oh=00_AfihQMWQofZz0BpOgYjpQvVhUdZDd77v-q4UROjJA2KAHA&amp;oe=692F862D', 'profileId': '100068760708799', 'profileName': 'Variedades Masiro', 'likesCount': '1', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>13</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>35 años vendiendo productos sobrevalorados, bravo!</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>45986.1346412037</v>
+      </c>
+      <c r="H45" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>03:13:53</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=1152991517044181', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNTI5OTE1MTcwNDQxODE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTUyOTkxNTE3MDQ0MTgx', 'date': '2025-11-25T03:13:53.000Z', 'text': '35 años vendiendo productos sobrevalorados, bravo!', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/565184876_10237965239371316_1025756455365633599_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=bjGuO7RqBQQQ7kNvwFOPGHf&amp;_nc_oc=Adld6mNML4ywCxR8EdjIo_Pewcg4z_uc8ei_OT7iT0RN_L-viAXTmim8PLMTKlQAQRSEaPg11zoWBFbGhEiAvyFl&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=TTZyYoKLW_o2XsMDA0OTqg&amp;oh=00_Afgv30TqGQZC1wj1A0dq8zgfbmdtVq1PkHKrbCmH5yx4hw&amp;oe=692F768F', 'profileId': 'pfbid026syJ5HmfapkFn7sKq1YYLQVTWt4LCaE8w62eqeHzBY3vjFcd8WdQcQpv23cBUHQ4l', 'profileName': 'Fabio Cuellar', 'likesCount': '30', 'commentsCount': 7, 'comments': [], 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>13</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Con esos precios na  gracias lo hago en casa me sale más barato  y más rico</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>45986.50646990741</v>
+      </c>
+      <c r="H46" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>12:09:19</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=2045961822830627', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIwNDU5NjE4MjI4MzA2Mjc=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMDQ1OTYxODIyODMwNjI3', 'date': '2025-11-25T12:09:19.000Z', 'text': 'Con esos precios na  gracias lo hago en casa me sale más barato  y más rico', 'profileUrl': 'https://www.facebook.com/david.fonk.913866', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/518197090_2028931904546235_7435092837846065560_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=IFwQdNC5GcIQ7kNvwEYmTL3&amp;_nc_oc=Adnrf0TAByhPAnRA4_zgqZwNOZGmvqo91mS1aWRuglqLl5L_fg0JzWUjJMlUDDRwKwlBMqi3mlHJ2NDD4FL6XcOQ&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=TTZyYoKLW_o2XsMDA0OTqg&amp;oh=00_Afg8o6W7TUAXnVcexz0iXOLeAJysp35R4C8tHCfvpQyLAw&amp;oe=692F7801', 'profileId': '100022883357945', 'profileName': 'David Fonk', 'likesCount': '15', 'commentsCount': 7, 'comments': [], 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>13</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>35 años vendiendo plástico, felicitaciones, que gran empresa</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="n">
+        <v>45986.42283564815</v>
+      </c>
+      <c r="H47" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>10:08:53</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=837830755559105', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzgzNzgzMDc1NTU1OTEwNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184Mzc4MzA3NTU1NTkxMDU=', 'date': '2025-11-25T10:08:53.000Z', 'text': '35 años vendiendo plástico, felicitaciones, que gran empresa', 'profileUrl': 'https://www.facebook.com/ANDYRODICK.509', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/544854593_10241181694778697_249590002339244172_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=1DNyfVPoknsQ7kNvwHPBA5a&amp;_nc_oc=AdnkWUtiS0BD3gvpM9x6mwdDevRhpckouT4HtCqcRt5zbWryK5fTQ9mCmiXPIZka1TnXAV1KV6GCyJRkEn6WeWH2&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=TTZyYoKLW_o2XsMDA0OTqg&amp;oh=00_Afg2LLGZHX36QBvmSF7m7sdqdA3rBzd7Io21o1W9g2_1tg&amp;oe=692F76C3', 'profileId': '1210177132', 'profileName': 'Felipe Andrés Morales', 'likesCount': '7', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>13</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>A mi me parece un muy buen producto y una excelente alianza. Que la calidad a bajado después de 2006,  si así es pero agradezcan a la mano de impuestos que tenemos en el país, antes es que la empresa aún sigue dando empleo a miles de colombianos, a dado la pelea. Y estos gobiernos son lo mismo pidan y pidan y solo den contentillo al pueblo. No hablen mal de las empresas y sus productos antes agradezcamos que aún tenemos empresas en colombia.</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>45986.68048611111</v>
+      </c>
+      <c r="H48" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>16:19:54</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=2677048389302225', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzI2NzcwNDgzODkzMDIyMjU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yNjc3MDQ4Mzg5MzAyMjI1', 'date': '2025-11-25T16:19:54.000Z', 'text': 'A mi me parece un muy buen producto y una excelente alianza. Que la calidad a bajado después de 2006,  si así es pero agradezcan a la mano de impuestos que tenemos en el país, antes es que la empresa aún sigue dando empleo a miles de colombianos, a dado la pelea. Y estos gobiernos son lo mismo pidan y pidan y solo den contentillo al pueblo. No hablen mal de las empresas y sus productos antes agradezcamos que aún tenemos empresas en colombia.', 'profileUrl': 'https://www.facebook.com/alejandro.p.buitrago.7', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/570737555_10236356351236135_7109030256808597490_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=D0y79zx_x24Q7kNvwHolpKY&amp;_nc_oc=AdlVXv_mLFnvPpyvAnQOJwpzEL3ZD5dSCoFO1b11YW4npLxSLsk6gcJO8Liik55qAjUIr4W7O1zN_YR63-zk1Zj5&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=TTZyYoKLW_o2XsMDA0OTqg&amp;oh=00_Afi4ja3OWsFtgjiNqqfdTjbeHQeEIKG-zwqEQ-WFDHTF6w&amp;oe=692F5553', 'profileId': '1450520155', 'profileName': 'Alejandro Paipilla Buitrago', 'likesCount': '8', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>13</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
         <is>
           <t>La mayoría de productos alpina, son de excelente calidad.
 Yo personalmente no le doy a mis hijos Bon yurt, por los altos contenidos de azúcar.
 No es para nada un alimento, y mucho menos para niños.</t>
         </is>
       </c>
-      <c r="G38" s="2" t="n">
+      <c r="G49" s="2" t="n">
         <v>45986.89190972222</v>
       </c>
-      <c r="H38" s="3" t="n">
+      <c r="H49" s="3" t="n">
         <v>45986</v>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>21:24:21</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=1424902262582540', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE0MjQ5MDIyNjI1ODI1NDA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNDI0OTAyMjYyNTgyNTQw', 'date': '2025-11-25T21:24:21.000Z', 'text': 'La mayoría de productos alpina, son de excelente calidad.\nYo personalmente no le doy a mis hijos Bon yurt, por los altos contenidos de azúcar.\nNo es para nada un alimento, y mucho menos para niños.', 'profileUrl': 'https://www.facebook.com/arikapha.walker.johnnie', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/465035527_10235660426509533_6472777142166050788_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=E-8VpozTbRMQ7kNvwH6MgWc&amp;_nc_oc=AdmMyP5-dwmlqL-A06jd4TCSbZrNmjJc3xhgmuZANkun6kS3LHnT1KGHWsY0P8QzeqEfQP08PXnKXzcaWaO-efIM&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=TTZyYoKLW_o2XsMDA0OTqg&amp;oh=00_AfjVFVTI6IEpjGaahttzONUcCR8EiSbJgiTroLwsZROaTw&amp;oe=692F62A8', 'profileId': 'pfbid0T3cVP5t5rTsUhrzySkagNKkPh7Vp7xDYdVwckGenFjPqhVcizKdz2WNB377C1Hzzl', 'profileName': 'Arikapha Walker Johnnie', 'likesCount': '5', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>13</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>A veces era mejor comerse medio cereal solo. Ahora las gslletas le dan un super sabor</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>45989.13628472222</v>
+      </c>
+      <c r="H50" s="3" t="n">
+        <v>45989</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>03:16:15</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="b">
-        <v>0</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1424902262582540', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE0MjQ5MDIyNjI1ODI1NDA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNDI0OTAyMjYyNTgyNTQw', 'date': '2025-11-25T21:24:21.000Z', 'text': 'La mayoría de productos alpina, son de excelente calidad.\nYo personalmente no le doy a mis hijos Bon yurt, por los altos contenidos de azúcar.\nNo es para nada un alimento, y mucho menos para niños.', 'profileUrl': 'https://www.facebook.com/arikapha.walker.johnnie', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/465035527_10235660426509533_6472777142166050788_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=E-8VpozTbRMQ7kNvwGCPCTE&amp;_nc_oc=AdnOVCg6H4two_QIZm3jTo-zKCvd5r5KhmwdmE8LYwGujJvLdJiedHMkGcnKH4-Cvpc&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=BKcJ-G6MspRh7uHKZUGg4w&amp;oh=00_Afi5Yybo_Ga5k-goq3mpnlM8R6_2z7Se-_JvG_0hJ1R8Sg&amp;oe=692E1128', 'profileId': 'pfbid02X5DCru5eXWYuJh2m7zcHfutJuFPgAkWLGvmkikRK81tBff26hKp5ttmX3i5aXFH6l', 'profileName': 'Arikapha Walker Johnnie', 'likesCount': '0', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=827983453297444', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzgyNzk4MzQ1MzI5NzQ0NA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184Mjc5ODM0NTMyOTc0NDQ=', 'date': '2025-11-28T03:16:15.000Z', 'text': 'A veces era mejor comerse medio cereal solo. Ahora las gslletas le dan un super sabor', 'profileUrl': 'https://www.facebook.com/sidney.garzon', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/587798960_26309259371995921_1572217263492846097_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=oCIpozuiyI4Q7kNvwHmpWui&amp;_nc_oc=AdnOuZoikWzc1rBbK9kKr88E5yFTd9yK3RnCE7y1NGkOiJl56grqXBEhY2j2A7r8eMvoXVlFPF5y1FmrXwKQDU0k&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=TTZyYoKLW_o2XsMDA0OTqg&amp;oh=00_AfjC68I1fVGhV-0jXf22ApemNHK8ZTVBD4iigvGSbJCw5w&amp;oe=692F57CD', 'profileId': 'pfbid035rn5gzAZ8s97J7RYpULY6DRz195GPVXK5PhDxUTZ9aXkxj6A8yuPvFAw6xjgK63fl', 'profileName': 'Sidney Garzon', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
         <v>13</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>A mi me parece un muy buen producto y una excelente alianza. Que la calidad a bajado después de 2006,  si así es pero agradezcan a la mano de impuestos que tenemos en el país, antes es que la empresa aún sigue dando empleo a miles de colombianos, a dado la pelea. Y estos gobiernos son lo mismo pidan y pidan y solo den contentillo al pueblo. No hablen mal de las empresas y sus productos antes agradezcamos que aún tenemos empresas en colombia.</t>
-        </is>
-      </c>
-      <c r="G39" s="2" t="n">
-        <v>45986.68048611111</v>
-      </c>
-      <c r="H39" s="3" t="n">
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Sería Genial un Bon Yurt, para las personas con , condición de Diabetes .</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>45989.19637731482</v>
+      </c>
+      <c r="H51" s="3" t="n">
+        <v>45989</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>04:42:47</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=2331506713956450', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIzMzE1MDY3MTM5NTY0NTA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMzMxNTA2NzEzOTU2NDUw', 'date': '2025-11-28T04:42:47.000Z', 'text': 'Sería Genial un Bon Yurt, para las personas con , condición de Diabetes .', 'profileUrl': 'https://www.facebook.com/petalo.de.invierno', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/506242625_2495472594128504_2792333594274694389_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=tG91gtOzhr0Q7kNvwHtdIuV&amp;_nc_oc=Adl3vpmaEeM7atLVXk-pWO6Cjhg3_coDZLM6PrP2wtKGglwHOqDjjOAoIeYjcWCbQggeAcUxdxTy4T4Dlvwc0Mzr&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=TTZyYoKLW_o2XsMDA0OTqg&amp;oh=00_AfjRhWkyeK7Q0GeFjPaTw60bwMxn3difDgk3ggTO8I4jyw&amp;oe=692F5430', 'profileId': '100009973623400', 'profileName': 'Petalo De Invierno', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>13</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Sobrevalorado, es rico siii pero fácilmente me pasan años sin probarlo, su precio aleja para ser tan básico</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>45986.21298611111</v>
+      </c>
+      <c r="H52" s="3" t="n">
         <v>45986</v>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>16:19:54</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="b">
-        <v>0</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=2677048389302225', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzI2NzcwNDgzODkzMDIyMjU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yNjc3MDQ4Mzg5MzAyMjI1', 'date': '2025-11-25T16:19:54.000Z', 'text': 'A mi me parece un muy buen producto y una excelente alianza. Que la calidad a bajado después de 2006,  si así es pero agradezcan a la mano de impuestos que tenemos en el país, antes es que la empresa aún sigue dando empleo a miles de colombianos, a dado la pelea. Y estos gobiernos son lo mismo pidan y pidan y solo den contentillo al pueblo. No hablen mal de las empresas y sus productos antes agradezcamos que aún tenemos empresas en colombia.', 'profileUrl': 'https://www.facebook.com/alejandro.p.buitrago.7', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/570737555_10236356351236135_7109030256808597490_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=D0y79zx_x24Q7kNvwFCDDZU&amp;_nc_oc=Adm02_XNupT9f_KVcpRklTd0q5C6m90TLle2YAYq7DZmbotDJKMej6zU_-UymtrZ0g8&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=BKcJ-G6MspRh7uHKZUGg4w&amp;oh=00_AfgPrTeepLIAIr3ZYv3mxvOltqFATpboyDAtfXQQMEHxxA&amp;oe=692E03D3', 'profileId': '1450520155', 'profileName': 'Alejandro Paipilla Buitrago', 'likesCount': '5', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>05:06:42</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=1306741007870493', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzMDY3NDEwMDc4NzA0OTM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzA2NzQxMDA3ODcwNDkz', 'date': '2025-11-25T05:06:42.000Z', 'text': 'Sobrevalorado, es rico siii pero fácilmente me pasan años sin probarlo, su precio aleja para ser tan básico', 'profileUrl': 'https://www.facebook.com/oscar.f.prieto.14', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/588566367_10239804375670342_4460210495587386708_n.jpg?stp=c6.0.483.483a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ptQGZqr7xB8Q7kNvwGT73M1&amp;_nc_oc=AdmtQD2yZ-r6zmZ04cR91lUrNVno9feRFZq6YMkNb5U_MtyZ_gMbluPUaQiBjy_C-4M&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=PDMuYMGz29LVnbXmaGhNzw&amp;oh=00_AfgtwoZtTveV1q6oI1lbrZPvAun4_cjgmX6nxrs4GhSkvw&amp;oe=692F62C6', 'profileId': 'pfbid0cs2utZRtXpBtvCQ9CxtSKL68bvkCZhb7GwwRyVgqb7bQNie6WWtMb27NMHm6o3pSl', 'profileName': 'Oscar Fabian Buitrago Prieto', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
         <v>13</v>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Sobrevalorado, es rico siii pero fácilmente me pasan años sin probarlo, su precio aleja para ser tan básico</t>
-        </is>
-      </c>
-      <c r="G40" s="2" t="n">
-        <v>45986.21298611111</v>
-      </c>
-      <c r="H40" s="3" t="n">
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Con ese precio mejor tomo aguapanelita con limon</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="n">
+        <v>45985.93166666666</v>
+      </c>
+      <c r="H53" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>22:21:36</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=809611618734196', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzgwOTYxMTYxODczNDE5Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184MDk2MTE2MTg3MzQxOTY=', 'date': '2025-11-24T22:21:36.000Z', 'text': 'Con ese precio mejor tomo aguapanelita con limon', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/582415971_122231449286261461_6522798567143997130_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=_TO4plQMPD4Q7kNvwHUzJ4y&amp;_nc_oc=AdmGVg1kbS3HmlGK7PTMaJ7OfAIvEm4PJTyxWUIy4G0yDZ9ic6tf9V1wkgc94dcWU1M&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=PDMuYMGz29LVnbXmaGhNzw&amp;oh=00_AfhibpMNxHiIxGiaRvP41wWoNahrO6W6OB74CC_KjCPxqA&amp;oe=692F697D', 'profileId': 'pfbid03jNa4R7YwVuZQKQQFfSL6m6gXxgQpLNzEtNidYiMZAUpVG7nKGwwx2cHCvaDe54Al', 'profileName': 'Santiago Celis', 'likesCount': '17', 'commentsCount': 12, 'comments': [], 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>13</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Cuando vuelven a sacar los sacapuntas tío Bon Yurt se les recuerda con cariño.</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="n">
+        <v>45986.72972222222</v>
+      </c>
+      <c r="H54" s="3" t="n">
         <v>45986</v>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>05:06:42</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>17:30:48</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=4316274151993029', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzQzMTYyNzQxNTE5OTMwMjk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N180MzE2Mjc0MTUxOTkzMDI5', 'date': '2025-11-25T17:30:48.000Z', 'text': 'Cuando vuelven a sacar los sacapuntas tío Bon Yurt se les recuerda con cariño.', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/488615637_10163135707878628_9115785384800601259_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=hmXSRs1yY7AQ7kNvwEXJFZD&amp;_nc_oc=Adk8Uqjxmey0pa-CTBZzokZsw61m6RG3GFrDgWSUg2OL4NoCBlwnFUlZgFReTVTqjaA&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=PDMuYMGz29LVnbXmaGhNzw&amp;oh=00_AfjWb3iZfij8X8MlxbXzQP7fucPOLIvloqkMu_btwELWow&amp;oe=692F7503', 'profileId': 'pfbid036GhHxc6JHddB2FzrjbMV422vt6B226D2GqmvdTY5PV1JUWyXipQs9Yrgat8idG7Rl', 'profileName': 'Elkin Yesid Veslin Diaz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>13</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Bonito recuerdo cuando lo comí por primera vez,me lo compro mi hermano que ya no esta.😔</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="n">
+        <v>45987.14981481482</v>
+      </c>
+      <c r="H55" s="3" t="n">
+        <v>45987</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>03:35:44</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="b">
-        <v>0</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1306741007870493', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzMDY3NDEwMDc4NzA0OTM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzA2NzQxMDA3ODcwNDkz', 'date': '2025-11-25T05:06:42.000Z', 'text': 'Sobrevalorado, es rico siii pero fácilmente me pasan años sin probarlo, su precio aleja para ser tan básico', 'profileUrl': 'https://www.facebook.com/oscar.f.prieto.14', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/588566367_10239804375670342_4460210495587386708_n.jpg?stp=c6.0.483.483a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ptQGZqr7xB8Q7kNvwGNW_3l&amp;_nc_oc=AdlGznKjMVRdhOunLOyQozLULnGXKeQaIZeHx16wpOuC5tWqlhxGcr8M4I5z9RQURkc&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=BKcJ-G6MspRh7uHKZUGg4w&amp;oh=00_AfgpqGO-Xaosj3z121bYcEspBko2jhi3rvYifEIJWvuZyA&amp;oe=692E1146', 'profileId': 'pfbid02gQg6oj4FNzsLuZsL8PizMYmasozKYco19xXL8UGxvS97xxLoyXYBbU1UAARJybkJl', 'profileName': 'Oscar Fabian Buitrago Prieto', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=702194206278282', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzcwMjE5NDIwNjI3ODI4Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N183MDIxOTQyMDYyNzgyODI=', 'date': '2025-11-26T03:35:44.000Z', 'text': 'Bonito recuerdo cuando lo comí por primera vez,me lo compro mi hermano que ya no esta.😔', 'profileUrl': 'https://www.facebook.com/people/Juan-Pablo-Salgado-Galvez/pfbid02kao12ekBsocJ2eSspnRMhJrCLwFyhQs7cDVgkCrYYPRPwDHVjntMbYNqw7mCuikl/', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/469488281_122100720986667542_3546846497168303239_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9TkqgITDrWsQ7kNvwEU0zeb&amp;_nc_oc=AdkCwO4VlxsgpAPcSmbnwu00JZY4tzlqePfyUJOKT1ieVPP70aS41NxKCanAmp2xm94&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=PDMuYMGz29LVnbXmaGhNzw&amp;oh=00_AfiYKqmA7QQLjvhS2m8Dvmy8T3MGWDeeUhSj8WdjtwS3XA&amp;oe=692F66FF', 'profileId': 'pfbid02kao12ekBsocJ2eSspnRMhJrCLwFyhQs7cDVgkCrYYPRPwDHVjntMbYNqw7mCuikl', 'profileName': 'Juan Pablo Salgado Galvez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
         <v>13</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Todo un lujo jjj</t>
-        </is>
-      </c>
-      <c r="G41" s="2" t="n">
-        <v>45986.09811342593</v>
-      </c>
-      <c r="H41" s="3" t="n">
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Me gustaba más cuando era barato 🥲😅😅</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="n">
+        <v>45986.91777777778</v>
+      </c>
+      <c r="H56" s="3" t="n">
         <v>45986</v>
       </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>02:21:17</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>22:01:36</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="b">
-        <v>0</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=829854586452459', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzgyOTg1NDU4NjQ1MjQ1OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184Mjk4NTQ1ODY0NTI0NTk=', 'date': '2025-11-25T02:21:17.000Z', 'text': 'Todo un lujo jjj', 'profileUrl': 'https://www.facebook.com/luzbell.yepez', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/453730668_1638470000264918_8355986196165245239_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=4jFVxezzpLoQ7kNvwH11Lw_&amp;_nc_oc=Adk2KWeA9A4jgq3ayxNjy2YyI2yv6LOyzYgiNeYK6xgPquxwIB0cSrrXV010KZc-fE4&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=BKcJ-G6MspRh7uHKZUGg4w&amp;oh=00_Afi0lVSKWv6Q5xLu4axwEPCHnwatdBTmkATK83IuScrN4A&amp;oe=692E0C41', 'profileId': '100023058013154', 'profileName': 'Luzbell Patty', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=833502609502751', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzgzMzUwMjYwOTUwMjc1MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184MzM1MDI2MDk1MDI3NTE=', 'date': '2025-11-25T22:01:36.000Z', 'text': 'Me gustaba más cuando era barato 🥲😅😅', 'profileUrl': 'https://www.facebook.com/mazob', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/518138460_10162171774598813_8268606707648269936_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=QeXkj17h-Y8Q7kNvwFdpmeU&amp;_nc_oc=AdnQRVZYJMz_L9qGKB9kzgN7TKNV-knQjXUJYytwX1kIrer6od7vcmW7n95-K--RNeo&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=PDMuYMGz29LVnbXmaGhNzw&amp;oh=00_AfiolOy6hzfFa2-Y09mz6alDouuQirB33OtmLIUzNoRgAA&amp;oe=692F6A90', 'profileId': '594658812', 'profileName': 'Henry Mazshop', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
         <v>13</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Con ese precio mejor tomo aguapanelita con limon</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="n">
-        <v>45985.93166666666</v>
-      </c>
-      <c r="H42" s="3" t="n">
-        <v>45985</v>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>22:21:36</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="b">
-        <v>0</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=809611618734196', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzgwOTYxMTYxODczNDE5Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184MDk2MTE2MTg3MzQxOTY=', 'date': '2025-11-24T22:21:36.000Z', 'text': 'Con ese precio mejor tomo aguapanelita con limon', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/582415971_122231449286261461_6522798567143997130_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=e_p3acUPNvIQ7kNvwF_iZCH&amp;_nc_oc=Adk7cah3uFNV1EleGjfOsDlEKzoDN1vDxRXJzoyANfpKVax9N7Mf2A0lz5QWpU-SG68&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=BKcJ-G6MspRh7uHKZUGg4w&amp;oh=00_AficvM3NNUpx8_8mcj6jQryBj_0_ELVqfmBcwuftSAa8QA&amp;oe=692E17FD', 'profileId': 'pfbid027H1kyajunv4vKu7GsUVjgHeg3h4zifrgwAc1NeVh36DPz1X8apKm8xwBo2KGkDSVl', 'profileName': 'Santiago Celis', 'likesCount': '15', 'commentsCount': 12, 'comments': [], 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>¿Van a sacar la versión clásica? Uy, sería genial. Existía una versión de ninjas con historietas.</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>45986.78293981482</v>
+      </c>
+      <c r="H57" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>18:47:26</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=1175232757386966', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNzUyMzI3NTczODY5NjY=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTc1MjMyNzU3Mzg2OTY2', 'date': '2025-11-25T18:47:26.000Z', 'text': '¿Van a sacar la versión clásica? Uy, sería genial. Existía una versión de ninjas con historietas.', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/456461448_10232106070008085_3658764015300107828_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=3QHXmMHLQhgQ7kNvwGnhuNY&amp;_nc_oc=AdnaiXkr1WW3KNVPdseZBQ7BDXGs8DdXoTtwf2ayVcgWiHiC77fo4VTUuJoPHN02Vj0&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=PDMuYMGz29LVnbXmaGhNzw&amp;oh=00_AfgJDzgLkErUkaDm_k2WunM9lUOFgrpfCSJM_rOYn8HFbw&amp;oe=692F75AF', 'profileId': '1040248128', 'profileName': 'Jose Luis', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
         <v>13</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Cuando vuelven a sacar los sacapuntas tío Bon Yurt se les recuerda con cariño.</t>
-        </is>
-      </c>
-      <c r="G43" s="2" t="n">
-        <v>45986.72972222222</v>
-      </c>
-      <c r="H43" s="3" t="n">
-        <v>45986</v>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>17:30:48</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="b">
-        <v>0</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=4316274151993029', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzQzMTYyNzQxNTE5OTMwMjk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N180MzE2Mjc0MTUxOTkzMDI5', 'date': '2025-11-25T17:30:48.000Z', 'text': 'Cuando vuelven a sacar los sacapuntas tío Bon Yurt se les recuerda con cariño.', 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.30808-1/488615637_10163135707878628_9115785384800601259_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=hmXSRs1yY7AQ7kNvwGYH9U0&amp;_nc_oc=AdkM3DBHzrADoNQUdBAvjLuEO4dF_FwZ9PFL4EutsMkwjz4jcoj9nhPqJ4qLijt6oLs&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=BKcJ-G6MspRh7uHKZUGg4w&amp;oh=00_AfjoRhDyv-gkD9TTGGGG7ueGj1Rk1g8zeWY1l0VhgGVvjA&amp;oe=692E2383', 'profileId': 'pfbid022RFamwAUSJBkgGZ4B6eHipwzj1ZkFWs4mkALKQrgM6e5AG32ZXUjghRQq8vvkGE2l', 'profileName': 'Elkin Yesid Veslin Diaz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>13</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Me gustaba más cuando era barato 🥲😅😅</t>
-        </is>
-      </c>
-      <c r="G44" s="2" t="n">
-        <v>45986.91777777778</v>
-      </c>
-      <c r="H44" s="3" t="n">
-        <v>45986</v>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>22:01:36</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="b">
-        <v>0</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=833502609502751', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzgzMzUwMjYwOTUwMjc1MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184MzM1MDI2MDk1MDI3NTE=', 'date': '2025-11-25T22:01:36.000Z', 'text': 'Me gustaba más cuando era barato 🥲😅😅', 'profileUrl': 'https://www.facebook.com/mazob', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/518138460_10162171774598813_8268606707648269936_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=QeXkj17h-Y8Q7kNvwHIPeeO&amp;_nc_oc=Adms9ogQXCtbm1ayshistgYpcB3PdQN95XtLYMzAfBvE2k3oAgDVHYGvd6Q_PuhXZ2Q&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=ad6t0WRsrd_7iP2jDxgQYQ&amp;oh=00_Afg-b5K29oIHZ-EY4-qCfx76HvNnUUwgs5LPLxpAPcRHKw&amp;oe=692E1910', 'profileId': '594658812', 'profileName': 'Henry Mazshop', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>13</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Bonito recuerdo cuando lo comí por primera vez,me lo compro mi hermano que ya no esta.😔</t>
-        </is>
-      </c>
-      <c r="G45" s="2" t="n">
-        <v>45987.14981481482</v>
-      </c>
-      <c r="H45" s="3" t="n">
-        <v>45987</v>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>03:35:44</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="b">
-        <v>0</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=702194206278282', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzcwMjE5NDIwNjI3ODI4Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N183MDIxOTQyMDYyNzgyODI=', 'date': '2025-11-26T03:35:44.000Z', 'text': 'Bonito recuerdo cuando lo comí por primera vez,me lo compro mi hermano que ya no esta.😔', 'profileUrl': 'https://www.facebook.com/people/Juan-Pablo-Salgado-Galvez/pfbid026JDyvCH738y1pgBcPtJTAABTMxfLRxmoGPy9t9YPBiKrKA2S7rhhifPXFVygyvfKl/', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/469488281_122100720986667542_3546846497168303239_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9TkqgITDrWsQ7kNvwEI_7Xv&amp;_nc_oc=AdmilR8XusUaAv5Vb_yDwZbVPoCP3_A2-5eL1hkbefIsvHQ7y4nYM4zAxaqFxca65ao&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=ad6t0WRsrd_7iP2jDxgQYQ&amp;oh=00_AfhwDjiO6zeyL9QP_N2lrtR92ANeGqJQJJSZGp-1yU8vjQ&amp;oe=692E157F', 'profileId': 'pfbid026JDyvCH738y1pgBcPtJTAABTMxfLRxmoGPy9t9YPBiKrKA2S7rhhifPXFVygyvfKl', 'profileName': 'Juan Pablo Salgado Galvez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>13</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>¿Van a sacar la versión clásica? Uy, sería genial. Existía una versión de ninjas con historietas.</t>
-        </is>
-      </c>
-      <c r="G46" s="2" t="n">
-        <v>45986.78293981482</v>
-      </c>
-      <c r="H46" s="3" t="n">
-        <v>45986</v>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>18:47:26</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="b">
-        <v>0</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1175232757386966', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNzUyMzI3NTczODY5NjY=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTc1MjMyNzU3Mzg2OTY2', 'date': '2025-11-25T18:47:26.000Z', 'text': '¿Van a sacar la versión clásica? Uy, sería genial. Existía una versión de ninjas con historietas.', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/456461448_10232106070008085_3658764015300107828_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=efTpQv3kEUUQ7kNvwHQ6ba-&amp;_nc_oc=AdmMHzldHuB_lZumUDKWSc94v79jKKRlUybzDKj1i2KoCI3PL2iZjrpwqRD0J2P3m1Y&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=ad6t0WRsrd_7iP2jDxgQYQ&amp;oh=00_AfhOQTChoRQajgF_kb5w0YekAShdhOV9Mc9J1Sy0AjysLg&amp;oe=692E242F', 'profileId': '1040248128', 'profileName': 'Jose Luis', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>13</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
         <is>
           <t>Me acordé de la propaganda que le preguntaban a la gente que cree que es bon yurt
 Y una señora toda elegante dice : en francés significa BUENOS DÍAS 
 Fue la primera palabra en otro idioma que aprendí gracias a ese marketing</t>
         </is>
       </c>
-      <c r="G47" s="2" t="n">
+      <c r="G58" s="2" t="n">
         <v>45986.05381944445</v>
-      </c>
-      <c r="H47" s="3" t="n">
-        <v>45986</v>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>01:17:30</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="b">
-        <v>0</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=2077627949641833', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIwNzc2Mjc5NDk2NDE4MzM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMDc3NjI3OTQ5NjQxODMz', 'date': '2025-11-25T01:17:30.000Z', 'text': 'Me acordé de la propaganda que le preguntaban a la gente que cree que es bon yurt\nY una señora toda elegante dice : en francés significa BUENOS DÍAS \nFue la primera palabra en otro idioma que aprendí gracias a ese marketing', 'profileUrl': 'https://www.facebook.com/alvaro.e.valbuena.1', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/496184028_10236240538011203_1945246543330215312_n.jpg?stp=c125.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=Sx9aDDIthSkQ7kNvwEkL_6d&amp;_nc_oc=AdnN8bfYfsenh887c0rHG9rkoMHW_AxiSm0mcLpiFlW0voHUKUJm81vwN1cyo-xn4-4&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=ad6t0WRsrd_7iP2jDxgQYQ&amp;oh=00_AfiIMClTatRxtWe8j6HU_JEKnvrXBALsc2WWRHCU3lLw7A&amp;oe=692E3808', 'profileId': '1160294878', 'profileName': 'Alvaro Esparza Valbuena', 'likesCount': '4', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>13</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Traigan de vuelta el sabor original del kumis y los chocokrispis rojos</t>
-        </is>
-      </c>
-      <c r="G48" s="2" t="n">
-        <v>45986.84166666667</v>
-      </c>
-      <c r="H48" s="3" t="n">
-        <v>45986</v>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>20:12:00</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="b">
-        <v>0</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1150071166850358', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNTAwNzExNjY4NTAzNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTUwMDcxMTY2ODUwMzU4', 'date': '2025-11-25T20:12:00.000Z', 'text': 'Traigan de vuelta el sabor original del kumis y los chocokrispis rojos', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/475745976_10235682019889523_165687499300067340_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=OuGV5RLgFzkQ7kNvwGK-Jxi&amp;_nc_oc=AdncCRN7c53oGvcGM5nl5v9BWMbe5VEwKXPF4m_aey6E5HP_zP1O64h_tHuE4KYAT1A&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=ad6t0WRsrd_7iP2jDxgQYQ&amp;oh=00_AfiRFOmVyAgCmnha8EA3xD-TOBZgPWOc-QxX9atAZZYQLA&amp;oe=692E2736', 'profileId': 'pfbid05cFjHEwkgjW2fvQ2K1cvcv8cf16yuxBZpoM4m87dmT8SjdiHNUoxWixLYsifGQnkl', 'profileName': 'Karn Oj Gob', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>13</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Un mundo lleno de azúcar con seres humanos enfermos por esto mismo, el azúcar comida de muchas enfermedades entre ellas el cáncer, alimento ultraprocesado que hacen pasar por un alimento saludable  y ahora quien quiere contaminar a sus hijos o dañar sus sistemas digestivos .... Consume bon yurt te ayuda a estar mal si o si .........</t>
-        </is>
-      </c>
-      <c r="G49" s="2" t="n">
-        <v>45986.47837962963</v>
-      </c>
-      <c r="H49" s="3" t="n">
-        <v>45986</v>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>11:28:52</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="b">
-        <v>0</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=740299422427121', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3Xzc0MDI5OTQyMjQyNzEyMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N183NDAyOTk0MjI0MjcxMjE=', 'date': '2025-11-25T11:28:52.000Z', 'text': 'Un mundo lleno de azúcar con seres humanos enfermos por esto mismo, el azúcar comida de muchas enfermedades entre ellas el cáncer, alimento ultraprocesado que hacen pasar por un alimento saludable  y ahora quien quiere contaminar a sus hijos o dañar sus sistemas digestivos .... Consume bon yurt te ayuda a estar mal si o si .........', 'profileUrl': 'https://www.facebook.com/people/Fazart-Ansestral/pfbid021vkLRoYCHvdDrSAJnZHXbHbryaciUzqD4AmfQzdpQoX4WQTBL6mHSKsE1wH3X7AVl/', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/584964433_883191414183992_4641468979062122638_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=z0sP33xJRp4Q7kNvwEE_RT_&amp;_nc_oc=Adk1yPCo6OEHcrstQ9lTrU4azmgm20FhBPYsDo4wk5PA0ejadvVvU3O9NIr8jr3nNzc&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=ad6t0WRsrd_7iP2jDxgQYQ&amp;oh=00_Afi3FhRKebACup2gIAQf4DKPCjmFLupzgcH-0b-dsDhsmQ&amp;oe=692E3624', 'profileId': 'pfbid021vkLRoYCHvdDrSAJnZHXbHbryaciUzqD4AmfQzdpQoX4WQTBL6mHSKsE1wH3X7AVl', 'profileName': 'Fazart Ansestral', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>13</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Recuerdo que reclamé un borrador de la forma del bonyurt en el año 92 o 93  y los muñecos eso pelos parados los tolw algo asi</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="n">
-        <v>45987.14856481482</v>
-      </c>
-      <c r="H50" s="3" t="n">
-        <v>45987</v>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>03:33:56</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" t="b">
-        <v>0</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1888526355075070', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE4ODg1MjYzNTUwNzUwNzA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xODg4NTI2MzU1MDc1MDcw', 'date': '2025-11-26T03:33:56.000Z', 'text': 'Recuerdo que reclamé un borrador de la forma del bonyurt en el año 92 o 93  y los muñecos eso pelos parados los tolw algo asi', 'profileUrl': 'https://www.facebook.com/odasir.bovea.2025', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/515440668_122152448126785945_755157395072017963_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ea0sY9hoF-QQ7kNvwEg_5UG&amp;_nc_oc=AdlQqr7BJRDtkqOQOLkL9gAcOvAM80rw4rVG_BdvrQV-lzL4PDj2Xuqxk-In0VTN_EY&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=ad6t0WRsrd_7iP2jDxgQYQ&amp;oh=00_AfjONvxOK26EG7BGKAqcmGJBi68hIAqTWcXli89YiVjIFQ&amp;oe=692E1179', 'profileId': 'pfbid036oP9f5tmUqU5dtXWdAKVShTmtYW2V3PiwmBg9b1i1eDq7RAUiiUkrv5ZYa8H33tgl', 'profileName': 'Odasir Bovea', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>13</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>35 años robando a las familias... Excelente como se han enriquecido</t>
-        </is>
-      </c>
-      <c r="G51" s="2" t="n">
-        <v>45986.47603009259</v>
-      </c>
-      <c r="H51" s="3" t="n">
-        <v>45986</v>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>11:25:29</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="b">
-        <v>0</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1557146152191245', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE1NTcxNDYxNTIxOTEyNDU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNTU3MTQ2MTUyMTkxMjQ1', 'date': '2025-11-25T11:25:29.000Z', 'text': '35 años robando a las familias... Excelente como se han enriquecido', 'profileUrl': 'https://www.facebook.com/ricardo.alvarado.303209', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/489963098_1177889487157615_7278733843491031172_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=fkOa6hKBwWQQ7kNvwH4kkyU&amp;_nc_oc=Adn1aAN3YQZ2Nv0zEIYhWoNGZV5hqpYLrfvdHZtG61O9zP4jhDt279bRhdNhkNRQByg&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=ad6t0WRsrd_7iP2jDxgQYQ&amp;oh=00_AfgRpodp20Xr0FNsmPeevQgL0bHSdRyqgvOUTwtKNNDkHw&amp;oe=692E2297', 'profileId': 'pfbid0ejb4xmzmVaqaEzD8NBUHCsPAMVN9NhUTe75SMeJiMFpTJG5neU6gCKnJhitBz5Dul', 'profileName': 'Ricardo Alvarado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>13</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Joda si</t>
-        </is>
-      </c>
-      <c r="G52" s="2" t="n">
-        <v>45987.14512731481</v>
-      </c>
-      <c r="H52" s="3" t="n">
-        <v>45987</v>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>03:28:59</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="b">
-        <v>0</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1189320129825469', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExODkzMjAxMjk4MjU0Njk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTg5MzIwMTI5ODI1NDY5', 'date': '2025-11-26T03:28:59.000Z', 'text': 'Joda si', 'profileUrl': 'https://www.facebook.com/odasir.bovea.2025', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/515440668_122152448126785945_755157395072017963_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ea0sY9hoF-QQ7kNvwEg_5UG&amp;_nc_oc=AdlQqr7BJRDtkqOQOLkL9gAcOvAM80rw4rVG_BdvrQV-lzL4PDj2Xuqxk-In0VTN_EY&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=ad6t0WRsrd_7iP2jDxgQYQ&amp;oh=00_AfjONvxOK26EG7BGKAqcmGJBi68hIAqTWcXli89YiVjIFQ&amp;oe=692E1179', 'profileId': 'pfbid036oP9f5tmUqU5dtXWdAKVShTmtYW2V3PiwmBg9b1i1eDq7RAUiiUkrv5ZYa8H33tgl', 'profileName': 'Odasir Bovea', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>13</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Esa época cuando el yogurt  era el propio sin derivados de sueros</t>
-        </is>
-      </c>
-      <c r="G53" s="2" t="n">
-        <v>45986.09702546296</v>
-      </c>
-      <c r="H53" s="3" t="n">
-        <v>45986</v>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>02:19:43</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="b">
-        <v>0</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1177485643784836', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNzc0ODU2NDM3ODQ4MzY=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTc3NDg1NjQzNzg0ODM2', 'date': '2025-11-25T02:19:43.000Z', 'text': 'Esa época cuando el yogurt  era el propio sin derivados de sueros', 'profileUrl': 'https://www.facebook.com/alejandra.mesa.347498', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/482057859_598914793147624_2770549664691375390_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=SI8PMuMdtoYQ7kNvwGRGweM&amp;_nc_oc=AdmpbUKpftVE8HCcwfOiWdSIaPF6eNZqVv8FDVIQkeZOpj8QN-PSoFxZk1N0dUBx4Tg&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=ad6t0WRsrd_7iP2jDxgQYQ&amp;oh=00_AfgnCVwvnsEtECJCxljC1jqUSytPekrQCu9XvGaNDG_cXw&amp;oe=692E28FD', 'profileId': '100090873254237', 'profileName': 'Alejandra Mesa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>13</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>5 lucas un bon yurt nee jeeedaaa</t>
-        </is>
-      </c>
-      <c r="G54" s="2" t="n">
-        <v>45986.12678240741</v>
-      </c>
-      <c r="H54" s="3" t="n">
-        <v>45986</v>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>03:02:34</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="b">
-        <v>0</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=2057651748323375', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIwNTc2NTE3NDgzMjMzNzU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMDU3NjUxNzQ4MzIzMzc1', 'date': '2025-11-25T03:02:34.000Z', 'text': '5 lucas un bon yurt nee jeeedaaa', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/579096341_24930560536552313_4879993214776733949_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=fGpHN7U4v04Q7kNvwHNkzzz&amp;_nc_oc=AdmF5qBxMsMvmZgyfl6GQ5M0HI15vvULvpOQbRlvTgkeXbPGfBbkq9ragIx3WgiLRCgEyhXIjlnlKtKS35_hELi5&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=UHYB2ttD_zRGU0h_45FoLw&amp;oh=00_Afhsz0qYqA90Z3zFWPTQQH50ZCi9iF1wrVQ5NQGu0Awy6g&amp;oe=692E1CB9', 'profileId': 'pfbid02nDhRaPorAk1H97NWQpHuCpKZetVyLXYYv9YLhq7mgN3R2wK4Y6Lkq9Ju7SVJuorVl', 'profileName': 'Rodríguez C Juan', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>13</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Salió como a finales del 88</t>
-        </is>
-      </c>
-      <c r="G55" s="2" t="n">
-        <v>45986.00568287037</v>
-      </c>
-      <c r="H55" s="3" t="n">
-        <v>45986</v>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>00:08:11</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="b">
-        <v>0</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=2154810411989541', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIxNTQ4MTA0MTE5ODk1NDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMTU0ODEwNDExOTg5NTQx', 'date': '2025-11-25T00:08:11.000Z', 'text': 'Salió como a finales del 88', 'profileUrl': 'https://www.facebook.com/jotaw13', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/337289576_1576143646203421_1755706736298063618_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1nwcyctg6GIQ7kNvwEGq0ez&amp;_nc_oc=AdnAzLzUYyfFe0dWUn32iJKOZ95g0BA_uFLEnOej7pG_espdYg-e4-0m93pE7710nZBtD_3b3_W7_Bf1YT4wswjW&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=UHYB2ttD_zRGU0h_45FoLw&amp;oh=00_AfgpcUZJiYdRcKGIKxQjuE9nlF6cLx4GQSNgB-xTkbmyOA&amp;oe=692E1ABA', 'profileId': 'pfbid03mZEHEZwfo9G2hooYk61pxLJtjoyBnoGaMAWRmpvUA22QuxUsiSBmXcg8EDnxpWpl', 'profileName': 'Jota Dobleu', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>13</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Lástima lo inflado del precio</t>
-        </is>
-      </c>
-      <c r="G56" s="2" t="n">
-        <v>45985.81935185185</v>
-      </c>
-      <c r="H56" s="3" t="n">
-        <v>45985</v>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>19:39:52</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="b">
-        <v>0</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1149425460681635', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNDk0MjU0NjA2ODE2MzU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTQ5NDI1NDYwNjgxNjM1', 'date': '2025-11-24T19:39:52.000Z', 'text': 'Lástima lo inflado del precio', 'profileUrl': 'https://www.facebook.com/MauRock66', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/566387101_26077118705210524_8269391756508760371_n.jpg?stp=cp6_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=03b0I3FbsKAQ7kNvwHDlngV&amp;_nc_oc=AdmM5mDcp69Tn2-JRoi7yBKoptuzRwMkSaxerbOVAUsKTS3oUm69qI7l0jOg6dx17hcP64ChiQ2PisGJvusFFeYU&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=UHYB2ttD_zRGU0h_45FoLw&amp;oh=00_AfhCE_UnCdUDXWlvfda6oc9PgSiyxraPJnS5s4ksaqIuLA&amp;oe=692E1D07', 'profileId': '100000172524271', 'profileName': 'Sergio Mauricio', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>13</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>ES MUY CARO</t>
-        </is>
-      </c>
-      <c r="G57" s="2" t="n">
-        <v>45987.14025462963</v>
-      </c>
-      <c r="H57" s="3" t="n">
-        <v>45987</v>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>03:21:58</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="b">
-        <v>0</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1573691613912258', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE1NzM2OTE2MTM5MTIyNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNTczNjkxNjEzOTEyMjU4', 'date': '2025-11-26T03:21:58.000Z', 'text': 'ES MUY CARO', 'profileUrl': 'https://www.facebook.com/kbotiva', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/469015823_10160949995396984_516869165540557324_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=c_jiZKq0HSoQ7kNvwHNDuid&amp;_nc_oc=AdmWaGPyEbcX85JWbVQ3NW5w2UzqsPKSngV1U0cyE-e2rgddt4-iI_vmTAoJYD76_fqT3j8pDbEw_ljQz5D_SCfX&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=UHYB2ttD_zRGU0h_45FoLw&amp;oh=00_AfgkNUik1o0t95QXxMs8E-ys-jEjl3ipmPfKPi0Lod743g&amp;oe=692E3A50', 'profileId': 'pfbid0RAWb69d2jU8BeN1a1WDYQGyUNvdNmc4B1szcpY2eMQRA5yQ8WNQGdUpXwoYgjb9dl', 'profileName': 'Juan Kamilo Botiva', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>13</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Ojalá el precio también sea retro.</t>
-        </is>
-      </c>
-      <c r="G58" s="2" t="n">
-        <v>45986.03555555556</v>
       </c>
       <c r="H58" s="3" t="n">
         <v>45986</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>00:51:12</t>
+          <t>01:17:30</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K58" t="n">
@@ -3481,7 +3482,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1597679538060212', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE1OTc2Nzk1MzgwNjAyMTI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNTk3Njc5NTM4MDYwMjEy', 'date': '2025-11-25T00:51:12.000Z', 'text': 'Ojalá el precio también sea retro.', 'profileUrl': 'https://www.facebook.com/people/Hansel-Henao/pfbid0NQ5fkRv6xeCcwqKQptLL3wBQbWrLcosCqDuyFDTv48RC3YJhbLXXVJZ3EPXw8zYml/', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/574881308_122141790008886423_3926047453065656662_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Lpi8ftXijI4Q7kNvwFogcCH&amp;_nc_oc=AdkgKDZEBBV3Fk5d_KDegI4cFBxz9hQhRQKgr1wSBpkptZt5_s0Gu7-6MC6_nkTAiklHchPxl1R3x4pq1OKxZvt-&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=UHYB2ttD_zRGU0h_45FoLw&amp;oh=00_AfheagEQAUB-xCdTsknfLEXOoOwpUmh2JIIvip-yXuI17w&amp;oe=692E1E0B', 'profileId': 'pfbid0NQ5fkRv6xeCcwqKQptLL3wBQbWrLcosCqDuyFDTv48RC3YJhbLXXVJZ3EPXw8zYml', 'profileName': 'Hansel Henao', 'likesCount': '5', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=2077627949641833', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIwNzc2Mjc5NDk2NDE4MzM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMDc3NjI3OTQ5NjQxODMz', 'date': '2025-11-25T01:17:30.000Z', 'text': 'Me acordé de la propaganda que le preguntaban a la gente que cree que es bon yurt\nY una señora toda elegante dice : en francés significa BUENOS DÍAS \nFue la primera palabra en otro idioma que aprendí gracias a ese marketing', 'profileUrl': 'https://www.facebook.com/alvaro.e.valbuena.1', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/496184028_10236240538011203_1945246543330215312_n.jpg?stp=c125.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=Sx9aDDIthSkQ7kNvwEG6yGw&amp;_nc_oc=AdmkASqq1I3blZh0b-PL8zF7RFYdEK9b1xBgJBov4o2eWLYEhnzou7LNRBXs36s6vIw&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=PDMuYMGz29LVnbXmaGhNzw&amp;oh=00_AfjF6vB8LEHr3d1A69NpBOiXrA8E9ont1N8QeU_WUqee8Q&amp;oe=692F8988', 'profileId': '1160294878', 'profileName': 'Alvaro Esparza Valbuena', 'likesCount': '4', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -3507,18 +3508,18 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Muy poquito para el valor! Se pasan...</t>
+          <t>Traigan de vuelta el sabor original del kumis y los chocokrispis rojos</t>
         </is>
       </c>
       <c r="G59" s="2" t="n">
-        <v>45986.2392824074</v>
+        <v>45986.84166666667</v>
       </c>
       <c r="H59" s="3" t="n">
         <v>45986</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>05:44:34</t>
+          <t>20:12:00</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3535,7 +3536,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1616838652836190', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE2MTY4Mzg2NTI4MzYxOTA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNjE2ODM4NjUyODM2MTkw', 'date': '2025-11-25T05:44:34.000Z', 'text': 'Muy poquito para el valor! Se pasan...', 'profileUrl': 'https://www.facebook.com/jeisson.velasquez1', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/452370479_10160282363657916_289347451250372803_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=IB1YpOYaE_QQ7kNvwHKbJdW&amp;_nc_oc=AdkTKtFScyW4xQ0Eq6wPGMblRdaUQCPmtgJBmSm4BTjd_xGPsemJwkQf4Vxa7YJyEA0d8T920aih0B18zXLLJ5Wi&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=UHYB2ttD_zRGU0h_45FoLw&amp;oh=00_AfjfmZWcM5-wMbdrghoDdTeox4EgnfeVXSAVYkDRbgfGGQ&amp;oe=692E35B3', 'profileId': 'pfbid02WpU6BYC5CPqx8mbtzENHqCN7L4hzkQA6rjTiNyZPsdcwz5LLyGbWw5Y5Tu947aS4l', 'profileName': 'Jeisson Andres Velásquez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=1150071166850358', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNTAwNzExNjY4NTAzNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTUwMDcxMTY2ODUwMzU4', 'date': '2025-11-25T20:12:00.000Z', 'text': 'Traigan de vuelta el sabor original del kumis y los chocokrispis rojos', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/475745976_10235682019889523_165687499300067340_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=OuGV5RLgFzkQ7kNvwHfcZ-A&amp;_nc_oc=Admt1BGfA9tzRtx4MnlAGGwoVXdXweL8StmQAK-9SVynl80xRVBttPwfwsXLHmjyAEs&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=PDMuYMGz29LVnbXmaGhNzw&amp;oh=00_Afh35R8WLK1W-_clApOrTb7OsJAvOAVZ2-HWiD97IpOWlA&amp;oe=692F78B6', 'profileId': 'pfbid029ThSTusaY8N2pZUGVQdU4UV9e6AVz8M2Kj6jPJSYeKH3vGMCV58HH8ASPt9V89egl', 'profileName': 'Karn Oj Gob', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -3561,23 +3562,23 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Deberían más BN de bajar esos precios</t>
+          <t>Un mundo lleno de azúcar con seres humanos enfermos por esto mismo, el azúcar comida de muchas enfermedades entre ellas el cáncer, alimento ultraprocesado que hacen pasar por un alimento saludable  y ahora quien quiere contaminar a sus hijos o dañar sus sistemas digestivos .... Consume bon yurt te ayuda a estar mal si o si .........</t>
         </is>
       </c>
       <c r="G60" s="2" t="n">
-        <v>45985.97886574074</v>
+        <v>45986.47837962963</v>
       </c>
       <c r="H60" s="3" t="n">
-        <v>45985</v>
+        <v>45986</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>23:29:34</t>
+          <t>11:28:52</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K60" t="n">
@@ -3589,7 +3590,7 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1180817223396975', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExODA4MTcyMjMzOTY5NzU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTgwODE3MjIzMzk2OTc1', 'date': '2025-11-24T23:29:34.000Z', 'text': 'Deberían más BN de bajar esos precios', 'profileUrl': 'https://www.facebook.com/andres.berrio.5099', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/505076476_2471279906587344_4562158579986467172_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=KlCk15UWv7QQ7kNvwEhMvIM&amp;_nc_oc=AdmxosFTABpUZIUCj0vie-u71iZzuGK-beSbVV9PvWjBQpwbEPZxea34fZqOT4WCk7IvDW5zTfm4VReIu1gfSj5L&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=UHYB2ttD_zRGU0h_45FoLw&amp;oh=00_AfiRMlriAeW6iA5AjKBIjyygP3yTarGZgb435zYumNUbjw&amp;oe=692E3832', 'profileId': '100011160751685', 'profileName': 'Jõsê Åńdrés Bêrrïø', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=740299422427121', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3Xzc0MDI5OTQyMjQyNzEyMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N183NDAyOTk0MjI0MjcxMjE=', 'date': '2025-11-25T11:28:52.000Z', 'text': 'Un mundo lleno de azúcar con seres humanos enfermos por esto mismo, el azúcar comida de muchas enfermedades entre ellas el cáncer, alimento ultraprocesado que hacen pasar por un alimento saludable  y ahora quien quiere contaminar a sus hijos o dañar sus sistemas digestivos .... Consume bon yurt te ayuda a estar mal si o si .........', 'profileUrl': 'https://www.facebook.com/people/Fazart-Ansestral/pfbid035nC3cUU29Gfri7rFq7wT95dHppb2t3hjc9SapMnzoP2kLJXY6mr94uPPRF35mhphl/', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/584964433_883191414183992_4641468979062122638_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=z0sP33xJRp4Q7kNvwG478a5&amp;_nc_oc=AdmN_QFJNBn1fkyO4aP-YvSq6rVCjWKWMzanhVKOvLWN3YRkNZXT0VgRoV_c2s0Mfic&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=PDMuYMGz29LVnbXmaGhNzw&amp;oh=00_Afj_EnwbRdoHAbWBfdXzu6zGNoiYCD4kbiUo4RntZGN7RQ&amp;oe=692F87A4', 'profileId': 'pfbid035nC3cUU29Gfri7rFq7wT95dHppb2t3hjc9SapMnzoP2kLJXY6mr94uPPRF35mhphl', 'profileName': 'Fazart Ansestral', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -3615,19 +3616,18 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Chévere que hubiese publicado la foto original.
-Se nota el montaje por los sellitos negros de "exceso en azúcares" en el envase 😁</t>
+          <t>Recuerdo que reclamé un borrador de la forma del bonyurt en el año 92 o 93  y los muñecos eso pelos parados los tolw algo asi</t>
         </is>
       </c>
       <c r="G61" s="2" t="n">
-        <v>45987.11913194445</v>
+        <v>45987.14856481482</v>
       </c>
       <c r="H61" s="3" t="n">
         <v>45987</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>02:51:33</t>
+          <t>03:33:56</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3644,7 +3644,7 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1166068235132001', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNjYwNjgyMzUxMzIwMDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTY2MDY4MjM1MTMyMDAx', 'date': '2025-11-26T02:51:33.000Z', 'text': 'Chévere que hubiese publicado la foto original.\nSe nota el montaje por los sellitos negros de "exceso en azúcares" en el envase 😁', 'profileUrl': 'https://www.facebook.com/jorge.jimenez.24273', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/518278300_24459861853611584_4348845349159347876_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=h-58sXEbh_QQ7kNvwF65seR&amp;_nc_oc=AdnnOespvdF0Yjur334ATW3fVrQKZkl8PVNHGEnpsA8s3tHnE1uQj4Jxe09pvub7b5yaVrvRkuKaIk5ZWuEUdcrI&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=UHYB2ttD_zRGU0h_45FoLw&amp;oh=00_AfgnrMF5d2bKa0REHq-bxsK9Z4c3YniiIqO_CTooeHhSgw&amp;oe=692E25FE', 'profileId': 'pfbid02TYfGsJTmgv7RFvVwDpEtc1FMwn7Dkiszxab16iuAjbdPoSAvoTMnka1NJkG8u2Rfl', 'profileName': 'Jorge Jimenez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=1888526355075070', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE4ODg1MjYzNTUwNzUwNzA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xODg4NTI2MzU1MDc1MDcw', 'date': '2025-11-26T03:33:56.000Z', 'text': 'Recuerdo que reclamé un borrador de la forma del bonyurt en el año 92 o 93  y los muñecos eso pelos parados los tolw algo asi', 'profileUrl': 'https://www.facebook.com/odasir.bovea.2025', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/515440668_122152448126785945_755157395072017963_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ea0sY9hoF-QQ7kNvwGNfC4H&amp;_nc_oc=AdnG73sSS1dVjcJKrhjcnWZDXXPv-C7vnFCD-E0-9j92okMnt2qEOOLmMjTvsAO3EHM&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=PDMuYMGz29LVnbXmaGhNzw&amp;oh=00_AfguiPBtFzQiDsPDogEd1F-miiQOnDFwMd7RzVaIuNQD4w&amp;oe=692F62F9', 'profileId': 'pfbid022mnSBGhCovEeZAxAmsZnc6o5iDADaYoXL7zBiJQrvUJzKj5yWnAJZiNStdPZbLv1l', 'profileName': 'Odasir Bovea', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -3670,23 +3670,23 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Pensé que el de la foto era Dante Gebel 😅</t>
+          <t>Comer y llevar  un bonyour  al colegio en esa época era un lujo ...</t>
         </is>
       </c>
       <c r="G62" s="2" t="n">
-        <v>45986.99915509259</v>
+        <v>45989.16237268518</v>
       </c>
       <c r="H62" s="3" t="n">
-        <v>45986</v>
+        <v>45989</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>23:58:47</t>
+          <t>03:53:49</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K62" t="n">
@@ -3698,7 +3698,7 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=4187311174822779', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzQxODczMTExNzQ4MjI3Nzk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N180MTg3MzExMTc0ODIyNzc5', 'date': '2025-11-25T23:58:47.000Z', 'text': 'Pensé que el de la foto era Dante Gebel 😅', 'profileUrl': 'https://www.facebook.com/people/Nora-Zur/pfbid02HRmMgAWvdYXieHmKKCPqodzx9Bn2aiabdUrE6EjoFp3ZMTLkKdVN5HsRSwdqNuXKl/', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/584404620_122150418680686171_3556114011047307700_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=_QF7xklfnZgQ7kNvwHYAxMw&amp;_nc_oc=AdnIwxhzMxLc9hraypeF8z6T_H4e3If8-tjSdvcdRGnTutNJ9n-ILM7AbM-H8H3PGPH3xwpM4BfVig_JTGq8H3tG&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=UHYB2ttD_zRGU0h_45FoLw&amp;oh=00_Afi7aFJw32WprMSUqSPeXp8JJs-IRCRMnwx3hzWW1wh9CA&amp;oe=692E2BE7', 'profileId': 'pfbid02HRmMgAWvdYXieHmKKCPqodzx9Bn2aiabdUrE6EjoFp3ZMTLkKdVN5HsRSwdqNuXKl', 'profileName': 'Nora Zur', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=1397668485268059', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzOTc2Njg0ODUyNjgwNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzk3NjY4NDg1MjY4MDU5', 'date': '2025-11-28T03:53:49.000Z', 'text': 'Comer y llevar  un bonyour  al colegio en esa época era un lujo ...', 'profileUrl': 'https://www.facebook.com/people/Alexander-Jimenez/pfbid01Do8DVh5GMEzcXXBPE2a5YkfXdkGHPTrmGfeBhUi3XSueoHowBUVS7nfy68u8qkhl/', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=_YrXabF6_a4Q7kNvwGbiuoe&amp;_nc_oc=AdkhKMVw0pRG3snIFduv0t6SdJ0Eu1wbHYG8QIKCFcVBOnifyrvznZoYMF7JE9k1F08&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;oh=00_Afj1RHSVLF1rRP5baa_ra7sIoGmhvjh81QY0LpRq-WLHMA&amp;oe=6951287A', 'profileId': 'pfbid01Do8DVh5GMEzcXXBPE2a5YkfXdkGHPTrmGfeBhUi3XSueoHowBUVS7nfy68u8qkhl', 'profileName': 'Alexander Jimenez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -3724,18 +3724,18 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>BEBIDA LÁCTEA QUE NO ES YOGURT</t>
+          <t>35 años robando a las familias... Excelente como se han enriquecido</t>
         </is>
       </c>
       <c r="G63" s="2" t="n">
-        <v>45986.32553240741</v>
+        <v>45986.47603009259</v>
       </c>
       <c r="H63" s="3" t="n">
         <v>45986</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>07:48:46</t>
+          <t>11:25:29</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3752,7 +3752,7 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1351672526428164', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzNTE2NzI1MjY0MjgxNjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzUxNjcyNTI2NDI4MTY0', 'date': '2025-11-25T07:48:46.000Z', 'text': 'BEBIDA LÁCTEA QUE NO ES YOGURT', 'profileUrl': 'https://www.facebook.com/roman.alberto.bedoya.lopez', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/509434251_122215215074155260_588325818133350255_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1LhlOD7GpnoQ7kNvwFLCtmD&amp;_nc_oc=AdlppfV-V0O1TD_Ua90k7jemwFfQEGEQjbL1UoQBQQT72ofTVygrHF55p4ivqstvEtonQUu0-rSMb9w-6QgVn84E&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=UHYB2ttD_zRGU0h_45FoLw&amp;oh=00_Afjp8R978c_aGbHkVc6zDMI5fgwPOURfSD7Thk-cMs5mRQ&amp;oe=692E2D7D', 'profileId': 'pfbid02YF1Jtj7SjES1WbAQLsnAMM9MUvwGn1fHTeDt8NkXpHVfWWhKmmdZHLGRrro7Ma9l', 'profileName': 'Roman Alberto Bedoya Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=1557146152191245', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE1NTcxNDYxNTIxOTEyNDU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNTU3MTQ2MTUyMTkxMjQ1', 'date': '2025-11-25T11:25:29.000Z', 'text': '35 años robando a las familias... Excelente como se han enriquecido', 'profileUrl': 'https://www.facebook.com/ricardo.alvarado.303209', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/489963098_1177889487157615_7278733843491031172_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=fkOa6hKBwWQQ7kNvwE770CK&amp;_nc_oc=AdlIxEGJW7_p_31I-ECyXdHSopQl2o0cipFax1GcALqgNG04RSzA-JcrrWluNkfGIdo&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=kaAQufN8LUu1rcUbRAQ-hQ&amp;oh=00_Afj-8-OLItP9Iq3d6LLJGn-1K-miwI6JqgmqZgGBsmrZqw&amp;oe=692F7417', 'profileId': 'pfbid02ib2n9SvbLvsvkyAP4r7V84dYof8ijJMvyDKQpdZR7Z3mGskVvhJFp3gZ5Hmsm41Tl', 'profileName': 'Ricardo Alvarado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -3778,18 +3778,18 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Que será de la vida de ese man, deberían buscarlo y hacer de nuevo la foto</t>
+          <t>Ese producto salió hace 38 años en 1987</t>
         </is>
       </c>
       <c r="G64" s="2" t="n">
-        <v>45986.89503472222</v>
+        <v>45989.22887731482</v>
       </c>
       <c r="H64" s="3" t="n">
-        <v>45986</v>
+        <v>45989</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>21:28:51</t>
+          <t>05:29:35</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3806,7 +3806,7 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1749236129073465', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE3NDkyMzYxMjkwNzM0NjU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNzQ5MjM2MTI5MDczNDY1', 'date': '2025-11-25T21:28:51.000Z', 'text': 'Que será de la vida de ese man, deberían buscarlo y hacer de nuevo la foto', 'profileUrl': 'https://www.facebook.com/people/Ivan-Rodriguez-Ruiz/100006904455714/', 'profilePicture': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t1.6435-1/59301667_2304314133142046_3924238509421887488_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=yzEZIjqlm0AQ7kNvwEjzymi&amp;_nc_oc=AdkN-gfT3Fts2szzpByAgyn5HjfBmDWACKdTusMJPGqKPweSkQfEGG6HjMz1H9umvK4&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=BhbfsiI3dPoDgsSKHdaydQ&amp;oh=00_AfjoQGeUxQOILu5x7jFn17oKuKbPlWSLB7UEHhM7xEWmpA&amp;oe=694FBC1C', 'profileId': '100006904455714', 'profileName': 'Ivan Rodriguez Ruiz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=4278004082421675', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzQyNzgwMDQwODI0MjE2NzU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N180Mjc4MDA0MDgyNDIxNjc1', 'date': '2025-11-28T05:29:35.000Z', 'text': 'Ese producto salió hace 38 años en 1987', 'profileUrl': 'https://www.facebook.com/estid.b', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/466975574_1239439620589224_8123929867513743042_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Yab7EjQtBbAQ7kNvwGWQ9VA&amp;_nc_oc=AdmvJVAvaJeHms8D2k9rSCbI8tk7tYt3yXZri87reP-Gw7PEugOjw7sI9J5zvYLhLjc&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=kaAQufN8LUu1rcUbRAQ-hQ&amp;oh=00_Afgwswq-pqHUWth0qoucjzwG-b1qvF40Lj0dTVl17yYd8Q&amp;oe=692F56A1', 'profileId': 'pfbid01RvCGkpxUPPnAHZSDdnAK7FUxvuXvP81gjXnDnDj8B27p9crMQo1zdC571J8TjQ2l', 'profileName': 'Traiding Us', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -3832,18 +3832,18 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Gxxxĝ</t>
+          <t>Joda si</t>
         </is>
       </c>
       <c r="G65" s="2" t="n">
-        <v>45987.14917824074</v>
+        <v>45987.14512731481</v>
       </c>
       <c r="H65" s="3" t="n">
         <v>45987</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>03:34:49</t>
+          <t>03:28:59</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3860,7 +3860,7 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=2315324775557493', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIzMTUzMjQ3NzU1NTc0OTM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMzE1MzI0Nzc1NTU3NDkz', 'date': '2025-11-26T03:34:49.000Z', 'text': 'Gxxxĝ', 'profileUrl': 'https://www.facebook.com/fernando.vargas.18892', 'profilePicture': 'https://scontent.fagc1-2.fna.fbcdn.net/v/t39.30808-1/471666993_1101336188305234_7887220475124323_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=yslKtthT5OkQ7kNvwGQNiSf&amp;_nc_oc=Adm5waGGi41fa95_pmi9Q7UCQ9Ok887EPRIuqoJyEndGFXCZBkjXtw9ZilBNhi-OOBQ&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-2.fna&amp;_nc_gid=BhbfsiI3dPoDgsSKHdaydQ&amp;oh=00_AfiwRfYPQReue6--2QJuvhDPKnMxoQ8BxSQQHqzMdtpAgw&amp;oe=692E1830', 'profileId': 'pfbid0r7SDsJ74hfe2d7cHrFXEYcz6wDzK3rgPQ2Yp5dHRVFMM87vT7afxHSe2evwxvBKol', 'profileName': 'Fernando Vargas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=1189320129825469', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExODkzMjAxMjk4MjU0Njk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTg5MzIwMTI5ODI1NDY5', 'date': '2025-11-26T03:28:59.000Z', 'text': 'Joda si', 'profileUrl': 'https://www.facebook.com/odasir.bovea.2025', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/515440668_122152448126785945_755157395072017963_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ea0sY9hoF-QQ7kNvwFiZGU9&amp;_nc_oc=AdnSIpgICIKVBJA1iyjr3TliQIwdwwvwxj96zuJnllfLisw8891oXLFrsM_3p0T2uxM&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=kaAQufN8LUu1rcUbRAQ-hQ&amp;oh=00_Afgp9zKamWLaXs6aUnNc4eJPma5E55vb2McnAdJP_rXvMA&amp;oe=692F62F9', 'profileId': 'pfbid022mnSBGhCovEeZAxAmsZnc6o5iDADaYoXL7zBiJQrvUJzKj5yWnAJZiNStdPZbLv1l', 'profileName': 'Odasir Bovea', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -3886,23 +3886,23 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Ese es peso pluma ?</t>
+          <t>Cuando traía suficientes Zucaritas jajjaja</t>
         </is>
       </c>
       <c r="G66" s="2" t="n">
-        <v>45985.79761574074</v>
+        <v>45989.15517361111</v>
       </c>
       <c r="H66" s="3" t="n">
-        <v>45985</v>
+        <v>45989</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>19:08:34</t>
+          <t>03:43:27</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K66" t="n">
@@ -3914,7 +3914,7 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=745583734460698', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3Xzc0NTU4MzczNDQ2MDY5OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N183NDU1ODM3MzQ0NjA2OTg=', 'date': '2025-11-24T19:08:34.000Z', 'text': 'Ese es peso pluma ?', 'profileUrl': 'https://www.facebook.com/mike.willians.5070', 'profilePicture': 'https://scontent.fagc1-2.fna.fbcdn.net/v/t39.30808-1/584383279_1562176281802832_965959746697360446_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=vSBQim4Kq0sQ7kNvwGyC0Zn&amp;_nc_oc=AdkgB0K6gF1GPS0uNDYjAkKvYv8gMeVu94jzJzl8p2qBl5txVgmGLyn-NewV1LantTI&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-2.fna&amp;_nc_gid=BhbfsiI3dPoDgsSKHdaydQ&amp;oh=00_AfimeJlGTqk26FDcs3UxpTPnwoUeEfjyaeA1QxyQoGIWeg&amp;oe=692E2D4B', 'profileId': '100040314257533', 'profileName': 'Mike Boomin', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=25337824319214925', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzI1MzM3ODI0MzE5MjE0OTI1', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yNTMzNzgyNDMxOTIxNDkyNQ==', 'date': '2025-11-28T03:43:27.000Z', 'text': 'Cuando traía suficientes Zucaritas jajjaja', 'profileUrl': 'https://www.facebook.com/johnfredy.silvaacuna', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/502621525_10161737237350432_142526493110053350_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=vefPY0F8pLYQ7kNvwGyDc2_&amp;_nc_oc=AdntQf6cYC_ZqIDPVjETnXaVrI0qUkg47Xic5YaA2ieK3VWFool85a12Rdl8TjGHOpY&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=kaAQufN8LUu1rcUbRAQ-hQ&amp;oh=00_Afj8_uwRZRBkA8hhwuAFcFxSEHFtTkNgQnK_Ou-46peZQA&amp;oe=692F6902', 'profileId': '758130431', 'profileName': 'John Fredy', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -3940,18 +3940,18 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Ay nooo, mis 35 años ￼￼😣😣</t>
+          <t>Esa época cuando el yogurt  era el propio sin derivados de sueros</t>
         </is>
       </c>
       <c r="G67" s="2" t="n">
-        <v>45986.99118055555</v>
+        <v>45986.09702546296</v>
       </c>
       <c r="H67" s="3" t="n">
         <v>45986</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>23:47:18</t>
+          <t>02:19:43</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3968,7 +3968,7 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=25455168007442408', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzI1NDU1MTY4MDA3NDQyNDA4', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yNTQ1NTE2ODAwNzQ0MjQwOA==', 'date': '2025-11-25T23:47:18.000Z', 'text': 'Ay nooo, mis 35 años ￼￼😣😣', 'profilePicture': 'https://scontent.fagc1-2.fna.fbcdn.net/v/t1.6435-1/82417803_10164598644810206_1162378966758064128_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zB9P-JSf9FkQ7kNvwHafmE7&amp;_nc_oc=AdnI5UyYeF70IScm2A6CymOtO8rmz-WRWiA3Z6aoDseGYuw0fvAh69v5qBsseWIKmtk&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-2.fna&amp;_nc_gid=BhbfsiI3dPoDgsSKHdaydQ&amp;oh=00_AfityAPyVfOv8-U4yLWVU0NflGsVPqcmUIVrl7WgGd8UcQ&amp;oe=694FD12D', 'profileId': 'pfbid0AaneegxKSM8erC6Ks6QN4v4Kr9AMNv6GRbJLYFKUdmn6BojviAmQutVe8qvwRQmzl', 'profileName': 'William A. Diaz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=1177485643784836', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNzc0ODU2NDM3ODQ4MzY=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTc3NDg1NjQzNzg0ODM2', 'date': '2025-11-25T02:19:43.000Z', 'text': 'Esa época cuando el yogurt  era el propio sin derivados de sueros', 'profileUrl': 'https://www.facebook.com/alejandra.mesa.347498', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/482057859_598914793147624_2770549664691375390_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=SI8PMuMdtoYQ7kNvwEMxe3R&amp;_nc_oc=Adnl0PXdixOw6GZzqMbUppQStTakDZscVHCkREFcjUJwQFRQrYgQda2OXld6426_weo&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=kaAQufN8LUu1rcUbRAQ-hQ&amp;oh=00_AfggA04z0g7XSJA9ypls6tqnJDORJTjgBXj-Bc2pDM_W5A&amp;oe=692F7A7D', 'profileId': '100090873254237', 'profileName': 'Alejandra Mesa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -3994,23 +3994,23 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Recuerdo esa primera propaganda: "¿Sabe usted qué es Bon Yurt? Bon Yurt... Bon Yurt..."</t>
+          <t>Lástima lo inflado del precio</t>
         </is>
       </c>
       <c r="G68" s="2" t="n">
-        <v>45985.90262731481</v>
+        <v>45985.81935185185</v>
       </c>
       <c r="H68" s="3" t="n">
         <v>45985</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>21:39:47</t>
+          <t>19:39:52</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K68" t="n">
@@ -4022,7 +4022,7 @@
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1871869833723454', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE4NzE4Njk4MzM3MjM0NTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xODcxODY5ODMzNzIzNDU0', 'date': '2025-11-24T21:39:47.000Z', 'text': 'Recuerdo esa primera propaganda: "¿Sabe usted qué es Bon Yurt? Bon Yurt... Bon Yurt..."', 'profileUrl': 'https://www.facebook.com/jorgeelias.estradacontreras', 'profilePicture': 'https://scontent.fagc1-2.fna.fbcdn.net/v/t39.30808-1/433482453_10233287643592000_5084357381527629157_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=wmQXzb3PKAgQ7kNvwH0Gz2R&amp;_nc_oc=AdnAegv12lG-eTDDgK-CsIDLr4iS0ZpU4sFkOi6MI0MM1pt2-vMouU1BlcRxTk9QSG0&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-2.fna&amp;_nc_gid=BhbfsiI3dPoDgsSKHdaydQ&amp;oh=00_Afh7Hsxp_22YzWP73FT7rcwkMltpv1OokXum5vIrhXLEjw&amp;oe=692E1C75', 'profileId': '1199642613', 'profileName': 'Jorge Elìas Estrada Contreras', 'likesCount': '2', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=1149425460681635', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNDk0MjU0NjA2ODE2MzU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTQ5NDI1NDYwNjgxNjM1', 'date': '2025-11-24T19:39:52.000Z', 'text': 'Lástima lo inflado del precio', 'profileUrl': 'https://www.facebook.com/MauRock66', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/566387101_26077118705210524_8269391756508760371_n.jpg?stp=cp6_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=03b0I3FbsKAQ7kNvwFkB60o&amp;_nc_oc=AdkOWkZX385a8h19-kEBRPMp8xCEDm2AtxPVfxqta3yE2k351frN98rVZJpbB5_gQak&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=kaAQufN8LUu1rcUbRAQ-hQ&amp;oh=00_AfhNRKJ3lSDNGQLqgGIQ2iauxG2pTDIXQDnntpQju5kQlw&amp;oe=692F6E87', 'profileId': '100000172524271', 'profileName': 'Sergio Mauricio', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -4048,18 +4048,18 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>ES MUY CARO</t>
         </is>
       </c>
       <c r="G69" s="2" t="n">
-        <v>45987.09119212963</v>
+        <v>45987.14025462963</v>
       </c>
       <c r="H69" s="3" t="n">
         <v>45987</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>02:11:19</t>
+          <t>03:21:58</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -4076,7 +4076,7 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=866995402501722', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3Xzg2Njk5NTQwMjUwMTcyMg==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184NjY5OTU0MDI1MDE3MjI=', 'date': '2025-11-26T02:11:19.000Z', 'text': '@', 'profileUrl': 'https://www.facebook.com/jose.del.c.mahecha.2025', 'profilePicture': 'https://scontent.fagc1-2.fna.fbcdn.net/v/t39.30808-1/459319364_3497032950593976_1872580334980248089_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=g4zO6e-MZ5oQ7kNvwElIQxI&amp;_nc_oc=Adkj2kDWibsDhT0z2euKW5BStkgXUgFlt-hYYrr8x_bHWTfVIYNokBrtp2R3InFxnUM&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-2.fna&amp;_nc_gid=BhbfsiI3dPoDgsSKHdaydQ&amp;oh=00_Afjfw6Pf5ZVbz-4EyH9m3QWH6BLGC2E2yu1LuN8jtVqelQ&amp;oe=692E20D2', 'profileId': 'pfbid02uh9nVYiF2bLXeTrYbUJz8k4Vfa1eczu91GR2eMKLWHjWohHVZbqkphfYndKpKgBVl', 'profileName': 'Jose Del C Mahecha', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=1573691613912258', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE1NzM2OTE2MTM5MTIyNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNTczNjkxNjEzOTEyMjU4', 'date': '2025-11-26T03:21:58.000Z', 'text': 'ES MUY CARO', 'profileUrl': 'https://www.facebook.com/kbotiva', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/469015823_10160949995396984_516869165540557324_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=c_jiZKq0HSoQ7kNvwEcap94&amp;_nc_oc=AdnOJ5jkld7nAEkYXLVekTASMNDzIAwiRQ5iqSLJ-0OgOcrwW7tPoLmfQGLo0gks6Ss&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=kaAQufN8LUu1rcUbRAQ-hQ&amp;oh=00_Afhdi3Ufg1T7h1RF9aEPRBoS4vW2n-NJLfz-KMF8dh4JLA&amp;oe=692F8BD0', 'profileId': 'pfbid02V1xJGpYraqPnRmcHQPWY7gHY6PUka9EbFDCuwaiZmp9yetS8RSjNzVXgxarRQ6Qql', 'profileName': 'Juan Kamilo Botiva', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -4102,23 +4102,23 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Como pasa el tiempo 😳</t>
+          <t>Cuando daban el vaso lleno no menos de la mitad como ahora</t>
         </is>
       </c>
       <c r="G70" s="2" t="n">
-        <v>45985.77719907407</v>
+        <v>45989.1062962963</v>
       </c>
       <c r="H70" s="3" t="n">
-        <v>45985</v>
+        <v>45989</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>18:39:10</t>
+          <t>02:33:04</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K70" t="n">
@@ -4130,7 +4130,7 @@
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1387173373123562', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzODcxNzMzNzMxMjM1NjI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzg3MTczMzczMTIzNTYy', 'date': '2025-11-24T18:39:10.000Z', 'text': 'Como pasa el tiempo 😳', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t39.30808-6/588706634_4751773904963963_6329048467427518043_n.jpg?stp=dst-jpg_fb30_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=5ziYfdGp3A8Q7kNvwFr4Qxq&amp;_nc_oc=Adl0mauZCUhk8zcl7lTsPmo9jBsD3UfFpW5fRCq6-w8Thex5c9MxfeeZACczh5vnG5A&amp;_nc_zt=23&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=BhbfsiI3dPoDgsSKHdaydQ&amp;oh=00_Afh9yXUgTvF2tHh1WjXuWHHCVNO7FJbFF28kRxrQAXjkSA&amp;oe=692E1F68'}, 'id': '4751773898297297', 'cix_screen': None, 'massive_image': {'width': 450, 'height': 444}, 'image': {'uri': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t39.30808-6/588706634_4751773904963963_6329048467427518043_n.jpg?stp=dst-jpg_p228x119_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=5ziYfdGp3A8Q7kNvwFr4Qxq&amp;_nc_oc=Adl0mauZCUhk8zcl7lTsPmo9jBsD3UfFpW5fRCq6-w8Thex5c9MxfeeZACczh5vnG5A&amp;_nc_zt=23&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=BhbfsiI3dPoDgsSKHdaydQ&amp;oh=00_AfhbMFfj8hK3r2VzE_4t_04OlQ9DZIHYI4xk-xP3UwNS8A&amp;oe=692E1F68', 'width': 228, 'height': 225}, 'ocrText': 'May be an image of one or more people and eyeglasses'}], 'profilePicture': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t39.30808-1/515600430_4593995740741781_8041180333788133360_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=_FREGiDPRcoQ7kNvwHCrB-1&amp;_nc_oc=AdkpqJZbZgmi1Xak46hmqpOLNBFDpp5RYXCUza7oEdBcKz-Il54p7kH-sntjarllR4Q&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=BhbfsiI3dPoDgsSKHdaydQ&amp;oh=00_AfjKoiIgBYbhWlkopFH9HYCA_wj6ZE81I8Z7P14cenbmww&amp;oe=692E045A', 'profileId': 'pfbid02BEaDdbCBDrDaiinT2vB4t3gubuxbg53RWBTL6H8jZZNqQk7wDuW5Y4M5rXX71v1Yl', 'profileName': 'Alberto Caicedo', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=1929027471300871', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE5MjkwMjc0NzEzMDA4NzE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xOTI5MDI3NDcxMzAwODcx', 'date': '2025-11-28T02:33:04.000Z', 'text': 'Cuando daban el vaso lleno no menos de la mitad como ahora', 'profileUrl': 'https://www.facebook.com/jesus.ospinocasas', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/469000219_10161472186358705_6600397267435695449_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=xGldb9oMtE4Q7kNvwHJF_Ep&amp;_nc_oc=AdlIaTsy2XkG1h7JMwqsiN_DSS3zHUNf6jf1ouS8BAqkXR9XXp1_7N4TFQRoSe6StY4&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=kaAQufN8LUu1rcUbRAQ-hQ&amp;oh=00_AfhaXEjipKlntyadJMdKsITyqZZ0FWH0nygUYzY1jIMWkw&amp;oe=692F7DC7', 'profileId': 'pfbid02nehyg3HLcDDSWLGPWnHtDVL1fJghdEd99g1rbcXi2RBmx8P4Lid1mtfUR1s3Wv2pl', 'profileName': 'Jesus Ospino Casas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -4156,23 +4156,23 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Inaccesible muy caro 🫰</t>
+          <t>Ojalá el precio también sea retro.</t>
         </is>
       </c>
       <c r="G71" s="2" t="n">
-        <v>45985.7908912037</v>
+        <v>45986.03555555556</v>
       </c>
       <c r="H71" s="3" t="n">
-        <v>45985</v>
+        <v>45986</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>18:58:53</t>
+          <t>00:51:12</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K71" t="n">
@@ -4184,7 +4184,7 @@
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=860109699855760', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3Xzg2MDEwOTY5OTg1NTc2MA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184NjAxMDk2OTk4NTU3NjA=', 'date': '2025-11-24T18:58:53.000Z', 'text': 'Inaccesible muy caro 🫰', 'profileUrl': 'https://www.facebook.com/fredy.pinedaromero', 'profilePicture': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t39.30808-1/582712248_10163552280388631_2890703655290218320_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=jgd_4CG0ybwQ7kNvwGxo55w&amp;_nc_oc=AdkYGMTwFs8_yxgy4NAMCgG3fJxuFxzOppJEaG88o5fLGwgu6eYcq4HnK_QJfMFZUmc&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=BhbfsiI3dPoDgsSKHdaydQ&amp;oh=00_Afi-7RgGkwJ3DvXnf192HF08mFRvTkAr7JnkW0S3PzDJPw&amp;oe=692E23E7', 'profileId': 'pfbid0VwuSrAHgdXHaWLx7YXoceXnYPsn9mhsmEbAaBtwCsqTkx71EasYZYxdJoED3dDiPl', 'profileName': 'Fredy Alejandro Pineda Romero', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=1597679538060212', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE1OTc2Nzk1MzgwNjAyMTI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNTk3Njc5NTM4MDYwMjEy', 'date': '2025-11-25T00:51:12.000Z', 'text': 'Ojalá el precio también sea retro.', 'profileUrl': 'https://www.facebook.com/people/Hansel-Henao/pfbid02SFXNw6qvozKP6bu6B2vQHQFyQLuKpZeDR1MzdUM4HVebSccLxc7wLQFwUrUDasAjl/', 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.30808-1/574881308_122141790008886423_3926047453065656662_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Lpi8ftXijI4Q7kNvwGwQGjD&amp;_nc_oc=AdkRYg-u0TLwVXeDkx6W1W24u61rwu-vRg1W4tIQ6oBCV4-ax9bbja0Eou-Bhi3Kf1s&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=kaAQufN8LUu1rcUbRAQ-hQ&amp;oh=00_AfgXHWOyS9iSMMmtdNeQObVqKe9_xyW--ylscFGQ9m-rzw&amp;oe=692F6F8B', 'profileId': 'pfbid02SFXNw6qvozKP6bu6B2vQHQFyQLuKpZeDR1MzdUM4HVebSccLxc7wLQFwUrUDasAjl', 'profileName': 'Hansel Henao', 'likesCount': '5', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -4210,23 +4210,23 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Este man no es el que hizo de Vaselino en vecinos?</t>
+          <t>Mr. bean hace 35 años</t>
         </is>
       </c>
       <c r="G72" s="2" t="n">
-        <v>45986.06347222222</v>
+        <v>45989.1690162037</v>
       </c>
       <c r="H72" s="3" t="n">
-        <v>45986</v>
+        <v>45989</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>01:31:24</t>
+          <t>04:03:23</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K72" t="n">
@@ -4238,7 +4238,7 @@
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1383064816735090', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzODMwNjQ4MTY3MzUwOTA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzgzMDY0ODE2NzM1MDkw', 'date': '2025-11-25T01:31:24.000Z', 'text': 'Este man no es el que hizo de Vaselino en vecinos?', 'profilePicture': 'https://scontent.fagc1-2.fna.fbcdn.net/v/t39.30808-1/566211812_10237810548219540_8624372396031958154_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=x8XH7PmwKJQQ7kNvwE9f_rf&amp;_nc_oc=AdmipS6Qvc2N-ZY_1q59ipj7cdjYXgeAbrnljsA2Kq4Zd5GxJcP_yMs1Kf6s9XPkQlQ&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-2.fna&amp;_nc_gid=BhbfsiI3dPoDgsSKHdaydQ&amp;oh=00_AfgDokJrRk4sH3850h1oj1N18uMuLEhNGKiU4PND_xhw6w&amp;oe=692E16A2', 'profileId': 'pfbid0ubhAFsWmtBnqJ3FmcvjMMoRm4aVdVt64LUsRBF7RbFYUtzcodzgCanR4MvZBsiFgl', 'profileName': 'Juan Carlos Mendez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=1536284130945455', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE1MzYyODQxMzA5NDU0NTU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNTM2Mjg0MTMwOTQ1NDU1', 'date': '2025-11-28T04:03:23.000Z', 'text': 'Mr. bean hace 35 años', 'profileUrl': 'https://www.facebook.com/jorge.garzon.77', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/527489130_10162994824520042_7884501125422845096_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=eHp5nIwB-_YQ7kNvwHlCQ56&amp;_nc_oc=AdlyFBJSZQhJbmnJl-72mb7uMh8ta0Rzxs5bqoPAh4xANOG5onwqDjl1K45crRW7Q-c&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=jVwHuwRQzmrJfn08a9QwZw&amp;oh=00_Afi6KH3V8D3xh3lTF3zbcsYKlMcqo3hhtTe4YC2e0ztyzQ&amp;oe=692F555D', 'profileId': 'pfbid08TpP3imBw7wArxQihBWDSapMuzwkwHSAyGF7SoKraQukdx1JPLSuM3UYBKKcDphdl', 'profileName': 'Jorge Andrés Garzòn', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -4264,18 +4264,18 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Si la i as kierda no le pone problema a avelardo llorenla yose ke porlas vias legales no le ganan la is la III erda tiene la ventaja con la a rejistraduria coprada ellos  dejan en pueblos las botasiones astala 6 dela tarde nunca avia pasao sea ke votaron por ellos</t>
+          <t>Deberían más BN de bajar esos precios</t>
         </is>
       </c>
       <c r="G73" s="2" t="n">
-        <v>45987.04873842592</v>
+        <v>45985.97886574074</v>
       </c>
       <c r="H73" s="3" t="n">
-        <v>45987</v>
+        <v>45985</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>01:10:11</t>
+          <t>23:29:34</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -4292,7 +4292,7 @@
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=3387224181452602', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzMzODcyMjQxODE0NTI2MDI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18zMzg3MjI0MTgxNDUyNjAy', 'date': '2025-11-26T01:10:11.000Z', 'text': 'Si la i as kierda no le pone problema a avelardo llorenla yose ke porlas vias legales no le ganan la is la III erda tiene la ventaja con la a rejistraduria coprada ellos  dejan en pueblos las botasiones astala 6 dela tarde nunca avia pasao sea ke votaron por ellos', 'profileUrl': 'https://www.facebook.com/argemiro.giraldo.507535', 'profilePicture': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=zc_bz3Z8qrgQ7kNvwEvANR3&amp;_nc_oc=AdncEcF-iQIejbR7ePDi5a00Rpzkci12-B6Jm9ZAsqUeN2bnqv_kvDtuPEfVXTGkJb8&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-1.fna&amp;oh=00_Afh4IS4ZaDLJYBvflqL6jL6hrULzNE2wTlqb-c6cN-Jjuw&amp;oe=694FD6FA', 'profileId': 'pfbid02JpoKiYXhUrXDYuMexeeQCWHLAegS2VXyrY6dDwJkbZAdh7usM4qXmzzZ8zrMDkbFl', 'profileName': 'Argemiro Giraldo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=1180817223396975', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExODA4MTcyMjMzOTY5NzU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTgwODE3MjIzMzk2OTc1', 'date': '2025-11-24T23:29:34.000Z', 'text': 'Deberían más BN de bajar esos precios', 'profileUrl': 'https://www.facebook.com/andres.berrio.5099', 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.30808-1/505076476_2471279906587344_4562158579986467172_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=KlCk15UWv7QQ7kNvwGvJ7ll&amp;_nc_oc=AdnQJdwqum8_zmpGzH65ou-fomXmRamkS3Z7E9Dq8VhhwBENNyGgekS4XYEdrfmX2d0&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=jVwHuwRQzmrJfn08a9QwZw&amp;oh=00_Afiu0BCf_LpDz_ZcjF2v_bxwpFcTJ-nlpWypqj0FS22buQ&amp;oe=692F89B2', 'profileId': '100011160751685', 'profileName': 'Jõsê Åńdrés Bêrrïø', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -4318,18 +4318,18 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Ya no sabe lo mismo...</t>
+          <t>Señora cálmese</t>
         </is>
       </c>
       <c r="G74" s="2" t="n">
-        <v>45987.02572916666</v>
+        <v>45989.13403935185</v>
       </c>
       <c r="H74" s="3" t="n">
-        <v>45987</v>
+        <v>45989</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>00:37:03</t>
+          <t>03:13:01</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -4346,7 +4346,7 @@
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=2942130725965941', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzI5NDIxMzA3MjU5NjU5NDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yOTQyMTMwNzI1OTY1OTQx', 'date': '2025-11-26T00:37:03.000Z', 'text': 'Ya no sabe lo mismo...', 'profileUrl': 'https://www.facebook.com/pherseo.poetaerrante', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/464721011_27465017686447590_5742974034914001954_n.jpg?stp=c113.4.577.576a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=EghelewY-04Q7kNvwEaLG7M&amp;_nc_oc=Adknoo5e-0KJhZQYHPUJdPgmXcQlmC0A5gg3YJK0lCwdM67WnCHdyitFSvVfGzxRht0&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=PDcKgBnuMIjJ4HMr7zhoyQ&amp;oh=00_AfhVOMOaNIw__W8E-rlddy0kmp30mtOHDP6TKuGoP8CFQw&amp;oe=692E329A', 'profileId': '100000981850453', 'profileName': 'Duber Don Gato Rosso', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=3149740885182000', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzMxNDk3NDA4ODUxODIwMDA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18zMTQ5NzQwODg1MTgyMDAw', 'date': '2025-11-28T03:13:01.000Z', 'text': 'Señora cálmese', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t1.6435-1/29243723_10215598543373760_3906194059026235392_n.jpg?stp=c4.0.365.365a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=NYfobYy4ImoQ7kNvwFiTind&amp;_nc_oc=AdlHFYN8FhH2W4bh_GSimz8izWT5mSJzE7s8-FuNWyo8F0vkV_TzrqP6n937GeFAt6E&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=jVwHuwRQzmrJfn08a9QwZw&amp;oh=00_AfiM7AoHj1BIQHRWfW9ugbt7Ml95LQjo1HA0304uaPJzlg&amp;oe=6951219F', 'profileId': 'pfbid02LQeQ6DuG5anxZbRW6ravPr5Jm1mwKMSXDdzjGE3jaeaog422FMPAkDMJoZ9Jyt7zl', 'profileName': 'Carlos Mauricio Muelas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -4372,18 +4372,19 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Y cuánto plástico acumulado en estas décadas???? ya debería haber dejado de usar tanto plástico👎🏼</t>
+          <t>Chévere que hubiese publicado la foto original.
+Se nota el montaje por los sellitos negros de "exceso en azúcares" en el envase 😁</t>
         </is>
       </c>
       <c r="G75" s="2" t="n">
-        <v>45987.01280092593</v>
+        <v>45987.11913194445</v>
       </c>
       <c r="H75" s="3" t="n">
         <v>45987</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>00:18:26</t>
+          <t>02:51:33</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -4400,7 +4401,7 @@
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=772382055843885', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3Xzc3MjM4MjA1NTg0Mzg4NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N183NzIzODIwNTU4NDM4ODU=', 'date': '2025-11-26T00:18:26.000Z', 'text': 'Y cuánto plástico acumulado en estas décadas???? ya debería haber dejado de usar tanto plástico👎🏼', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/586382584_25001899076145851_6275114829556037212_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=hHJp_iMlPAEQ7kNvwFw-iPR&amp;_nc_oc=AdkdmHNeT0AilyBtsVn8YtsXGeooqEMQYmK0Yu5nFIGpDlo7vRcUniKLTOvoANtU-vQ&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=PDcKgBnuMIjJ4HMr7zhoyQ&amp;oh=00_AfiJlf1dmN7DCWJhouNPZ4TEvWsAVUetdyF3cUzjddmeaA&amp;oe=692E1925', 'profileId': 'pfbid02GdEzbpzw9UWy4oNHGUXMpXqZTU1ptC2Xizom4G3hXPmZxCmXk3kSpfGhvYGU54C6l', 'profileName': 'Emilio Garzía', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=1166068235132001', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNjYwNjgyMzUxMzIwMDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTY2MDY4MjM1MTMyMDAx', 'date': '2025-11-26T02:51:33.000Z', 'text': 'Chévere que hubiese publicado la foto original.\nSe nota el montaje por los sellitos negros de "exceso en azúcares" en el envase 😁', 'profileUrl': 'https://www.facebook.com/jorge.jimenez.24273', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/518278300_24459861853611584_4348845349159347876_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RYbEsEN5B48Q7kNvwG0UYwI&amp;_nc_oc=AdnMI-w3VxmNyIndaxH7_HT4ec-_pZy7QAFvXuelsFADQDS7_zToOrsEqOUu_NMpqgI&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=jVwHuwRQzmrJfn08a9QwZw&amp;oh=00_AfjUkkPSJZXeM9OumL7QeaaQ0gHFkWoB8W3PmNjEy2K5aA&amp;oe=692F777E', 'profileId': 'pfbid0Q125x8qQqjPUCNybhXJBQzGY1WRWYkp6wr3kHuWDGKFxqxm56GMEgCM35MV1uggol', 'profileName': 'Jorge Jimenez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -4426,23 +4427,23 @@
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Ya no saben igual y mucho más poquito</t>
+          <t>Pensé que el de la foto era Dante Gebel 😅</t>
         </is>
       </c>
       <c r="G76" s="2" t="n">
-        <v>45987.10961805555</v>
+        <v>45986.99915509259</v>
       </c>
       <c r="H76" s="3" t="n">
-        <v>45987</v>
+        <v>45986</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>02:37:51</t>
+          <t>23:58:47</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K76" t="n">
@@ -4454,7 +4455,7 @@
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1727270721277307', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE3MjcyNzA3MjEyNzczMDc=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNzI3MjcwNzIxMjc3MzA3', 'date': '2025-11-26T02:37:51.000Z', 'text': 'Ya no saben igual y mucho más poquito', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/464143757_1297560301407075_73410222741401897_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=Nt4vrUYH3UwQ7kNvwGycjVz&amp;_nc_oc=AdkJeWAAa6Rhkap5ToXv1JfkuQtmKJGaULfW-bm8Ixky-SqfzTbGPgwgarGww_5xG9k&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=PDcKgBnuMIjJ4HMr7zhoyQ&amp;oh=00_Afjcz-U3eSyL8mucwcrOu4LnHS1Z7biGittu7M4HIWOoMA&amp;oe=692E3908', 'profileId': '100034593527241', 'profileName': 'Andrés Paolo C R', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=4187311174822779', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzQxODczMTExNzQ4MjI3Nzk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N180MTg3MzExMTc0ODIyNzc5', 'date': '2025-11-25T23:58:47.000Z', 'text': 'Pensé que el de la foto era Dante Gebel 😅', 'profileUrl': 'https://www.facebook.com/people/Nora-Zur/pfbid0Dt8AkztZnPD1rp6hcZRAEzCnnq3kXvZsJT244jCv8oaPARo6WDgNhL7nK8kvCt4nl/', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/584404620_122150418680686171_3556114011047307700_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=_QF7xklfnZgQ7kNvwH9cctJ&amp;_nc_oc=Adm3VcqTDTDbVN5wWYLEaYx4w9MVh8NNqq16ZwKkUiHo7os96fQ-nYH1EqlfzdyEKtg&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=jVwHuwRQzmrJfn08a9QwZw&amp;oh=00_AfhZZCDQ9E0OMDbX9oURR1EqW3Vk9_7TGOPjg-UhxSJU5w&amp;oe=692F7D67', 'profileId': 'pfbid0Dt8AkztZnPD1rp6hcZRAEzCnnq3kXvZsJT244jCv8oaPARo6WDgNhL7nK8kvCt4nl', 'profileName': 'Nora Zur', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -4480,18 +4481,18 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Ahora el precio es el del 2035, qué gonorrea si es caro un bon yurt.</t>
+          <t>Cuando traía bastante antes del fraude debajo del vaso</t>
         </is>
       </c>
       <c r="G77" s="2" t="n">
-        <v>45985.96413194444</v>
+        <v>45989.22841435186</v>
       </c>
       <c r="H77" s="3" t="n">
-        <v>45985</v>
+        <v>45989</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>23:08:21</t>
+          <t>05:28:55</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4508,7 +4509,7 @@
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1141110784879560', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNDExMTA3ODQ4Nzk1NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTQxMTEwNzg0ODc5NTYw', 'date': '2025-11-24T23:08:21.000Z', 'text': 'Ahora el precio es el del 2035, qué gonorrea si es caro un bon yurt.', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/557590332_10162478701478778_7375230878345478238_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=AKtgcucDQUIQ7kNvwHFwB09&amp;_nc_oc=AdnI8BYZRCPrjqpIGFnZmGac8vUwqFfO9n9qRRa5A99xmltKShIOUMjPgQx3qIdyHqA&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=PDcKgBnuMIjJ4HMr7zhoyQ&amp;oh=00_AfgZeLPSYw9Yj5x0JfCJCBTWT9jX8ArMA4hyNJftwNC_Lg&amp;oe=692E16F1', 'profileId': 'pfbid0onTAioFdEk33Bqy4XtroPpWZjiNRBFaRdtqLEGxPwx5XDmXqbUdagjmLipSp1Bvvl', 'profileName': 'John Lozano', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=2898946763829118', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzI4OTg5NDY3NjM4MjkxMTg=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yODk4OTQ2NzYzODI5MTE4', 'date': '2025-11-28T05:28:55.000Z', 'text': 'Cuando traía bastante antes del fraude debajo del vaso', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=b224c7&amp;_nc_ohc=_YrXabF6_a4Q7kNvwFRkpAp&amp;_nc_oc=AdkP2d5UjUdaLCIpJ17I4uPf77e8g8CrqiyDFMAE4q-WmQaBr2xO0Ns14kqxlhE1p7A&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;oh=00_AfjTmTPHUEHZWdh2uY_L28KMcEPPLCInyphAmo6wL8r12g&amp;oe=6951287A', 'profileId': '571233283', 'profileName': 'Luis Alberto Jimenez Mendieta', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -4534,18 +4535,18 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>PARA COMPRAR UNO EN ESTOS DIAS HAY QUE VENDER UN RIÑON</t>
+          <t>BEBIDA LÁCTEA QUE NO ES YOGURT</t>
         </is>
       </c>
       <c r="G78" s="2" t="n">
-        <v>45987.06064814814</v>
+        <v>45986.32553240741</v>
       </c>
       <c r="H78" s="3" t="n">
-        <v>45987</v>
+        <v>45986</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>01:27:20</t>
+          <t>07:48:46</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4562,7 +4563,7 @@
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1394764695697246', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzOTQ3NjQ2OTU2OTcyNDY=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzk0NzY0Njk1Njk3MjQ2', 'date': '2025-11-26T01:27:20.000Z', 'text': 'PARA COMPRAR UNO EN ESTOS DIAS HAY QUE VENDER UN RIÑON', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/412356559_1060423464994654_1796713112590319482_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=B4Rcy7jb2KIQ7kNvwFwCSEO&amp;_nc_oc=AdmnEh71MFAfnugzqOJHP8MzIN8690Kd18h_xfUCgPswR9PFKcxFbrksr4dEVG2YOAI&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=PDcKgBnuMIjJ4HMr7zhoyQ&amp;oh=00_Afgwxb9k9uCjgyG-0vSjXa4VwOKLhaxx2GWUCRS9bQ_TRw&amp;oe=692E2BF1', 'profileId': 'pfbid02p6gwcf2vgY9FTNpNQNncBGBnJHCzxxzFkj4bjQvzesPUDH49m7oTSbQSB45mFpdNl', 'profileName': 'Jhon Nkunia Congo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=1351672526428164', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzNTE2NzI1MjY0MjgxNjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzUxNjcyNTI2NDI4MTY0', 'date': '2025-11-25T07:48:46.000Z', 'text': 'BEBIDA LÁCTEA QUE NO ES YOGURT', 'profileUrl': 'https://www.facebook.com/roman.alberto.bedoya.lopez', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/509434251_122215215074155260_588325818133350255_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1LhlOD7GpnoQ7kNvwFc_Mtq&amp;_nc_oc=AdkDsiKpmEbpEX9hgoomou3V0KaPxOYF67Sspa90U8FuWEU6GE7JUvQuH9JEELYSFKQ&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=jVwHuwRQzmrJfn08a9QwZw&amp;oh=00_AfhD2RUTkGd_EZC_6hmib1RhadayIrweFN-JacsMEfhxbw&amp;oe=692F7EFD', 'profileId': 'pfbid026PgiVZewJC9vyUsZPAu2k5QWpu4wQUAA9W5dUVXZ5RXNfJ4LTqk1a4JL3w1Hf7kYl', 'profileName': 'Roman Alberto Bedoya Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -4588,18 +4589,18 @@
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Ojalá traiga la misma cantidad de antes y no lo poco que trae ahora</t>
+          <t>Que será de la vida de ese man, deberían buscarlo y hacer de nuevo la foto</t>
         </is>
       </c>
       <c r="G79" s="2" t="n">
-        <v>45986.99378472222</v>
+        <v>45986.89503472222</v>
       </c>
       <c r="H79" s="3" t="n">
         <v>45986</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>23:51:03</t>
+          <t>21:28:51</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4616,7 +4617,7 @@
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1924670054749279', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE5MjQ2NzAwNTQ3NDkyNzk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xOTI0NjcwMDU0NzQ5Mjc5', 'date': '2025-11-25T23:51:03.000Z', 'text': 'Ojalá traiga la misma cantidad de antes y no lo poco que trae ahora', 'profileUrl': 'https://www.facebook.com/joseignacio.guzman.35', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/384276911_10227578720287040_5664517602042236735_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=BVsZ2fAZfbQQ7kNvwEviNB2&amp;_nc_oc=Adn2sqCSPuAjSpTaH8k2J58XcNupJROaD4kCLdMyN4kHT3A_Jdfcrcp6vQ9piaAikK8&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=PDcKgBnuMIjJ4HMr7zhoyQ&amp;oh=00_AfgGNLYALrmvXA-vkQ8k8PK6LILkZtWOIbSufJEWfsJMwA&amp;oe=692E09F4', 'profileId': 'pfbid0NeVnHBYMWCHzxfJHsYac5CSExL99HKXfyL1LkanaHd2n7XM5LoQ2r8RuovCgxseFl', 'profileName': 'Ignacio Guzman', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=1749236129073465', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE3NDkyMzYxMjkwNzM0NjU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNzQ5MjM2MTI5MDczNDY1', 'date': '2025-11-25T21:28:51.000Z', 'text': 'Que será de la vida de ese man, deberían buscarlo y hacer de nuevo la foto', 'profileUrl': 'https://www.facebook.com/people/Ivan-Rodriguez-Ruiz/100006904455714/', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t1.6435-1/59301667_2304314133142046_3924238509421887488_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=yzEZIjqlm0AQ7kNvwG23iLO&amp;_nc_oc=AdlJqQX_ZbY-FdEyQc0IsR2RUw2w_ek8xW3MOXpFgRMUnYmsVMQOG0gK93U0xw4S5qs&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=jVwHuwRQzmrJfn08a9QwZw&amp;oh=00_AfhZ-rcD6h1ihPR1QCzqfJ3C4MA5cClmNKK15icCliGpjg&amp;oe=69510D9C', 'profileId': '100006904455714', 'profileName': 'Ivan Rodriguez Ruiz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -4642,18 +4643,18 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Desde cuándo el CHAMBON del INGENIERO Obando, sirve de IA para promocionar Bonyurt jaja</t>
+          <t>Ay nooo, mis 35 años ￼￼😣😣</t>
         </is>
       </c>
       <c r="G80" s="2" t="n">
-        <v>45986.70241898148</v>
+        <v>45986.99118055555</v>
       </c>
       <c r="H80" s="3" t="n">
         <v>45986</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>16:51:29</t>
+          <t>23:47:18</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4670,7 +4671,7 @@
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=724688210136182', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzcyNDY4ODIxMDEzNjE4Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N183MjQ2ODgyMTAxMzYxODI=', 'date': '2025-11-25T16:51:29.000Z', 'text': 'Desde cuándo el CHAMBON del INGENIERO Obando, sirve de IA para promocionar Bonyurt jaja', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/491846101_10234111509665430_2018683431021948483_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=251Y5cfpQe0Q7kNvwHF-a_M&amp;_nc_oc=AdleaG3hNN45BvikoEyptDOdckWPz86FUBSF9g-py4N2hdB1d_WLp1H1_F8U7ud5xmU&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=PDcKgBnuMIjJ4HMr7zhoyQ&amp;oh=00_Afi1LteJKglIOqkS8_8WhWkFuBqTsaTT9lz8jh_nPpXDiA&amp;oe=692E3AB2', 'profileId': 'pfbid025gx4hy911r8XWcmT7bKkYjV2H1NyUriRBGoi12X5apiuKNsKAsWybFpNQXRPKrE7l', 'profileName': 'Daniel Ricardo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=25455168007442408', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzI1NDU1MTY4MDA3NDQyNDA4', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yNTQ1NTE2ODAwNzQ0MjQwOA==', 'date': '2025-11-25T23:47:18.000Z', 'text': 'Ay nooo, mis 35 años ￼￼😣😣', 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t1.6435-1/82417803_10164598644810206_1162378966758064128_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zB9P-JSf9FkQ7kNvwH8fN6J&amp;_nc_oc=AdlPDbzsiifo09ZNf4DrPwtM3GXZpsFKheLX_-SiPU1-cuMIxySSZjzseokoKGOc-e0&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=jVwHuwRQzmrJfn08a9QwZw&amp;oh=00_AfjcqXwUZyGCo8scsmjVJ8takrrIwzxRG-vS4K_Je_b8YQ&amp;oe=695122AD', 'profileId': 'pfbid02DxGqGiJwU4EGv3yb63JbZAAbWRvPjqaZBpRXrd2jgz8RJQ8GgVnaTwvnRBykm1m5l', 'profileName': 'William A. Diaz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -4696,23 +4697,23 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Eso para que SIRVE</t>
+          <t>Recuerdo esa primera propaganda: "¿Sabe usted qué es Bon Yurt? Bon Yurt... Bon Yurt..."</t>
         </is>
       </c>
       <c r="G81" s="2" t="n">
-        <v>45985.77598379629</v>
+        <v>45985.90262731481</v>
       </c>
       <c r="H81" s="3" t="n">
         <v>45985</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>18:37:25</t>
+          <t>21:39:47</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K81" t="n">
@@ -4724,7 +4725,7 @@
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=24232223896453338', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzI0MjMyMjIzODk2NDUzMzM4', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yNDIzMjIyMzg5NjQ1MzMzOA==', 'date': '2025-11-24T18:37:25.000Z', 'text': 'Eso para que SIRVE', 'profileUrl': 'https://www.facebook.com/people/Ricardo-Martinez/pfbid02MLGTcVqW4uMK4Vx9zgu2HMLSDFewFZiqfZcSm3Tm7CCeAemaYvMRLeRU3zBbwiysl/', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/363379112_265769309508179_7686631491666001927_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VID1p2X8JqAQ7kNvwFwk4d8&amp;_nc_oc=AdkuIuUPQ3zeaohE_-pNbRrXWW4ulaslnmmf7XJVGn9uhkUk8zKZ3Gif0DrrlFlqo_Q&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=PDcKgBnuMIjJ4HMr7zhoyQ&amp;oh=00_AfjYBPqlYdILByfkPL3NklBeqEjQU8HsrMnpzjD7cA63rQ&amp;oe=692E1C2D', 'profileId': 'pfbid02MLGTcVqW4uMK4Vx9zgu2HMLSDFewFZiqfZcSm3Tm7CCeAemaYvMRLeRU3zBbwiysl', 'profileName': 'Ricardo Martinez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=1871869833723454', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE4NzE4Njk4MzM3MjM0NTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xODcxODY5ODMzNzIzNDU0', 'date': '2025-11-24T21:39:47.000Z', 'text': 'Recuerdo esa primera propaganda: "¿Sabe usted qué es Bon Yurt? Bon Yurt... Bon Yurt..."', 'profileUrl': 'https://www.facebook.com/jorgeelias.estradacontreras', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/433482453_10233287643592000_5084357381527629157_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=wmQXzb3PKAgQ7kNvwGCEziA&amp;_nc_oc=Adkm88YsyDtBn3zIlMykJgoUp26wBW8BiWWXK9QTHw_hLEnSqNwQopcXQyYRcYEWVSQ&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=jVwHuwRQzmrJfn08a9QwZw&amp;oh=00_AfgPqom5UnfrLs6X_fEZGqfrNoWYxvopY-pAXtVyEn07IQ&amp;oe=692F6DF5', 'profileId': '1199642613', 'profileName': 'Jorge Elìas Estrada Contreras', 'likesCount': '2', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -4750,23 +4751,23 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Antes traía más , le undieron el fondo al envase</t>
+          <t>Uy yo si no recuerdo ese Bon Yurt, toda la vida solo Choco Crispis lokas jajaja</t>
         </is>
       </c>
       <c r="G82" s="2" t="n">
-        <v>45985.94378472222</v>
+        <v>45989.12405092592</v>
       </c>
       <c r="H82" s="3" t="n">
-        <v>45985</v>
+        <v>45989</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>22:39:03</t>
+          <t>02:58:38</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K82" t="n">
@@ -4778,7 +4779,7 @@
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=3091916754347395', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzMwOTE5MTY3NTQzNDczOTU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18zMDkxOTE2NzU0MzQ3Mzk1', 'date': '2025-11-24T22:39:03.000Z', 'text': 'Antes traía más , le undieron el fondo al envase', 'profileUrl': 'https://www.facebook.com/manuelemilio.alvarezgonzalez', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=zc_bz3Z8qrgQ7kNvwFw2UEg&amp;_nc_oc=Adnw6L_LIldqsd2BfofBdCIcJKb2jim4PL_FXBYJ04UUMeVXnWpKMUXh5wuj6YUbLrs&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;oh=00_Afj0YFlHTOZBWbgDOM5dJ233Wttux8p6iZo7yXab0L4fUw&amp;oe=694FD6FA', 'profileId': 'pfbid0dTDVGm2FGiwwhELByrn1LPoprpSBscZzQzUh5VBw9FMk8LQDsBkgxF6AziNg2d5nl', 'profileName': 'Manuel Emilio Alvarez Gonzalez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=691990133713982', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzY5MTk5MDEzMzcxMzk4Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N182OTE5OTAxMzM3MTM5ODI=', 'date': '2025-11-28T02:58:38.000Z', 'text': 'Uy yo si no recuerdo ese Bon Yurt, toda la vida solo Choco Crispis lokas jajaja', 'profilePicture': 'https://scontent.fcre1-1.fna.fbcdn.net/v/t39.30808-1/472248749_10234612307865448_1317346406274302500_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=3nB9BlOxFRoQ7kNvwE5ecLW&amp;_nc_oc=AdlYAu0G2TB-DmFPxs08e48_nKsCvaLzDynltPii7e6Vd1Ed5rtvB_V7xvQfCqPXmzA&amp;_nc_zt=24&amp;_nc_ht=scontent.fcre1-1.fna&amp;_nc_gid=sA8Dr83fFSpy_nL-LqNfwA&amp;oh=00_Afg0x1hPG4LlPi8VjAy5SPpPvG5BSHBumfF8TGlwzh1jJg&amp;oe=692F5782', 'profileId': 'pfbid02TmYjUTAH5QMaLjZ6oko4f2kzrnjVhko5c95AE1cWGyjTTgdJK4JCUCThoaVQSTDGl', 'profileName': 'Misael Fernando Perilla Benitez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
@@ -4804,18 +4805,18 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>En otros 35 años van a vender los tarros vacíos jaja</t>
+          <t>Esa foto es de cuando salió? En ese entonces no habían señor hexagonalea</t>
         </is>
       </c>
       <c r="G83" s="2" t="n">
-        <v>45986.93729166667</v>
+        <v>45989.31618055556</v>
       </c>
       <c r="H83" s="3" t="n">
-        <v>45986</v>
+        <v>45989</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>22:29:42</t>
+          <t>07:35:18</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4832,13 +4833,13 @@
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02E8sCXuEsqf38CCG9NLcm1hzWJbHjz7F46iKfYjWf7ZTs1cVvyC9CTPUiN9prLQ2Kl?comment_id=1637569370732699', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE2Mzc1NjkzNzA3MzI2OTk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNjM3NTY5MzcwNzMyNjk5', 'date': '2025-11-25T22:29:42.000Z', 'text': 'En otros 35 años van a vender los tarros vacíos jaja', 'profileUrl': 'https://www.facebook.com/oscarjavier.amorteguicardenas', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/273695285_6971223269619590_1323976999532144755_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=C4mEQv2FxbYQ7kNvwEkCVXa&amp;_nc_oc=AdkRzkW7sDUa7GRF2deuIvUjadQghyXSxY3JtJTknDnYHM6OgKy7Y4a8AGTCjaYP4Xo&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=PDcKgBnuMIjJ4HMr7zhoyQ&amp;oh=00_AfiZ40dndwhs-nHeR-SDFPmZAtNtB_vgHs7ccKDaBNEZSQ&amp;oe=692E2C8B', 'profileId': '100001959574620', 'profileName': 'Oscar Javier Amortegui Cardenas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=878669558072559', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3Xzg3ODY2OTU1ODA3MjU1OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184Nzg2Njk1NTgwNzI1NTk=', 'date': '2025-11-28T07:35:18.000Z', 'text': 'Esa foto es de cuando salió? En ese entonces no habían señor hexagonalea', 'profilePicture': 'https://scontent.fcre1-1.fna.fbcdn.net/v/t39.30808-1/404958403_7863202507039392_7907692006995265866_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=5gS8zWvl89QQ7kNvwFZbYNp&amp;_nc_oc=Adnl09pq8kUyI59UXAhVtFzbCArtPjCWWTh88tq_g5j9CeBzUAfMSMmHqeWqV486Phc&amp;_nc_zt=24&amp;_nc_ht=scontent.fcre1-1.fna&amp;_nc_gid=sA8Dr83fFSpy_nL-LqNfwA&amp;oh=00_Afgb8TIvQbZV67BNAZPBcpWjVMQOND6lLp-R1NvsS5JmlA&amp;oe=692F7177', 'profileId': 'pfbid0spviUPwx8AAEY8a8DiuBP3JXnhZPtxhRVqNDzMmZfaZB9gFQFdJN7HDFG6Gv6yqil', 'profileName': 'Luz Elena Sanchez Herrera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -4852,16 +4853,30 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://adsmanager.facebook.com/adsmanager/manage/ads</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>0</v>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Y lo peor ten que ya no es igual . Ahora es un poco de agua con quimicos que si lo tomas frío te sabe a jarabes</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="n">
+        <v>45989.11622685185</v>
+      </c>
+      <c r="H84" s="3" t="n">
+        <v>45989</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>02:47:22</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K84" t="n">
         <v>0</v>
@@ -4872,17 +4887,17 @@
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr">
         <is>
-          <t>{'url': 'https://adsmanager.facebook.com/adsmanager/manage/ads', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=1603825860980912', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE2MDM4MjU4NjA5ODA5MTI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNjAzODI1ODYwOTgwOTEy', 'date': '2025-11-28T02:47:22.000Z', 'text': 'Y lo peor ten que ya no es igual . Ahora es un poco de agua con quimicos que si lo tomas frío te sabe a jarabes', 'profilePicture': 'https://scontent.fcre1-1.fna.fbcdn.net/v/t39.30808-1/467427306_10164257598364832_5249346148641962607_n.jpg?stp=c67.30.370.369a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=geJAF8uqX3cQ7kNvwGz2_Eo&amp;_nc_oc=AdnE_krdDgjpjdVA4F-7ArIMSEoL-MpevP8TRK3lRCV74oC6iTX6jFoJuPHZ1mBaUko&amp;_nc_zt=24&amp;_nc_ht=scontent.fcre1-1.fna&amp;_nc_gid=sA8Dr83fFSpy_nL-LqNfwA&amp;oh=00_AfjpGkVAcjIbcy3TGVAf3QoW6XnitvIGHQ3wXW0pHv-2wQ&amp;oe=692F8399', 'profileId': 'pfbid0Bt2xGoFEmN35xa5CNLcEf6kmeLpmMwTGHig2QiUmdANwTbMaC9MvhSWvWxUXjrcal', 'profileName': 'Alexis Cano Vera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4892,16 +4907,30 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DRcmY2BAIwj/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>0</v>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Ya hasta el modelo se murió de viejo.</t>
+        </is>
+      </c>
+      <c r="G85" s="2" t="n">
+        <v>45989.10076388889</v>
+      </c>
+      <c r="H85" s="3" t="n">
+        <v>45989</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>02:25:06</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K85" t="n">
         <v>0</v>
@@ -4909,24 +4938,20 @@
       <c r="L85" t="b">
         <v>0</v>
       </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DRcmY2BAIwj/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=711417081586448', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzcxMTQxNzA4MTU4NjQ0OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N183MTE0MTcwODE1ODY0NDg=', 'date': '2025-11-28T02:25:06.000Z', 'text': 'Ya hasta el modelo se murió de viejo.', 'profileUrl': 'https://www.facebook.com/j.e.quintero.diaz', 'profilePicture': 'https://scontent.fcre1-1.fna.fbcdn.net/v/t39.30808-1/536272774_122212560350064397_899647774469788307_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zTzsH_RnHGsQ7kNvwGrtV5f&amp;_nc_oc=AdkgI1TJBxNAX2M7X43nOCQlGg1cJNpy-qulGFlkXikkvJkHa8LXSxeFVwnqweIYPFU&amp;_nc_zt=24&amp;_nc_ht=scontent.fcre1-1.fna&amp;_nc_gid=sA8Dr83fFSpy_nL-LqNfwA&amp;oh=00_AfjPtWpxiBe6Jr8XDFfVdZDnIDVlcmsyeGBK_43byCsZbA&amp;oe=692F8404', 'profileId': 'pfbid0d5vM4UVJ5iNeJsZpDJzZQJHQX1pFQLiMRENgGaBjW46C5mGo1od4mKo7RSSVoujal', 'profileName': 'J E Quintero Diaz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4936,16 +4961,30 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DRcmcJbgDUW/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>0</v>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Como pasa el tiempo 😳</t>
+        </is>
+      </c>
+      <c r="G86" s="2" t="n">
+        <v>45985.77719907407</v>
+      </c>
+      <c r="H86" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>18:39:10</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="K86" t="n">
         <v>0</v>
@@ -4953,58 +4992,452 @@
       <c r="L86" t="b">
         <v>0</v>
       </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DRcmcJbgDUW/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=1387173373123562', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzODcxNzMzNzMxMjM1NjI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzg3MTczMzczMTIzNTYy', 'date': '2025-11-24T18:39:10.000Z', 'text': 'Como pasa el tiempo 😳', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent.fcre1-1.fna.fbcdn.net/v/t39.30808-6/588706634_4751773904963963_6329048467427518043_n.jpg?stp=dst-jpg_fb30_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=Ye-Vvz9LgfEQ7kNvwGzF917&amp;_nc_oc=AdmDx7E5t3FqiIGnOT6uCR6fQAjHz7bW8MQimd9Yc24z8XaoS9xRU5CKPFevrm9WO8Y&amp;_nc_zt=23&amp;_nc_ht=scontent.fcre1-1.fna&amp;_nc_gid=sA8Dr83fFSpy_nL-LqNfwA&amp;oh=00_Afj8GzQ8AmwB4iOBHxPQuRWTrsl7xbMsWuswwLUh9BWKPg&amp;oe=692F70E8'}, 'id': '4751773898297297', 'cix_screen': None, 'massive_image': {'width': 450, 'height': 444}, 'image': {'uri': 'https://scontent.fcre1-1.fna.fbcdn.net/v/t39.30808-6/588706634_4751773904963963_6329048467427518043_n.jpg?stp=dst-jpg_p228x119_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=Ye-Vvz9LgfEQ7kNvwGzF917&amp;_nc_oc=AdmDx7E5t3FqiIGnOT6uCR6fQAjHz7bW8MQimd9Yc24z8XaoS9xRU5CKPFevrm9WO8Y&amp;_nc_zt=23&amp;_nc_ht=scontent.fcre1-1.fna&amp;_nc_gid=sA8Dr83fFSpy_nL-LqNfwA&amp;oh=00_AfivYLpEZSTskCmjb-yWAPuFeGl_q8DxU_IrpkYdzRWkZw&amp;oe=692F70E8', 'width': 228, 'height': 225}, 'ocrText': 'May be an image of one or more people and eyeglasses'}], 'profilePicture': 'https://scontent.fcre1-1.fna.fbcdn.net/v/t39.30808-1/515600430_4593995740741781_8041180333788133360_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=_FREGiDPRcoQ7kNvwG13Lsx&amp;_nc_oc=Adl_tYO4MKzHKBm9JYZsJzkP58eYwFnhCV3J8kxCHV_cc3cx_Ompn4nNkPl9jAAsibI&amp;_nc_zt=24&amp;_nc_ht=scontent.fcre1-1.fna&amp;_nc_gid=sA8Dr83fFSpy_nL-LqNfwA&amp;oh=00_Afh4Si5rqjpoXN5yAhc63VZmlMwJUTCZkHFEo82wDjRSOw&amp;oe=692F55DA', 'profileId': 'pfbid07gw2iRZpNgpNgBCAirRjuERfi551rV8vpGA59YX8r31LN3WEMMNTthHER6Yua4pWl', 'profileName': 'Alberto Caicedo', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
+        <v>13</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Este man no es el que hizo de Vaselino en vecinos?</t>
+        </is>
+      </c>
+      <c r="G87" s="2" t="n">
+        <v>45986.06347222222</v>
+      </c>
+      <c r="H87" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>01:31:24</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="b">
+        <v>0</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=1383064816735090', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzODMwNjQ4MTY3MzUwOTA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzgzMDY0ODE2NzM1MDkw', 'date': '2025-11-25T01:31:24.000Z', 'text': 'Este man no es el que hizo de Vaselino en vecinos?', 'profilePicture': 'https://scontent.fcre1-1.fna.fbcdn.net/v/t39.30808-1/566211812_10237810548219540_8624372396031958154_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=x8XH7PmwKJQQ7kNvwFOblsq&amp;_nc_oc=AdntAW1If0slWuQlJCAofD6c7m02ioXJzkn5KG1U6TDCiN7iCvKuodDY1M_NjDr7jis&amp;_nc_zt=24&amp;_nc_ht=scontent.fcre1-1.fna&amp;_nc_gid=sA8Dr83fFSpy_nL-LqNfwA&amp;oh=00_AfiK2Ecoqi5_sQORLaRcgMoRHZQOmyBS4TFj9icSfA7cKw&amp;oe=692F6822', 'profileId': 'pfbid02yT8sSYSbjZKp8vzy3bD4nBzKy71zjCNYsTzMUdyUc2jD9k3njyAj6VVcDt5TVGN6l', 'profileName': 'Juan Carlos Mendez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>13</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Si la i as kierda no le pone problema a avelardo llorenla yose ke porlas vias legales no le ganan la is la III erda tiene la ventaja con la a rejistraduria coprada ellos  dejan en pueblos las botasiones astala 6 dela tarde nunca avia pasao sea ke votaron por ellos</t>
+        </is>
+      </c>
+      <c r="G88" s="2" t="n">
+        <v>45987.04873842592</v>
+      </c>
+      <c r="H88" s="3" t="n">
+        <v>45987</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>01:10:11</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="b">
+        <v>0</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=3387224181452602', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzMzODcyMjQxODE0NTI2MDI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18zMzg3MjI0MTgxNDUyNjAy', 'date': '2025-11-26T01:10:11.000Z', 'text': 'Si la i as kierda no le pone problema a avelardo llorenla yose ke porlas vias legales no le ganan la is la III erda tiene la ventaja con la a rejistraduria coprada ellos  dejan en pueblos las botasiones astala 6 dela tarde nunca avia pasao sea ke votaron por ellos', 'profileUrl': 'https://www.facebook.com/argemiro.giraldo.507535', 'profilePicture': 'https://scontent.fcre1-1.fna.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=_YrXabF6_a4Q7kNvwGZnObB&amp;_nc_oc=AdkDsRE_RfpQlrBhRgIRWXWASAXb2iStmAcm1lviVxIIwhiuJVgeCnNmAxn93IbVE2k&amp;_nc_zt=24&amp;_nc_ht=scontent.fcre1-1.fna&amp;oh=00_AfhUjjgDcRc5Z3PoKjAKSQTbVe7FOIG3x6gooZd3L1c0LA&amp;oe=6951287A', 'profileId': 'pfbid0FHA8oNuLdcCctzii9pjfQJi7Lg7K2KKoAUgyFE5o2bfEs25yPVQPpHZEM6YYUbKEl', 'profileName': 'Argemiro Giraldo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>13</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Y cuánto plástico acumulado en estas décadas???? ya debería haber dejado de usar tanto plástico👎🏼</t>
+        </is>
+      </c>
+      <c r="G89" s="2" t="n">
+        <v>45987.01280092593</v>
+      </c>
+      <c r="H89" s="3" t="n">
+        <v>45987</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>00:18:26</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="b">
+        <v>0</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=772382055843885', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3Xzc3MjM4MjA1NTg0Mzg4NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N183NzIzODIwNTU4NDM4ODU=', 'date': '2025-11-26T00:18:26.000Z', 'text': 'Y cuánto plástico acumulado en estas décadas???? ya debería haber dejado de usar tanto plástico👎🏼', 'profilePicture': 'https://scontent.fcre1-1.fna.fbcdn.net/v/t39.30808-1/586382584_25001899076145851_6275114829556037212_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=DHvrw_2Hv0EQ7kNvwGOBb_K&amp;_nc_oc=AdnAHcvZqqO-gr9WOHoe0vD-gKqOhWcywnElDJlgYNl-gwHbRrZzmfHWBkp-Y5-27Yk&amp;_nc_zt=24&amp;_nc_ht=scontent.fcre1-1.fna&amp;_nc_gid=sA8Dr83fFSpy_nL-LqNfwA&amp;oh=00_AfilgfGbvJ-0pTNe34k6PcXIGVora2ocbR-XJju5tXPCYA&amp;oe=692F6AA5', 'profileId': 'pfbid0CbeH81oNUMqM73bSsd3cnEwBYyhY2mgxyfxC19yDScbxsnCuCa2FC3HUmoLKAQQil', 'profileName': 'Emilio Garzía', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>13</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Ojalá traiga la misma cantidad de antes y no lo poco que trae ahora</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="n">
+        <v>45986.99378472222</v>
+      </c>
+      <c r="H90" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>23:51:03</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="b">
+        <v>0</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=1924670054749279', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE5MjQ2NzAwNTQ3NDkyNzk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xOTI0NjcwMDU0NzQ5Mjc5', 'date': '2025-11-25T23:51:03.000Z', 'text': 'Ojalá traiga la misma cantidad de antes y no lo poco que trae ahora', 'profileUrl': 'https://www.facebook.com/joseignacio.guzman.35', 'profilePicture': 'https://scontent.fcre1-1.fna.fbcdn.net/v/t39.30808-1/384276911_10227578720287040_5664517602042236735_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VL-uK2qNMccQ7kNvwH23REF&amp;_nc_oc=AdnLcaI8Buhr5GEnyfo9K8e3M13E73qL9Hl0GNFuj_8lYITO5jnTBlP2q5Wxd4onht8&amp;_nc_zt=24&amp;_nc_ht=scontent.fcre1-1.fna&amp;_nc_gid=sA8Dr83fFSpy_nL-LqNfwA&amp;oh=00_AfhRXwvUSWiR-PrO4xWn55jbIGHbNO0zearPgXnAd6TrPQ&amp;oe=692F5B74', 'profileId': 'pfbid02S1yxuCtyXrEdv3isj5C7wLzJGugZRSU7q2HFcsZwY6oDKw3msnEVvnkpZneMLrJgl', 'profileName': 'Ignacio Guzman', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>13</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Antes traía más , le undieron el fondo al envase</t>
+        </is>
+      </c>
+      <c r="G91" s="2" t="n">
+        <v>45985.94378472222</v>
+      </c>
+      <c r="H91" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>22:39:03</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="b">
+        <v>0</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0AbE1cjcWzUUDWWyHBmsbCNVS4sgwSjLFJgFFnh7tED6d5kE1MNhU91op71tpWreNl?comment_id=3091916754347395', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzMwOTE5MTY3NTQzNDczOTU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18zMDkxOTE2NzU0MzQ3Mzk1', 'date': '2025-11-24T22:39:03.000Z', 'text': 'Antes traía más , le undieron el fondo al envase', 'profileUrl': 'https://www.facebook.com/manuelemilio.alvarezgonzalez', 'profilePicture': 'https://scontent.fcre1-1.fna.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=_YrXabF6_a4Q7kNvwGZnObB&amp;_nc_oc=AdkDsRE_RfpQlrBhRgIRWXWASAXb2iStmAcm1lviVxIIwhiuJVgeCnNmAxn93IbVE2k&amp;_nc_zt=24&amp;_nc_ht=scontent.fcre1-1.fna&amp;oh=00_AfhUjjgDcRc5Z3PoKjAKSQTbVe7FOIG3x6gooZd3L1c0LA&amp;oe=6951287A', 'profileId': 'pfbid02hJfCTRx58E69HaY9YgTzY8JYHG24z4qCzxEivNF8YhVSpKaWjwKaLoXkvwA7K7TFl', 'profileName': 'Manuel Emilio Alvarez Gonzalez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258721542960257', 'postTitle': 'Si recuerdas este sabor, es tu señal para probarlo de nuevo. Si no lo recuerdas, también es tu señal para descubrirlo.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>14</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://adsmanager.facebook.com/adsmanager/manage/ads</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="b">
+        <v>0</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>{'url': 'https://adsmanager.facebook.com/adsmanager/manage/ads', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>15</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRcmY2BAIwj/</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="b">
+        <v>0</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DRcmY2BAIwj/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>16</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRcmcJbgDUW/</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="b">
+        <v>0</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DRcmcJbgDUW/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
         <v>17</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>Instagram</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>https://www.instagram.com/p/DRcmTd6gJGA/</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0</v>
-      </c>
-      <c r="L87" t="b">
-        <v>0</v>
-      </c>
-      <c r="M87" t="inlineStr">
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="b">
+        <v>0</v>
+      </c>
+      <c r="M95" t="inlineStr">
         <is>
           <t>https://instagram.com/</t>
         </is>
       </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>{'url': 'https://www.instagram.com/p/DRcmTd6gJGA/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DRcmTd6gJGA/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -5258,11 +5691,11 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>00001</t>
+          <t>00010001</t>
         </is>
       </c>
     </row>
@@ -5281,11 +5714,11 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>000</t>
         </is>
       </c>
     </row>
@@ -5304,11 +5737,11 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>011150000110011010</t>
+          <t>1022231010011001100010</t>
         </is>
       </c>
     </row>
@@ -5331,7 +5764,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>01019205101500004010000000050000000102060200010000110</t>
+          <t>00130157850011701004010100000000500000000020000620001</t>
         </is>
       </c>
     </row>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,7 +553,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DQ4T6V_AAuu/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DQ4T6V_AAuu/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DQ4T7oagGqD/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DQ4T7oagGqD/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DQ4TbcNAFUD/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DQ4TbcNAFUD/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DQ4T7rtgIL6/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DQ4T7rtgIL6/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -869,12 +869,26 @@
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>0</v>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sobrevalorado.</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>45991.1805787037</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>45991</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>04:20:02</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -885,7 +899,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767226289022/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767226289022/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid027BLUoz42sdsPY3KetadAsineFctRmMjD1pnpY33jnazgVSCWwPjwVMdjrWHRb497l?comment_id=1559881411711406', 'id': 'Y29tbWVudDoxMjU4NzY4Mjk5NjIyMjQ4XzE1NTk4ODE0MTE3MTE0MDY=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2ODI5OTYyMjI0OF8xNTU5ODgxNDExNzExNDA2', 'date': '2025-11-30T04:20:02.000Z', 'text': 'Sobrevalorado.', 'profileUrl': 'https://www.facebook.com/carechimbx', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t1.6435-1/39981498_2175838046008128_4814965446157533184_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=D0ISZMuUijQQ7kNvwE_k2fB&amp;_nc_oc=AdlSzwmo66czRbKa17Ck92nCEYmx7wj1qnQguHot_4ko2WFE2VmiNM4Gtn4A8bHnrvc&amp;_nc_zt=24&amp;_nc_ht=scontent-det1-1.xx&amp;_nc_gid=wdsHyeVwkzWHfpEJRl6lDw&amp;oh=00_AfjjuhvukXUVYhms_u968vvYHJuMqnhB3gC5PBRLvX3K8w&amp;oe=6953AC7C', 'profileId': 'pfbid02rk2DNubodaMX9Dnv7j4SNQVgqVGuPgHmHR4z2rjdoj1HBbeAW5ofjufbS9UX7hcfl', 'profileName': 'Carlos Daniel Castro Erazo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258768299622248', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767226289022/'}</t>
         </is>
       </c>
     </row>
@@ -939,7 +953,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0rVw7bWrqdFq14LHMzB6JRwFGUMf5Qznk3v5XTnRJnpQzJyFJKkFTEQ2d7RkmUE9tl?comment_id=1356310686035610', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzEzNTYzMTA2ODYwMzU2MTA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV8xMzU2MzEwNjg2MDM1NjEw', 'date': '2025-11-28T13:01:18.000Z', 'text': 'amen', 'profileUrl': 'https://www.facebook.com/jose.luis.gonzalez.849466', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/310757300_198885192535003_1560265436187577068_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=LTuW8x8C88oQ7kNvwEnkzfv&amp;_nc_oc=AdmHA4hZKo84SlPnObr6ltPZYbQMIWBjpaypmE9dgmi8ezLa-N2zOPqEKQFcULKN8WI&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=Xgz-xM_vkV428lytgMlp4A&amp;oh=00_AfixRLzPk7obHxDZvMoIIJ4E8fYortMt6DDDYDbO7zHC-Q&amp;oe=6930AB40', 'profileId': 'pfbid0BfUYgj6FqpRmS4ePrqwgJRQZ1T2GWPJdaitowozXVYPYdjE4NRpT4naesHiv4pjYl', 'profileName': 'Jose Luis Gonzalez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02usRJDYDTezG2FtUcF5MDjWn7HQKay6mHRSdzX3DPJNuja9us9xYiMrxfBAfMDhS6l?comment_id=1356310686035610', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzEzNTYzMTA2ODYwMzU2MTA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV8xMzU2MzEwNjg2MDM1NjEw', 'date': '2025-11-28T13:01:18.000Z', 'text': 'amen', 'profileUrl': 'https://www.facebook.com/jose.luis.gonzalez.849466', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/310757300_198885192535003_1560265436187577068_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=WXcoFHA4fIwQ7kNvwF-pewF&amp;_nc_oc=AdkQdKAt8hIlANJdZ1MmIMpqsOfUeEm1HETL_nIJk8kBL4Tbn9j5vWvVAXI_piuNj6c&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=a6JuY5nGo6N0xvQpuj5H5w&amp;oh=00_Afg1CnwJBo9svYb763jagNe6mmUXyjxKrqCg3OysM20okQ&amp;oe=6931FCC0', 'profileId': 'pfbid02FWvFsQ25hABUg5h8vDhqUwsDgJqu3YXimq14bjcVbgqRmHH7YVuc111bkB89fLzTl', 'profileName': 'Jose Luis Gonzalez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
         </is>
       </c>
     </row>
@@ -993,7 +1007,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0rVw7bWrqdFq14LHMzB6JRwFGUMf5Qznk3v5XTnRJnpQzJyFJKkFTEQ2d7RkmUE9tl?comment_id=1890685821528497', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzE4OTA2ODU4MjE1Mjg0OTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV8xODkwNjg1ODIxNTI4NDk3', 'date': '2025-11-28T22:29:23.000Z', 'text': 'Amen', 'profileUrl': 'https://www.facebook.com/delia.moyanoquiroga', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/302182981_5392169610869832_987497973533629907_n.jpg?stp=c200.0.1200.1200a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=fGdqBe5-U4kQ7kNvwFqE-iA&amp;_nc_oc=AdlglvDhiUxgIONnRgCWIxDC7y7EFtTU9johWSR25lKlaroUkRLbmPjLAVGK9L6IPmw&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=Xgz-xM_vkV428lytgMlp4A&amp;oh=00_AfhJG0kFV6Vd93xZcAzCsFgBdcB1br8-TtAKLFpHUV5zmg&amp;oe=6930BCEB', 'profileId': 'pfbid0fvPezvkz3bHMRcppeCmKuoSvP1bbLfLZDcjcQNX1pzTV1N5fJH5AGevFeiKkoxnfl', 'profileName': 'Rosa Moyano Quiroga', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02usRJDYDTezG2FtUcF5MDjWn7HQKay6mHRSdzX3DPJNuja9us9xYiMrxfBAfMDhS6l?comment_id=1890685821528497', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzE4OTA2ODU4MjE1Mjg0OTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV8xODkwNjg1ODIxNTI4NDk3', 'date': '2025-11-28T22:29:23.000Z', 'text': 'Amen', 'profileUrl': 'https://www.facebook.com/delia.moyanoquiroga', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/302182981_5392169610869832_987497973533629907_n.jpg?stp=c200.0.1200.1200a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=fGdqBe5-U4kQ7kNvwHIuEYe&amp;_nc_oc=Adn0X9oHEIwZz25K_ch6LPHKItAW56qh55g8PZ3IRdW5y4Hgvh9-n0-mZuo1ghaxzcU&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=a6JuY5nGo6N0xvQpuj5H5w&amp;oh=00_Afg_MMW2mVUSx9IHXYl1ZTUPDwwqeee733KocoKndKHR8g&amp;oe=69320E6B', 'profileId': 'pfbid02jHsqcx7c5KLxtdYTFkuUCyxb1meqUeVzpS5xdhwhzGqPSuGoZDMLPiH3Ez6i6Xb8l', 'profileName': 'Rosa Moyano Quiroga', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1061,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0rVw7bWrqdFq14LHMzB6JRwFGUMf5Qznk3v5XTnRJnpQzJyFJKkFTEQ2d7RkmUE9tl?comment_id=1160555079539208', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzExNjA1NTUwNzk1MzkyMDg=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV8xMTYwNTU1MDc5NTM5MjA4', 'date': '2025-11-28T04:38:12.000Z', 'text': 'Sepa bien  bera', 'profileUrl': 'https://www.facebook.com/carlos.gelves.36907', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/358444505_103223549509165_611244367080502977_n.jpg?stp=c0.0.972.972a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Pjaybn6EMEIQ7kNvwHP1CW7&amp;_nc_oc=AdkKG9TbZKNtTPfj216YXortdBspAs8r_jw0PnV9MbMXAHS0mbs-I2wgkHskVdcCRFk&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=Xgz-xM_vkV428lytgMlp4A&amp;oh=00_Afhy_WbamWxdxx31Qn2xujO5S2lizwfOXwzrFKbPKX6Q-A&amp;oe=6930BF0F', 'profileId': 'pfbid0GbVnFWk1F7SvX86QC86pmDF6zHCn2bMQXYgR55tjmyiRBM6a9KmJXX8j15Udg4Krl', 'profileName': 'Carlos Gelves', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02usRJDYDTezG2FtUcF5MDjWn7HQKay6mHRSdzX3DPJNuja9us9xYiMrxfBAfMDhS6l?comment_id=1160555079539208', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzExNjA1NTUwNzk1MzkyMDg=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV8xMTYwNTU1MDc5NTM5MjA4', 'date': '2025-11-28T04:38:12.000Z', 'text': 'Sepa bien  bera', 'profileUrl': 'https://www.facebook.com/carlos.gelves.36907', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/358444505_103223549509165_611244367080502977_n.jpg?stp=c0.0.972.972a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=b51MEQYTIBoQ7kNvwE3y-D7&amp;_nc_oc=Adm0PBw9xNRcG3oQxgpipOVNtsFGiZI7HfxcM67zH3V72YYIYC8PrN1FgpQE-bf0uR4&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=a6JuY5nGo6N0xvQpuj5H5w&amp;oh=00_AfiX1QYRm8fqRNFlikQe7qW_gKV9fL1QTSrg8-UezNhp8Q&amp;oe=6932108F', 'profileId': 'pfbid02LSwVSBfq6L8ahRia2GgR8JuQtS7SHEFGXU68Y7tjCVgd2UJiTzxnyCkgs97jkB14l', 'profileName': 'Carlos Gelves', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1115,7 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0rVw7bWrqdFq14LHMzB6JRwFGUMf5Qznk3v5XTnRJnpQzJyFJKkFTEQ2d7RkmUE9tl?comment_id=1707136334025082', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzE3MDcxMzYzMzQwMjUwODI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV8xNzA3MTM2MzM0MDI1MDgy', 'date': '2025-11-26T03:38:22.000Z', 'text': 'Como los de me infancia', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/495851492_9723408417747012_8296794829451701261_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=NZw3SEcCIOoQ7kNvwHzKaLP&amp;_nc_oc=AdlifdcsXdkEb4TfN8thhHcqDSqwrHCy_zLgOCVuiMqA7qUygSDlfs91uYVtk8Ocpz0&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=Xgz-xM_vkV428lytgMlp4A&amp;oh=00_Afjc40iSxZxYPzHySDafn9GCF_C6MSmgoCyDhXCitmHivw&amp;oe=6930C112', 'profileId': '100002338506399', 'profileName': 'Moises NG', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02usRJDYDTezG2FtUcF5MDjWn7HQKay6mHRSdzX3DPJNuja9us9xYiMrxfBAfMDhS6l?comment_id=1707136334025082', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzE3MDcxMzYzMzQwMjUwODI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV8xNzA3MTM2MzM0MDI1MDgy', 'date': '2025-11-26T03:38:22.000Z', 'text': 'Como los de me infancia', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/495851492_9723408417747012_8296794829451701261_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=DS0ShBKbfDsQ7kNvwFTDfft&amp;_nc_oc=AdlRAcgrqczFYUplt2Qvx2o98UUu82-Krj9l1FhLbrFalA5iTzM7XczuSmARrn5bQ4U&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=a6JuY5nGo6N0xvQpuj5H5w&amp;oh=00_AfhywhNZooi8yfTbHOtc0cfGkbELh5wLXyfZUhXJ_nFLcw&amp;oe=69321292', 'profileId': '100002338506399', 'profileName': 'Moises NG', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1169,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0rVw7bWrqdFq14LHMzB6JRwFGUMf5Qznk3v5XTnRJnpQzJyFJKkFTEQ2d7RkmUE9tl?comment_id=879171581131006', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzg3OTE3MTU4MTEzMTAwNg==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV84NzkxNzE1ODExMzEwMDY=', 'date': '2025-11-26T04:06:53.000Z', 'text': 'Ni uno ni dos ni tres ya es imposible poder comer un bon yurt su costo cada día esta por las nubes, solía ser mi postre 🍨 favorito pero esta tan costoso que ni recuerdo su sabor 😔', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/459564597_8966520580030975_2018006115904800734_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=nUzroSc_NogQ7kNvwFWbm8d&amp;_nc_oc=AdmxiWrZc_mKdrTnIBKv4iirQ8NskjcFgP-FmmkCK-qwvRhiTmvQOjghiulAntEa51o&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=Xgz-xM_vkV428lytgMlp4A&amp;oh=00_AfhJs5BdpVx2OLtm9-xjWBa2M1CAKDBdc3dUnkh7SAXpAg&amp;oe=6930D930', 'profileId': '100000193678054', 'profileName': 'Catcocktail Merpar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02usRJDYDTezG2FtUcF5MDjWn7HQKay6mHRSdzX3DPJNuja9us9xYiMrxfBAfMDhS6l?comment_id=879171581131006', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzg3OTE3MTU4MTEzMTAwNg==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV84NzkxNzE1ODExMzEwMDY=', 'date': '2025-11-26T04:06:53.000Z', 'text': 'Ni uno ni dos ni tres ya es imposible poder comer un bon yurt su costo cada día esta por las nubes, solía ser mi postre 🍨 favorito pero esta tan costoso que ni recuerdo su sabor 😔', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/459564597_8966520580030975_2018006115904800734_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=nUzroSc_NogQ7kNvwGAurK-&amp;_nc_oc=AdmoRUB0i3UTZT95Yd_hl-B739-Yrput1kF6_cqx0Hl_WKPQoBXEbmeH2f1_tBPp22I&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=a6JuY5nGo6N0xvQpuj5H5w&amp;oh=00_Afh3g4ynmuQzdN-BbozlCkm_9n2yod7c95_h7_g_Tv_mEg&amp;oe=69322AB0', 'profileId': '100000193678054', 'profileName': 'Catcocktail Merpar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1223,7 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0rVw7bWrqdFq14LHMzB6JRwFGUMf5Qznk3v5XTnRJnpQzJyFJKkFTEQ2d7RkmUE9tl?comment_id=822335630610124', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzgyMjMzNTYzMDYxMDEyNA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV84MjIzMzU2MzA2MTAxMjQ=', 'date': '2025-11-28T02:20:08.000Z', 'text': 'la LECHE Pésimo producto sabor a remedio', 'profileUrl': 'https://www.facebook.com/people/Marco-Sanchez/pfbid028ZpkW7eqEwpKFPofqyCqTSE1VALjeWT8c2vNm6cA1GDw8XxXE8ChMjLnoq1LJp7rl/', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=_YrXabF6_a4Q7kNvwEzg8vt&amp;_nc_oc=AdlRysV-3Ofa5Zkj1SWzZP-JLTfwgTHdOvyNG5DvUAv_MzV_gyBk1o_LKwc0JGL2dnA&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;oh=00_AfjT5EG_joACDnVTUwQLSU3MXO6YKsj5q0St2jvP4NczMw&amp;oe=695241BA', 'profileId': 'pfbid028ZpkW7eqEwpKFPofqyCqTSE1VALjeWT8c2vNm6cA1GDw8XxXE8ChMjLnoq1LJp7rl', 'profileName': 'Marco Sanchez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02usRJDYDTezG2FtUcF5MDjWn7HQKay6mHRSdzX3DPJNuja9us9xYiMrxfBAfMDhS6l?comment_id=822335630610124', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzgyMjMzNTYzMDYxMDEyNA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV84MjIzMzU2MzA2MTAxMjQ=', 'date': '2025-11-28T02:20:08.000Z', 'text': 'la LECHE Pésimo producto sabor a remedio', 'profileUrl': 'https://www.facebook.com/people/Marco-Sanchez/pfbid052BZax2UPnALk1bUXBPQqqATzvhTwPf8NA7nVezazTnU2ZT6tpXvCYjMsJMnLp9Fl/', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=_YrXabF6_a4Q7kNvwFAMiLM&amp;_nc_oc=Adktn9oa0Z3Wo9XJasxd9xfcbaTo5tQ-byspOruC-BjqjbrT2Oe47OuR4wt7wIuardU&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;oh=00_AfgJ7lNjTDlD-t2CPEgikDLXNECC6SHHUzTdbnY-gbc-Xg&amp;oe=6953933A', 'profileId': 'pfbid052BZax2UPnALk1bUXBPQqqATzvhTwPf8NA7nVezazTnU2ZT6tpXvCYjMsJMnLp9Fl', 'profileName': 'Marco Sanchez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
         </is>
       </c>
     </row>
@@ -1263,7 +1277,7 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0rVw7bWrqdFq14LHMzB6JRwFGUMf5Qznk3v5XTnRJnpQzJyFJKkFTEQ2d7RkmUE9tl?comment_id=1820814188796053', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzE4MjA4MTQxODg3OTYwNTM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV8xODIwODE0MTg4Nzk2MDUz', 'date': '2025-11-25T04:34:17.000Z', 'text': 'Cuando eran ricos y traían más que aire', 'profileUrl': 'https://www.facebook.com/jeiko8511', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/468060314_10162361510499273_507374193545330854_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=rjE45PXNTh0Q7kNvwGFQYam&amp;_nc_oc=AdkKuAMbZxCu8Ji-khD2EKXJsx8W3Y0WycUHpyYRut433Ji9VKLVP_Ny3uste-qoBFU&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=Xgz-xM_vkV428lytgMlp4A&amp;oh=00_Afgf6vPm6JEKYLUnoH1Nc1ym4SzbxCIXZ15BDm17hCaQIw&amp;oe=6930D4DE', 'profileId': 'pfbid0wMNK5np42x8RNxPBNyXJ4T3Pn55EBtnezukLoHe1vqswWr4QJ373oShDCbg3S31jl', 'profileName': 'Jeiko Hernandez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02usRJDYDTezG2FtUcF5MDjWn7HQKay6mHRSdzX3DPJNuja9us9xYiMrxfBAfMDhS6l?comment_id=1820814188796053', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzE4MjA4MTQxODg3OTYwNTM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV8xODIwODE0MTg4Nzk2MDUz', 'date': '2025-11-25T04:34:17.000Z', 'text': 'Cuando eran ricos y traían más que aire', 'profileUrl': 'https://www.facebook.com/jeiko8511', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/468060314_10162361510499273_507374193545330854_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=rjE45PXNTh0Q7kNvwHwkJ-F&amp;_nc_oc=Adnlh6hHWwml_xT81oHL2Zr5ubZTPP5_n-UFln7vnyXohTOl1xRP4Hv7DvHhyJZGzYw&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=a6JuY5nGo6N0xvQpuj5H5w&amp;oh=00_AfiO-iKgwQpJTbAIUr273Qx7JZOO2gdHg0SOcQ7QDmvCKQ&amp;oe=6932265E', 'profileId': 'pfbid02zirVhpAg4VMkozjBAHobwVeyLZNc6BCCSxLgcmt1BxVpXgSfy7reqykwsQzhmN4ul', 'profileName': 'Jeiko Hernandez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1331,7 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0rVw7bWrqdFq14LHMzB6JRwFGUMf5Qznk3v5XTnRJnpQzJyFJKkFTEQ2d7RkmUE9tl?comment_id=843566781589283', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzg0MzU2Njc4MTU4OTI4Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV84NDM1NjY3ODE1ODkyODM=', 'date': '2025-11-25T03:23:08.000Z', 'text': 'Pos si como tres me da un coma diabético....', 'profileUrl': 'https://www.facebook.com/andres.torres.90834', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/496882250_10161702226334830_5679666335987461894_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=cYAsO0SQLjYQ7kNvwGQznib&amp;_nc_oc=Adk4pPpDCyPfRdGh1v53tHzDtFJaiiVfHuyYlF7zP95YFkE33JSqG2c9YyWmsUEOYy4&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=Xgz-xM_vkV428lytgMlp4A&amp;oh=00_AfjkgbnCFzWtJdlJzDEjFu6bQ85Zb3cSJ242gxYoT8GErQ&amp;oe=6930D4C4', 'profileId': '607764829', 'profileName': 'Andres Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02usRJDYDTezG2FtUcF5MDjWn7HQKay6mHRSdzX3DPJNuja9us9xYiMrxfBAfMDhS6l?comment_id=843566781589283', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzg0MzU2Njc4MTU4OTI4Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV84NDM1NjY3ODE1ODkyODM=', 'date': '2025-11-25T03:23:08.000Z', 'text': 'Pos si como tres me da un coma diabético....', 'profileUrl': 'https://www.facebook.com/andres.torres.90834', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/496882250_10161702226334830_5679666335987461894_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=3xjoVasvlNQQ7kNvwEVkqTp&amp;_nc_oc=AdnPf9t_V242XK3ElB3QVXz7A9i7k9YpCkO05l2Oih4jPM5YCNsbejDsrxOTAo8y0WA&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=a6JuY5nGo6N0xvQpuj5H5w&amp;oh=00_AfjIa1ZPnhzVKexGi2N7JwhtZ-WwjNfx_SKE5OHQV7aBjQ&amp;oe=69322644', 'profileId': '607764829', 'profileName': 'Andres Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1385,7 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0rVw7bWrqdFq14LHMzB6JRwFGUMf5Qznk3v5XTnRJnpQzJyFJKkFTEQ2d7RkmUE9tl?comment_id=1366544288333559', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzEzNjY1NDQyODgzMzM1NTk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV8xMzY2NTQ0Mjg4MzMzNTU5', 'date': '2025-11-28T11:42:50.000Z', 'text': 'Toca probar solo uno x q está costoso, muy costoso', 'profileUrl': 'https://www.facebook.com/Yoja83', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/579286472_25381916678161669_1407969858151178588_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zvIZZ7GYqOoQ7kNvwFkHD_T&amp;_nc_oc=Adnbl2f-XbkrXTTO2FCLrX8So-pzB2fmSQ8YWbXFqWncm5SPjPv_OnMD8M7oleDbZT0&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=Xgz-xM_vkV428lytgMlp4A&amp;oh=00_Afh0Ia4PVYzDEtQDHXg0L6fPhHhXktyMU4eyLrbc7FyWYg&amp;oe=6930D695', 'profileId': 'pfbid038J6Zui588JLLLzcWu7G97fR3rJe5msGCGdRphMs6kfb7D2nHX81nEDxiJhNhtqB9l', 'profileName': 'Yohana Garcia Martinez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02usRJDYDTezG2FtUcF5MDjWn7HQKay6mHRSdzX3DPJNuja9us9xYiMrxfBAfMDhS6l?comment_id=1366544288333559', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzEzNjY1NDQyODgzMzM1NTk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV8xMzY2NTQ0Mjg4MzMzNTU5', 'date': '2025-11-28T11:42:50.000Z', 'text': 'Toca probar solo uno x q está costoso, muy costoso', 'profileUrl': 'https://www.facebook.com/Yoja83', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/579286472_25381916678161669_1407969858151178588_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zvIZZ7GYqOoQ7kNvwGymlIk&amp;_nc_oc=AdnMWcI_d0I6018J-AIPySqBZLEl1A_PfRpIzdWfzz2z8EJzNLHpTK2kBogfqLsDOEU&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=a6JuY5nGo6N0xvQpuj5H5w&amp;oh=00_AfgeDbsabfVtmIVlPrfOVQWv49JY-rrZSvuZm1RAz1iLoA&amp;oe=69322815', 'profileId': 'pfbid024GVrRtsZTPGtWKL9abB4jN4PxEdiAk71PdoWHDwe2hKVwKUkvEUCYAZNr4xHpGwWl', 'profileName': 'Yohana Garcia Martinez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1439,7 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0rVw7bWrqdFq14LHMzB6JRwFGUMf5Qznk3v5XTnRJnpQzJyFJKkFTEQ2d7RkmUE9tl?comment_id=2078356862908722', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzIwNzgzNTY4NjI5MDg3MjI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV8yMDc4MzU2ODYyOTA4NzIy', 'date': '2025-11-28T18:36:37.000Z', 'text': 'Lástima que estén tan costoso.', 'profileUrl': 'https://www.facebook.com/people/Diana-Hernandez/pfbid02TX8fpApED7PN1QBBWdxJesyLMyJuveX2sot16pYpmijiRkY3PALBsbM9Gu1Q8zfsl/', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/499780385_122168919818382540_5634058256196269743_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=MRXpHCj1rXUQ7kNvwGvbOsW&amp;_nc_oc=AdmiXYvzq9pwRsS2M8FgOpQItWbMIwGcCcpOKL2HCT0BZb25iKkzRO1QkqKVLRv1Je4&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=Xgz-xM_vkV428lytgMlp4A&amp;oh=00_AfjmrIyrJSavg9nQnV0lGAmsJP0O0JKmWnKEgD4Ijicdig&amp;oe=6930CC52', 'profileId': 'pfbid02TX8fpApED7PN1QBBWdxJesyLMyJuveX2sot16pYpmijiRkY3PALBsbM9Gu1Q8zfsl', 'profileName': 'Diana Hernandez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02usRJDYDTezG2FtUcF5MDjWn7HQKay6mHRSdzX3DPJNuja9us9xYiMrxfBAfMDhS6l?comment_id=2078356862908722', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzIwNzgzNTY4NjI5MDg3MjI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV8yMDc4MzU2ODYyOTA4NzIy', 'date': '2025-11-28T18:36:37.000Z', 'text': 'Lástima que estén tan costoso.', 'profileUrl': 'https://www.facebook.com/people/Diana-Hernandez/pfbid0PyVUu1BsN46QFWemL8UBAh3Mh927eM99aTQkCR2BmbW8mvEHNfGNxzar5x7Pn6xJl/', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/499780385_122168919818382540_5634058256196269743_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PiXUCkHdFI8Q7kNvwF12IgL&amp;_nc_oc=AdnBLhiFtQ162Tke67dmo1aXCiqMeZDEU3j3wuh-clAFOjdIMAmfOmasL0waP1k-G4s&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=a6JuY5nGo6N0xvQpuj5H5w&amp;oh=00_AfhYadNfZugjsXZb9moowi6_dDeXzUH5yzf6DPuhA4EsJg&amp;oe=69321DD2', 'profileId': 'pfbid0PyVUu1BsN46QFWemL8UBAh3Mh927eM99aTQkCR2BmbW8mvEHNfGNxzar5x7Pn6xJl', 'profileName': 'Diana Hernandez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
         </is>
       </c>
     </row>
@@ -1479,7 +1493,7 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0rVw7bWrqdFq14LHMzB6JRwFGUMf5Qznk3v5XTnRJnpQzJyFJKkFTEQ2d7RkmUE9tl?comment_id=861351922903088', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzg2MTM1MTkyMjkwMzA4OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV84NjEzNTE5MjI5MDMwODg=', 'date': '2025-11-25T05:11:04.000Z', 'text': 'Esq eso era muy caro un riñón prácticamente ps pero vale la pena', 'profileUrl': 'https://www.facebook.com/david.santiago.500055', 'profilePicture': 'https://scontent-sea1-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=_YrXabF6_a4Q7kNvwFLL39s&amp;_nc_oc=AdmwTrdbVCo_61C_1YGVl9vGuXDETRgvfVVDwpT9BpidvxrydahGjdohSVvBwFIqvj4&amp;_nc_zt=24&amp;_nc_ht=scontent-sea1-1.xx&amp;oh=00_Afg937cCTIrHfBRjBD3gWsqTeE0t3Qb-pUPm8QZWj0JEfg&amp;oe=695241BA', 'profileId': 'pfbid0xxrQCWWEZJcbe1WAHBrFCyFESGdu4LW8dwZdv68TbqRtchX8EU9Q5bJNeZVJAbR5l', 'profileName': 'Santiago Yarce', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02usRJDYDTezG2FtUcF5MDjWn7HQKay6mHRSdzX3DPJNuja9us9xYiMrxfBAfMDhS6l?comment_id=861351922903088', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzg2MTM1MTkyMjkwMzA4OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV84NjEzNTE5MjI5MDMwODg=', 'date': '2025-11-25T05:11:04.000Z', 'text': 'Esq eso era muy caro un riñón prácticamente ps pero vale la pena', 'profileUrl': 'https://www.facebook.com/david.santiago.500055', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=_YrXabF6_a4Q7kNvwFO0mqi&amp;_nc_oc=AdnlmSvdzGMcPNXkK2PvrGJH8EAQrmvB1BXq9YsE_4X4MZT2x3H8jeQXcUoa5hD7N0c&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;oh=00_AfhDSMVd0hWln0VhIKkUEulJBAz3HZcmtGioPpiLNGCuJA&amp;oe=6953933A', 'profileId': 'pfbid032pJ7PBS4Qp2caqDL7fVhkiZbdUN48zTStPRLWYcBN31CWXZtaYZSDrMpb1c73b2Tl', 'profileName': 'Santiago Yarce', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1547,7 @@
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0rVw7bWrqdFq14LHMzB6JRwFGUMf5Qznk3v5XTnRJnpQzJyFJKkFTEQ2d7RkmUE9tl?comment_id=1492643212034403', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzE0OTI2NDMyMTIwMzQ0MDM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV8xNDkyNjQzMjEyMDM0NDAz', 'date': '2025-11-29T05:05:47.000Z', 'text': '🤢🤢🤢🤢🤢🤢', 'profileUrl': 'https://www.facebook.com/phi.ihp.m.st', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/587373258_25130414433247899_5913904079755010985_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=YZYec_XpVncQ7kNvwHZXZN8&amp;_nc_oc=AdnlPF5f_7B-EIr41sdXdehR8CjB_5g7X_U2JJsZ_efgsqsxiXxnAkXh6kXTWe6xwcI&amp;_nc_zt=24&amp;_nc_ht=scontent-sea5-1.xx&amp;_nc_gid=_ZbZ2qMACCQDjwMEX0ojzg&amp;oh=00_Afjp1ycan8bXIu7ZF1t7aCAtEVDQWD2wr5H-qXCFQYLD6g&amp;oe=6930BF88', 'profileId': '100001180676053', 'profileName': 'Philihp Most', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02usRJDYDTezG2FtUcF5MDjWn7HQKay6mHRSdzX3DPJNuja9us9xYiMrxfBAfMDhS6l?comment_id=1492643212034403', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzE0OTI2NDMyMTIwMzQ0MDM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV8xNDkyNjQzMjEyMDM0NDAz', 'date': '2025-11-29T05:05:47.000Z', 'text': '🤢🤢🤢🤢🤢🤢', 'profileUrl': 'https://www.facebook.com/phi.ihp.m.st', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/587373258_25130414433247899_5913904079755010985_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=M-MsW1Z2EZoQ7kNvwHTiBJv&amp;_nc_oc=Adlh-3ht6wQSHOWmUUIPAABFU-G1fx97iTXWCzcptQ25AezXI-Ao8qT7Bb7WfSEGY20&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=b4FrfEzG6-her4lxANE9Qw&amp;oh=00_AfjPYKPKINMPpXGpIVMHR19PAAu2TQaAZ7XhoS38a6cVog&amp;oe=69321108', 'profileId': '100001180676053', 'profileName': 'Philihp Most', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
         </is>
       </c>
     </row>
@@ -1587,7 +1601,7 @@
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0rVw7bWrqdFq14LHMzB6JRwFGUMf5Qznk3v5XTnRJnpQzJyFJKkFTEQ2d7RkmUE9tl?comment_id=1607733953555567', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzE2MDc3MzM5NTM1NTU1Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV8xNjA3NzMzOTUzNTU1NTY3', 'date': '2025-11-28T16:04:17.000Z', 'text': 'No uno ni ninguno, tiene dos grandes sellos negros que en vez de octágono debería ser una calavera como la de los venenos…. Y que tal cual como mi infancia?, ahí éramos unos borregos desinformados.', 'profileUrl': 'https://www.facebook.com/afropec', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/490409852_10162510826967840_8522457028365180728_n.jpg?stp=cp6_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=SPK7Q8KpuSMQ7kNvwEPE3Od&amp;_nc_oc=AdmPGSBkiXGVyqDpr6IWatSbZyJzu7Xz2ZylNqSioVXBhkSETE_37CeFcZIBjKc7CL4&amp;_nc_zt=24&amp;_nc_ht=scontent-sea5-1.xx&amp;_nc_gid=_ZbZ2qMACCQDjwMEX0ojzg&amp;oh=00_AfhDIov8xR3FrdGV2lVBVjwTt6HYUiFWsQMwBo8tK3h2Qw&amp;oe=6930BD7D', 'profileId': 'pfbid0dPLLWMVdjVjpHYSHaz9XC4rbe3tHtzqtDfHnWwaGdgbnHuzdhTpsScgk78Bnd5ql', 'profileName': 'Camilo Gonzalez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02usRJDYDTezG2FtUcF5MDjWn7HQKay6mHRSdzX3DPJNuja9us9xYiMrxfBAfMDhS6l?comment_id=1607733953555567', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzE2MDc3MzM5NTM1NTU1Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV8xNjA3NzMzOTUzNTU1NTY3', 'date': '2025-11-28T16:04:17.000Z', 'text': 'No uno ni ninguno, tiene dos grandes sellos negros que en vez de octágono debería ser una calavera como la de los venenos…. Y que tal cual como mi infancia?, ahí éramos unos borregos desinformados.', 'profileUrl': 'https://www.facebook.com/afropec', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/490409852_10162510826967840_8522457028365180728_n.jpg?stp=cp6_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=SPK7Q8KpuSMQ7kNvwHyyiD-&amp;_nc_oc=Adk9DQPVVsCSjpPYqh2dMMaetnraEhWuM69Frkw0pZzdBR2paB1YiCrcyS9mV-pv4To&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=b4FrfEzG6-her4lxANE9Qw&amp;oh=00_AfiXkVDkdkSTBysRybjGUTE5BBmYatjP8J6EW8gR8TylOw&amp;oe=69320EFD', 'profileId': 'pfbid025Uq3XBHKUyE5NPZ5apKRKrVCNM995bQkSEycT2f6YPiPti27WDoe4uWF2yxQ3NKsl', 'profileName': 'Camilo Gonzalez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258767769622301', 'postTitle': 'Para unos un sabor inolvidable, para otros un recuerdo borroso 🤔 Descúbrelo con Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/'}</t>
         </is>
       </c>
     </row>
@@ -1613,18 +1627,18 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>El kumis es pura agua y dulce</t>
+          <t>❤️❤️</t>
         </is>
       </c>
       <c r="G24" s="2" t="n">
-        <v>45987.08174768519</v>
+        <v>45991.11601851852</v>
       </c>
       <c r="H24" s="3" t="n">
-        <v>45987</v>
+        <v>45991</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>01:57:43</t>
+          <t>02:47:04</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1641,7 +1655,7 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767296289015/', 'commentUrl': 'https://www.facebook.com/reel/1837323323843066/?comment_id=829490193278336', 'id': 'Y29tbWVudDoxMjU4NzY4OTYyOTU1NTE1XzgyOTQ5MDE5MzI3ODMzNg==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2ODk2Mjk1NTUxNV84Mjk0OTAxOTMyNzgzMzY=', 'date': '2025-11-26T01:57:43.000Z', 'text': 'El kumis es pura agua y dulce', 'profileUrl': 'https://www.facebook.com/yohana.martin.77178', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/577764354_767711772971306_3406793745669722656_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=fuYJquGA4xUQ7kNvwGbE26U&amp;_nc_oc=AdmKleGA8ybXgy_kUiSlTxznWlFl5iGfEJcBt_1_qYOxfvE9XlUZAZrgfqlLsUs5dXU&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=QhMlyKf3hP3S9wBuD5jPXQ&amp;oh=00_AfibTmyeZbBwJogZdJgJdb4fA0lSDpG5Mo-mOa2jpXy9aQ&amp;oe=6930BFF0', 'profileId': 'pfbid029z4NKVL2TyLG1VLs5PZvh5GQCjuSXSSejdcyhSgKjFkYujxsPbKZ4om2y81WqckEl', 'profileName': 'Yohana Martin', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258768962955515', 'postTitle': 'Dicen que uno vuelve a lo que lo hizo feliz 🤎 Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate. ¿Ya lo probaste?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767296289015/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767296289015/', 'commentUrl': 'https://www.facebook.com/reel/1837323323843066/?comment_id=1357790255269000', 'id': 'Y29tbWVudDoxMjU4NzY4OTYyOTU1NTE1XzEzNTc3OTAyNTUyNjkwMDA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2ODk2Mjk1NTUxNV8xMzU3NzkwMjU1MjY5MDAw', 'date': '2025-11-30T02:47:04.000Z', 'text': '❤️❤️', 'profileUrl': 'https://www.facebook.com/alejandro.edgardo.coral', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/571307817_748613468200931_6408110263600879559_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=XGbG87w7B8EQ7kNvwEku8DE&amp;_nc_oc=AdnMvT6xAauSbSJD5KvmSRv0rwo0Q78h_9X4fz-Yy7DgnseJTdnkYVIq2EkC5EKG-_EeKsSF_GfxCFLRHvFUuyb9&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=_gflh3kDnb3oHyr1nCNSKw&amp;oh=00_Afg1B9D28eD2QVPpzClTphpjAeK4FCz9Vpte1YjzCb1tRw&amp;oe=6931F8ED', 'profileId': 'pfbid07s6D4DKG52KqM1dHvzFk7pd9VtXJ4TnWSGooRZUkcBqXZR3WKf2LhEj9T7Fi5j6Yl', 'profileName': 'Alejandro Edgardo Coral', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258768962955515', 'postTitle': 'Dicen que uno vuelve a lo que lo hizo feliz 🤎 Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate. ¿Ya lo probaste?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767296289015/'}</t>
         </is>
       </c>
     </row>
@@ -1667,18 +1681,18 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>un bonyort a esta hora uff no me encanta mucho</t>
+          <t>El kumis es pura agua y dulce</t>
         </is>
       </c>
       <c r="G25" s="2" t="n">
-        <v>45989.12140046297</v>
+        <v>45987.08174768519</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>45989</v>
+        <v>45987</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>02:54:49</t>
+          <t>01:57:43</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1695,7 +1709,7 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767296289015/', 'commentUrl': 'https://www.facebook.com/reel/1837323323843066/?comment_id=1290898106398272', 'id': 'Y29tbWVudDoxMjU4NzY4OTYyOTU1NTE1XzEyOTA4OTgxMDYzOTgyNzI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2ODk2Mjk1NTUxNV8xMjkwODk4MTA2Mzk4Mjcy', 'date': '2025-11-28T02:54:49.000Z', 'text': 'un bonyort a esta hora uff no me encanta mucho', 'profileUrl': 'https://www.facebook.com/edith.pineda.994628', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/586515673_122149885658855042_1839722494053972743_n.jpg?stp=c0.0.144.144a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=OuK10wG2-ysQ7kNvwGrOPKN&amp;_nc_oc=AdnL2qGpxQY0yYM5lI3eRl0APglc-GRAewK8xjsjwWz1r3G-stTzgxcencw0A9Pms1k&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=QhMlyKf3hP3S9wBuD5jPXQ&amp;oh=00_AfgAErAvRN4GFeV1V_6gqxYbJJJsDxFpc2_RgYCSYLL7Gw&amp;oe=6930A5C5', 'profileId': 'pfbid02vcZGzMhLX5qjoTLVUrD4mTMWdNmGQYye6ma3vmLfUh5hXQj1MMQsceyG673kvcuVl', 'profileName': 'Luz Mayorly Pineda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258768962955515', 'postTitle': 'Dicen que uno vuelve a lo que lo hizo feliz 🤎 Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate. ¿Ya lo probaste?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767296289015/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767296289015/', 'commentUrl': 'https://www.facebook.com/reel/1837323323843066/?comment_id=829490193278336', 'id': 'Y29tbWVudDoxMjU4NzY4OTYyOTU1NTE1XzgyOTQ5MDE5MzI3ODMzNg==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2ODk2Mjk1NTUxNV84Mjk0OTAxOTMyNzgzMzY=', 'date': '2025-11-26T01:57:43.000Z', 'text': 'El kumis es pura agua y dulce', 'profileUrl': 'https://www.facebook.com/yohana.martin.77178', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/577764354_767711772971306_3406793745669722656_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=fuYJquGA4xUQ7kNvwHJQdam&amp;_nc_oc=AdkA8PhyOedkILLpQbZiomUTqeir3lpMivIJnabfItsQaY6Lu-DhdUmRhY7TLDE-UVlsX97AGAnymMcOnor9PyYr&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=_gflh3kDnb3oHyr1nCNSKw&amp;oh=00_AfiodMJIB1CB7NSlaRPFm5EiCy_0VdAul5YdX_C3Tj7Xeg&amp;oe=69321170', 'profileId': 'pfbid05xTeqg8TntQK9Qgw383sGS9iTXtS4EeRBYRmPcDfAGwfjC9SGfjHhxRiMtMUuwHrl', 'profileName': 'Yohana Martin', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258768962955515', 'postTitle': 'Dicen que uno vuelve a lo que lo hizo feliz 🤎 Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate. ¿Ya lo probaste?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767296289015/'}</t>
         </is>
       </c>
     </row>
@@ -1721,18 +1735,18 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Y la de su hijo cuando sale,o por esa sentencia que la oculten.</t>
+          <t>un bonyort a esta hora uff no me encanta mucho</t>
         </is>
       </c>
       <c r="G26" s="2" t="n">
-        <v>45987.12476851852</v>
+        <v>45989.12140046297</v>
       </c>
       <c r="H26" s="3" t="n">
-        <v>45987</v>
+        <v>45989</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>02:59:40</t>
+          <t>02:54:49</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1749,13 +1763,13 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767296289015/', 'commentUrl': 'https://www.facebook.com/reel/1837323323843066/?comment_id=1995575221176205', 'id': 'Y29tbWVudDoxMjU4NzY4OTYyOTU1NTE1XzE5OTU1NzUyMjExNzYyMDU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2ODk2Mjk1NTUxNV8xOTk1NTc1MjIxMTc2MjA1', 'date': '2025-11-26T02:59:40.000Z', 'text': 'Y la de su hijo cuando sale,o por esa sentencia que la oculten.', 'profileUrl': 'https://www.facebook.com/people/Maria-Alejo/pfbid02h4ToZZ7a7o8afAVWGSPUKgKKa7PQYS7aAUbTTt8W9i6TYppcP7zJZSSXDU6XCU8Dl/', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t1.6435-1/118594516_1604675779692468_1002436422543398699_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=xK60Fqw391MQ7kNvwExSoBK&amp;_nc_oc=Adn7luxp_5HlEGC_q9F2uyQOSqEXtMqe7tKtrcZSUYMqMkig6e7VqmaYP7G3OVNHy78&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=QhMlyKf3hP3S9wBuD5jPXQ&amp;oh=00_Afh2LVCCglsdpS7ohzMW3EiJbDiZIvNFSIVmKWR0hGpABQ&amp;oe=695269A9', 'profileId': 'pfbid02h4ToZZ7a7o8afAVWGSPUKgKKa7PQYS7aAUbTTt8W9i6TYppcP7zJZSSXDU6XCU8Dl', 'profileName': 'Maria Alejo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258768962955515', 'postTitle': 'Dicen que uno vuelve a lo que lo hizo feliz 🤎 Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate. ¿Ya lo probaste?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767296289015/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767296289015/', 'commentUrl': 'https://www.facebook.com/reel/1837323323843066/?comment_id=1290898106398272', 'id': 'Y29tbWVudDoxMjU4NzY4OTYyOTU1NTE1XzEyOTA4OTgxMDYzOTgyNzI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2ODk2Mjk1NTUxNV8xMjkwODk4MTA2Mzk4Mjcy', 'date': '2025-11-28T02:54:49.000Z', 'text': 'un bonyort a esta hora uff no me encanta mucho', 'profileUrl': 'https://www.facebook.com/edith.pineda.994628', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/586515673_122149885658855042_1839722494053972743_n.jpg?stp=c0.0.144.144a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=uerBMtwkCJsQ7kNvwGKpqdv&amp;_nc_oc=Adnwmux46mjZXvrzh1_88fKgXBYoQ6dnd5LHjJ7aZ03ZInX0v3KsINIba4_RRoq8_YAmdijjy_K8V5LTyf_275OK&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=_gflh3kDnb3oHyr1nCNSKw&amp;oh=00_AfhWrhkiOZ5sV_tdtZuQrmDuJ_mRMOPT5ObDzNasRkovcw&amp;oe=6931F745', 'profileId': 'pfbid0s4v65C4yfyVqPXNuzaawTJr4mcDBCg9Z9bSu5P58jJXAU3yA2pkRjBh2QzdxyKKQl', 'profileName': 'Luz Mayorly Pineda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258768962955515', 'postTitle': 'Dicen que uno vuelve a lo que lo hizo feliz 🤎 Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate. ¿Ya lo probaste?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767296289015/'}</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1769,16 +1783,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258767296289015/</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>0</v>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Y la de su hijo cuando sale,o por esa sentencia que la oculten.</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>45987.12476851852</v>
+      </c>
+      <c r="H27" s="3" t="n">
+        <v>45987</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>02:59:40</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -1789,13 +1817,13 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767296289015/', 'commentUrl': 'https://www.facebook.com/reel/1837323323843066/?comment_id=1995575221176205', 'id': 'Y29tbWVudDoxMjU4NzY4OTYyOTU1NTE1XzE5OTU1NzUyMjExNzYyMDU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2ODk2Mjk1NTUxNV8xOTk1NTc1MjIxMTc2MjA1', 'date': '2025-11-26T02:59:40.000Z', 'text': 'Y la de su hijo cuando sale,o por esa sentencia que la oculten.', 'profileUrl': 'https://www.facebook.com/people/Maria-Alejo/pfbid0dWpcePVDGVPobC4B6PEiMBK1gR9cFejjZW5Rf1zEKZxhfG9ecAWqzzatDa5jyi76l/', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t1.6435-1/118594516_1604675779692468_1002436422543398699_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=xK60Fqw391MQ7kNvwEcbI0n&amp;_nc_oc=AdluNRcsiH9ejsfe-25xgEBGXwUUc8ZkIh5e8TT2wiNboI2iKNC5bVPrjdnGpWwAloWhhnzcz2W_itJ8t3E_3sU8&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=_gflh3kDnb3oHyr1nCNSKw&amp;oh=00_AfjWK0eGfvcmjIM0vAuO-g4Dv3yfX_zAC3dw2WNL7Iu1iA&amp;oe=6953BB29', 'profileId': 'pfbid0dWpcePVDGVPobC4B6PEiMBK1gR9cFejjZW5Rf1zEKZxhfG9ecAWqzzatDa5jyi76l', 'profileName': 'Maria Alejo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258768962955515', 'postTitle': 'Dicen que uno vuelve a lo que lo hizo feliz 🤎 Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate. ¿Ya lo probaste?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767296289015/'}</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1809,16 +1837,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258767296289015/</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>0</v>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Yo la voy a ir a buscar tu país cualquier rato le caigo</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>45991.11591435185</v>
+      </c>
+      <c r="H28" s="3" t="n">
+        <v>45991</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>02:46:55</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -1829,13 +1871,13 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767296289015/', 'commentUrl': 'https://www.facebook.com/reel/1837323323843066/?comment_id=827273963456347', 'id': 'Y29tbWVudDoxMjU4NzY4OTYyOTU1NTE1XzgyNzI3Mzk2MzQ1NjM0Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2ODk2Mjk1NTUxNV84MjcyNzM5NjM0NTYzNDc=', 'date': '2025-11-30T02:46:55.000Z', 'text': 'Yo la voy a ir a buscar tu país cualquier rato le caigo', 'profileUrl': 'https://www.facebook.com/alejandro.edgardo.coral', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/571307817_748613468200931_6408110263600879559_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=XGbG87w7B8EQ7kNvwEku8DE&amp;_nc_oc=AdnMvT6xAauSbSJD5KvmSRv0rwo0Q78h_9X4fz-Yy7DgnseJTdnkYVIq2EkC5EKG-_EeKsSF_GfxCFLRHvFUuyb9&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=_gflh3kDnb3oHyr1nCNSKw&amp;oh=00_Afg1B9D28eD2QVPpzClTphpjAeK4FCz9Vpte1YjzCb1tRw&amp;oe=6931F8ED', 'profileId': 'pfbid07s6D4DKG52KqM1dHvzFk7pd9VtXJ4TnWSGooRZUkcBqXZR3WKf2LhEj9T7Fi5j6Yl', 'profileName': 'Alejandro Edgardo Coral', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1258768962955515', 'postTitle': 'Dicen que uno vuelve a lo que lo hizo feliz 🤎 Bon Yurt Morenitas con galletas cubiertas con sabor a chocolate. ¿Ya lo probaste?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '531043963745177'}, 'inputUrl': 'https://www.facebook.com/100064672685926/posts/1258767296289015/'}</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1849,7 +1891,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://adsmanager.facebook.com/adsmanager/manage/ads</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -1869,17 +1911,17 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>{'url': 'https://adsmanager.facebook.com/adsmanager/manage/ads', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1889,7 +1931,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DRcmY2BAIwj/</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -1906,24 +1948,20 @@
       <c r="L30" t="b">
         <v>0</v>
       </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DRcmY2BAIwj/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1933,7 +1971,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DRcmcJbgDUW/</t>
+          <t>https://adsmanager.facebook.com/adsmanager/manage/ads</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -1950,20 +1988,16 @@
       <c r="L31" t="b">
         <v>0</v>
       </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DRcmcJbgDUW/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://adsmanager.facebook.com/adsmanager/manage/ads', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1977,7 +2011,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DRcmTd6gJGA/</t>
+          <t>https://www.instagram.com/p/DRcmY2BAIwj/</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -2000,6 +2034,94 @@
         </is>
       </c>
       <c r="N32" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DRcmY2BAIwj/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>16</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRcmcJbgDUW/</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DRcmcJbgDUW/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>17</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRcmTd6gJGA/</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>{'url': 'https://www.instagram.com/p/DRcmTd6gJGA/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
@@ -2236,8 +2358,10 @@
       <c r="D10" t="n">
         <v>1</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -2278,11 +2402,11 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>000</t>
+          <t>00000</t>
         </is>
       </c>
     </row>
